--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\插件\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DCD856-A08B-4F79-85F7-F3E63D852DF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7487B433-C621-40E3-8580-CEBE22C798DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$M$281</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">战士!$D$1:$D$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$K$348</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">战士!$B$1:$F$18</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="150">
   <si>
     <t>副本名称</t>
   </si>
@@ -281,19 +281,270 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>武器
+(暴击、急速)
+没有手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公测新飞机头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸饼干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅猛龙枯骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁甲脚</t>
+  </si>
+  <si>
+    <t>锁甲脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲脚</t>
+  </si>
+  <si>
+    <t>布甲脚</t>
+  </si>
+  <si>
+    <t>皮甲脚</t>
+  </si>
+  <si>
+    <t>奥迪尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双手剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双手锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单手锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单手战刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匕首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单手斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单手剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>披风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁甲护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布甲护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁甲手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮甲手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布甲手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮甲腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁甲腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁甲腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布甲腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮甲腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布甲脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮甲脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁甲脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷/智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量/智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力/智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量/敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>34</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
+      <t>355</t>
     </r>
     <r>
       <rPr>
@@ -319,248 +570,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武器
-(暴击、急速)
-没有手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测新飞机头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咸饼干</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迅猛龙枯骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁甲脚</t>
-  </si>
-  <si>
-    <t>锁甲脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板甲脚</t>
-  </si>
-  <si>
-    <t>布甲脚</t>
-  </si>
-  <si>
-    <t>皮甲脚</t>
-  </si>
-  <si>
-    <r>
-      <t>345</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>360</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥迪尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双手剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长柄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双手锤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单手锤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单手战刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>匕首</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拳套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单手斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单手剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪械</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>披风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁甲护腕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布甲护腕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板甲护腕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁甲手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮甲手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布甲手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮甲腰带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁甲腰带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板甲腰带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁甲腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布甲腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮甲腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板甲腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布甲脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮甲脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁甲脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板甲脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饰品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,14 +681,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,11 +1003,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:M348"/>
+  <dimension ref="D1:L348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G286" sqref="G286"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -998,10 +1017,10 @@
     <col min="6" max="6" width="20.21875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -1026,12 +1045,11 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -1051,7 +1069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -1071,7 +1089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>9</v>
       </c>
@@ -1091,7 +1109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -1111,7 +1129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -1128,7 +1146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>9</v>
       </c>
@@ -1142,7 +1160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -1156,7 +1174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>9</v>
       </c>
@@ -1176,7 +1194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>9</v>
       </c>
@@ -1196,7 +1214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>9</v>
       </c>
@@ -1216,7 +1234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -1236,7 +1254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>9</v>
       </c>
@@ -1256,7 +1274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>9</v>
       </c>
@@ -1276,7 +1294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>9</v>
       </c>
@@ -1296,7 +1314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>9</v>
       </c>
@@ -1304,7 +1322,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
@@ -1316,7 +1334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>9</v>
       </c>
@@ -1324,7 +1342,7 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
@@ -1336,7 +1354,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>9</v>
       </c>
@@ -1356,7 +1374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>9</v>
       </c>
@@ -1376,7 +1394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>9</v>
       </c>
@@ -1393,7 +1411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -1413,7 +1431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>9</v>
       </c>
@@ -1433,7 +1451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>9</v>
       </c>
@@ -1453,7 +1471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>9</v>
       </c>
@@ -1461,7 +1479,7 @@
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -1473,7 +1491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +1505,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>9</v>
       </c>
@@ -1507,7 +1525,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>9</v>
       </c>
@@ -1527,7 +1545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>9</v>
       </c>
@@ -1544,7 +1562,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>9</v>
       </c>
@@ -1558,7 +1576,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1568,9 +1586,8 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>45</v>
       </c>
@@ -1590,7 +1607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>45</v>
       </c>
@@ -1738,7 +1755,7 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I39" t="s">
         <v>12</v>
@@ -1758,7 +1775,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
@@ -1878,7 +1895,7 @@
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s">
         <v>12</v>
@@ -1924,7 +1941,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>45</v>
       </c>
@@ -1938,7 +1955,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>45</v>
       </c>
@@ -1958,7 +1975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>45</v>
       </c>
@@ -1978,7 +1995,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>45</v>
       </c>
@@ -1998,7 +2015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>45</v>
       </c>
@@ -2018,7 +2035,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>45</v>
       </c>
@@ -2038,7 +2055,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>45</v>
       </c>
@@ -2052,7 +2069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>45</v>
       </c>
@@ -2072,7 +2089,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>45</v>
       </c>
@@ -2092,7 +2109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>45</v>
       </c>
@@ -2106,7 +2123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2116,9 +2133,8 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>55</v>
       </c>
@@ -2138,29 +2154,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D61" s="12" t="s">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D61" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F61" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K61" s="12" t="s">
+      <c r="G61" s="10"/>
+      <c r="H61" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K61" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>55</v>
       </c>
@@ -2180,7 +2196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>55</v>
       </c>
@@ -2200,7 +2216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>55</v>
       </c>
@@ -2365,7 +2381,7 @@
         <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H72" t="s">
         <v>12</v>
@@ -2519,7 +2535,7 @@
         <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H80" t="s">
         <v>12</v>
@@ -2531,7 +2547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>55</v>
       </c>
@@ -2539,7 +2555,7 @@
         <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
@@ -2551,7 +2567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>55</v>
       </c>
@@ -2565,7 +2581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>55</v>
       </c>
@@ -2585,7 +2601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>55</v>
       </c>
@@ -2605,7 +2621,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>55</v>
       </c>
@@ -2625,7 +2641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>55</v>
       </c>
@@ -2639,7 +2655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2649,9 +2665,8 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-    </row>
-    <row r="88" spans="4:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>59</v>
       </c>
@@ -2671,7 +2686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>59</v>
       </c>
@@ -2691,7 +2706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>59</v>
       </c>
@@ -2711,7 +2726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>59</v>
       </c>
@@ -2731,7 +2746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>59</v>
       </c>
@@ -2751,7 +2766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>59</v>
       </c>
@@ -2771,7 +2786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>59</v>
       </c>
@@ -2791,7 +2806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>59</v>
       </c>
@@ -2811,7 +2826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>59</v>
       </c>
@@ -2919,7 +2934,7 @@
         <v>21</v>
       </c>
       <c r="F101" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" t="s">
         <v>12</v>
@@ -2939,7 +2954,7 @@
         <v>21</v>
       </c>
       <c r="F102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H102" t="s">
         <v>12</v>
@@ -3093,7 +3108,7 @@
         <v>31</v>
       </c>
       <c r="F110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G110" t="s">
         <v>12</v>
@@ -3139,7 +3154,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
         <v>59</v>
       </c>
@@ -3147,13 +3162,13 @@
         <v>40</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K113" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="114" spans="4:13" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="114" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -3163,9 +3178,8 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-    </row>
-    <row r="115" spans="4:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
         <v>61</v>
       </c>
@@ -3185,7 +3199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
         <v>61</v>
       </c>
@@ -3205,7 +3219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
         <v>61</v>
       </c>
@@ -3225,7 +3239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
         <v>61</v>
       </c>
@@ -3245,7 +3259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
         <v>61</v>
       </c>
@@ -3265,7 +3279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
         <v>61</v>
       </c>
@@ -3285,7 +3299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
         <v>61</v>
       </c>
@@ -3305,7 +3319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
         <v>61</v>
       </c>
@@ -3325,7 +3339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
         <v>61</v>
       </c>
@@ -3333,7 +3347,7 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H123" t="s">
         <v>12</v>
@@ -3345,7 +3359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
         <v>61</v>
       </c>
@@ -3365,7 +3379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
         <v>61</v>
       </c>
@@ -3385,7 +3399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
         <v>61</v>
       </c>
@@ -3405,7 +3419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
         <v>61</v>
       </c>
@@ -3425,7 +3439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
         <v>61</v>
       </c>
@@ -3581,7 +3595,7 @@
         <v>31</v>
       </c>
       <c r="F136" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G136" t="s">
         <v>12</v>
@@ -3695,7 +3709,7 @@
         <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G142" t="s">
         <v>12</v>
@@ -3741,7 +3755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
         <v>61</v>
       </c>
@@ -3761,7 +3775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -3771,31 +3785,30 @@
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-    </row>
-    <row r="147" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D147" s="12" t="s">
+    </row>
+    <row r="147" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D147" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E147" s="12" t="s">
+      <c r="E147" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F147" s="12" t="s">
+      <c r="F147" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I147" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J147" s="12"/>
-      <c r="K147" s="12" t="s">
+      <c r="G147" s="10"/>
+      <c r="H147" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J147" s="10"/>
+      <c r="K147" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
         <v>64</v>
       </c>
@@ -3812,7 +3825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
         <v>64</v>
       </c>
@@ -3832,7 +3845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
         <v>64</v>
       </c>
@@ -3852,7 +3865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
         <v>64</v>
       </c>
@@ -3872,7 +3885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
         <v>64</v>
       </c>
@@ -3880,7 +3893,7 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G152" t="s">
         <v>12</v>
@@ -3892,7 +3905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
         <v>64</v>
       </c>
@@ -3912,7 +3925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
         <v>64</v>
       </c>
@@ -3932,7 +3945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
         <v>64</v>
       </c>
@@ -3952,7 +3965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
         <v>64</v>
       </c>
@@ -3972,7 +3985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
         <v>64</v>
       </c>
@@ -3992,7 +4005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
         <v>64</v>
       </c>
@@ -4012,7 +4025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
         <v>64</v>
       </c>
@@ -4020,7 +4033,7 @@
         <v>21</v>
       </c>
       <c r="F159" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G159" t="s">
         <v>12</v>
@@ -4032,7 +4045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
         <v>64</v>
       </c>
@@ -4052,7 +4065,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="161" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
         <v>64</v>
       </c>
@@ -4072,7 +4085,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
         <v>64</v>
       </c>
@@ -4092,7 +4105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
         <v>64</v>
       </c>
@@ -4112,7 +4125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
         <v>64</v>
       </c>
@@ -4132,7 +4145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
         <v>64</v>
       </c>
@@ -4152,7 +4165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
         <v>64</v>
       </c>
@@ -4172,7 +4185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
         <v>64</v>
       </c>
@@ -4192,7 +4205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
         <v>64</v>
       </c>
@@ -4212,7 +4225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
         <v>64</v>
       </c>
@@ -4220,7 +4233,7 @@
         <v>31</v>
       </c>
       <c r="F169" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G169" t="s">
         <v>12</v>
@@ -4232,7 +4245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
         <v>64</v>
       </c>
@@ -4252,7 +4265,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
         <v>64</v>
       </c>
@@ -4266,7 +4279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
         <v>64</v>
       </c>
@@ -4274,13 +4287,13 @@
         <v>40</v>
       </c>
       <c r="F172" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K172" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K172" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="173" spans="4:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -4290,9 +4303,8 @@
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
-      <c r="M173" s="1"/>
-    </row>
-    <row r="174" spans="4:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
         <v>67</v>
       </c>
@@ -4312,7 +4324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D175" t="s">
         <v>67</v>
       </c>
@@ -4332,7 +4344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
         <v>67</v>
       </c>
@@ -4420,7 +4432,7 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G180" t="s">
         <v>12</v>
@@ -4657,7 +4669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D193" t="s">
         <v>67</v>
       </c>
@@ -4677,7 +4689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
         <v>67</v>
       </c>
@@ -4685,7 +4697,7 @@
         <v>31</v>
       </c>
       <c r="F194" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G194" t="s">
         <v>12</v>
@@ -4697,7 +4709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D195" t="s">
         <v>67</v>
       </c>
@@ -4717,7 +4729,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="196" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D196" t="s">
         <v>67</v>
       </c>
@@ -4731,7 +4743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="197" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D197" t="s">
         <v>67</v>
       </c>
@@ -4742,7 +4754,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="198" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
         <v>67</v>
       </c>
@@ -4762,7 +4774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
         <v>67</v>
       </c>
@@ -4782,7 +4794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D200" t="s">
         <v>67</v>
       </c>
@@ -4790,7 +4802,7 @@
         <v>40</v>
       </c>
       <c r="F200" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I200" t="s">
         <v>12</v>
@@ -4802,7 +4814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D201" t="s">
         <v>67</v>
       </c>
@@ -4816,7 +4828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -4826,9 +4838,8 @@
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
-      <c r="M202" s="1"/>
-    </row>
-    <row r="203" spans="4:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
         <v>70</v>
       </c>
@@ -4848,7 +4859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D204" t="s">
         <v>70</v>
       </c>
@@ -4868,7 +4879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
         <v>70</v>
       </c>
@@ -4888,7 +4899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
         <v>70</v>
       </c>
@@ -4896,7 +4907,7 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H206" t="s">
         <v>12</v>
@@ -4908,7 +4919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
         <v>70</v>
       </c>
@@ -4928,7 +4939,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="208" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
         <v>70</v>
       </c>
@@ -5024,7 +5035,7 @@
         <v>21</v>
       </c>
       <c r="F213" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G213" t="s">
         <v>12</v>
@@ -5044,7 +5055,7 @@
         <v>21</v>
       </c>
       <c r="F214" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I214" t="s">
         <v>12</v>
@@ -5229,7 +5240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D225" t="s">
         <v>70</v>
       </c>
@@ -5249,7 +5260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D226" t="s">
         <v>70</v>
       </c>
@@ -5263,7 +5274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
@@ -5273,9 +5284,8 @@
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
-      <c r="M227" s="1"/>
-    </row>
-    <row r="228" spans="4:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D228" t="s">
         <v>72</v>
       </c>
@@ -5295,7 +5305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D229" t="s">
         <v>72</v>
       </c>
@@ -5315,7 +5325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
         <v>72</v>
       </c>
@@ -5335,7 +5345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D231" t="s">
         <v>72</v>
       </c>
@@ -5355,7 +5365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D232" t="s">
         <v>72</v>
       </c>
@@ -5375,7 +5385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D233" t="s">
         <v>72</v>
       </c>
@@ -5383,7 +5393,7 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H233" t="s">
         <v>12</v>
@@ -5395,7 +5405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
         <v>72</v>
       </c>
@@ -5403,7 +5413,7 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G234" t="s">
         <v>12</v>
@@ -5415,7 +5425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D235" t="s">
         <v>72</v>
       </c>
@@ -5429,7 +5439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D236" t="s">
         <v>72</v>
       </c>
@@ -5449,7 +5459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D237" t="s">
         <v>72</v>
       </c>
@@ -5469,7 +5479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
         <v>72</v>
       </c>
@@ -5489,7 +5499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D239" t="s">
         <v>72</v>
       </c>
@@ -5509,7 +5519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
         <v>72</v>
       </c>
@@ -5529,7 +5539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
         <v>72</v>
       </c>
@@ -5549,7 +5559,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="242" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
         <v>72</v>
       </c>
@@ -5563,7 +5573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
         <v>72</v>
       </c>
@@ -5583,7 +5593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
         <v>72</v>
       </c>
@@ -5603,7 +5613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
         <v>72</v>
       </c>
@@ -5623,7 +5633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D246" t="s">
         <v>72</v>
       </c>
@@ -5640,7 +5650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
         <v>72</v>
       </c>
@@ -5660,7 +5670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D248" t="s">
         <v>72</v>
       </c>
@@ -5680,7 +5690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
         <v>72</v>
       </c>
@@ -5688,7 +5698,7 @@
         <v>31</v>
       </c>
       <c r="F249" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H249" t="s">
         <v>12</v>
@@ -5700,7 +5710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
         <v>72</v>
       </c>
@@ -5708,7 +5718,7 @@
         <v>31</v>
       </c>
       <c r="F250" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G250" t="s">
         <v>12</v>
@@ -5720,7 +5730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
         <v>72</v>
       </c>
@@ -5734,7 +5744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="252" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
         <v>72</v>
       </c>
@@ -5754,7 +5764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
         <v>72</v>
       </c>
@@ -5774,7 +5784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
         <v>72</v>
       </c>
@@ -5782,13 +5792,13 @@
         <v>40</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K254" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="255" spans="4:13" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="255" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
@@ -5798,9 +5808,8 @@
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
-      <c r="M255" s="1"/>
-    </row>
-    <row r="256" spans="4:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
         <v>74</v>
       </c>
@@ -5928,7 +5937,7 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H262" t="s">
         <v>12</v>
@@ -6108,7 +6117,7 @@
         <v>21</v>
       </c>
       <c r="F271" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H271" t="s">
         <v>12</v>
@@ -6128,7 +6137,7 @@
         <v>21</v>
       </c>
       <c r="F272" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G272" t="s">
         <v>12</v>
@@ -6140,7 +6149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
         <v>74</v>
       </c>
@@ -6154,7 +6163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
         <v>74</v>
       </c>
@@ -6174,7 +6183,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
         <v>74</v>
       </c>
@@ -6194,7 +6203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D276" t="s">
         <v>74</v>
       </c>
@@ -6214,7 +6223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D277" t="s">
         <v>74</v>
       </c>
@@ -6222,7 +6231,7 @@
         <v>31</v>
       </c>
       <c r="F277" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I277" t="s">
         <v>12</v>
@@ -6234,7 +6243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
         <v>74</v>
       </c>
@@ -6254,7 +6263,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="279" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
         <v>74</v>
       </c>
@@ -6268,29 +6277,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D280" s="12" t="s">
+    <row r="280" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D280" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E280" s="12" t="s">
+      <c r="E280" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F280" s="12" t="s">
+      <c r="F280" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G280" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H280" s="12"/>
-      <c r="I280" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J280" s="12"/>
-      <c r="K280" s="12" t="s">
+      <c r="G280" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H280" s="10"/>
+      <c r="I280" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J280" s="10"/>
+      <c r="K280" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
         <v>74</v>
       </c>
@@ -6310,7 +6319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
@@ -6320,739 +6329,1267 @@
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
-      <c r="M282" s="1"/>
-    </row>
-    <row r="283" spans="4:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E283" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F283" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="284" spans="4:13" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="I283" t="s">
+        <v>137</v>
+      </c>
+      <c r="J283" t="s">
+        <v>137</v>
+      </c>
+      <c r="K283" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="284" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F284" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="285" spans="4:13" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="G284" t="s">
+        <v>137</v>
+      </c>
+      <c r="H284" t="s">
+        <v>137</v>
+      </c>
+      <c r="K284" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="285" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F285" t="s">
+        <v>114</v>
+      </c>
+      <c r="G285" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J285" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K285" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="286" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D286" t="s">
+        <v>94</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F286" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="286" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D286" t="s">
-        <v>96</v>
-      </c>
-      <c r="E286" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F286" t="s">
+      <c r="H286" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I286" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K286" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="287" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D287" t="s">
+        <v>94</v>
+      </c>
+      <c r="E287" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F287" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="287" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D287" t="s">
-        <v>96</v>
-      </c>
-      <c r="E287" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F287" t="s">
+      <c r="I287" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J287" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K287" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="288" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D288" t="s">
+        <v>94</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F288" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="288" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D288" t="s">
-        <v>96</v>
-      </c>
-      <c r="E288" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F288" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G288" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H288" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K288" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="289" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F289" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G289" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J289" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K289" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="290" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D290" t="s">
+        <v>94</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F290" t="s">
+        <v>123</v>
+      </c>
+      <c r="G290" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I290" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K290" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="291" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D291" t="s">
+        <v>94</v>
+      </c>
+      <c r="E291" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F291" t="s">
+        <v>127</v>
+      </c>
+      <c r="H291" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I291" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K291" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="292" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D292" t="s">
+        <v>94</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F292" t="s">
+        <v>131</v>
+      </c>
+      <c r="K292" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="293" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D293" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E293" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F293" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K293" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="294" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D294" t="s">
+        <v>94</v>
+      </c>
+      <c r="E294" t="s">
+        <v>134</v>
+      </c>
+      <c r="F294" t="s">
+        <v>102</v>
+      </c>
+      <c r="I294" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J294" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K294" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="295" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D295" t="s">
+        <v>94</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F295" t="s">
+        <v>103</v>
+      </c>
+      <c r="I295" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J295" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K295" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="296" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D296" t="s">
+        <v>94</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F296" t="s">
+        <v>104</v>
+      </c>
+      <c r="I296" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J296" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K296" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="297" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D297" t="s">
+        <v>94</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F297" t="s">
+        <v>112</v>
+      </c>
+      <c r="H297" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I297" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K297" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="298" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D298" t="s">
+        <v>94</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F298" t="s">
+        <v>117</v>
+      </c>
+      <c r="G298" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H298" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K298" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="299" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D299" t="s">
+        <v>94</v>
+      </c>
+      <c r="E299" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F299" t="s">
+        <v>122</v>
+      </c>
+      <c r="G299" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I299" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K299" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="300" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D300" t="s">
+        <v>94</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F300" t="s">
+        <v>124</v>
+      </c>
+      <c r="G300" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J300" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K300" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="301" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D301" t="s">
+        <v>94</v>
+      </c>
+      <c r="E301" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F301" t="s">
+        <v>125</v>
+      </c>
+      <c r="G301" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J301" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K301" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="302" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D302" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E302" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F302" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I302" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J302" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K302" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="303" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D303" t="s">
+        <v>94</v>
+      </c>
+      <c r="E303" t="s">
+        <v>98</v>
+      </c>
+      <c r="F303" t="s">
         <v>96</v>
       </c>
-      <c r="E290" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F290" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D291" t="s">
-        <v>96</v>
-      </c>
-      <c r="E291" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F291" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D292" t="s">
-        <v>96</v>
-      </c>
-      <c r="E292" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F292" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D293" t="s">
-        <v>96</v>
-      </c>
-      <c r="E293" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F293" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D294" t="s">
-        <v>96</v>
-      </c>
-      <c r="E294" t="s">
-        <v>136</v>
-      </c>
-      <c r="F294" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D295" t="s">
-        <v>96</v>
-      </c>
-      <c r="E295" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F295" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D296" t="s">
-        <v>96</v>
-      </c>
-      <c r="E296" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F296" t="s">
+      <c r="H303" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I303" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K303" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="304" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D304" t="s">
+        <v>94</v>
+      </c>
+      <c r="E304" t="s">
+        <v>98</v>
+      </c>
+      <c r="F304" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="297" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D297" t="s">
-        <v>96</v>
-      </c>
-      <c r="E297" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F297" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D298" t="s">
-        <v>96</v>
-      </c>
-      <c r="E298" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F298" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D299" t="s">
-        <v>96</v>
-      </c>
-      <c r="E299" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F299" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="300" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D300" t="s">
-        <v>96</v>
-      </c>
-      <c r="E300" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F300" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D301" t="s">
-        <v>96</v>
-      </c>
-      <c r="E301" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F301" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D302" t="s">
-        <v>96</v>
-      </c>
-      <c r="E302" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F302" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="303" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D303" t="s">
-        <v>96</v>
-      </c>
-      <c r="E303" t="s">
-        <v>100</v>
-      </c>
-      <c r="F303" t="s">
+      <c r="H304" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I304" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K304" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="305" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D305" t="s">
+        <v>94</v>
+      </c>
+      <c r="E305" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D304" t="s">
-        <v>96</v>
-      </c>
-      <c r="E304" t="s">
-        <v>100</v>
-      </c>
-      <c r="F304" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D305" t="s">
-        <v>96</v>
-      </c>
-      <c r="E305" t="s">
-        <v>100</v>
-      </c>
       <c r="F305" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="G305" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J305" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="306" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D306" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E306" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F306" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H306" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I306" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K306" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="307" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D307" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E307" t="s">
+        <v>98</v>
+      </c>
+      <c r="F307" t="s">
+        <v>129</v>
+      </c>
+      <c r="H307" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I307" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K307" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="308" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D308" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E308" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F308" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K308" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="309" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D309" t="s">
+        <v>94</v>
+      </c>
+      <c r="E309" t="s">
+        <v>132</v>
+      </c>
+      <c r="F309" t="s">
         <v>100</v>
       </c>
-      <c r="F307" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D308" t="s">
-        <v>96</v>
-      </c>
-      <c r="E308" t="s">
-        <v>100</v>
-      </c>
-      <c r="F308" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D309" t="s">
-        <v>96</v>
-      </c>
-      <c r="E309" t="s">
-        <v>134</v>
-      </c>
-      <c r="F309" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H309" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J309" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K309" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="310" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D310" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F310" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G310" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H310" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K310" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="311" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D311" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F311" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="312" spans="4:6" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="G311" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H311" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K311" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="312" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D312" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F312" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="H312" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I312" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K312" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="313" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F313" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="I313" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J313" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K313" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="314" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D314" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F314" t="s">
+        <v>126</v>
+      </c>
+      <c r="G314" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H314" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K314" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="315" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D315" t="s">
+        <v>94</v>
+      </c>
+      <c r="E315" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F315" t="s">
+        <v>91</v>
+      </c>
+      <c r="H315" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J315" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K315" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="316" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D316" t="s">
+        <v>94</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F316" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="315" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D315" t="s">
-        <v>96</v>
-      </c>
-      <c r="E315" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F315" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D316" t="s">
-        <v>96</v>
-      </c>
-      <c r="E316" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F316" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H316" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J316" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K316" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="317" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D317" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F317" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="318" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D318" t="s">
-        <v>96</v>
-      </c>
-      <c r="E318" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F318" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="319" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G317" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I317" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K317" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="318" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D318" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E318" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F318" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K318" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="319" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D319" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E319" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F319" t="s">
+        <v>108</v>
+      </c>
+      <c r="G319" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I319" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K319" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F319" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="320" spans="4:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D320" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F320" t="s">
+        <v>111</v>
+      </c>
+      <c r="H320" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I320" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K320" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="321" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D321" t="s">
+        <v>94</v>
+      </c>
+      <c r="E321" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F321" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D321" t="s">
-        <v>96</v>
-      </c>
-      <c r="E321" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F321" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G321" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I321" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="322" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D322" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F322" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="I322" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J322" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K322" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="323" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E323" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F323" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="I323" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J323" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K323" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="324" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D324" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F324" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="H324" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J324" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K324" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="325" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D325" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E325" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F325" t="s">
+        <v>123</v>
+      </c>
+      <c r="H325" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J325" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K325" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="326" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D326" t="s">
+        <v>94</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F326" t="s">
+        <v>131</v>
+      </c>
+      <c r="K326" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="327" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D327" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E327" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F327" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K327" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="328" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D328" t="s">
+        <v>94</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F328" t="s">
+        <v>104</v>
+      </c>
+      <c r="G328" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H328" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K328" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F325" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="326" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D326" t="s">
-        <v>96</v>
-      </c>
-      <c r="E326" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F326" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="327" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D327" t="s">
-        <v>96</v>
-      </c>
-      <c r="E327" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F327" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="328" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D328" t="s">
-        <v>96</v>
-      </c>
-      <c r="E328" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F328" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="329" spans="4:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D329" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F329" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="330" spans="4:6" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="I329" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J329" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K329" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="330" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D330" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F330" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="H330" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I330" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="331" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D331" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F331" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="332" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G331" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H331" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K331" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="332" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D332" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F332" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="333" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D333" t="s">
-        <v>96</v>
-      </c>
-      <c r="E333" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F333" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="H332" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J332" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K332" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="333" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D333" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E333" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F333" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G333" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H333" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="K333" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="334" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D334" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E334" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F334" t="s">
+        <v>97</v>
+      </c>
+      <c r="G334" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H334" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K334" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="335" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D335" t="s">
+        <v>94</v>
+      </c>
+      <c r="E335" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="335" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D335" t="s">
-        <v>96</v>
-      </c>
-      <c r="E335" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="F335" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="336" spans="4:6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="G335" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J335" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K335" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="336" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D336" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F336" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="337" spans="4:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="G336" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J336" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K336" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="337" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D337" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F337" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="338" spans="4:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="I337" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J337" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K337" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="338" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D338" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F338" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="339" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G338" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J338" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K338" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="339" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D339" t="s">
+        <v>94</v>
+      </c>
+      <c r="E339" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F339" t="s">
+        <v>131</v>
+      </c>
+      <c r="K339" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="340" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D340" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E340" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F340" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K340" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="341" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D341" t="s">
+        <v>94</v>
+      </c>
+      <c r="E341" t="s">
+        <v>95</v>
+      </c>
+      <c r="F341" t="s">
         <v>96</v>
       </c>
-      <c r="E339" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F339" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="340" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D340" t="s">
-        <v>96</v>
-      </c>
-      <c r="E340" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F340" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="341" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D341" t="s">
-        <v>96</v>
-      </c>
-      <c r="E341" t="s">
-        <v>97</v>
-      </c>
-      <c r="F341" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="342" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G341" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I341" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K341" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="342" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E342" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F342" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="343" spans="4:6" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="G342" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H342" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J342" s="5"/>
+      <c r="K342" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="343" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E343" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F343" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="344" spans="4:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="H343" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J343" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K343" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="344" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D344" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E344" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F344" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="345" spans="4:6" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="G344" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J344" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K344" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="345" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D345" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E345" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F345" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="346" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="I345" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J345" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K345" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="346" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D346" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E346" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F346" t="s">
+        <v>128</v>
+      </c>
+      <c r="G346" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I346" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K346" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="347" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D347" t="s">
+        <v>94</v>
+      </c>
+      <c r="E347" t="s">
+        <v>95</v>
+      </c>
+      <c r="F347" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="347" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D347" t="s">
-        <v>96</v>
-      </c>
-      <c r="E347" t="s">
-        <v>97</v>
-      </c>
-      <c r="F347" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="348" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G347" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I347" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K347" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="348" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D348" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E348" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F348" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="K348" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:M281" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="1">
-    <mergeCell ref="L1:M1"/>
-  </mergeCells>
+  <autoFilter ref="D1:K348" xr:uid="{42202473-827E-4D3A-A57A-1E273D49D4D8}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7062,10 +7599,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7083,8 +7620,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>83</v>
+      <c r="A2" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>74</v>
@@ -7098,9 +7635,12 @@
       <c r="E2" s="6">
         <v>355</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="4" t="s">
         <v>74</v>
       </c>
@@ -7111,14 +7651,14 @@
         <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>76</v>
       </c>
@@ -7129,11 +7669,14 @@
         <v>17</v>
       </c>
       <c r="E4" s="8">
-        <v>340</v>
+        <v>355</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -7146,7 +7689,7 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
@@ -7157,8 +7700,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>59</v>
       </c>
@@ -7171,9 +7714,10 @@
       <c r="E7" s="6">
         <v>355</v>
       </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>59</v>
       </c>
@@ -7184,11 +7728,14 @@
         <v>35</v>
       </c>
       <c r="E8" s="6">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+        <v>370</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
         <v>61</v>
       </c>
@@ -7199,11 +7746,11 @@
         <v>17</v>
       </c>
       <c r="E9" s="6">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
         <v>61</v>
       </c>
@@ -7214,11 +7761,11 @@
         <v>35</v>
       </c>
       <c r="E10" s="6">
-        <v>340</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4" t="s">
         <v>61</v>
       </c>
@@ -7228,15 +7775,15 @@
       <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>95</v>
+      <c r="E11" s="7">
+        <v>345</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="4" t="s">
         <v>64</v>
       </c>
@@ -7247,14 +7794,14 @@
         <v>19</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>64</v>
       </c>
@@ -7266,7 +7813,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
         <v>72</v>
       </c>
@@ -7279,9 +7826,12 @@
       <c r="E14" s="6">
         <v>340</v>
       </c>
+      <c r="F14" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="4" t="s">
         <v>72</v>
       </c>
@@ -7293,7 +7843,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
         <v>67</v>
       </c>
@@ -7303,13 +7853,15 @@
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="4"/>
+      <c r="E16" s="7">
+        <v>360</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
         <v>70</v>
       </c>
@@ -7323,21 +7875,16 @@
         <v>340</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="D1:D18" xr:uid="{427B5F66-ACBC-4434-AD62-20E386A5DD7D}">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="板甲护腕"/>
-        <filter val="板甲脚"/>
-        <filter val="板甲腿"/>
-        <filter val="板甲腰带"/>
-        <filter val="戒指"/>
-        <filter val="披风"/>
-        <filter val="饰品"/>
-      </filters>
+  <autoFilter ref="B1:F18" xr:uid="{FCB6183D-BA86-4162-93B7-6B27AC179BA1}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="1">

--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\插件\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7487B433-C621-40E3-8580-CEBE22C798DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A14CEFA-874F-4282-A0D5-572F2EE6E5E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="150">
   <si>
     <t>副本名称</t>
   </si>
@@ -650,7 +650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,11 +693,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7602,7 +7611,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7620,7 +7629,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -7640,7 +7649,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
         <v>74</v>
       </c>
@@ -7658,7 +7667,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>76</v>
       </c>
@@ -7669,14 +7678,14 @@
         <v>17</v>
       </c>
       <c r="E4" s="8">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -7689,7 +7698,7 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
@@ -7701,7 +7710,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>59</v>
       </c>
@@ -7717,7 +7726,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>59</v>
       </c>
@@ -7735,7 +7744,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
         <v>61</v>
       </c>
@@ -7750,7 +7759,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>61</v>
       </c>
@@ -7765,25 +7774,25 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="17">
         <v>345</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="4" t="s">
         <v>64</v>
       </c>
@@ -7801,7 +7810,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>64</v>
       </c>
@@ -7813,25 +7822,25 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="18">
         <v>340</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="4" t="s">
         <v>72</v>
       </c>
@@ -7843,7 +7852,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>67</v>
       </c>
@@ -7861,20 +7870,20 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="18">
         <v>340</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="16" t="s">
         <v>83</v>
       </c>
     </row>

--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\插件\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A14CEFA-874F-4282-A0D5-572F2EE6E5E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A75DFEB-0BFC-4F24-A49D-01622AB758B2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="149">
   <si>
     <t>副本名称</t>
   </si>
@@ -540,33 +540,6 @@
   </si>
   <si>
     <t>全能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>355</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>355</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -650,7 +623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,20 +666,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7611,7 +7581,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7629,27 +7599,27 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="15">
         <v>355</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="4" t="s">
         <v>74</v>
       </c>
@@ -7659,15 +7629,15 @@
       <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="7">
+        <v>365</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>76</v>
       </c>
@@ -7685,7 +7655,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -7698,7 +7668,7 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
@@ -7710,7 +7680,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>59</v>
       </c>
@@ -7726,7 +7696,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>59</v>
       </c>
@@ -7740,11 +7710,11 @@
         <v>370</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
         <v>61</v>
       </c>
@@ -7759,7 +7729,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>61</v>
       </c>
@@ -7774,25 +7744,25 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="C11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="8">
         <v>345</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="4" t="s">
         <v>64</v>
       </c>
@@ -7802,15 +7772,15 @@
       <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="7">
+        <v>355</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
         <v>64</v>
       </c>
@@ -7822,25 +7792,25 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="15">
         <v>340</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>72</v>
       </c>
@@ -7852,7 +7822,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>67</v>
       </c>
@@ -7870,20 +7840,20 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="17"/>
+      <c r="B17" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="C17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="18">
-        <v>340</v>
-      </c>
-      <c r="F17" s="16" t="s">
+      <c r="E17" s="15">
+        <v>355</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>83</v>
       </c>
     </row>

--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\插件\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A75DFEB-0BFC-4F24-A49D-01622AB758B2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EEF45B-0932-487D-B4E5-C32BD7464993}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="149">
   <si>
     <t>副本名称</t>
   </si>
@@ -7612,7 +7612,7 @@
         <v>81</v>
       </c>
       <c r="E2" s="15">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>83</v>

--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\插件\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EEF45B-0932-487D-B4E5-C32BD7464993}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9C761C-BE49-4F6F-BFA1-68C4450590FD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -985,7 +985,7 @@
   <dimension ref="D1:L348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -7581,7 +7581,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="B17" sqref="B17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\插件\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9C761C-BE49-4F6F-BFA1-68C4450590FD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB906E6D-2189-4E0B-9D4A-A26E56399210}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="战士" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="普通" sheetId="1" r:id="rId1"/>
+    <sheet name="战士" sheetId="3" r:id="rId2"/>
+    <sheet name="其他" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$K$348</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">战士!$B$1:$F$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">普通!$D$1:$K$348</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">其他!$B$1:$F$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">战士!$G$1:$G$32</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="276">
   <si>
     <t>副本名称</t>
   </si>
@@ -545,13 +546,427 @@
   <si>
     <t>需</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备名</t>
+  </si>
+  <si>
+    <t>部位</t>
+  </si>
+  <si>
+    <t>外圈</t>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>防护</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中圈</t>
+  </si>
+  <si>
+    <t>内圈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>肩部</t>
+  </si>
+  <si>
+    <t>围攻伯拉勒斯</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>海怪壳护肩</t>
+  </si>
+  <si>
+    <t>缜密计谋</t>
+  </si>
+  <si>
+    <t>鲁莽劈砍</t>
+  </si>
+  <si>
+    <t>雷音贯耳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>刽子手的精准</t>
+  </si>
+  <si>
+    <t>晶化甲壳</t>
+  </si>
+  <si>
+    <t>大地链接</t>
+  </si>
+  <si>
+    <t>不稳定烈焰</t>
+  </si>
+  <si>
+    <t>胜利宣言</t>
+  </si>
+  <si>
+    <t>万人敌</t>
+  </si>
+  <si>
+    <t>塞塔里斯神庙</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>克拉西斯封印者肩铠</t>
+  </si>
+  <si>
+    <t>呼啸狂沙</t>
+  </si>
+  <si>
+    <t>无尽怒火</t>
+  </si>
+  <si>
+    <t>碾压突袭</t>
+  </si>
+  <si>
+    <t>生命之速</t>
+  </si>
+  <si>
+    <t>裂肠者</t>
+  </si>
+  <si>
+    <t>压倒力量</t>
+  </si>
+  <si>
+    <t>回声防护</t>
+  </si>
+  <si>
+    <t>艾泽里特强固</t>
+  </si>
+  <si>
+    <t>暴富矿区</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼天者肩铠</t>
+  </si>
+  <si>
+    <t>不稳定的催化剂</t>
+  </si>
+  <si>
+    <t>血腥疯狂</t>
+  </si>
+  <si>
+    <t>抵御冲击</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震波</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧蚀护盾</t>
+  </si>
+  <si>
+    <t>宝石皮肤</t>
+  </si>
+  <si>
+    <t>自力更生</t>
+  </si>
+  <si>
+    <t>维克雷斯庄园</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐角恐惧肩铠</t>
+  </si>
+  <si>
+    <t>毁灭箭</t>
+  </si>
+  <si>
+    <t>无情报复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量的考验</t>
+  </si>
+  <si>
+    <t>元素回旋</t>
+  </si>
+  <si>
+    <t>闪光庇护所</t>
+  </si>
+  <si>
+    <t>冷漠面容</t>
+  </si>
+  <si>
+    <t>自由镇</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>钳嘴肩铠</t>
+  </si>
+  <si>
+    <t>汇帆</t>
+  </si>
+  <si>
+    <t>怒火冲天</t>
+  </si>
+  <si>
+    <t>钢铁要塞</t>
+  </si>
+  <si>
+    <t>聚焦风暴</t>
+  </si>
+  <si>
+    <t>吸血虹吸</t>
+  </si>
+  <si>
+    <t>战争之风</t>
+  </si>
+  <si>
+    <t>光荣时刻</t>
+  </si>
+  <si>
+    <t>诸王之眠</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一统肩甲</t>
+  </si>
+  <si>
+    <t>莱赞之怒</t>
+  </si>
+  <si>
+    <t>碾压打击</t>
+  </si>
+  <si>
+    <t>坚不可破</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争之王</t>
+  </si>
+  <si>
+    <t>听从我召唤</t>
+  </si>
+  <si>
+    <t>吸血鬼之谜</t>
+  </si>
+  <si>
+    <t>奥迪尔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>几丁质脊柱肩胃（拆解者）</t>
+  </si>
+  <si>
+    <t>泰坦档案库</t>
+  </si>
+  <si>
+    <t>钢铁要塞</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>压倒力量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾泽里特液球</t>
+  </si>
+  <si>
+    <t>世界BOSS</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雕肩甲（冰雹构造体）</t>
+  </si>
+  <si>
+    <t>恐惧之盾尖剌护肩（阿拉希boss）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>团结之力</t>
+  </si>
+  <si>
+    <t>欺凌弱小</t>
+  </si>
+  <si>
+    <t>抵制冲击</t>
+  </si>
+  <si>
+    <t>艾泽里特血脉</t>
+  </si>
+  <si>
+    <t>胸甲</t>
+  </si>
+  <si>
+    <t>鱼叉手的板甲护胸</t>
+  </si>
+  <si>
+    <t>影中暗刃</t>
+  </si>
+  <si>
+    <t>远行者</t>
+  </si>
+  <si>
+    <t>地渊孢林</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>动脉防护胸甲</t>
+  </si>
+  <si>
+    <t>血祭之力</t>
+  </si>
+  <si>
+    <t>血律</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾泽里特血脉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾泽里特液球</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠卫士胸甲</t>
+  </si>
+  <si>
+    <t>雷霆冲击</t>
+  </si>
+  <si>
+    <t>鲜血虹吸</t>
+  </si>
+  <si>
+    <t>托尔达戈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾什凡卫士胸铠</t>
+  </si>
+  <si>
+    <t>抵御冲击</t>
+  </si>
+  <si>
+    <t>临危不惧</t>
+  </si>
+  <si>
+    <t>世仇胸甲</t>
+  </si>
+  <si>
+    <t>枯败灌注</t>
+  </si>
+  <si>
+    <t>裂肠者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暴神殿</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>深渊住民护胸</t>
+  </si>
+  <si>
+    <t>深渊秘密</t>
+  </si>
+  <si>
+    <t>剧毐诱变护胸（维克提斯）</t>
+  </si>
+  <si>
+    <t>诅咒进军</t>
+  </si>
+  <si>
+    <t>末曰阴谋胸铠（复生者祖尔）</t>
+  </si>
+  <si>
+    <t>激光矩阵</t>
+  </si>
+  <si>
+    <t>诅咒进军</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争机器熔铸铁板（阿拉希boss）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>集体意志</t>
+  </si>
+  <si>
+    <t>碎雷胸甲（基阿拉克）</t>
+  </si>
+  <si>
+    <t>激励兽群</t>
+  </si>
+  <si>
+    <t>爆压突袭</t>
+  </si>
+  <si>
+    <t>头部</t>
+  </si>
+  <si>
+    <t>腐烂之路重盔</t>
+  </si>
+  <si>
+    <t>污秽传输</t>
+  </si>
+  <si>
+    <t>狱长的暴乱头盔</t>
+  </si>
+  <si>
+    <t>无情报复</t>
+  </si>
+  <si>
+    <t>斗海者巨盔</t>
+  </si>
+  <si>
+    <t>迅猛龙之王头盔</t>
+  </si>
+  <si>
+    <t>深渊怨毐头盔</t>
+  </si>
+  <si>
+    <t>海潮涌动</t>
+  </si>
+  <si>
+    <t>坚不可摧</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿塔达萨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>织魂头盔</t>
+  </si>
+  <si>
+    <t>亵渎实验室之盔（戈霍恩）</t>
+  </si>
+  <si>
+    <t>移动迷网头盔（纯净圣母）</t>
+  </si>
+  <si>
+    <t>元素回旋</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>石化冥界面具（提赞）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,6 +977,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -587,6 +1003,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -623,7 +1051,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,6 +1106,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -985,7 +1429,7 @@
   <dimension ref="D1:L348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -7576,12 +8020,1122 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L1" s="18"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="18"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="21"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="21"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="G1:G32" xr:uid="{6C4F1E19-DEEF-4B11-B550-F7600B59834D}"/>
+  <sortState ref="A1:C66">
+    <sortCondition ref="B1:B66"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:F17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7873,23 +9427,4 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <sortState ref="A1:C66">
-    <sortCondition ref="B1:B66"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>
--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\插件\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB906E6D-2189-4E0B-9D4A-A26E56399210}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2646C00F-D24A-4399-B8C0-D910A61645E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普通" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="其他" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">普通!$D$1:$K$348</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">普通!$F$1:$J$406</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">其他!$B$1:$F$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">战士!$G$1:$G$32</definedName>
   </definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="309">
   <si>
     <t>副本名称</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>弓</t>
-  </si>
-  <si>
-    <t>板甲手套</t>
   </si>
   <si>
     <t>布甲腰带</t>
@@ -420,18 +417,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>锁甲手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮甲手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布甲手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>皮甲腰带</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -787,13 +772,6 @@
     <t>冰雕肩甲（冰雹构造体）</t>
   </si>
   <si>
-    <t>恐惧之盾尖剌护肩（阿拉希boss）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>团结之力</t>
-  </si>
-  <si>
     <t>欺凌弱小</t>
   </si>
   <si>
@@ -879,9 +857,6 @@
     <t>深渊秘密</t>
   </si>
   <si>
-    <t>剧毐诱变护胸（维克提斯）</t>
-  </si>
-  <si>
     <t>诅咒进军</t>
   </si>
   <si>
@@ -895,13 +870,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>战争机器熔铸铁板（阿拉希boss）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>集体意志</t>
-  </si>
-  <si>
     <t>碎雷胸甲（基阿拉克）</t>
   </si>
   <si>
@@ -960,6 +928,187 @@
   </si>
   <si>
     <t>石化冥界面具（提赞）</t>
+  </si>
+  <si>
+    <t>提赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>世界B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OSS</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布甲腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布甲腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁甲腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁甲脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基阿拉克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>披风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布甲手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁甲腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮甲腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮甲腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雹构造体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮甲护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮甲脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布甲脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔚索斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁甲护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末日之嚎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争使者耶纳基兹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布甲护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮甲手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮甲手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁甲手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布甲手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食沙者克劳洛克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁甲手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄狮之吼肩甲（阿拉希boss）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧毒诱变护胸（维克提斯）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛光的持盾卫士的胸甲（阿拉希boss）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>团结一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众志成城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1094,18 +1243,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1122,6 +1259,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1426,16 +1575,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:L348"/>
+  <dimension ref="D1:L406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="20.21875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
@@ -1745,7 +1894,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
@@ -1765,7 +1914,7 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
@@ -1902,7 +2051,7 @@
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -1982,7 +2131,7 @@
         <v>12</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.25">
@@ -2178,7 +2327,7 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" t="s">
         <v>12</v>
@@ -2198,7 +2347,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
@@ -2257,8 +2406,8 @@
       <c r="E43" t="s">
         <v>21</v>
       </c>
-      <c r="F43" t="s">
-        <v>50</v>
+      <c r="F43" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -2278,7 +2427,7 @@
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -2318,7 +2467,7 @@
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I46" t="s">
         <v>12</v>
@@ -2347,7 +2496,7 @@
         <v>12</v>
       </c>
       <c r="K47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="4:11" x14ac:dyDescent="0.25">
@@ -2375,7 +2524,7 @@
         <v>43</v>
       </c>
       <c r="K49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="4:12" x14ac:dyDescent="0.25">
@@ -2415,7 +2564,7 @@
         <v>12</v>
       </c>
       <c r="K51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="4:12" x14ac:dyDescent="0.25">
@@ -2455,7 +2604,7 @@
         <v>12</v>
       </c>
       <c r="K53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="4:12" x14ac:dyDescent="0.25">
@@ -2475,7 +2624,7 @@
         <v>12</v>
       </c>
       <c r="K54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="4:12" x14ac:dyDescent="0.25">
@@ -2559,13 +2708,13 @@
     </row>
     <row r="60" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E60" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s">
         <v>12</v>
@@ -2579,13 +2728,13 @@
     </row>
     <row r="61" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D61" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10" t="s">
@@ -2601,13 +2750,13 @@
     </row>
     <row r="62" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E62" t="s">
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I62" t="s">
         <v>12</v>
@@ -2621,7 +2770,7 @@
     </row>
     <row r="63" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
@@ -2641,7 +2790,7 @@
     </row>
     <row r="64" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
@@ -2661,7 +2810,7 @@
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E65" t="s">
         <v>10</v>
@@ -2681,7 +2830,7 @@
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
@@ -2696,12 +2845,12 @@
         <v>12</v>
       </c>
       <c r="K66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
@@ -2721,7 +2870,7 @@
     </row>
     <row r="68" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E68" t="s">
         <v>21</v>
@@ -2741,7 +2890,7 @@
     </row>
     <row r="69" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E69" t="s">
         <v>21</v>
@@ -2758,7 +2907,7 @@
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E70" t="s">
         <v>21</v>
@@ -2778,7 +2927,7 @@
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E71" t="s">
         <v>21</v>
@@ -2798,13 +2947,13 @@
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E72" t="s">
         <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s">
         <v>12</v>
@@ -2818,7 +2967,7 @@
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E73" t="s">
         <v>21</v>
@@ -2832,7 +2981,7 @@
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E74" t="s">
         <v>31</v>
@@ -2852,7 +3001,7 @@
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E75" t="s">
         <v>31</v>
@@ -2872,7 +3021,7 @@
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E76" t="s">
         <v>31</v>
@@ -2892,7 +3041,7 @@
     </row>
     <row r="77" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E77" t="s">
         <v>31</v>
@@ -2912,13 +3061,13 @@
     </row>
     <row r="78" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E78" t="s">
         <v>31</v>
       </c>
       <c r="F78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G78" t="s">
         <v>12</v>
@@ -2932,7 +3081,7 @@
     </row>
     <row r="79" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E79" t="s">
         <v>31</v>
@@ -2952,13 +3101,13 @@
     </row>
     <row r="80" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E80" t="s">
         <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s">
         <v>12</v>
@@ -2972,13 +3121,13 @@
     </row>
     <row r="81" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E81" t="s">
         <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
@@ -2992,7 +3141,7 @@
     </row>
     <row r="82" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E82" t="s">
         <v>31</v>
@@ -3006,7 +3155,7 @@
     </row>
     <row r="83" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E83" t="s">
         <v>40</v>
@@ -3026,7 +3175,7 @@
     </row>
     <row r="84" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E84" t="s">
         <v>40</v>
@@ -3046,13 +3195,13 @@
     </row>
     <row r="85" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E85" t="s">
         <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G85" t="s">
         <v>12</v>
@@ -3066,7 +3215,7 @@
     </row>
     <row r="86" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E86" t="s">
         <v>40</v>
@@ -3091,13 +3240,13 @@
     </row>
     <row r="88" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G88" t="s">
         <v>12</v>
@@ -3111,7 +3260,7 @@
     </row>
     <row r="89" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
@@ -3131,7 +3280,7 @@
     </row>
     <row r="90" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E90" t="s">
         <v>10</v>
@@ -3151,13 +3300,13 @@
     </row>
     <row r="91" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E91" t="s">
         <v>10</v>
       </c>
-      <c r="F91" t="s">
-        <v>50</v>
+      <c r="F91" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="G91" t="s">
         <v>12</v>
@@ -3171,7 +3320,7 @@
     </row>
     <row r="92" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E92" t="s">
         <v>10</v>
@@ -3191,7 +3340,7 @@
     </row>
     <row r="93" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E93" t="s">
         <v>10</v>
@@ -3211,7 +3360,7 @@
     </row>
     <row r="94" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
@@ -3226,12 +3375,12 @@
         <v>12</v>
       </c>
       <c r="K94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E95" t="s">
         <v>21</v>
@@ -3251,7 +3400,7 @@
     </row>
     <row r="96" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E96" t="s">
         <v>21</v>
@@ -3271,7 +3420,7 @@
     </row>
     <row r="97" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E97" t="s">
         <v>21</v>
@@ -3291,7 +3440,7 @@
     </row>
     <row r="98" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E98" t="s">
         <v>21</v>
@@ -3311,7 +3460,7 @@
     </row>
     <row r="99" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E99" t="s">
         <v>21</v>
@@ -3331,13 +3480,13 @@
     </row>
     <row r="100" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E100" t="s">
         <v>21</v>
       </c>
       <c r="F100" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H100" t="s">
         <v>12</v>
@@ -3351,13 +3500,13 @@
     </row>
     <row r="101" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E101" t="s">
         <v>21</v>
       </c>
       <c r="F101" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I101" t="s">
         <v>12</v>
@@ -3371,13 +3520,13 @@
     </row>
     <row r="102" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E102" t="s">
         <v>21</v>
       </c>
       <c r="F102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H102" t="s">
         <v>12</v>
@@ -3391,7 +3540,7 @@
     </row>
     <row r="103" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E103" t="s">
         <v>21</v>
@@ -3408,13 +3557,13 @@
     </row>
     <row r="104" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E104" t="s">
         <v>31</v>
       </c>
       <c r="F104" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H104" t="s">
         <v>12</v>
@@ -3428,7 +3577,7 @@
     </row>
     <row r="105" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E105" t="s">
         <v>31</v>
@@ -3445,7 +3594,7 @@
     </row>
     <row r="106" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E106" t="s">
         <v>31</v>
@@ -3465,7 +3614,7 @@
     </row>
     <row r="107" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E107" t="s">
         <v>31</v>
@@ -3485,7 +3634,7 @@
     </row>
     <row r="108" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E108" t="s">
         <v>31</v>
@@ -3505,7 +3654,7 @@
     </row>
     <row r="109" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E109" t="s">
         <v>31</v>
@@ -3525,13 +3674,13 @@
     </row>
     <row r="110" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E110" t="s">
         <v>31</v>
       </c>
       <c r="F110" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G110" t="s">
         <v>12</v>
@@ -3545,7 +3694,7 @@
     </row>
     <row r="111" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E111" t="s">
         <v>40</v>
@@ -3565,7 +3714,7 @@
     </row>
     <row r="112" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E112" t="s">
         <v>40</v>
@@ -3579,16 +3728,16 @@
     </row>
     <row r="113" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E113" t="s">
         <v>40</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K113" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="4:12" x14ac:dyDescent="0.25">
@@ -3604,7 +3753,7 @@
     </row>
     <row r="115" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E115" t="s">
         <v>10</v>
@@ -3624,13 +3773,13 @@
     </row>
     <row r="116" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E116" t="s">
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G116" t="s">
         <v>12</v>
@@ -3644,7 +3793,7 @@
     </row>
     <row r="117" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E117" t="s">
         <v>10</v>
@@ -3664,7 +3813,7 @@
     </row>
     <row r="118" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E118" t="s">
         <v>10</v>
@@ -3684,7 +3833,7 @@
     </row>
     <row r="119" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E119" t="s">
         <v>10</v>
@@ -3704,7 +3853,7 @@
     </row>
     <row r="120" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E120" t="s">
         <v>10</v>
@@ -3724,7 +3873,7 @@
     </row>
     <row r="121" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E121" t="s">
         <v>10</v>
@@ -3744,7 +3893,7 @@
     </row>
     <row r="122" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E122" t="s">
         <v>10</v>
@@ -3764,13 +3913,13 @@
     </row>
     <row r="123" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E123" t="s">
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H123" t="s">
         <v>12</v>
@@ -3784,7 +3933,7 @@
     </row>
     <row r="124" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E124" t="s">
         <v>21</v>
@@ -3804,7 +3953,7 @@
     </row>
     <row r="125" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E125" t="s">
         <v>21</v>
@@ -3824,7 +3973,7 @@
     </row>
     <row r="126" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E126" t="s">
         <v>21</v>
@@ -3844,7 +3993,7 @@
     </row>
     <row r="127" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E127" t="s">
         <v>21</v>
@@ -3864,7 +4013,7 @@
     </row>
     <row r="128" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E128" t="s">
         <v>21</v>
@@ -3884,7 +4033,7 @@
     </row>
     <row r="129" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E129" t="s">
         <v>21</v>
@@ -3899,12 +4048,12 @@
         <v>12</v>
       </c>
       <c r="K129" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E130" t="s">
         <v>21</v>
@@ -3921,13 +4070,13 @@
     </row>
     <row r="131" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E131" t="s">
         <v>31</v>
       </c>
       <c r="F131" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K131" t="s">
         <v>33</v>
@@ -3935,7 +4084,7 @@
     </row>
     <row r="132" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E132" t="s">
         <v>31</v>
@@ -3952,7 +4101,7 @@
     </row>
     <row r="133" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E133" t="s">
         <v>31</v>
@@ -3972,7 +4121,7 @@
     </row>
     <row r="134" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E134" t="s">
         <v>31</v>
@@ -3992,7 +4141,7 @@
     </row>
     <row r="135" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E135" t="s">
         <v>31</v>
@@ -4012,13 +4161,13 @@
     </row>
     <row r="136" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E136" t="s">
         <v>31</v>
       </c>
       <c r="F136" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G136" t="s">
         <v>12</v>
@@ -4032,7 +4181,7 @@
     </row>
     <row r="137" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E137" t="s">
         <v>31</v>
@@ -4046,7 +4195,7 @@
     </row>
     <row r="138" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E138" t="s">
         <v>40</v>
@@ -4066,13 +4215,13 @@
     </row>
     <row r="139" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E139" t="s">
         <v>40</v>
       </c>
-      <c r="F139" t="s">
-        <v>50</v>
+      <c r="F139" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="H139" t="s">
         <v>12</v>
@@ -4086,13 +4235,13 @@
     </row>
     <row r="140" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E140" t="s">
         <v>40</v>
       </c>
       <c r="F140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G140" t="s">
         <v>12</v>
@@ -4106,7 +4255,7 @@
     </row>
     <row r="141" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E141" t="s">
         <v>40</v>
@@ -4126,13 +4275,13 @@
     </row>
     <row r="142" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E142" t="s">
         <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G142" t="s">
         <v>12</v>
@@ -4146,7 +4295,7 @@
     </row>
     <row r="143" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E143" t="s">
         <v>40</v>
@@ -4161,12 +4310,12 @@
         <v>12</v>
       </c>
       <c r="K143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E144" t="s">
         <v>40</v>
@@ -4180,10 +4329,10 @@
     </row>
     <row r="145" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E145" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F145" t="s">
         <v>46</v>
@@ -4211,13 +4360,13 @@
     </row>
     <row r="147" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D147" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E147" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G147" s="10"/>
       <c r="H147" s="10" t="s">
@@ -4233,7 +4382,7 @@
     </row>
     <row r="148" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E148" t="s">
         <v>10</v>
@@ -4250,7 +4399,7 @@
     </row>
     <row r="149" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E149" t="s">
         <v>10</v>
@@ -4270,7 +4419,7 @@
     </row>
     <row r="150" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E150" t="s">
         <v>10</v>
@@ -4290,7 +4439,7 @@
     </row>
     <row r="151" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E151" t="s">
         <v>10</v>
@@ -4310,13 +4459,13 @@
     </row>
     <row r="152" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E152" t="s">
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G152" t="s">
         <v>12</v>
@@ -4330,7 +4479,7 @@
     </row>
     <row r="153" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E153" t="s">
         <v>21</v>
@@ -4350,13 +4499,13 @@
     </row>
     <row r="154" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E154" t="s">
         <v>21</v>
       </c>
       <c r="F154" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H154" t="s">
         <v>12</v>
@@ -4370,7 +4519,7 @@
     </row>
     <row r="155" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E155" t="s">
         <v>21</v>
@@ -4390,7 +4539,7 @@
     </row>
     <row r="156" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E156" t="s">
         <v>21</v>
@@ -4410,13 +4559,13 @@
     </row>
     <row r="157" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E157" t="s">
         <v>21</v>
       </c>
       <c r="F157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I157" t="s">
         <v>12</v>
@@ -4430,7 +4579,7 @@
     </row>
     <row r="158" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E158" t="s">
         <v>21</v>
@@ -4450,13 +4599,13 @@
     </row>
     <row r="159" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E159" t="s">
         <v>21</v>
       </c>
       <c r="F159" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G159" t="s">
         <v>12</v>
@@ -4470,7 +4619,7 @@
     </row>
     <row r="160" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E160" t="s">
         <v>21</v>
@@ -4485,18 +4634,18 @@
         <v>12</v>
       </c>
       <c r="K160" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="161" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E161" t="s">
         <v>31</v>
       </c>
       <c r="F161" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H161" t="s">
         <v>12</v>
@@ -4510,7 +4659,7 @@
     </row>
     <row r="162" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E162" t="s">
         <v>31</v>
@@ -4530,7 +4679,7 @@
     </row>
     <row r="163" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E163" t="s">
         <v>31</v>
@@ -4550,7 +4699,7 @@
     </row>
     <row r="164" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E164" t="s">
         <v>31</v>
@@ -4570,7 +4719,7 @@
     </row>
     <row r="165" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E165" t="s">
         <v>31</v>
@@ -4590,13 +4739,13 @@
     </row>
     <row r="166" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E166" t="s">
         <v>31</v>
       </c>
-      <c r="F166" t="s">
-        <v>50</v>
+      <c r="F166" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="H166" t="s">
         <v>12</v>
@@ -4610,7 +4759,7 @@
     </row>
     <row r="167" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E167" t="s">
         <v>31</v>
@@ -4630,7 +4779,7 @@
     </row>
     <row r="168" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E168" t="s">
         <v>31</v>
@@ -4650,13 +4799,13 @@
     </row>
     <row r="169" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E169" t="s">
         <v>31</v>
       </c>
       <c r="F169" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G169" t="s">
         <v>12</v>
@@ -4670,7 +4819,7 @@
     </row>
     <row r="170" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E170" t="s">
         <v>40</v>
@@ -4690,7 +4839,7 @@
     </row>
     <row r="171" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E171" t="s">
         <v>40</v>
@@ -4704,16 +4853,16 @@
     </row>
     <row r="172" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E172" t="s">
         <v>40</v>
       </c>
       <c r="F172" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K172" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="K172" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="173" spans="4:12" x14ac:dyDescent="0.25">
@@ -4729,13 +4878,13 @@
     </row>
     <row r="174" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E174" t="s">
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I174" t="s">
         <v>12</v>
@@ -4749,13 +4898,13 @@
     </row>
     <row r="175" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D175" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E175" t="s">
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H175" t="s">
         <v>12</v>
@@ -4769,7 +4918,7 @@
     </row>
     <row r="176" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E176" t="s">
         <v>10</v>
@@ -4789,7 +4938,7 @@
     </row>
     <row r="177" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D177" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E177" t="s">
         <v>10</v>
@@ -4809,7 +4958,7 @@
     </row>
     <row r="178" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E178" t="s">
         <v>10</v>
@@ -4829,7 +4978,7 @@
     </row>
     <row r="179" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E179" t="s">
         <v>10</v>
@@ -4849,13 +4998,13 @@
     </row>
     <row r="180" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D180" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E180" t="s">
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G180" t="s">
         <v>12</v>
@@ -4869,7 +5018,7 @@
     </row>
     <row r="181" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D181" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E181" t="s">
         <v>10</v>
@@ -4883,7 +5032,7 @@
     </row>
     <row r="182" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E182" t="s">
         <v>21</v>
@@ -4903,7 +5052,7 @@
     </row>
     <row r="183" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D183" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E183" t="s">
         <v>21</v>
@@ -4920,7 +5069,7 @@
     </row>
     <row r="184" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D184" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E184" t="s">
         <v>21</v>
@@ -4940,7 +5089,7 @@
     </row>
     <row r="185" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D185" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E185" t="s">
         <v>21</v>
@@ -4960,13 +5109,13 @@
     </row>
     <row r="186" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D186" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E186" t="s">
         <v>21</v>
       </c>
-      <c r="F186" t="s">
-        <v>50</v>
+      <c r="F186" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="G186" t="s">
         <v>12</v>
@@ -4975,12 +5124,12 @@
         <v>12</v>
       </c>
       <c r="K186" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="187" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D187" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E187" t="s">
         <v>21</v>
@@ -5000,7 +5149,7 @@
     </row>
     <row r="188" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D188" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E188" t="s">
         <v>21</v>
@@ -5014,7 +5163,7 @@
     </row>
     <row r="189" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D189" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E189" t="s">
         <v>31</v>
@@ -5034,7 +5183,7 @@
     </row>
     <row r="190" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E190" t="s">
         <v>31</v>
@@ -5054,7 +5203,7 @@
     </row>
     <row r="191" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D191" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E191" t="s">
         <v>31</v>
@@ -5074,7 +5223,7 @@
     </row>
     <row r="192" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E192" t="s">
         <v>31</v>
@@ -5094,7 +5243,7 @@
     </row>
     <row r="193" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D193" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E193" t="s">
         <v>31</v>
@@ -5114,13 +5263,13 @@
     </row>
     <row r="194" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E194" t="s">
         <v>31</v>
       </c>
       <c r="F194" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G194" t="s">
         <v>12</v>
@@ -5134,7 +5283,7 @@
     </row>
     <row r="195" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D195" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E195" t="s">
         <v>31</v>
@@ -5149,12 +5298,12 @@
         <v>12</v>
       </c>
       <c r="K195" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="196" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D196" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E196" t="s">
         <v>31</v>
@@ -5168,18 +5317,18 @@
     </row>
     <row r="197" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D197" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E197" t="s">
         <v>31</v>
       </c>
       <c r="F197" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="198" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E198" t="s">
         <v>40</v>
@@ -5199,7 +5348,7 @@
     </row>
     <row r="199" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E199" t="s">
         <v>40</v>
@@ -5219,13 +5368,13 @@
     </row>
     <row r="200" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D200" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E200" t="s">
         <v>40</v>
       </c>
       <c r="F200" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I200" t="s">
         <v>12</v>
@@ -5239,7 +5388,7 @@
     </row>
     <row r="201" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D201" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E201" t="s">
         <v>40</v>
@@ -5264,7 +5413,7 @@
     </row>
     <row r="203" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E203" t="s">
         <v>10</v>
@@ -5284,7 +5433,7 @@
     </row>
     <row r="204" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D204" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E204" t="s">
         <v>10</v>
@@ -5304,13 +5453,13 @@
     </row>
     <row r="205" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E205" t="s">
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G205" t="s">
         <v>12</v>
@@ -5324,13 +5473,13 @@
     </row>
     <row r="206" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E206" t="s">
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H206" t="s">
         <v>12</v>
@@ -5344,7 +5493,7 @@
     </row>
     <row r="207" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E207" t="s">
         <v>10</v>
@@ -5359,12 +5508,12 @@
         <v>12</v>
       </c>
       <c r="K207" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="208" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E208" t="s">
         <v>10</v>
@@ -5378,7 +5527,7 @@
     </row>
     <row r="209" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D209" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E209" t="s">
         <v>21</v>
@@ -5392,7 +5541,7 @@
     </row>
     <row r="210" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D210" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E210" t="s">
         <v>21</v>
@@ -5412,7 +5561,7 @@
     </row>
     <row r="211" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D211" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E211" t="s">
         <v>21</v>
@@ -5432,7 +5581,7 @@
     </row>
     <row r="212" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D212" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E212" t="s">
         <v>21</v>
@@ -5452,13 +5601,13 @@
     </row>
     <row r="213" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D213" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E213" t="s">
         <v>21</v>
       </c>
       <c r="F213" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G213" t="s">
         <v>12</v>
@@ -5472,13 +5621,13 @@
     </row>
     <row r="214" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E214" t="s">
         <v>21</v>
       </c>
       <c r="F214" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I214" t="s">
         <v>12</v>
@@ -5492,7 +5641,7 @@
     </row>
     <row r="215" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D215" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E215" t="s">
         <v>21</v>
@@ -5506,18 +5655,18 @@
     </row>
     <row r="216" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E216" t="s">
         <v>21</v>
       </c>
       <c r="F216" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="217" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E217" t="s">
         <v>31</v>
@@ -5537,7 +5686,7 @@
     </row>
     <row r="218" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D218" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E218" t="s">
         <v>31</v>
@@ -5554,7 +5703,7 @@
     </row>
     <row r="219" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D219" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E219" t="s">
         <v>31</v>
@@ -5574,7 +5723,7 @@
     </row>
     <row r="220" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D220" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E220" t="s">
         <v>31</v>
@@ -5594,13 +5743,13 @@
     </row>
     <row r="221" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E221" t="s">
         <v>31</v>
       </c>
-      <c r="F221" t="s">
-        <v>50</v>
+      <c r="F221" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="H221" t="s">
         <v>12</v>
@@ -5614,7 +5763,7 @@
     </row>
     <row r="222" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D222" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E222" t="s">
         <v>31</v>
@@ -5634,18 +5783,18 @@
     </row>
     <row r="223" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D223" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E223" t="s">
         <v>31</v>
       </c>
       <c r="F223" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="224" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D224" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E224" t="s">
         <v>40</v>
@@ -5665,7 +5814,7 @@
     </row>
     <row r="225" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D225" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E225" t="s">
         <v>40</v>
@@ -5685,7 +5834,7 @@
     </row>
     <row r="226" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D226" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E226" t="s">
         <v>40</v>
@@ -5710,7 +5859,7 @@
     </row>
     <row r="228" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D228" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E228" t="s">
         <v>10</v>
@@ -5730,13 +5879,13 @@
     </row>
     <row r="229" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D229" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E229" t="s">
         <v>10</v>
       </c>
-      <c r="F229" t="s">
-        <v>50</v>
+      <c r="F229" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="G229" t="s">
         <v>12</v>
@@ -5750,7 +5899,7 @@
     </row>
     <row r="230" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E230" t="s">
         <v>10</v>
@@ -5770,7 +5919,7 @@
     </row>
     <row r="231" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D231" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E231" t="s">
         <v>10</v>
@@ -5790,7 +5939,7 @@
     </row>
     <row r="232" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D232" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E232" t="s">
         <v>10</v>
@@ -5810,13 +5959,13 @@
     </row>
     <row r="233" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D233" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E233" t="s">
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H233" t="s">
         <v>12</v>
@@ -5830,13 +5979,13 @@
     </row>
     <row r="234" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E234" t="s">
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G234" t="s">
         <v>12</v>
@@ -5850,7 +5999,7 @@
     </row>
     <row r="235" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D235" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E235" t="s">
         <v>10</v>
@@ -5864,7 +6013,7 @@
     </row>
     <row r="236" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D236" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E236" t="s">
         <v>21</v>
@@ -5884,13 +6033,13 @@
     </row>
     <row r="237" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D237" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E237" t="s">
         <v>21</v>
       </c>
       <c r="F237" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G237" t="s">
         <v>12</v>
@@ -5904,13 +6053,13 @@
     </row>
     <row r="238" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E238" t="s">
         <v>21</v>
       </c>
       <c r="F238" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I238" t="s">
         <v>12</v>
@@ -5924,7 +6073,7 @@
     </row>
     <row r="239" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D239" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E239" t="s">
         <v>21</v>
@@ -5944,7 +6093,7 @@
     </row>
     <row r="240" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E240" t="s">
         <v>21</v>
@@ -5964,7 +6113,7 @@
     </row>
     <row r="241" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E241" t="s">
         <v>21</v>
@@ -5979,12 +6128,12 @@
         <v>12</v>
       </c>
       <c r="K241" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="242" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E242" t="s">
         <v>21</v>
@@ -5998,7 +6147,7 @@
     </row>
     <row r="243" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E243" t="s">
         <v>31</v>
@@ -6018,7 +6167,7 @@
     </row>
     <row r="244" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E244" t="s">
         <v>31</v>
@@ -6038,13 +6187,13 @@
     </row>
     <row r="245" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E245" t="s">
         <v>31</v>
       </c>
       <c r="F245" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G245" t="s">
         <v>12</v>
@@ -6058,7 +6207,7 @@
     </row>
     <row r="246" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D246" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E246" t="s">
         <v>31</v>
@@ -6075,7 +6224,7 @@
     </row>
     <row r="247" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E247" t="s">
         <v>31</v>
@@ -6095,7 +6244,7 @@
     </row>
     <row r="248" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D248" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E248" t="s">
         <v>31</v>
@@ -6115,13 +6264,13 @@
     </row>
     <row r="249" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E249" t="s">
         <v>31</v>
       </c>
       <c r="F249" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H249" t="s">
         <v>12</v>
@@ -6135,13 +6284,13 @@
     </row>
     <row r="250" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E250" t="s">
         <v>31</v>
       </c>
       <c r="F250" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G250" t="s">
         <v>12</v>
@@ -6155,13 +6304,13 @@
     </row>
     <row r="251" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E251" t="s">
         <v>40</v>
       </c>
       <c r="F251" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K251" t="s">
         <v>33</v>
@@ -6169,7 +6318,7 @@
     </row>
     <row r="252" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E252" t="s">
         <v>40</v>
@@ -6189,7 +6338,7 @@
     </row>
     <row r="253" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E253" t="s">
         <v>40</v>
@@ -6209,16 +6358,16 @@
     </row>
     <row r="254" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E254" t="s">
         <v>40</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K254" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="255" spans="4:12" x14ac:dyDescent="0.25">
@@ -6234,7 +6383,7 @@
     </row>
     <row r="256" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E256" t="s">
         <v>10</v>
@@ -6254,7 +6403,7 @@
     </row>
     <row r="257" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E257" t="s">
         <v>10</v>
@@ -6274,7 +6423,7 @@
     </row>
     <row r="258" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E258" t="s">
         <v>10</v>
@@ -6294,13 +6443,13 @@
     </row>
     <row r="259" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E259" t="s">
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G259" t="s">
         <v>12</v>
@@ -6314,7 +6463,7 @@
     </row>
     <row r="260" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E260" t="s">
         <v>10</v>
@@ -6334,7 +6483,7 @@
     </row>
     <row r="261" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E261" t="s">
         <v>10</v>
@@ -6354,13 +6503,13 @@
     </row>
     <row r="262" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E262" t="s">
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H262" t="s">
         <v>12</v>
@@ -6374,7 +6523,7 @@
     </row>
     <row r="263" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E263" t="s">
         <v>10</v>
@@ -6389,12 +6538,12 @@
         <v>12</v>
       </c>
       <c r="K263" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="264" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E264" t="s">
         <v>21</v>
@@ -6414,7 +6563,7 @@
     </row>
     <row r="265" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E265" t="s">
         <v>21</v>
@@ -6434,13 +6583,13 @@
     </row>
     <row r="266" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D266" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E266" t="s">
         <v>21</v>
       </c>
-      <c r="F266" t="s">
-        <v>50</v>
+      <c r="F266" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="G266" t="s">
         <v>12</v>
@@ -6454,7 +6603,7 @@
     </row>
     <row r="267" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E267" t="s">
         <v>21</v>
@@ -6474,7 +6623,7 @@
     </row>
     <row r="268" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D268" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E268" t="s">
         <v>21</v>
@@ -6494,7 +6643,7 @@
     </row>
     <row r="269" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E269" t="s">
         <v>21</v>
@@ -6514,7 +6663,7 @@
     </row>
     <row r="270" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D270" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E270" t="s">
         <v>21</v>
@@ -6534,13 +6683,13 @@
     </row>
     <row r="271" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E271" t="s">
         <v>21</v>
       </c>
       <c r="F271" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H271" t="s">
         <v>12</v>
@@ -6554,13 +6703,13 @@
     </row>
     <row r="272" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D272" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E272" t="s">
         <v>21</v>
       </c>
       <c r="F272" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G272" t="s">
         <v>12</v>
@@ -6574,7 +6723,7 @@
     </row>
     <row r="273" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E273" t="s">
         <v>21</v>
@@ -6588,13 +6737,13 @@
     </row>
     <row r="274" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E274" t="s">
         <v>31</v>
       </c>
       <c r="F274" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H274" t="s">
         <v>12</v>
@@ -6608,7 +6757,7 @@
     </row>
     <row r="275" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E275" t="s">
         <v>31</v>
@@ -6628,7 +6777,7 @@
     </row>
     <row r="276" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D276" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E276" t="s">
         <v>31</v>
@@ -6648,13 +6797,13 @@
     </row>
     <row r="277" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D277" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E277" t="s">
         <v>31</v>
       </c>
       <c r="F277" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I277" t="s">
         <v>12</v>
@@ -6668,7 +6817,7 @@
     </row>
     <row r="278" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E278" t="s">
         <v>31</v>
@@ -6683,12 +6832,12 @@
         <v>12</v>
       </c>
       <c r="K278" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="279" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E279" t="s">
         <v>31</v>
@@ -6702,13 +6851,13 @@
     </row>
     <row r="280" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D280" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E280" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F280" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G280" s="10" t="s">
         <v>12</v>
@@ -6724,7 +6873,7 @@
     </row>
     <row r="281" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E281" t="s">
         <v>40</v>
@@ -6755,193 +6904,193 @@
     </row>
     <row r="283" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E283" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F283" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I283" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J283" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K283" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="284" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F284" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G284" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H284" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K284" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="285" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F285" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J285" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K285" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="286" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F286" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H286" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I286" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K286" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="287" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F287" t="s">
-        <v>118</v>
+        <v>129</v>
+      </c>
+      <c r="F287" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="I287" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J287" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K287" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="288" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F288" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H288" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K288" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="289" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F289" t="s">
         <v>17</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J289" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K289" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="290" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D290" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F290" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K290" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="291" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D291" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F291" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H291" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I291" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K291" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="292" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D292" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F292" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K292" t="s">
         <v>13</v>
@@ -6949,1070 +7098,2087 @@
     </row>
     <row r="293" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D293" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E293" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F293" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K293" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="294" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D294" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E294" t="s">
+        <v>130</v>
+      </c>
+      <c r="F294" t="s">
+        <v>101</v>
+      </c>
+      <c r="I294" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J294" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K294" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="F294" t="s">
-        <v>102</v>
-      </c>
-      <c r="I294" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J294" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K294" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="295" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D295" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E295" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F295" t="s">
+        <v>102</v>
+      </c>
+      <c r="I295" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J295" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K295" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="F295" t="s">
-        <v>103</v>
-      </c>
-      <c r="I295" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J295" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K295" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="296" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D296" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E296" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F296" t="s">
+        <v>103</v>
+      </c>
+      <c r="I296" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J296" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K296" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="F296" t="s">
-        <v>104</v>
-      </c>
-      <c r="I296" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J296" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K296" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="297" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D297" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F297" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K297" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="298" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D298" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F298" t="s">
-        <v>117</v>
+        <v>130</v>
+      </c>
+      <c r="F298" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K298" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="299" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F299" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I299" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K299" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="300" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D300" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F300" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J300" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K300" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="301" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D301" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F301" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J301" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K301" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="302" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D302" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E302" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F302" s="11" t="s">
         <v>19</v>
       </c>
       <c r="I302" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J302" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K302" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="J302" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="K302" s="12" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="303" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D303" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E303" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F303" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I303" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K303" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="304" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D304" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E304" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F304" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I304" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K304" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="305" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D305" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E305" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F305" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J305" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="306" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D306" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E306" t="s">
-        <v>98</v>
-      </c>
-      <c r="F306" t="s">
-        <v>50</v>
+        <v>97</v>
+      </c>
+      <c r="F306" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I306" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K306" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="307" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D307" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E307" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F307" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I307" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K307" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="308" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D308" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E308" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F308" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K308" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="309" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D309" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E309" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F309" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J309" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K309" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="310" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D310" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E310" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F310" t="s">
         <v>11</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H310" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K310" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="311" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D311" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E311" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F311" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K311" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="312" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D312" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E312" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F312" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I312" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K312" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="313" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E313" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F313" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I313" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J313" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K313" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="314" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D314" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F314" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K314" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="315" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D315" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E315" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F315" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J315" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K315" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="316" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D316" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E316" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F316" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H316" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J316" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K316" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="317" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D317" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F317" t="s">
         <v>19</v>
       </c>
       <c r="G317" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I317" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K317" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="I317" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K317" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="318" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D318" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E318" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F318" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K318" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="319" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D319" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E319" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F319" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K319" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="320" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D320" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E320" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F320" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K320" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="321" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D321" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E321" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F321" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I321" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="322" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D322" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F322" t="s">
         <v>14</v>
       </c>
       <c r="I322" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J322" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K322" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="323" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E323" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F323" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I323" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J323" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K323" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="F323" t="s">
-        <v>119</v>
-      </c>
-      <c r="I323" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J323" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K323" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="324" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D324" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E324" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F324" t="s">
+        <v>50</v>
+      </c>
+      <c r="H324" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J324" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K324" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="F324" t="s">
-        <v>51</v>
-      </c>
-      <c r="H324" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J324" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K324" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="325" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D325" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E325" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F325" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H325" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J325" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K325" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="326" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D326" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E326" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F326" t="s">
+        <v>127</v>
+      </c>
+      <c r="K326" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="F326" t="s">
-        <v>131</v>
-      </c>
-      <c r="K326" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="327" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D327" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E327" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F327" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K327" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="328" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D328" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E328" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F328" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G328" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H328" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K328" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="329" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D329" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E329" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F329" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I329" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J329" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K329" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="330" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D330" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E330" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F330" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H330" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I330" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="331" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D331" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E331" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F331" t="s">
         <v>14</v>
       </c>
       <c r="G331" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H331" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K331" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="332" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D332" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E332" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F332" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H332" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J332" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K332" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="333" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D333" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E333" s="12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F333" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G333" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H333" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K333" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="334" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D334" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E334" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F334" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G334" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H334" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K334" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="335" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D335" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F335" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G335" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J335" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K335" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="336" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D336" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F336" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G336" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J336" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K336" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="337" spans="4:11" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="337" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D337" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F337" t="s">
-        <v>117</v>
+        <v>98</v>
+      </c>
+      <c r="F337" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="I337" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J337" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K337" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="338" spans="4:11" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="338" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D338" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F338" t="s">
         <v>19</v>
       </c>
       <c r="G338" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J338" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K338" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="J338" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K338" s="5" t="s">
+    </row>
+    <row r="339" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D339" t="s">
+        <v>93</v>
+      </c>
+      <c r="E339" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F339" t="s">
+        <v>127</v>
+      </c>
+      <c r="K339" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="339" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D339" t="s">
+    <row r="340" spans="4:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D340" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E340" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F340" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K340" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="341" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D341" t="s">
+        <v>93</v>
+      </c>
+      <c r="E341" t="s">
         <v>94</v>
       </c>
-      <c r="E339" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F339" t="s">
-        <v>131</v>
-      </c>
-      <c r="K339" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="340" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D340" s="11" t="s">
+      <c r="F341" t="s">
+        <v>95</v>
+      </c>
+      <c r="G341" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I341" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K341" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="342" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D342" t="s">
+        <v>93</v>
+      </c>
+      <c r="E342" t="s">
         <v>94</v>
       </c>
-      <c r="E340" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F340" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K340" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="341" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D341" t="s">
-        <v>94</v>
-      </c>
-      <c r="E341" t="s">
-        <v>95</v>
-      </c>
-      <c r="F341" t="s">
-        <v>96</v>
-      </c>
-      <c r="G341" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I341" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K341" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="342" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D342" t="s">
-        <v>94</v>
-      </c>
-      <c r="E342" t="s">
-        <v>95</v>
-      </c>
       <c r="F342" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G342" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H342" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J342" s="5"/>
       <c r="K342" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="343" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D343" t="s">
+        <v>93</v>
+      </c>
+      <c r="E343" t="s">
+        <v>94</v>
+      </c>
+      <c r="F343" t="s">
+        <v>109</v>
+      </c>
+      <c r="H343" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J343" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K343" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="344" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D344" t="s">
+        <v>93</v>
+      </c>
+      <c r="E344" t="s">
+        <v>94</v>
+      </c>
+      <c r="F344" t="s">
+        <v>110</v>
+      </c>
+      <c r="G344" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J344" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K344" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="345" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D345" t="s">
+        <v>93</v>
+      </c>
+      <c r="E345" t="s">
+        <v>94</v>
+      </c>
+      <c r="F345" t="s">
+        <v>50</v>
+      </c>
+      <c r="I345" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J345" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K345" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="346" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D346" t="s">
+        <v>93</v>
+      </c>
+      <c r="E346" t="s">
+        <v>94</v>
+      </c>
+      <c r="F346" t="s">
+        <v>124</v>
+      </c>
+      <c r="G346" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I346" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K346" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="343" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D343" t="s">
+    <row r="347" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D347" t="s">
+        <v>93</v>
+      </c>
+      <c r="E347" t="s">
         <v>94</v>
       </c>
-      <c r="E343" t="s">
-        <v>95</v>
-      </c>
-      <c r="F343" t="s">
-        <v>110</v>
-      </c>
-      <c r="H343" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J343" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K343" s="5" t="s">
+      <c r="F347" t="s">
+        <v>126</v>
+      </c>
+      <c r="G347" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I347" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K347" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="348" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D348" t="s">
+        <v>93</v>
+      </c>
+      <c r="E348" t="s">
+        <v>94</v>
+      </c>
+      <c r="F348" t="s">
+        <v>127</v>
+      </c>
+      <c r="K348" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="349" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+      <c r="G349" s="1"/>
+      <c r="H349" s="1"/>
+      <c r="I349" s="1"/>
+      <c r="J349" s="1"/>
+      <c r="K349" s="1"/>
+      <c r="L349" s="1"/>
+    </row>
+    <row r="350" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D350" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F350" t="s">
+        <v>14</v>
+      </c>
+      <c r="G350" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J350" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K350" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="344" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D344" t="s">
-        <v>94</v>
-      </c>
-      <c r="E344" t="s">
-        <v>95</v>
-      </c>
-      <c r="F344" t="s">
-        <v>111</v>
-      </c>
-      <c r="G344" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J344" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K344" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="345" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D345" t="s">
-        <v>94</v>
-      </c>
-      <c r="E345" t="s">
-        <v>95</v>
-      </c>
-      <c r="F345" t="s">
-        <v>51</v>
-      </c>
-      <c r="I345" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J345" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K345" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="346" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D346" t="s">
-        <v>94</v>
-      </c>
-      <c r="E346" t="s">
-        <v>95</v>
-      </c>
-      <c r="F346" t="s">
-        <v>128</v>
-      </c>
-      <c r="G346" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I346" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K346" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="347" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D347" t="s">
-        <v>94</v>
-      </c>
-      <c r="E347" t="s">
-        <v>95</v>
-      </c>
-      <c r="F347" t="s">
-        <v>130</v>
-      </c>
-      <c r="G347" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I347" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K347" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="348" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D348" t="s">
-        <v>94</v>
-      </c>
-      <c r="E348" t="s">
-        <v>95</v>
-      </c>
-      <c r="F348" t="s">
-        <v>131</v>
-      </c>
-      <c r="K348" s="5" t="s">
-        <v>147</v>
+    <row r="351" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D351" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E351" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F351" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G351" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I351" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K351" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="352" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D352" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G352" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J352" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K352" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="353" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D353" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E353" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F353" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H353" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J353" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K353" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="354" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D354" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E354" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F354" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I354" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J354" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K354" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="355" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D355" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E355" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G355" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H355" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K355" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="356" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D356" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G356" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J356" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K356" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="357" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D357" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E357" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F357" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="K357" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="358" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D358" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="K358" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="359" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D359" s="1"/>
+      <c r="E359" s="1"/>
+      <c r="F359" s="1"/>
+      <c r="G359" s="1"/>
+      <c r="H359" s="1"/>
+      <c r="I359" s="1"/>
+      <c r="J359" s="1"/>
+      <c r="K359" s="1"/>
+      <c r="L359" s="1"/>
+    </row>
+    <row r="360" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D360" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E360" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F360" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G360" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J360" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="361" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D361" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E361" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F361" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H361" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I361" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K361" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="362" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D362" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F362" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G362" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I362" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K362" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="363" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D363" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E363" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F363" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="H363" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I363" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K363" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="364" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D364" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F364" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G364" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J364" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K364" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="365" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D365" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E365" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F365" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I365" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J365" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K365" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="366" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D366" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="I366" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J366" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K366" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="367" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D367" s="1"/>
+      <c r="E367" s="1"/>
+      <c r="F367" s="1"/>
+      <c r="G367" s="1"/>
+      <c r="H367" s="1"/>
+      <c r="I367" s="1"/>
+      <c r="J367" s="1"/>
+      <c r="K367" s="1"/>
+      <c r="L367" s="1"/>
+    </row>
+    <row r="368" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D368" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="I368" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J368" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K368" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="369" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D369" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E369" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F369" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H369" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I369" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K369" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="370" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D370" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H370" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I370" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K370" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="371" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D371" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E371" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F371" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G371" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H371" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K371" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="372" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D372" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G372" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J372" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K372" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="373" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D373" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E373" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G373" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I373" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K373" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="374" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D374" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F374" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H374" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J374" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K374" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="375" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D375" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F375" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G375" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="376" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D376" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F376" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="H376" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="377" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D377" s="1"/>
+      <c r="E377" s="1"/>
+      <c r="F377" s="1"/>
+      <c r="G377" s="1"/>
+      <c r="H377" s="1"/>
+      <c r="I377" s="1"/>
+      <c r="J377" s="1"/>
+      <c r="K377" s="1"/>
+      <c r="L377" s="1"/>
+    </row>
+    <row r="378" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D378" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F378" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H378" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J378" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K378" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="379" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D379" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E379" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H379" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J379" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K379" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="380" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D380" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G380" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J380" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K380" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="381" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D381" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F381" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G381" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H381" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I381" s="5"/>
+      <c r="K381" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="382" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D382" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F382" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G382" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I382" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K382" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="383" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D383" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E383" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F383" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G383" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I383" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K383" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="384" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D384" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F384" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="K384" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="385" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D385" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E385" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F385" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="J385" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="386" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D386" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F386" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="K386" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="387" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D387" s="1"/>
+      <c r="E387" s="1"/>
+      <c r="F387" s="1"/>
+      <c r="G387" s="1"/>
+      <c r="H387" s="1"/>
+      <c r="I387" s="1"/>
+      <c r="J387" s="1"/>
+      <c r="K387" s="1"/>
+      <c r="L387" s="1"/>
+    </row>
+    <row r="388" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D388" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F388" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="K388" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="389" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D389" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E389" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F389" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G389" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="390" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D390" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="K390" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="391" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D391" s="1"/>
+      <c r="E391" s="1"/>
+      <c r="F391" s="1"/>
+      <c r="G391" s="1"/>
+      <c r="H391" s="1"/>
+      <c r="I391" s="1"/>
+      <c r="J391" s="1"/>
+      <c r="K391" s="1"/>
+      <c r="L391" s="1"/>
+    </row>
+    <row r="392" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D392" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G392" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I392" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K392" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="393" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D393" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E393" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F393" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="H393" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I393" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K393" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="394" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D394" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E394" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G394" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J394" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K394" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="395" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D395" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E395" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F395" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H395" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J395" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K395" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="396" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D396" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E396" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F396" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I396" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J396" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K396" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="397" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D397" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E397" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F397" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="I397" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J397" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="398" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D398" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F398" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G398" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="399" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D399" s="1"/>
+      <c r="E399" s="1"/>
+      <c r="F399" s="1"/>
+      <c r="G399" s="1"/>
+      <c r="H399" s="1"/>
+      <c r="I399" s="1"/>
+      <c r="J399" s="1"/>
+      <c r="K399" s="1"/>
+      <c r="L399" s="1"/>
+    </row>
+    <row r="400" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D400" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F400" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H400" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I400" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="401" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D401" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E401" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F401" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G401" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I401" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K401" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="402" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D402" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F402" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I402" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J402" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K402" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="403" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D403" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E403" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F403" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="H403" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="I403" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K403" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="404" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D404" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E404" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F404" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G404" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H404" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K404" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="405" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D405" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E405" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F405" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="I405" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J405" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K405" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="406" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D406" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E406" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F406" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="H406" s="5" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:K348" xr:uid="{42202473-827E-4D3A-A57A-1E273D49D4D8}"/>
+  <autoFilter ref="F1:J406" xr:uid="{084D3D80-701B-4665-AA6D-77A8B5F877C7}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8023,8 +9189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8039,1083 +9205,1083 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="F1" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="G1" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="L1" s="18"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="E3" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="F3" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="G3" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="19" t="s">
+      <c r="H3" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="I3" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="J3" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="K3" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="L3" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="I3" s="19" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="E4" s="16" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="F4" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="H4" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="19" t="s">
+      <c r="I4" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="J4" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="K4" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="K5" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="L18" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="20" t="s">
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="L28" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="L4" s="23" t="s">
+    </row>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="F30" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="G31" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="L32" s="17" t="s">
         <v>183</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="21"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="L17" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="L22" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="21"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="L26" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="L28" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="L32" s="21" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -9134,8 +10300,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9149,33 +10315,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="22">
+        <v>365</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="15">
-        <v>365</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
@@ -9187,13 +10353,13 @@
         <v>365</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -9205,11 +10371,11 @@
         <v>370</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -9222,7 +10388,7 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
@@ -9234,15 +10400,15 @@
       </c>
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="6">
         <v>355</v>
@@ -9250,9 +10416,9 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>31</v>
@@ -9264,13 +10430,13 @@
         <v>370</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>21</v>
@@ -9283,9 +10449,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>31</v>
@@ -9298,9 +10464,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>31</v>
@@ -9309,16 +10475,16 @@
         <v>20</v>
       </c>
       <c r="E11" s="8">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>21</v>
@@ -9327,58 +10493,58 @@
         <v>19</v>
       </c>
       <c r="E12" s="7">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="15">
-        <v>340</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>83</v>
+      <c r="D14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="22">
+        <v>375</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>31</v>
@@ -9386,29 +10552,29 @@
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="7">
-        <v>360</v>
+      <c r="E16" s="23">
+        <v>370</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="15">
-        <v>355</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>83</v>
+      <c r="E17" s="22">
+        <v>375</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>

--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\插件\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2646C00F-D24A-4399-B8C0-D910A61645E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08338437-FA4B-40A9-83BB-AF0F706504C2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普通" sheetId="1" r:id="rId1"/>
@@ -1259,17 +1259,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9189,7 +9189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -10300,8 +10300,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10319,7 +10319,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>81</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -10331,7 +10331,7 @@
       <c r="D2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="20">
         <v>365</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -10339,7 +10339,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="4" t="s">
         <v>73</v>
       </c>
@@ -10357,7 +10357,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
         <v>75</v>
       </c>
@@ -10375,7 +10375,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -10388,7 +10388,7 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
@@ -10400,7 +10400,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="4" t="s">
         <v>58</v>
       </c>
@@ -10416,7 +10416,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="4" t="s">
         <v>58</v>
       </c>
@@ -10434,7 +10434,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4" t="s">
         <v>60</v>
       </c>
@@ -10449,7 +10449,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="4" t="s">
         <v>60</v>
       </c>
@@ -10464,7 +10464,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="4" t="s">
         <v>60</v>
       </c>
@@ -10482,7 +10482,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4" t="s">
         <v>63</v>
       </c>
@@ -10500,7 +10500,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4" t="s">
         <v>63</v>
       </c>
@@ -10512,7 +10512,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="4" t="s">
         <v>71</v>
       </c>
@@ -10522,7 +10522,7 @@
       <c r="D14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="20">
         <v>375</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -10530,7 +10530,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4" t="s">
         <v>71</v>
       </c>
@@ -10542,7 +10542,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4" t="s">
         <v>66</v>
       </c>
@@ -10552,7 +10552,7 @@
       <c r="D16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <v>370</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -10560,7 +10560,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="4" t="s">
         <v>69</v>
       </c>
@@ -10570,8 +10570,8 @@
       <c r="D17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="22">
-        <v>375</v>
+      <c r="E17" s="20">
+        <v>390</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>82</v>

--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\插件\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08338437-FA4B-40A9-83BB-AF0F706504C2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD36F22-BD00-4F3A-BF00-EF7C5A39B4B8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">普通!$F$1:$J$406</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">其他!$B$1:$F$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">战士!$G$1:$G$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">战士!$G$1:$G$29</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="309">
   <si>
     <t>副本名称</t>
   </si>
@@ -1200,7 +1200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1270,6 +1270,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9187,10 +9196,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9237,232 +9246,266 @@
       <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="C2" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="D2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="17"/>
+        <v>167</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>154</v>
+      </c>
       <c r="D3" s="15" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>159</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>165</v>
+        <v>174</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="17"/>
+        <v>177</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>154</v>
+      </c>
       <c r="D4" s="15" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>172</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>175</v>
+        <v>183</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="17"/>
+        <v>186</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>154</v>
+      </c>
       <c r="D5" s="15" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>163</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="17"/>
+        <v>194</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>154</v>
+      </c>
       <c r="D6" s="15" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="H6" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>163</v>
-      </c>
       <c r="K6" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>192</v>
+        <v>201</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="17"/>
+        <v>203</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>154</v>
+      </c>
       <c r="D7" s="15" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="17"/>
+        <v>211</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>154</v>
+      </c>
       <c r="D8" s="15" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="L8" s="19" t="s">
         <v>209</v>
@@ -9470,229 +9513,263 @@
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" s="17"/>
+        <v>217</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>154</v>
+      </c>
       <c r="D9" s="15" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="G9" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>160</v>
-      </c>
       <c r="H10" s="16" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>175</v>
+        <v>165</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14" t="s">
+        <v>155</v>
+      </c>
       <c r="B11" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C11" s="17"/>
+        <v>222</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>221</v>
+      </c>
       <c r="D11" s="15" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>218</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>190</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>226</v>
+      </c>
       <c r="C12" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="17"/>
+      <c r="D12" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C13" s="17"/>
+        <v>231</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>221</v>
+      </c>
       <c r="D13" s="15" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="C14" s="17"/>
+        <v>235</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>221</v>
+      </c>
       <c r="D14" s="15" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>230</v>
+        <v>237</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="17"/>
+        <v>238</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>221</v>
+      </c>
       <c r="D15" s="15" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="I15" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J15" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="J15" s="15" t="s">
-        <v>215</v>
-      </c>
       <c r="K15" s="14" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="L15" s="19" t="s">
         <v>209</v>
@@ -9700,594 +9777,534 @@
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C16" s="17"/>
+        <v>242</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>221</v>
+      </c>
       <c r="D16" s="15" t="s">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>214</v>
+        <v>208</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="17"/>
+        <v>305</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>221</v>
+      </c>
       <c r="D17" s="15" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>188</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="H17" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="I18" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="I17" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>171</v>
-      </c>
       <c r="J18" s="15" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C19" s="17"/>
+        <v>306</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>221</v>
+      </c>
       <c r="D19" s="15" t="s">
-        <v>212</v>
+        <v>307</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="K19" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="L19" s="15" t="s">
         <v>174</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C20" s="17"/>
+        <v>248</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>221</v>
+      </c>
       <c r="D20" s="15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C21" s="17"/>
+        <v>252</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>251</v>
+      </c>
       <c r="D21" s="15" t="s">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>215</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14" t="s">
+        <v>234</v>
+      </c>
       <c r="B22" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C22" s="17"/>
+        <v>254</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>251</v>
+      </c>
       <c r="D22" s="15" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="K22" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="L22" s="15" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>256</v>
+      </c>
       <c r="C23" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="17"/>
+      <c r="D23" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C24" s="17"/>
+        <v>257</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>251</v>
+      </c>
       <c r="D24" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>237</v>
+        <v>162</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C25" s="17"/>
+        <v>258</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>251</v>
+      </c>
       <c r="D25" s="15" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>182</v>
+        <v>191</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>224</v>
+        <v>192</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C26" s="17"/>
+        <v>262</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>251</v>
+      </c>
       <c r="D26" s="15" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>209</v>
+        <v>183</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="C27" s="17"/>
+        <v>263</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>251</v>
+      </c>
       <c r="D27" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>189</v>
       </c>
       <c r="H27" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="I27" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="I27" s="16" t="s">
-        <v>214</v>
-      </c>
       <c r="J27" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>215</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="L28" s="19" t="s">
-        <v>175</v>
+      <c r="L28" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C29" s="17"/>
+        <v>266</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>251</v>
+      </c>
       <c r="D29" s="15" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>228</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="I29" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="J29" s="15" t="s">
-        <v>200</v>
+      <c r="I29" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>220</v>
       </c>
       <c r="K29" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="L29" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="L29" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="L31" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="L32" s="17" t="s">
-        <v>183</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G32" xr:uid="{6C4F1E19-DEEF-4B11-B550-F7600B59834D}"/>
-  <sortState ref="A1:C66">
-    <sortCondition ref="B1:B66"/>
+  <autoFilter ref="G1:G29" xr:uid="{6C4F1E19-DEEF-4B11-B550-F7600B59834D}"/>
+  <sortState ref="A1:C63">
+    <sortCondition ref="B1:B63"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10301,7 +10318,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10322,19 +10339,19 @@
       <c r="A2" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="25">
         <v>365</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="24" t="s">
         <v>82</v>
       </c>
     </row>
@@ -10350,7 +10367,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="7">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>144</v>
@@ -10483,19 +10500,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="26">
         <v>365</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="24" t="s">
         <v>144</v>
       </c>
     </row>

--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\插件\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD36F22-BD00-4F3A-BF00-EF7C5A39B4B8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0CAE9F-0AC1-48A3-9C41-7BCED2698929}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普通" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,15 @@
     <sheet name="其他" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">普通!$F$1:$J$406</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">其他!$B$1:$F$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">战士!$G$1:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">普通!$D$1:$K$406</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">战士!$G$1:$G$31</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="303">
   <si>
     <t>副本名称</t>
   </si>
@@ -249,13 +248,77 @@
   </si>
   <si>
     <t>围攻伯拉勒斯</t>
+  </si>
+  <si>
+    <t>长柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公测新飞机头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>坐骑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地渊孢林</t>
+    <t>咸饼干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅猛龙枯骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁甲脚</t>
+  </si>
+  <si>
+    <t>锁甲脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲脚</t>
+  </si>
+  <si>
+    <t>布甲脚</t>
+  </si>
+  <si>
+    <t>皮甲脚</t>
+  </si>
+  <si>
+    <t>奥迪尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双手剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -263,7 +326,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装备类型</t>
+    <t>双手锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单手锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单手战刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匕首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单手斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单手剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>披风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁甲护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布甲护腕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -271,7 +390,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精通</t>
+    <t>皮甲腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁甲腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁甲腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布甲腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮甲腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布甲脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮甲脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁甲脚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -279,188 +434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武器
-(暴击、急速)
-没有手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测新飞机头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐骑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咸饼干</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迅猛龙枯骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁甲脚</t>
-  </si>
-  <si>
-    <t>锁甲脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板甲脚</t>
-  </si>
-  <si>
-    <t>布甲脚</t>
-  </si>
-  <si>
-    <t>皮甲脚</t>
-  </si>
-  <si>
-    <t>奥迪尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双手剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长柄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双手锤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单手锤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单手战刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>匕首</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拳套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单手斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单手剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪械</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>披风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁甲护腕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布甲护腕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板甲护腕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮甲腰带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁甲腰带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板甲腰带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁甲腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布甲腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮甲腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板甲腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布甲脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮甲脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锁甲脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>板甲脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>饰品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -517,24 +490,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量/敏捷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>副本名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>装备名</t>
@@ -547,29 +504,29 @@
   </si>
   <si>
     <t>狂暴</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>防护</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中圈</t>
   </si>
   <si>
     <t>内圈</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>肩部</t>
   </si>
   <si>
     <t>围攻伯拉勒斯</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>海怪壳护肩</t>
@@ -582,7 +539,7 @@
   </si>
   <si>
     <t>雷音贯耳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>刽子手的精准</t>
@@ -604,7 +561,7 @@
   </si>
   <si>
     <t>塞塔里斯神庙</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>克拉西斯封印者肩铠</t>
@@ -635,7 +592,7 @@
   </si>
   <si>
     <t>暴富矿区</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>灼天者肩铠</t>
@@ -648,11 +605,11 @@
   </si>
   <si>
     <t>抵御冲击</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>地震波</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>烧蚀护盾</t>
@@ -665,7 +622,7 @@
   </si>
   <si>
     <t>维克雷斯庄园</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>锐角恐惧肩铠</t>
@@ -675,7 +632,7 @@
   </si>
   <si>
     <t>无情报复</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>力量的考验</t>
@@ -691,7 +648,7 @@
   </si>
   <si>
     <t>自由镇</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>钳嘴肩铠</t>
@@ -719,7 +676,7 @@
   </si>
   <si>
     <t>诸王之眠</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>一统肩甲</t>
@@ -732,7 +689,7 @@
   </si>
   <si>
     <t>坚不可破</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>战争之王</t>
@@ -745,7 +702,7 @@
   </si>
   <si>
     <t>奥迪尔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>几丁质脊柱肩胃（拆解者）</t>
@@ -755,18 +712,18 @@
   </si>
   <si>
     <t>钢铁要塞</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>压倒力量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>艾泽里特液球</t>
   </si>
   <si>
     <t>世界BOSS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>冰雕肩甲（冰雹构造体）</t>
@@ -794,7 +751,7 @@
   </si>
   <si>
     <t>地渊孢林</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>动脉防护胸甲</t>
@@ -804,15 +761,15 @@
   </si>
   <si>
     <t>血律</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>艾泽里特血脉</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>艾泽里特液球</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>沙漠卫士胸甲</t>
@@ -825,7 +782,7 @@
   </si>
   <si>
     <t>托尔达戈</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>艾什凡卫士胸铠</t>
@@ -844,11 +801,11 @@
   </si>
   <si>
     <t>裂肠者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>风暴神殿</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>深渊住民护胸</t>
@@ -867,7 +824,7 @@
   </si>
   <si>
     <t>诅咒进军</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>碎雷胸甲（基阿拉克）</t>
@@ -907,11 +864,11 @@
   </si>
   <si>
     <t>坚不可摧</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>阿塔达萨</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>织魂头盔</t>
@@ -924,7 +881,7 @@
   </si>
   <si>
     <t>元素回旋</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>石化冥界面具（提赞）</t>
@@ -1092,7 +1049,7 @@
   </si>
   <si>
     <t>雄狮之吼肩甲（阿拉希boss）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>剧毒诱变护胸（维克提斯）</t>
@@ -1100,7 +1057,7 @@
   </si>
   <si>
     <t>抛光的持盾卫士的胸甲（阿拉希boss）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>团结一致</t>
@@ -1108,6 +1065,24 @@
   </si>
   <si>
     <t>众志成城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁甲腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器
+(暴击、急速)
+没有手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷/力量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1115,7 +1090,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1133,21 +1108,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1200,7 +1160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1210,25 +1170,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -1243,42 +1188,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1587,8 +1517,8 @@
   <dimension ref="D1:L406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F413" sqref="F413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1556,7 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1643,7 +1573,7 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K2" t="s">
@@ -1663,7 +1593,7 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K3" t="s">
@@ -1683,7 +1613,7 @@
       <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K4" t="s">
@@ -1703,7 +1633,7 @@
       <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K5" t="s">
@@ -1723,7 +1653,7 @@
       <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1765,7 +1695,7 @@
       <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I9" t="s">
@@ -1785,7 +1715,7 @@
       <c r="F10" t="s">
         <v>25</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I10" t="s">
@@ -1808,7 +1738,7 @@
       <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K11" t="s">
@@ -1828,7 +1758,7 @@
       <c r="I12" t="s">
         <v>12</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K12" t="s">
@@ -1848,7 +1778,7 @@
       <c r="H13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K13" t="s">
@@ -1868,7 +1798,7 @@
       <c r="G14" t="s">
         <v>12</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K14" t="s">
@@ -1885,7 +1815,7 @@
       <c r="F15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J15" t="s">
@@ -1902,10 +1832,10 @@
       <c r="E16" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H16" t="s">
@@ -1923,12 +1853,12 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K17" t="s">
@@ -1945,7 +1875,7 @@
       <c r="F18" t="s">
         <v>32</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H18" t="s">
@@ -1968,7 +1898,7 @@
       <c r="G19" t="s">
         <v>12</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K19" t="s">
@@ -1985,7 +1915,7 @@
       <c r="F20" t="s">
         <v>35</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I20" t="s">
@@ -2002,7 +1932,7 @@
       <c r="F21" t="s">
         <v>36</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H21" t="s">
@@ -2025,7 +1955,7 @@
       <c r="I22" t="s">
         <v>12</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K22" t="s">
@@ -2045,7 +1975,7 @@
       <c r="H23" t="s">
         <v>12</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K23" t="s">
@@ -2060,12 +1990,12 @@
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K24" t="s">
@@ -2096,7 +2026,7 @@
       <c r="F26" t="s">
         <v>41</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J26" t="s">
@@ -2119,7 +2049,7 @@
       <c r="H27" t="s">
         <v>12</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K27" t="s">
@@ -2139,9 +2069,7 @@
       <c r="G28" t="s">
         <v>12</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
@@ -2181,7 +2109,7 @@
       <c r="I31" t="s">
         <v>12</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K31" t="s">
@@ -2201,7 +2129,7 @@
       <c r="G32" t="s">
         <v>12</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K32" t="s">
@@ -2218,7 +2146,7 @@
       <c r="F33" t="s">
         <v>47</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J33" t="s">
@@ -2241,7 +2169,7 @@
       <c r="H34" t="s">
         <v>12</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K34" t="s">
@@ -2258,7 +2186,7 @@
       <c r="F35" t="s">
         <v>26</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J35" t="s">
@@ -2278,7 +2206,7 @@
       <c r="F36" t="s">
         <v>29</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J36" t="s">
@@ -2298,7 +2226,7 @@
       <c r="F37" t="s">
         <v>17</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I37" t="s">
@@ -2318,7 +2246,7 @@
       <c r="F38" t="s">
         <v>38</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H38" t="s">
@@ -2336,12 +2264,12 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I39" t="s">
         <v>12</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K39" t="s">
@@ -2356,9 +2284,9 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>88</v>
-      </c>
-      <c r="H40" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I40" t="s">
@@ -2381,7 +2309,7 @@
       <c r="G41" t="s">
         <v>12</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K41" t="s">
@@ -2398,7 +2326,7 @@
       <c r="F42" t="s">
         <v>49</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J42" t="s">
@@ -2415,13 +2343,13 @@
       <c r="E43" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>286</v>
+      <c r="F43" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K43" t="s">
@@ -2438,7 +2366,7 @@
       <c r="F44" t="s">
         <v>50</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J44" t="s">
@@ -2458,7 +2386,7 @@
       <c r="F45" t="s">
         <v>37</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J45" t="s">
@@ -2476,12 +2404,12 @@
         <v>21</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I46" t="s">
         <v>12</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K46" t="s">
@@ -2498,7 +2426,7 @@
       <c r="F47" t="s">
         <v>19</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H47" t="s">
@@ -2549,7 +2477,7 @@
       <c r="H50" t="s">
         <v>12</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K50" t="s">
@@ -2566,7 +2494,7 @@
       <c r="F51" t="s">
         <v>34</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I51" t="s">
@@ -2586,7 +2514,7 @@
       <c r="F52" t="s">
         <v>42</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J52" t="s">
@@ -2609,7 +2537,7 @@
       <c r="G53" t="s">
         <v>12</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K53" t="s">
@@ -2629,7 +2557,7 @@
       <c r="G54" t="s">
         <v>12</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K54" t="s">
@@ -2660,7 +2588,7 @@
       <c r="F56" t="s">
         <v>48</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J56" t="s">
@@ -2683,7 +2611,7 @@
       <c r="H57" t="s">
         <v>12</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K57" t="s">
@@ -2723,12 +2651,12 @@
         <v>10</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H60" t="s">
         <v>12</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K60" t="s">
@@ -2736,24 +2664,24 @@
       </c>
     </row>
     <row r="61" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K61" s="10" t="s">
+      <c r="G61" s="6"/>
+      <c r="H61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K61" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2767,7 +2695,7 @@
       <c r="F62" t="s">
         <v>56</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J62" t="s">
@@ -2790,7 +2718,7 @@
       <c r="G63" t="s">
         <v>12</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K63" t="s">
@@ -2807,7 +2735,7 @@
       <c r="F64" t="s">
         <v>36</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I64" t="s">
@@ -2827,7 +2755,7 @@
       <c r="F65" t="s">
         <v>37</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J65" t="s">
@@ -2850,7 +2778,7 @@
       <c r="G66" t="s">
         <v>12</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K66" t="s">
@@ -2870,7 +2798,7 @@
       <c r="I67" t="s">
         <v>12</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K67" t="s">
@@ -2887,7 +2815,7 @@
       <c r="F68" t="s">
         <v>34</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H68" t="s">
@@ -2907,7 +2835,7 @@
       <c r="F69" t="s">
         <v>35</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I69" t="s">
@@ -2927,7 +2855,7 @@
       <c r="I70" t="s">
         <v>12</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K70" t="s">
@@ -2947,7 +2875,7 @@
       <c r="H71" t="s">
         <v>12</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K71" t="s">
@@ -2962,12 +2890,12 @@
         <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s">
         <v>12</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K72" t="s">
@@ -3001,7 +2929,7 @@
       <c r="H74" t="s">
         <v>12</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K74" t="s">
@@ -3021,7 +2949,7 @@
       <c r="G75" t="s">
         <v>12</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K75" t="s">
@@ -3041,7 +2969,7 @@
       <c r="G76" t="s">
         <v>12</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K76" t="s">
@@ -3058,7 +2986,7 @@
       <c r="F77" t="s">
         <v>29</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I77" t="s">
@@ -3078,7 +3006,7 @@
       <c r="F78" t="s">
         <v>50</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H78" t="s">
@@ -3101,7 +3029,7 @@
       <c r="H79" t="s">
         <v>12</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K79" t="s">
@@ -3116,12 +3044,12 @@
         <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H80" t="s">
         <v>12</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K80" t="s">
@@ -3136,12 +3064,12 @@
         <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K81" t="s">
@@ -3175,7 +3103,7 @@
       <c r="G83" t="s">
         <v>12</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K83" t="s">
@@ -3192,7 +3120,7 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I84" t="s">
@@ -3212,7 +3140,7 @@
       <c r="F85" t="s">
         <v>57</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H85" t="s">
@@ -3257,7 +3185,7 @@
       <c r="F88" t="s">
         <v>59</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J88" t="s">
@@ -3280,7 +3208,7 @@
       <c r="I89" t="s">
         <v>12</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K89" t="s">
@@ -3300,7 +3228,7 @@
       <c r="I90" t="s">
         <v>12</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J90" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K90" t="s">
@@ -3314,10 +3242,10 @@
       <c r="E91" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="F91" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H91" t="s">
@@ -3337,7 +3265,7 @@
       <c r="F92" t="s">
         <v>28</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I92" t="s">
@@ -3360,7 +3288,7 @@
       <c r="I93" t="s">
         <v>12</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K93" t="s">
@@ -3377,7 +3305,7 @@
       <c r="F94" t="s">
         <v>19</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J94" t="s">
@@ -3397,7 +3325,7 @@
       <c r="F95" t="s">
         <v>47</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I95" t="s">
@@ -3420,7 +3348,7 @@
       <c r="G96" t="s">
         <v>12</v>
       </c>
-      <c r="J96" t="s">
+      <c r="J96" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K96" t="s">
@@ -3437,7 +3365,7 @@
       <c r="F97" t="s">
         <v>42</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H97" t="s">
@@ -3457,7 +3385,7 @@
       <c r="F98" t="s">
         <v>16</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J98" t="s">
@@ -3480,7 +3408,7 @@
       <c r="G99" t="s">
         <v>12</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K99" t="s">
@@ -3500,7 +3428,7 @@
       <c r="H100" t="s">
         <v>12</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K100" t="s">
@@ -3515,9 +3443,9 @@
         <v>21</v>
       </c>
       <c r="F101" t="s">
-        <v>90</v>
-      </c>
-      <c r="I101" t="s">
+        <v>84</v>
+      </c>
+      <c r="I101" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J101" t="s">
@@ -3535,12 +3463,12 @@
         <v>21</v>
       </c>
       <c r="F102" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H102" t="s">
         <v>12</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K102" t="s">
@@ -3574,7 +3502,7 @@
       <c r="F104" t="s">
         <v>57</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J104" t="s">
@@ -3597,7 +3525,7 @@
       <c r="I105" t="s">
         <v>12</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J105" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3611,7 +3539,7 @@
       <c r="F106" t="s">
         <v>25</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J106" t="s">
@@ -3631,7 +3559,7 @@
       <c r="F107" t="s">
         <v>27</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I107" t="s">
@@ -3654,7 +3582,7 @@
       <c r="G108" t="s">
         <v>12</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J108" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K108" t="s">
@@ -3674,7 +3602,7 @@
       <c r="G109" t="s">
         <v>12</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K109" t="s">
@@ -3689,9 +3617,9 @@
         <v>31</v>
       </c>
       <c r="F110" t="s">
-        <v>91</v>
-      </c>
-      <c r="G110" t="s">
+        <v>85</v>
+      </c>
+      <c r="G110" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J110" t="s">
@@ -3711,7 +3639,7 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I111" t="s">
@@ -3742,11 +3670,11 @@
       <c r="E113" t="s">
         <v>40</v>
       </c>
-      <c r="F113" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K113" s="5" t="s">
-        <v>83</v>
+      <c r="F113" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="114" spans="4:12" x14ac:dyDescent="0.25">
@@ -3770,7 +3698,7 @@
       <c r="F115" t="s">
         <v>24</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H115" t="s">
@@ -3790,7 +3718,7 @@
       <c r="F116" t="s">
         <v>56</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H116" t="s">
@@ -3810,7 +3738,7 @@
       <c r="F117" t="s">
         <v>14</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I117" t="s">
@@ -3830,7 +3758,7 @@
       <c r="F118" t="s">
         <v>26</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J118" t="s">
@@ -3850,7 +3778,7 @@
       <c r="F119" t="s">
         <v>42</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H119" t="s">
@@ -3870,7 +3798,7 @@
       <c r="F120" t="s">
         <v>36</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H120" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J120" t="s">
@@ -3893,7 +3821,7 @@
       <c r="H121" t="s">
         <v>12</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K121" t="s">
@@ -3910,7 +3838,7 @@
       <c r="F122" t="s">
         <v>38</v>
       </c>
-      <c r="H122" t="s">
+      <c r="H122" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I122" t="s">
@@ -3928,12 +3856,12 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H123" t="s">
         <v>12</v>
       </c>
-      <c r="J123" t="s">
+      <c r="J123" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K123" t="s">
@@ -3950,7 +3878,7 @@
       <c r="F124" t="s">
         <v>22</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I124" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J124" t="s">
@@ -3973,7 +3901,7 @@
       <c r="H125" t="s">
         <v>12</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J125" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K125" t="s">
@@ -3993,7 +3921,7 @@
       <c r="G126" t="s">
         <v>12</v>
       </c>
-      <c r="I126" t="s">
+      <c r="I126" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K126" t="s">
@@ -4010,7 +3938,7 @@
       <c r="F127" t="s">
         <v>29</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H127" t="s">
@@ -4030,7 +3958,7 @@
       <c r="F128" t="s">
         <v>17</v>
       </c>
-      <c r="I128" t="s">
+      <c r="I128" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J128" t="s">
@@ -4050,7 +3978,7 @@
       <c r="F129" t="s">
         <v>19</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J129" t="s">
@@ -4101,7 +4029,7 @@
       <c r="F132" t="s">
         <v>35</v>
       </c>
-      <c r="I132" t="s">
+      <c r="I132" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J132" t="s">
@@ -4118,7 +4046,7 @@
       <c r="F133" t="s">
         <v>47</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J133" t="s">
@@ -4138,7 +4066,7 @@
       <c r="F134" t="s">
         <v>27</v>
       </c>
-      <c r="I134" t="s">
+      <c r="I134" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J134" t="s">
@@ -4158,7 +4086,7 @@
       <c r="F135" t="s">
         <v>30</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J135" t="s">
@@ -4176,12 +4104,12 @@
         <v>31</v>
       </c>
       <c r="F136" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G136" t="s">
         <v>12</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K136" t="s">
@@ -4212,7 +4140,7 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H138" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J138" t="s">
@@ -4229,10 +4157,10 @@
       <c r="E139" t="s">
         <v>40</v>
       </c>
-      <c r="F139" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H139" t="s">
+      <c r="F139" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H139" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I139" t="s">
@@ -4255,7 +4183,7 @@
       <c r="G140" t="s">
         <v>12</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K140" t="s">
@@ -4272,7 +4200,7 @@
       <c r="F141" t="s">
         <v>16</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H141" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I141" t="s">
@@ -4290,9 +4218,9 @@
         <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>92</v>
-      </c>
-      <c r="G142" t="s">
+        <v>86</v>
+      </c>
+      <c r="G142" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J142" t="s">
@@ -4315,7 +4243,7 @@
       <c r="H143" t="s">
         <v>12</v>
       </c>
-      <c r="I143" t="s">
+      <c r="I143" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K143" t="s">
@@ -4349,7 +4277,7 @@
       <c r="G145" t="s">
         <v>12</v>
       </c>
-      <c r="H145" t="s">
+      <c r="H145" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K145" t="s">
@@ -4368,24 +4296,24 @@
       <c r="L146" s="1"/>
     </row>
     <row r="147" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D147" s="10" t="s">
+      <c r="D147" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E147" s="10" t="s">
+      <c r="E147" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F147" s="10" t="s">
+      <c r="F147" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G147" s="10"/>
-      <c r="H147" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I147" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J147" s="10"/>
-      <c r="K147" s="10" t="s">
+      <c r="G147" s="6"/>
+      <c r="H147" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4402,7 +4330,7 @@
       <c r="G148" t="s">
         <v>12</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4419,7 +4347,7 @@
       <c r="G149" t="s">
         <v>12</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H149" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K149" t="s">
@@ -4439,7 +4367,7 @@
       <c r="G150" t="s">
         <v>12</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K150" t="s">
@@ -4459,7 +4387,7 @@
       <c r="H151" t="s">
         <v>12</v>
       </c>
-      <c r="J151" t="s">
+      <c r="J151" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K151" t="s">
@@ -4474,12 +4402,12 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G152" t="s">
         <v>12</v>
       </c>
-      <c r="I152" t="s">
+      <c r="I152" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K152" t="s">
@@ -4499,7 +4427,7 @@
       <c r="G153" t="s">
         <v>12</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H153" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K153" t="s">
@@ -4516,7 +4444,7 @@
       <c r="F154" t="s">
         <v>57</v>
       </c>
-      <c r="H154" t="s">
+      <c r="H154" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I154" t="s">
@@ -4539,7 +4467,7 @@
       <c r="H155" t="s">
         <v>12</v>
       </c>
-      <c r="J155" t="s">
+      <c r="J155" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K155" t="s">
@@ -4556,7 +4484,7 @@
       <c r="F156" t="s">
         <v>26</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H156" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I156" t="s">
@@ -4576,7 +4504,7 @@
       <c r="F157" t="s">
         <v>50</v>
       </c>
-      <c r="I157" t="s">
+      <c r="I157" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J157" t="s">
@@ -4596,7 +4524,7 @@
       <c r="F158" t="s">
         <v>38</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J158" t="s">
@@ -4614,12 +4542,12 @@
         <v>21</v>
       </c>
       <c r="F159" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G159" t="s">
         <v>12</v>
       </c>
-      <c r="I159" t="s">
+      <c r="I159" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K159" t="s">
@@ -4639,7 +4567,7 @@
       <c r="I160" t="s">
         <v>12</v>
       </c>
-      <c r="J160" t="s">
+      <c r="J160" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K160" t="s">
@@ -4659,7 +4587,7 @@
       <c r="H161" t="s">
         <v>12</v>
       </c>
-      <c r="J161" t="s">
+      <c r="J161" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K161" t="s">
@@ -4676,7 +4604,7 @@
       <c r="F162" t="s">
         <v>14</v>
       </c>
-      <c r="H162" t="s">
+      <c r="H162" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J162" t="s">
@@ -4696,7 +4624,7 @@
       <c r="F163" t="s">
         <v>42</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H163" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I163" t="s">
@@ -4716,7 +4644,7 @@
       <c r="F164" t="s">
         <v>28</v>
       </c>
-      <c r="H164" t="s">
+      <c r="H164" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J164" t="s">
@@ -4736,7 +4664,7 @@
       <c r="F165" t="s">
         <v>27</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H165" t="s">
@@ -4753,10 +4681,10 @@
       <c r="E166" t="s">
         <v>31</v>
       </c>
-      <c r="F166" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H166" t="s">
+      <c r="F166" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H166" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J166" t="s">
@@ -4776,7 +4704,7 @@
       <c r="F167" t="s">
         <v>30</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I167" t="s">
@@ -4796,7 +4724,7 @@
       <c r="F168" t="s">
         <v>17</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J168" t="s">
@@ -4814,9 +4742,9 @@
         <v>31</v>
       </c>
       <c r="F169" t="s">
-        <v>88</v>
-      </c>
-      <c r="G169" t="s">
+        <v>82</v>
+      </c>
+      <c r="G169" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I169" t="s">
@@ -4839,7 +4767,7 @@
       <c r="I170" t="s">
         <v>12</v>
       </c>
-      <c r="J170" t="s">
+      <c r="J170" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K170" t="s">
@@ -4867,11 +4795,11 @@
       <c r="E172" t="s">
         <v>40</v>
       </c>
-      <c r="F172" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K172" s="5" t="s">
-        <v>86</v>
+      <c r="F172" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="173" spans="4:12" x14ac:dyDescent="0.25">
@@ -4898,7 +4826,7 @@
       <c r="I174" t="s">
         <v>12</v>
       </c>
-      <c r="J174" t="s">
+      <c r="J174" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K174" t="s">
@@ -4915,7 +4843,7 @@
       <c r="F175" t="s">
         <v>56</v>
       </c>
-      <c r="H175" t="s">
+      <c r="H175" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I175" t="s">
@@ -4935,7 +4863,7 @@
       <c r="F176" t="s">
         <v>47</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I176" t="s">
@@ -4955,7 +4883,7 @@
       <c r="F177" t="s">
         <v>29</v>
       </c>
-      <c r="H177" t="s">
+      <c r="H177" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J177" t="s">
@@ -4978,7 +4906,7 @@
       <c r="G178" t="s">
         <v>12</v>
       </c>
-      <c r="J178" t="s">
+      <c r="J178" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K178" t="s">
@@ -4998,7 +4926,7 @@
       <c r="H179" t="s">
         <v>12</v>
       </c>
-      <c r="J179" t="s">
+      <c r="J179" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K179" t="s">
@@ -5013,12 +4941,12 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G180" t="s">
         <v>12</v>
       </c>
-      <c r="I180" t="s">
+      <c r="I180" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K180" t="s">
@@ -5052,7 +4980,7 @@
       <c r="H182" t="s">
         <v>12</v>
       </c>
-      <c r="J182" t="s">
+      <c r="J182" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K182" t="s">
@@ -5072,7 +5000,7 @@
       <c r="G183" t="s">
         <v>12</v>
       </c>
-      <c r="J183" t="s">
+      <c r="J183" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5089,7 +5017,7 @@
       <c r="I184" t="s">
         <v>12</v>
       </c>
-      <c r="J184" t="s">
+      <c r="J184" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K184" t="s">
@@ -5109,7 +5037,7 @@
       <c r="H185" t="s">
         <v>12</v>
       </c>
-      <c r="I185" t="s">
+      <c r="I185" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K185" t="s">
@@ -5123,10 +5051,10 @@
       <c r="E186" t="s">
         <v>21</v>
       </c>
-      <c r="F186" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G186" t="s">
+      <c r="F186" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G186" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J186" t="s">
@@ -5149,7 +5077,7 @@
       <c r="G187" t="s">
         <v>12</v>
       </c>
-      <c r="I187" t="s">
+      <c r="I187" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K187" t="s">
@@ -5183,7 +5111,7 @@
       <c r="G189" t="s">
         <v>12</v>
       </c>
-      <c r="J189" t="s">
+      <c r="J189" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K189" t="s">
@@ -5200,7 +5128,7 @@
       <c r="F190" t="s">
         <v>49</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I190" t="s">
@@ -5220,7 +5148,7 @@
       <c r="F191" t="s">
         <v>34</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J191" t="s">
@@ -5240,7 +5168,7 @@
       <c r="F192" t="s">
         <v>14</v>
       </c>
-      <c r="H192" t="s">
+      <c r="H192" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I192" t="s">
@@ -5260,7 +5188,7 @@
       <c r="F193" t="s">
         <v>37</v>
       </c>
-      <c r="H193" t="s">
+      <c r="H193" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I193" t="s">
@@ -5278,9 +5206,9 @@
         <v>31</v>
       </c>
       <c r="F194" t="s">
-        <v>91</v>
-      </c>
-      <c r="G194" t="s">
+        <v>85</v>
+      </c>
+      <c r="G194" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I194" t="s">
@@ -5300,7 +5228,7 @@
       <c r="F195" t="s">
         <v>19</v>
       </c>
-      <c r="H195" t="s">
+      <c r="H195" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J195" t="s">
@@ -5345,7 +5273,7 @@
       <c r="F198" t="s">
         <v>24</v>
       </c>
-      <c r="H198" t="s">
+      <c r="H198" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J198" t="s">
@@ -5368,7 +5296,7 @@
       <c r="H199" t="s">
         <v>12</v>
       </c>
-      <c r="I199" t="s">
+      <c r="I199" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K199" t="s">
@@ -5383,9 +5311,9 @@
         <v>40</v>
       </c>
       <c r="F200" t="s">
-        <v>88</v>
-      </c>
-      <c r="I200" t="s">
+        <v>82</v>
+      </c>
+      <c r="I200" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J200" t="s">
@@ -5433,7 +5361,7 @@
       <c r="I203" t="s">
         <v>12</v>
       </c>
-      <c r="J203" t="s">
+      <c r="J203" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K203" t="s">
@@ -5450,7 +5378,7 @@
       <c r="F204" t="s">
         <v>27</v>
       </c>
-      <c r="H204" t="s">
+      <c r="H204" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J204" t="s">
@@ -5470,7 +5398,7 @@
       <c r="F205" t="s">
         <v>50</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G205" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I205" t="s">
@@ -5488,9 +5416,9 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>90</v>
-      </c>
-      <c r="H206" t="s">
+        <v>84</v>
+      </c>
+      <c r="H206" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J206" t="s">
@@ -5513,7 +5441,7 @@
       <c r="G207" t="s">
         <v>12</v>
       </c>
-      <c r="I207" t="s">
+      <c r="I207" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K207" t="s">
@@ -5561,7 +5489,7 @@
       <c r="I210" t="s">
         <v>12</v>
       </c>
-      <c r="J210" t="s">
+      <c r="J210" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K210" t="s">
@@ -5578,7 +5506,7 @@
       <c r="F211" t="s">
         <v>37</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I211" t="s">
@@ -5601,7 +5529,7 @@
       <c r="G212" t="s">
         <v>12</v>
       </c>
-      <c r="I212" t="s">
+      <c r="I212" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K212" t="s">
@@ -5616,12 +5544,12 @@
         <v>21</v>
       </c>
       <c r="F213" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G213" t="s">
         <v>12</v>
       </c>
-      <c r="J213" t="s">
+      <c r="J213" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K213" t="s">
@@ -5636,9 +5564,9 @@
         <v>21</v>
       </c>
       <c r="F214" t="s">
-        <v>92</v>
-      </c>
-      <c r="I214" t="s">
+        <v>86</v>
+      </c>
+      <c r="I214" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J214" t="s">
@@ -5683,7 +5611,7 @@
       <c r="F217" t="s">
         <v>48</v>
       </c>
-      <c r="H217" t="s">
+      <c r="H217" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J217" t="s">
@@ -5703,7 +5631,7 @@
       <c r="F218" t="s">
         <v>35</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H218" t="s">
@@ -5723,7 +5651,7 @@
       <c r="G219" t="s">
         <v>12</v>
       </c>
-      <c r="H219" t="s">
+      <c r="H219" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K219" t="s">
@@ -5743,7 +5671,7 @@
       <c r="G220" t="s">
         <v>12</v>
       </c>
-      <c r="H220" t="s">
+      <c r="H220" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K220" t="s">
@@ -5757,13 +5685,13 @@
       <c r="E221" t="s">
         <v>31</v>
       </c>
-      <c r="F221" s="5" t="s">
-        <v>286</v>
+      <c r="F221" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="H221" t="s">
         <v>12</v>
       </c>
-      <c r="J221" t="s">
+      <c r="J221" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K221" t="s">
@@ -5783,7 +5711,7 @@
       <c r="H222" t="s">
         <v>12</v>
       </c>
-      <c r="I222" t="s">
+      <c r="I222" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K222" t="s">
@@ -5814,7 +5742,7 @@
       <c r="H224" t="s">
         <v>12</v>
       </c>
-      <c r="I224" t="s">
+      <c r="I224" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K224" t="s">
@@ -5834,7 +5762,7 @@
       <c r="G225" t="s">
         <v>12</v>
       </c>
-      <c r="I225" t="s">
+      <c r="I225" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K225" t="s">
@@ -5876,7 +5804,7 @@
       <c r="F228" t="s">
         <v>24</v>
       </c>
-      <c r="H228" t="s">
+      <c r="H228" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J228" t="s">
@@ -5893,10 +5821,10 @@
       <c r="E229" t="s">
         <v>10</v>
       </c>
-      <c r="F229" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G229" t="s">
+      <c r="F229" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G229" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I229" t="s">
@@ -5916,7 +5844,7 @@
       <c r="F230" t="s">
         <v>16</v>
       </c>
-      <c r="H230" t="s">
+      <c r="H230" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J230" t="s">
@@ -5936,7 +5864,7 @@
       <c r="F231" t="s">
         <v>38</v>
       </c>
-      <c r="H231" t="s">
+      <c r="H231" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J231" t="s">
@@ -5959,7 +5887,7 @@
       <c r="G232" t="s">
         <v>12</v>
       </c>
-      <c r="I232" t="s">
+      <c r="I232" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K232" t="s">
@@ -5974,9 +5902,9 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>90</v>
-      </c>
-      <c r="H233" t="s">
+        <v>84</v>
+      </c>
+      <c r="H233" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I233" t="s">
@@ -5994,12 +5922,12 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G234" t="s">
         <v>12</v>
       </c>
-      <c r="H234" t="s">
+      <c r="H234" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K234" t="s">
@@ -6033,7 +5961,7 @@
       <c r="G236" t="s">
         <v>12</v>
       </c>
-      <c r="I236" t="s">
+      <c r="I236" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K236" t="s">
@@ -6050,7 +5978,7 @@
       <c r="F237" t="s">
         <v>56</v>
       </c>
-      <c r="G237" t="s">
+      <c r="G237" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J237" t="s">
@@ -6068,9 +5996,9 @@
         <v>21</v>
       </c>
       <c r="F238" t="s">
-        <v>78</v>
-      </c>
-      <c r="I238" t="s">
+        <v>75</v>
+      </c>
+      <c r="I238" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J238" t="s">
@@ -6090,7 +6018,7 @@
       <c r="F239" t="s">
         <v>28</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G239" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J239" t="s">
@@ -6113,7 +6041,7 @@
       <c r="G240" t="s">
         <v>12</v>
       </c>
-      <c r="I240" t="s">
+      <c r="I240" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K240" t="s">
@@ -6133,7 +6061,7 @@
       <c r="H241" t="s">
         <v>12</v>
       </c>
-      <c r="I241" t="s">
+      <c r="J241" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K241" t="s">
@@ -6167,7 +6095,7 @@
       <c r="G243" t="s">
         <v>12</v>
       </c>
-      <c r="J243" t="s">
+      <c r="J243" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K243" t="s">
@@ -6187,7 +6115,7 @@
       <c r="G244" t="s">
         <v>12</v>
       </c>
-      <c r="I244" t="s">
+      <c r="I244" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K244" t="s">
@@ -6207,7 +6135,7 @@
       <c r="G245" t="s">
         <v>12</v>
       </c>
-      <c r="J245" t="s">
+      <c r="J245" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K245" t="s">
@@ -6227,7 +6155,7 @@
       <c r="G246" t="s">
         <v>12</v>
       </c>
-      <c r="H246" t="s">
+      <c r="H246" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6244,7 +6172,7 @@
       <c r="H247" t="s">
         <v>12</v>
       </c>
-      <c r="I247" t="s">
+      <c r="I247" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K247" t="s">
@@ -6264,7 +6192,7 @@
       <c r="G248" t="s">
         <v>12</v>
       </c>
-      <c r="J248" t="s">
+      <c r="J248" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K248" t="s">
@@ -6279,9 +6207,9 @@
         <v>31</v>
       </c>
       <c r="F249" t="s">
-        <v>91</v>
-      </c>
-      <c r="H249" t="s">
+        <v>85</v>
+      </c>
+      <c r="H249" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J249" t="s">
@@ -6299,12 +6227,12 @@
         <v>31</v>
       </c>
       <c r="F250" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G250" t="s">
         <v>12</v>
       </c>
-      <c r="H250" t="s">
+      <c r="H250" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K250" t="s">
@@ -6335,7 +6263,7 @@
       <c r="F252" t="s">
         <v>11</v>
       </c>
-      <c r="G252" t="s">
+      <c r="G252" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I252" t="s">
@@ -6355,7 +6283,7 @@
       <c r="F253" t="s">
         <v>29</v>
       </c>
-      <c r="I253" t="s">
+      <c r="I253" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J253" t="s">
@@ -6372,11 +6300,11 @@
       <c r="E254" t="s">
         <v>40</v>
       </c>
-      <c r="F254" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K254" s="5" t="s">
-        <v>87</v>
+      <c r="F254" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K254" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="255" spans="4:12" x14ac:dyDescent="0.25">
@@ -6403,7 +6331,7 @@
       <c r="G256" t="s">
         <v>12</v>
       </c>
-      <c r="I256" t="s">
+      <c r="I256" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K256" t="s">
@@ -6423,7 +6351,7 @@
       <c r="G257" t="s">
         <v>12</v>
       </c>
-      <c r="H257" t="s">
+      <c r="H257" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K257" t="s">
@@ -6443,7 +6371,7 @@
       <c r="G258" t="s">
         <v>12</v>
       </c>
-      <c r="J258" t="s">
+      <c r="J258" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K258" t="s">
@@ -6463,7 +6391,7 @@
       <c r="G259" t="s">
         <v>12</v>
       </c>
-      <c r="J259" t="s">
+      <c r="J259" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K259" t="s">
@@ -6477,13 +6405,13 @@
       <c r="E260" t="s">
         <v>10</v>
       </c>
-      <c r="F260" t="s">
-        <v>16</v>
+      <c r="F260" s="3" t="s">
+        <v>299</v>
       </c>
       <c r="G260" t="s">
         <v>12</v>
       </c>
-      <c r="H260" t="s">
+      <c r="H260" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K260" t="s">
@@ -6497,10 +6425,10 @@
       <c r="E261" t="s">
         <v>10</v>
       </c>
-      <c r="F261" t="s">
-        <v>36</v>
-      </c>
-      <c r="G261" t="s">
+      <c r="F261" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G261" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H261" t="s">
@@ -6518,9 +6446,9 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>91</v>
-      </c>
-      <c r="H262" t="s">
+        <v>85</v>
+      </c>
+      <c r="H262" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I262" t="s">
@@ -6540,7 +6468,7 @@
       <c r="F263" t="s">
         <v>19</v>
       </c>
-      <c r="G263" t="s">
+      <c r="G263" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I263" t="s">
@@ -6563,7 +6491,7 @@
       <c r="G264" t="s">
         <v>12</v>
       </c>
-      <c r="H264" t="s">
+      <c r="H264" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K264" t="s">
@@ -6583,7 +6511,7 @@
       <c r="H265" t="s">
         <v>12</v>
       </c>
-      <c r="J265" t="s">
+      <c r="J265" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K265" t="s">
@@ -6597,13 +6525,13 @@
       <c r="E266" t="s">
         <v>21</v>
       </c>
-      <c r="F266" s="5" t="s">
-        <v>286</v>
+      <c r="F266" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="G266" t="s">
         <v>12</v>
       </c>
-      <c r="I266" t="s">
+      <c r="I266" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K266" t="s">
@@ -6623,7 +6551,7 @@
       <c r="G267" t="s">
         <v>12</v>
       </c>
-      <c r="I267" t="s">
+      <c r="I267" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K267" t="s">
@@ -6643,7 +6571,7 @@
       <c r="I268" t="s">
         <v>12</v>
       </c>
-      <c r="J268" t="s">
+      <c r="J268" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K268" t="s">
@@ -6663,7 +6591,7 @@
       <c r="H269" t="s">
         <v>12</v>
       </c>
-      <c r="I269" t="s">
+      <c r="I269" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K269" t="s">
@@ -6680,7 +6608,7 @@
       <c r="F270" t="s">
         <v>30</v>
       </c>
-      <c r="H270" t="s">
+      <c r="H270" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J270" t="s">
@@ -6698,9 +6626,9 @@
         <v>21</v>
       </c>
       <c r="F271" t="s">
-        <v>92</v>
-      </c>
-      <c r="H271" t="s">
+        <v>86</v>
+      </c>
+      <c r="H271" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I271" t="s">
@@ -6718,9 +6646,9 @@
         <v>21</v>
       </c>
       <c r="F272" t="s">
-        <v>88</v>
-      </c>
-      <c r="G272" t="s">
+        <v>82</v>
+      </c>
+      <c r="G272" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J272" t="s">
@@ -6754,7 +6682,7 @@
       <c r="F274" t="s">
         <v>59</v>
       </c>
-      <c r="H274" t="s">
+      <c r="H274" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I274" t="s">
@@ -6777,7 +6705,7 @@
       <c r="I275" t="s">
         <v>12</v>
       </c>
-      <c r="J275" t="s">
+      <c r="J275" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K275" t="s">
@@ -6794,7 +6722,7 @@
       <c r="F276" t="s">
         <v>38</v>
       </c>
-      <c r="I276" t="s">
+      <c r="I276" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J276" t="s">
@@ -6812,12 +6740,12 @@
         <v>31</v>
       </c>
       <c r="F277" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I277" t="s">
         <v>12</v>
       </c>
-      <c r="J277" t="s">
+      <c r="J277" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K277" t="s">
@@ -6834,7 +6762,7 @@
       <c r="F278" t="s">
         <v>19</v>
       </c>
-      <c r="I278" t="s">
+      <c r="I278" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J278" t="s">
@@ -6859,24 +6787,24 @@
       </c>
     </row>
     <row r="280" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D280" s="10" t="s">
+      <c r="D280" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E280" s="10" t="s">
+      <c r="E280" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F280" s="10" t="s">
+      <c r="F280" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G280" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H280" s="10"/>
-      <c r="I280" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J280" s="10"/>
-      <c r="K280" s="10" t="s">
+      <c r="G280" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H280" s="6"/>
+      <c r="I280" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J280" s="6"/>
+      <c r="K280" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6890,7 +6818,7 @@
       <c r="F281" t="s">
         <v>25</v>
       </c>
-      <c r="G281" t="s">
+      <c r="G281" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J281" t="s">
@@ -6913,1261 +6841,1263 @@
     </row>
     <row r="283" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E283" t="s">
+        <v>123</v>
+      </c>
+      <c r="F283" t="s">
+        <v>94</v>
+      </c>
+      <c r="I283" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J283" t="s">
+        <v>127</v>
+      </c>
+      <c r="K283" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="F283" t="s">
-        <v>100</v>
-      </c>
-      <c r="I283" t="s">
-        <v>133</v>
-      </c>
-      <c r="J283" t="s">
-        <v>133</v>
-      </c>
-      <c r="K283" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="284" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
-        <v>93</v>
-      </c>
-      <c r="E284" s="5" t="s">
-        <v>129</v>
+        <v>87</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F284" t="s">
-        <v>108</v>
-      </c>
-      <c r="G284" t="s">
-        <v>133</v>
+        <v>102</v>
+      </c>
+      <c r="G284" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="H284" t="s">
-        <v>133</v>
-      </c>
-      <c r="K284" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="K284" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="285" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
-        <v>93</v>
-      </c>
-      <c r="E285" s="5" t="s">
-        <v>129</v>
+        <v>87</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F285" t="s">
-        <v>113</v>
-      </c>
-      <c r="G285" s="5" t="s">
-        <v>133</v>
+        <v>107</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J285" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K285" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="K285" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="286" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
-        <v>93</v>
-      </c>
-      <c r="E286" s="5" t="s">
-        <v>129</v>
+        <v>87</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F286" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H286" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K286" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="I286" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K286" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="287" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
-        <v>93</v>
-      </c>
-      <c r="E287" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F287" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="I287" s="5" t="s">
-        <v>133</v>
+        <v>87</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J287" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K287" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="K287" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="288" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
-        <v>93</v>
-      </c>
-      <c r="E288" s="5" t="s">
-        <v>129</v>
+        <v>87</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F288" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H288" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K288" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K288" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="289" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
-        <v>93</v>
-      </c>
-      <c r="E289" s="5" t="s">
-        <v>129</v>
+        <v>87</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F289" t="s">
         <v>17</v>
       </c>
-      <c r="G289" s="5" t="s">
+      <c r="G289" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J289" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K289" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="J289" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K289" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="290" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D290" t="s">
-        <v>93</v>
-      </c>
-      <c r="E290" s="5" t="s">
-        <v>129</v>
+        <v>87</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F290" t="s">
-        <v>119</v>
-      </c>
-      <c r="G290" s="5" t="s">
-        <v>133</v>
+        <v>113</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K290" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="K290" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="291" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D291" t="s">
-        <v>93</v>
-      </c>
-      <c r="E291" s="5" t="s">
-        <v>129</v>
+        <v>87</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F291" t="s">
-        <v>123</v>
-      </c>
-      <c r="H291" s="5" t="s">
-        <v>133</v>
+        <v>117</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="I291" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K291" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="K291" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="292" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D292" t="s">
-        <v>93</v>
-      </c>
-      <c r="E292" s="5" t="s">
-        <v>129</v>
+        <v>87</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="F292" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="K292" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D293" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E293" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F293" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="K293" s="12" t="s">
-        <v>134</v>
+    <row r="293" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D293" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E293" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F293" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K293" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="294" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D294" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E294" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F294" t="s">
-        <v>101</v>
-      </c>
-      <c r="I294" s="5" t="s">
-        <v>133</v>
+        <v>95</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J294" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K294" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
+      </c>
+      <c r="K294" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="295" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D295" t="s">
-        <v>93</v>
-      </c>
-      <c r="E295" s="5" t="s">
-        <v>130</v>
+        <v>87</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="F295" t="s">
-        <v>102</v>
-      </c>
-      <c r="I295" s="5" t="s">
-        <v>133</v>
+        <v>96</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J295" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K295" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
+      </c>
+      <c r="K295" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="296" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D296" t="s">
-        <v>93</v>
-      </c>
-      <c r="E296" s="5" t="s">
-        <v>130</v>
+        <v>87</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="F296" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I296" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J296" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K296" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
+      </c>
+      <c r="J296" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K296" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="297" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D297" t="s">
-        <v>93</v>
-      </c>
-      <c r="E297" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F297" t="s">
+        <v>105</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I297" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K297" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="F297" t="s">
-        <v>111</v>
-      </c>
-      <c r="H297" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I297" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K297" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="298" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D298" t="s">
-        <v>93</v>
-      </c>
-      <c r="E298" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F298" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="G298" s="5" t="s">
-        <v>133</v>
+        <v>87</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G298" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K298" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="K298" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="299" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
-        <v>93</v>
-      </c>
-      <c r="E299" s="5" t="s">
-        <v>130</v>
+        <v>87</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="F299" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G299" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I299" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K299" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="I299" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K299" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="300" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D300" t="s">
-        <v>93</v>
-      </c>
-      <c r="E300" s="5" t="s">
-        <v>130</v>
+        <v>87</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="F300" t="s">
-        <v>120</v>
-      </c>
-      <c r="G300" s="5" t="s">
-        <v>133</v>
+        <v>114</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J300" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K300" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
+      </c>
+      <c r="K300" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="301" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D301" t="s">
-        <v>93</v>
-      </c>
-      <c r="E301" s="5" t="s">
-        <v>130</v>
+        <v>87</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="F301" t="s">
-        <v>121</v>
-      </c>
-      <c r="G301" s="5" t="s">
-        <v>133</v>
+        <v>115</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J301" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K301" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="302" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D302" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E302" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F302" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K301" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="302" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D302" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E302" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F302" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I302" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="J302" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="K302" s="12" t="s">
-        <v>137</v>
+      <c r="I302" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J302" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K302" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="303" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D303" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E303" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F303" t="s">
-        <v>95</v>
-      </c>
-      <c r="H303" s="5" t="s">
-        <v>133</v>
+        <v>89</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="I303" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K303" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="K303" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="304" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D304" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E304" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F304" t="s">
-        <v>105</v>
-      </c>
-      <c r="H304" s="5" t="s">
-        <v>133</v>
+        <v>99</v>
+      </c>
+      <c r="H304" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="I304" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K304" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="K304" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="305" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D305" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E305" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F305" t="s">
-        <v>112</v>
-      </c>
-      <c r="G305" s="5" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J305" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="306" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D306" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E306" t="s">
-        <v>97</v>
-      </c>
-      <c r="F306" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H306" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H306" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I306" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K306" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="I306" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K306" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="307" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D307" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E307" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F307" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I307" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K307" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="308" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D308" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E308" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F308" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="K308" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
+      </c>
+      <c r="I307" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K307" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="308" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D308" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E308" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F308" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K308" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="309" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D309" t="s">
+        <v>87</v>
+      </c>
+      <c r="E309" t="s">
+        <v>122</v>
+      </c>
+      <c r="F309" t="s">
         <v>93</v>
       </c>
-      <c r="E309" t="s">
+      <c r="H309" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J309" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K309" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="F309" t="s">
-        <v>99</v>
-      </c>
-      <c r="H309" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J309" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K309" s="5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="310" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D310" t="s">
-        <v>93</v>
-      </c>
-      <c r="E310" s="5" t="s">
-        <v>128</v>
+        <v>87</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F310" t="s">
         <v>11</v>
       </c>
-      <c r="G310" s="5" t="s">
-        <v>133</v>
+      <c r="G310" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="H310" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K310" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="K310" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="311" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D311" t="s">
-        <v>93</v>
-      </c>
-      <c r="E311" s="5" t="s">
-        <v>128</v>
+        <v>87</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F311" t="s">
-        <v>114</v>
-      </c>
-      <c r="G311" s="5" t="s">
-        <v>133</v>
+        <v>108</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K311" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="K311" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="312" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D312" t="s">
-        <v>93</v>
-      </c>
-      <c r="E312" s="5" t="s">
-        <v>128</v>
+        <v>87</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F312" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I312" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K312" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="I312" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K312" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="313" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
-        <v>93</v>
-      </c>
-      <c r="E313" s="5" t="s">
-        <v>128</v>
+        <v>87</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F313" t="s">
-        <v>117</v>
-      </c>
-      <c r="I313" s="5" t="s">
-        <v>133</v>
+        <v>111</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J313" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K313" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="K313" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="314" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D314" t="s">
-        <v>93</v>
-      </c>
-      <c r="E314" s="5" t="s">
-        <v>128</v>
+        <v>87</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F314" t="s">
-        <v>122</v>
-      </c>
-      <c r="G314" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H314" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K314" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="H314" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K314" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="315" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D315" t="s">
-        <v>93</v>
-      </c>
-      <c r="E315" s="5" t="s">
-        <v>128</v>
+        <v>87</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F315" t="s">
-        <v>90</v>
-      </c>
-      <c r="H315" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H315" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J315" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K315" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="J315" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K315" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="316" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D316" t="s">
-        <v>93</v>
-      </c>
-      <c r="E316" s="5" t="s">
-        <v>128</v>
+        <v>87</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F316" t="s">
-        <v>124</v>
-      </c>
-      <c r="H316" s="5" t="s">
-        <v>133</v>
+        <v>118</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J316" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K316" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="K316" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="317" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D317" t="s">
-        <v>93</v>
-      </c>
-      <c r="E317" s="5" t="s">
-        <v>128</v>
+        <v>87</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F317" t="s">
         <v>19</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I317" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K317" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="318" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D318" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E318" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F318" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="K318" s="12" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="I317" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K317" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="318" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D318" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E318" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F318" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K318" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="319" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D319" t="s">
-        <v>93</v>
-      </c>
-      <c r="E319" s="5" t="s">
-        <v>132</v>
+        <v>87</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F319" t="s">
-        <v>107</v>
-      </c>
-      <c r="G319" s="5" t="s">
-        <v>133</v>
+        <v>101</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K319" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
+      </c>
+      <c r="K319" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="320" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D320" t="s">
-        <v>93</v>
-      </c>
-      <c r="E320" s="5" t="s">
-        <v>132</v>
+        <v>87</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F320" t="s">
-        <v>110</v>
-      </c>
-      <c r="H320" s="5" t="s">
-        <v>133</v>
+        <v>104</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K320" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="K320" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="321" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D321" t="s">
-        <v>93</v>
-      </c>
-      <c r="E321" s="5" t="s">
-        <v>132</v>
+        <v>87</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F321" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I321" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+      <c r="I321" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="322" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D322" t="s">
-        <v>93</v>
-      </c>
-      <c r="E322" s="5" t="s">
-        <v>132</v>
+        <v>87</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F322" t="s">
         <v>14</v>
       </c>
       <c r="I322" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J322" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K322" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="J322" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K322" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="323" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
-        <v>93</v>
-      </c>
-      <c r="E323" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F323" s="5" t="s">
-        <v>300</v>
+        <v>87</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="I323" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J323" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K323" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="J323" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K323" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="324" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D324" t="s">
-        <v>93</v>
-      </c>
-      <c r="E324" s="5" t="s">
-        <v>132</v>
+        <v>87</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F324" t="s">
         <v>50</v>
       </c>
-      <c r="H324" s="5" t="s">
-        <v>133</v>
+      <c r="H324" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J324" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K324" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="K324" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="325" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D325" t="s">
-        <v>93</v>
-      </c>
-      <c r="E325" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F325" t="s">
+        <v>113</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J325" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K325" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="F325" t="s">
-        <v>119</v>
-      </c>
-      <c r="H325" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J325" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K325" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="326" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D326" t="s">
-        <v>93</v>
-      </c>
-      <c r="E326" s="5" t="s">
-        <v>132</v>
+        <v>87</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F326" t="s">
-        <v>127</v>
-      </c>
-      <c r="K326" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="327" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D327" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E327" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F327" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="K327" s="12" t="s">
-        <v>135</v>
+        <v>121</v>
+      </c>
+      <c r="K326" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="327" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D327" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E327" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F327" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K327" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="328" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D328" t="s">
-        <v>93</v>
-      </c>
-      <c r="E328" s="5" t="s">
-        <v>131</v>
+        <v>87</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="F328" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G328" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H328" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K328" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K328" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="329" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D329" t="s">
-        <v>93</v>
-      </c>
-      <c r="E329" s="5" t="s">
-        <v>131</v>
+        <v>87</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="F329" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I329" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J329" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K329" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="J329" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K329" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="330" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D330" t="s">
-        <v>93</v>
-      </c>
-      <c r="E330" s="5" t="s">
-        <v>131</v>
+        <v>87</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="F330" t="s">
-        <v>112</v>
-      </c>
-      <c r="H330" s="5" t="s">
-        <v>133</v>
+        <v>106</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="I330" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="331" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D331" t="s">
-        <v>93</v>
-      </c>
-      <c r="E331" s="5" t="s">
-        <v>131</v>
+        <v>87</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="F331" t="s">
         <v>14</v>
       </c>
-      <c r="G331" s="5" t="s">
-        <v>133</v>
+      <c r="G331" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="H331" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K331" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="K331" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="332" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D332" t="s">
-        <v>93</v>
-      </c>
-      <c r="E332" s="5" t="s">
-        <v>131</v>
+        <v>87</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="F332" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H332" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J332" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K332" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J332" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K332" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="333" spans="4:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D333" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E333" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F333" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G333" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H333" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="K333" s="12" t="s">
-        <v>138</v>
+    </row>
+    <row r="333" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D333" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E333" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F333" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G333" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H333" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K333" s="7" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="334" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D334" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E334" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F334" t="s">
-        <v>96</v>
-      </c>
-      <c r="G334" s="5" t="s">
-        <v>133</v>
+        <v>90</v>
+      </c>
+      <c r="G334" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="H334" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K334" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="K334" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="335" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D335" t="s">
-        <v>93</v>
-      </c>
-      <c r="E335" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F335" t="s">
-        <v>106</v>
-      </c>
-      <c r="G335" s="5" t="s">
-        <v>133</v>
+        <v>100</v>
+      </c>
+      <c r="G335" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J335" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K335" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="K335" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="336" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D336" t="s">
-        <v>93</v>
-      </c>
-      <c r="E336" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F336" t="s">
-        <v>111</v>
-      </c>
-      <c r="G336" s="5" t="s">
-        <v>133</v>
+        <v>105</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J336" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K336" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="K336" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="337" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D337" t="s">
-        <v>93</v>
-      </c>
-      <c r="E337" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F337" s="5" t="s">
-        <v>299</v>
+        <v>87</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="I337" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J337" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K337" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="J337" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K337" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="338" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D338" t="s">
-        <v>93</v>
-      </c>
-      <c r="E338" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F338" t="s">
         <v>19</v>
       </c>
-      <c r="G338" s="5" t="s">
-        <v>133</v>
+      <c r="G338" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J338" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K338" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
+      </c>
+      <c r="K338" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="339" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D339" t="s">
-        <v>93</v>
-      </c>
-      <c r="E339" s="5" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F339" t="s">
-        <v>127</v>
-      </c>
-      <c r="K339" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="340" spans="4:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D340" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E340" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F340" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="K340" s="12" t="s">
-        <v>142</v>
+        <v>121</v>
+      </c>
+      <c r="I339" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K339" s="3"/>
+    </row>
+    <row r="340" spans="4:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D340" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E340" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F340" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K340" s="7" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="341" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D341" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E341" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F341" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G341" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I341" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K341" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="I341" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K341" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="342" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E342" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F342" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G342" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H342" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="J342" s="5"/>
-      <c r="K342" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J342" s="3"/>
+      <c r="K342" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="343" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E343" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F343" t="s">
-        <v>109</v>
-      </c>
-      <c r="H343" s="5" t="s">
-        <v>133</v>
+        <v>103</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J343" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K343" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
+      </c>
+      <c r="K343" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="344" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D344" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E344" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F344" t="s">
-        <v>110</v>
-      </c>
-      <c r="G344" s="5" t="s">
-        <v>133</v>
+        <v>104</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J344" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K344" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="K344" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="345" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D345" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E345" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F345" t="s">
         <v>50</v>
       </c>
-      <c r="I345" s="5" t="s">
-        <v>133</v>
+      <c r="I345" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J345" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K345" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="K345" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="346" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D346" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E346" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F346" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G346" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I346" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K346" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="I346" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K346" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="347" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E347" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F347" t="s">
-        <v>126</v>
-      </c>
-      <c r="G347" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G347" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I347" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K347" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="I347" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K347" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="348" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D348" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E348" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F348" t="s">
-        <v>127</v>
-      </c>
-      <c r="K348" s="5" t="s">
-        <v>143</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K348" s="3"/>
     </row>
     <row r="349" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D349" s="1"/>
@@ -8181,171 +8111,171 @@
       <c r="L349" s="1"/>
     </row>
     <row r="350" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D350" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E350" s="5" t="s">
-        <v>268</v>
+      <c r="D350" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="F350" t="s">
         <v>14</v>
       </c>
       <c r="G350" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J350" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K350" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="J350" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K350" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="351" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D351" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E351" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F351" s="5" t="s">
-        <v>270</v>
+      <c r="D351" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="G351" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I351" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K351" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
+      </c>
+      <c r="I351" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K351" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="352" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D352" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E352" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F352" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="G352" s="5" t="s">
-        <v>269</v>
+      <c r="D352" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F352" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G352" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="J352" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K352" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
+      </c>
+      <c r="K352" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="353" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D353" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E353" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F353" s="5" t="s">
-        <v>272</v>
+      <c r="D353" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F353" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J353" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K353" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="J353" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K353" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="354" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D354" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E354" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F354" s="5" t="s">
-        <v>273</v>
+      <c r="D354" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F354" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="I354" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J354" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K354" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="J354" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K354" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="355" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D355" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E355" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F355" s="5" t="s">
-        <v>274</v>
+      <c r="D355" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H355" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K355" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K355" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="356" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D356" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E356" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F356" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="G356" s="5" t="s">
-        <v>269</v>
+      <c r="D356" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G356" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="J356" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K356" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="K356" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="357" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D357" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E357" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F357" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="K357" s="5" t="s">
-        <v>136</v>
+      <c r="D357" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K357" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="358" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D358" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E358" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F358" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="K358" s="5" t="s">
-        <v>134</v>
+      <c r="D358" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F358" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K358" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="359" spans="4:12" x14ac:dyDescent="0.25">
@@ -8360,140 +8290,140 @@
       <c r="L359" s="1"/>
     </row>
     <row r="360" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D360" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E360" s="5" t="s">
+      <c r="D360" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F360" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F360" s="5" t="s">
-        <v>278</v>
-      </c>
       <c r="G360" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J360" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="361" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D361" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F361" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="J360" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="361" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D361" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E361" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F361" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="H361" s="5" t="s">
-        <v>269</v>
+      <c r="H361" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K361" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="K361" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="362" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D362" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E362" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F362" s="5" t="s">
-        <v>280</v>
+      <c r="D362" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I362" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K362" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="I362" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K362" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="363" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D363" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E363" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F363" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="H363" s="5" t="s">
-        <v>269</v>
+      <c r="D363" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H363" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K363" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="K363" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="364" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D364" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E364" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F364" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G364" s="5" t="s">
-        <v>269</v>
+      <c r="D364" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G364" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="J364" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K364" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="K364" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="365" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D365" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E365" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F365" s="5" t="s">
-        <v>274</v>
+      <c r="D365" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J365" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K365" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="J365" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K365" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="366" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D366" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="E366" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F366" s="5" t="s">
-        <v>283</v>
+      <c r="D366" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J366" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K366" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
+      </c>
+      <c r="J366" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K366" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="367" spans="4:12" x14ac:dyDescent="0.25">
@@ -8508,171 +8438,171 @@
       <c r="L367" s="1"/>
     </row>
     <row r="368" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D368" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E368" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F368" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="I368" s="5" t="s">
-        <v>269</v>
+      <c r="D368" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F368" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I368" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="J368" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K368" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="K368" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="369" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D369" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E369" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F369" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="H369" s="5" t="s">
-        <v>269</v>
+      <c r="D369" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H369" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K369" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
+      </c>
+      <c r="K369" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="370" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D370" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E370" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F370" s="5" t="s">
-        <v>280</v>
+      <c r="D370" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="H370" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I370" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K370" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="I370" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K370" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="371" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D371" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E371" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F371" s="5" t="s">
-        <v>271</v>
+      <c r="D371" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H371" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K371" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
+      </c>
+      <c r="H371" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K371" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="372" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D372" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E372" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F372" s="5" t="s">
-        <v>273</v>
+      <c r="D372" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F372" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J372" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K372" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="J372" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K372" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="373" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D373" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E373" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F373" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G373" s="5" t="s">
-        <v>269</v>
+      <c r="D373" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F373" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G373" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K373" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="K373" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="374" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D374" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E374" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F374" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="H374" s="5" t="s">
-        <v>269</v>
+      <c r="D374" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F374" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H374" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="J374" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K374" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="K374" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="375" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D375" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E375" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F375" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G375" s="5" t="s">
-        <v>269</v>
+      <c r="D375" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F375" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G375" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="376" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D376" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="E376" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F376" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H376" s="5" t="s">
-        <v>269</v>
+      <c r="D376" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H376" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="377" spans="4:12" x14ac:dyDescent="0.25">
@@ -8687,166 +8617,166 @@
       <c r="L377" s="1"/>
     </row>
     <row r="378" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D378" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E378" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F378" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="H378" s="5" t="s">
+      <c r="D378" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F378" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H378" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="J378" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K378" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="379" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D379" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F379" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H379" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J379" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K379" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="380" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D380" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F380" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="J378" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K378" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="379" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D379" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E379" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F379" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="H379" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J379" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K379" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="380" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D380" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E380" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F380" s="5" t="s">
+      <c r="G380" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="J380" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K380" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="381" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D381" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G380" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J380" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K380" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="381" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D381" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E381" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F381" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G381" s="5" t="s">
-        <v>269</v>
+      <c r="E381" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F381" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G381" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I381" s="5"/>
-      <c r="K381" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
+      </c>
+      <c r="I381" s="3"/>
+      <c r="K381" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="382" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D382" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E382" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F382" s="5" t="s">
-        <v>287</v>
+      <c r="D382" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F382" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I382" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K382" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="I382" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K382" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="383" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D383" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E383" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F383" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G383" s="5" t="s">
-        <v>269</v>
+      <c r="D383" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F383" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G383" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="I383" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K383" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="K383" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="384" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D384" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E384" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F384" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="K384" s="5" t="s">
-        <v>292</v>
+      <c r="D384" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K384" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="385" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D385" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E385" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F385" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="J385" s="5" t="s">
-        <v>269</v>
+      <c r="D385" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F385" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J385" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="386" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D386" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E386" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F386" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="K386" s="5" t="s">
-        <v>293</v>
+      <c r="D386" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F386" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K386" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="387" spans="4:12" x14ac:dyDescent="0.25">
@@ -8861,45 +8791,45 @@
       <c r="L387" s="1"/>
     </row>
     <row r="388" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D388" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E388" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F388" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="K388" s="5" t="s">
-        <v>292</v>
+      <c r="D388" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F388" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K388" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="389" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D389" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E389" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F389" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G389" s="5" t="s">
-        <v>269</v>
+      <c r="D389" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F389" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G389" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="390" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D390" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E390" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F390" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="K390" s="5" t="s">
-        <v>293</v>
+      <c r="D390" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F390" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K390" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="391" spans="4:12" x14ac:dyDescent="0.25">
@@ -8914,134 +8844,134 @@
       <c r="L391" s="1"/>
     </row>
     <row r="392" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D392" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E392" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F392" s="5" t="s">
-        <v>296</v>
+      <c r="D392" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F392" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="G392" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I392" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K392" s="5" t="s">
-        <v>293</v>
+        <v>127</v>
+      </c>
+      <c r="I392" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K392" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="393" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D393" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E393" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F393" s="5" t="s">
-        <v>297</v>
+      <c r="D393" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F393" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="H393" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I393" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K393" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="I393" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K393" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="394" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D394" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E394" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F394" s="5" t="s">
-        <v>286</v>
+      <c r="D394" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="G394" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J394" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K394" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
+      </c>
+      <c r="J394" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K394" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="395" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D395" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E395" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F395" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="H395" s="5" t="s">
-        <v>269</v>
+      <c r="D395" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F395" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H395" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="J395" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K395" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="K395" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="396" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D396" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E396" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F396" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="I396" s="5" t="s">
-        <v>269</v>
+      <c r="D396" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F396" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I396" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="J396" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K396" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="K396" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="397" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D397" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E397" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F397" s="5" t="s">
-        <v>301</v>
+      <c r="D397" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F397" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="I397" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J397" s="5" t="s">
-        <v>269</v>
+        <v>127</v>
+      </c>
+      <c r="J397" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="398" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D398" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E398" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F398" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G398" s="5" t="s">
-        <v>269</v>
+      <c r="D398" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F398" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G398" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="399" spans="4:12" x14ac:dyDescent="0.25">
@@ -9056,138 +8986,138 @@
       <c r="L399" s="1"/>
     </row>
     <row r="400" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D400" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E400" s="5" t="s">
+      <c r="D400" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F400" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F400" s="5" t="s">
-        <v>278</v>
-      </c>
       <c r="H400" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I400" s="5" t="s">
-        <v>269</v>
+        <v>127</v>
+      </c>
+      <c r="I400" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="401" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D401" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E401" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F401" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G401" s="5" t="s">
-        <v>269</v>
+      <c r="D401" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F401" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G401" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="I401" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K401" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="K401" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="402" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D402" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E402" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F402" s="5" t="s">
-        <v>297</v>
+      <c r="D402" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F402" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="I402" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="J402" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K402" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="J402" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K402" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="403" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D403" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E403" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F403" s="5" t="s">
-        <v>303</v>
+      <c r="D403" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F403" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="H403" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I403" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K403" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="I403" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K403" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="404" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D404" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E404" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F404" s="5" t="s">
-        <v>272</v>
+      <c r="D404" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F404" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="G404" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H404" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K404" s="5" t="s">
-        <v>293</v>
+        <v>127</v>
+      </c>
+      <c r="H404" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K404" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="405" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D405" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E405" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F405" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="I405" s="5" t="s">
-        <v>269</v>
+      <c r="D405" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I405" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="J405" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K405" s="5" t="s">
-        <v>139</v>
+        <v>127</v>
+      </c>
+      <c r="K405" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="406" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D406" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E406" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F406" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H406" s="5" t="s">
-        <v>269</v>
+      <c r="D406" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F406" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H406" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:J406" xr:uid="{084D3D80-701B-4665-AA6D-77A8B5F877C7}"/>
+  <autoFilter ref="D1:K406" xr:uid="{7A5730F3-7899-4745-98E4-834ACA06CF2B}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9196,10 +9126,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9214,1097 +9144,1133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B2" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H2" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I2" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="J2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="K2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="15" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="B3" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="L13" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="F14" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H16" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J17" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="I18" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L18" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="L27" s="14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="16" t="s">
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E29" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="F29" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J3" s="15" t="s">
+      <c r="G30" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="L31" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="L29" s="17" t="s">
-        <v>183</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G29" xr:uid="{6C4F1E19-DEEF-4B11-B550-F7600B59834D}"/>
-  <sortState ref="A1:C63">
-    <sortCondition ref="B1:B63"/>
+  <autoFilter ref="G1:G31" xr:uid="{6C4F1E19-DEEF-4B11-B550-F7600B59834D}"/>
+  <sortState ref="A1:C65">
+    <sortCondition ref="B1:B65"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10314,11 +10280,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10327,284 +10292,281 @@
     <col min="2" max="2" width="20.88671875" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D1" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="24" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1"/>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2"/>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3"/>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4"/>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5"/>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6"/>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7"/>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8"/>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="25">
-        <v>365</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="4" t="s">
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9"/>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7">
-        <v>370</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8">
-        <v>370</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="6">
-        <v>355</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="6">
-        <v>370</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="6">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="6">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="8">
-        <v>375</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="24" t="s">
+      <c r="E10"/>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="26">
-        <v>365</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="20">
-        <v>375</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="21">
-        <v>370</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="20">
-        <v>390</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12"/>
+      <c r="G12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13"/>
+      <c r="G13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14"/>
+      <c r="G14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:F18" xr:uid="{FCB6183D-BA86-4162-93B7-6B27AC179BA1}">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A1:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\插件\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0CAE9F-0AC1-48A3-9C41-7BCED2698929}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0943CFC-DE14-41D9-B62F-B67A959107E8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普通" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">普通!$D$1:$K$406</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">战士!$G$1:$G$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">其他!$D$1:$D$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">战士!$H$1:$H$45</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="366">
   <si>
     <t>副本名称</t>
   </si>
@@ -679,9 +680,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>一统肩甲</t>
-  </si>
-  <si>
     <t>莱赞之怒</t>
   </si>
   <si>
@@ -705,9 +703,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>几丁质脊柱肩胃（拆解者）</t>
-  </si>
-  <si>
     <t>泰坦档案库</t>
   </si>
   <si>
@@ -726,9 +721,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>冰雕肩甲（冰雹构造体）</t>
-  </si>
-  <si>
     <t>欺凌弱小</t>
   </si>
   <si>
@@ -817,9 +809,6 @@
     <t>诅咒进军</t>
   </si>
   <si>
-    <t>末曰阴谋胸铠（复生者祖尔）</t>
-  </si>
-  <si>
     <t>激光矩阵</t>
   </si>
   <si>
@@ -827,9 +816,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>碎雷胸甲（基阿拉克）</t>
-  </si>
-  <si>
     <t>激励兽群</t>
   </si>
   <si>
@@ -874,17 +860,8 @@
     <t>织魂头盔</t>
   </si>
   <si>
-    <t>亵渎实验室之盔（戈霍恩）</t>
-  </si>
-  <si>
-    <t>移动迷网头盔（纯净圣母）</t>
-  </si>
-  <si>
     <t>元素回旋</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>石化冥界面具（提赞）</t>
   </si>
   <si>
     <t>提赞</t>
@@ -1048,18 +1025,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雄狮之吼肩甲（阿拉希boss）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧毒诱变护胸（维克提斯）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抛光的持盾卫士的胸甲（阿拉希boss）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>团结一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1083,6 +1048,294 @@
   </si>
   <si>
     <t>敏捷/力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞达拉帝国/灰烬骑士团</t>
+  </si>
+  <si>
+    <t>压倒能量</t>
+  </si>
+  <si>
+    <t>地震波</t>
+  </si>
+  <si>
+    <t>雷音贯耳</t>
+  </si>
+  <si>
+    <t>听从我的召唤</t>
+  </si>
+  <si>
+    <t>吸血鬼之速</t>
+  </si>
+  <si>
+    <t>塔兰吉远征队/风暴之末</t>
+  </si>
+  <si>
+    <t>不稳定的烈焰</t>
+  </si>
+  <si>
+    <t>怒气冲天</t>
+  </si>
+  <si>
+    <t>坚不可破</t>
+  </si>
+  <si>
+    <t>血祭之力/海潮涌动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃顿奈/普罗德摩尔海军部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量的考验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀战团/第七军团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污秽传输/海潮涌动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血祭之力/深渊秘密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚焦风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励兽群/枯败灌注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回声防护</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆冲击/汇帆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自力更生</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗荣耀/解放者之力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁莽劈砍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石皮肤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷漠面容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励兽群/毁灭剑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼啸狂沙/影中暗刃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场集火/战场精准</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒气冲天</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾泽里特强固</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱赞之怒/枯败灌注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>万人敌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼啸狂沙/缜密诡计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血鬼之速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击之怒/最终赠礼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>碾压打击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>远行者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利宣言</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>碾压突袭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争之王</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争之风</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>听从我的召唤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱赞剑卫肩铠/苍茫护肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨质神像护肩/浅滩碎浪护肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙丘爬行者肩甲/港务长护肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀战团百夫长的板甲护肩/
+第七军团士兵板甲护肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿拉希boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄狮之吼肩甲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雹构造体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雕肩甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几丁质脊柱肩胃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆解者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维克提斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧毒诱变护胸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复生者祖尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>末曰阴谋胸铠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛光的持盾卫士的胸甲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基阿拉克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎雷胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱赞剑卫胸甲/苍茫护胸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨质神像胸甲/浅滩碎浪胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙丘爬行者胸甲/港务长胸铠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀战团百夫长的板甲护胸/
+第七军团士兵胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亵渎实验室之盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈霍恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动迷网头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯净圣母</t>
+  </si>
+  <si>
+    <t>石化冥界面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提赞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱赞剑卫巨盔/苍茫巨盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨质神像护面/浅滩碎浪头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙丘爬行者护面/港务长面甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀战团百夫长的重盔/
+第七军团士兵护头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一统肩甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1160,7 +1413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1200,15 +1453,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2344,7 +2615,7 @@
         <v>21</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -3243,7 +3514,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>12</v>
@@ -4158,7 +4429,7 @@
         <v>40</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>12</v>
@@ -4682,7 +4953,7 @@
         <v>31</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H166" s="5" t="s">
         <v>12</v>
@@ -5052,7 +5323,7 @@
         <v>21</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>12</v>
@@ -5686,7 +5957,7 @@
         <v>31</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H221" t="s">
         <v>12</v>
@@ -5822,7 +6093,7 @@
         <v>10</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G229" s="5" t="s">
         <v>12</v>
@@ -6406,7 +6677,7 @@
         <v>10</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="G260" t="s">
         <v>12</v>
@@ -6426,7 +6697,7 @@
         <v>10</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G261" s="5" t="s">
         <v>12</v>
@@ -6526,7 +6797,7 @@
         <v>21</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G266" t="s">
         <v>12</v>
@@ -6927,7 +7198,7 @@
         <v>123</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="I287" s="3" t="s">
         <v>127</v>
@@ -7135,7 +7406,7 @@
         <v>124</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G298" s="3" t="s">
         <v>127</v>
@@ -7292,7 +7563,7 @@
         <v>91</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H306" s="3" t="s">
         <v>127</v>
@@ -7617,7 +7888,7 @@
         <v>126</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="I323" s="5" t="s">
         <v>127</v>
@@ -7882,7 +8153,7 @@
         <v>92</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="I337" s="5" t="s">
         <v>127</v>
@@ -7940,7 +8211,7 @@
         <v>121</v>
       </c>
       <c r="K340" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="341" spans="4:12" x14ac:dyDescent="0.25">
@@ -8112,10 +8383,10 @@
     </row>
     <row r="350" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D350" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F350" t="s">
         <v>14</v>
@@ -8124,7 +8395,7 @@
         <v>127</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K350" s="3" t="s">
         <v>132</v>
@@ -8132,19 +8403,19 @@
     </row>
     <row r="351" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D351" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G351" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I351" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K351" s="3" t="s">
         <v>133</v>
@@ -8152,16 +8423,16 @@
     </row>
     <row r="352" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D352" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J352" s="5" t="s">
         <v>127</v>
@@ -8172,19 +8443,19 @@
     </row>
     <row r="353" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D353" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H353" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J353" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K353" s="3" t="s">
         <v>130</v>
@@ -8192,19 +8463,19 @@
     </row>
     <row r="354" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D354" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="I354" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K354" s="3" t="s">
         <v>130</v>
@@ -8212,19 +8483,19 @@
     </row>
     <row r="355" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D355" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G355" s="5" t="s">
         <v>127</v>
       </c>
       <c r="H355" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K355" s="3" t="s">
         <v>132</v>
@@ -8232,16 +8503,16 @@
     </row>
     <row r="356" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D356" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F356" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E356" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F356" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="G356" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J356" s="5" t="s">
         <v>127</v>
@@ -8252,13 +8523,13 @@
     </row>
     <row r="357" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D357" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E357" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F357" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="F357" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="K357" s="3" t="s">
         <v>130</v>
@@ -8266,13 +8537,13 @@
     </row>
     <row r="358" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D358" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E358" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F358" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="F358" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="K358" s="3" t="s">
         <v>128</v>
@@ -8291,33 +8562,33 @@
     </row>
     <row r="360" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D360" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G360" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J360" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="361" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D361" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I361" s="5" t="s">
         <v>127</v>
@@ -8328,19 +8599,19 @@
     </row>
     <row r="362" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D362" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G362" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I362" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K362" s="3" t="s">
         <v>132</v>
@@ -8348,16 +8619,16 @@
     </row>
     <row r="363" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D363" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I363" s="5" t="s">
         <v>127</v>
@@ -8368,16 +8639,16 @@
     </row>
     <row r="364" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D364" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J364" s="5" t="s">
         <v>127</v>
@@ -8388,19 +8659,19 @@
     </row>
     <row r="365" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D365" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="I365" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K365" s="3" t="s">
         <v>132</v>
@@ -8408,19 +8679,19 @@
     </row>
     <row r="366" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D366" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I366" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K366" s="3" t="s">
         <v>133</v>
@@ -8439,16 +8710,16 @@
     </row>
     <row r="368" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D368" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J368" s="5" t="s">
         <v>127</v>
@@ -8459,16 +8730,16 @@
     </row>
     <row r="369" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D369" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="H369" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I369" s="5" t="s">
         <v>127</v>
@@ -8479,19 +8750,19 @@
     </row>
     <row r="370" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D370" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="H370" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I370" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K370" s="3" t="s">
         <v>132</v>
@@ -8499,19 +8770,19 @@
     </row>
     <row r="371" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D371" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G371" s="5" t="s">
         <v>127</v>
       </c>
       <c r="H371" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K371" s="3" t="s">
         <v>133</v>
@@ -8519,19 +8790,19 @@
     </row>
     <row r="372" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D372" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G372" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J372" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K372" s="3" t="s">
         <v>130</v>
@@ -8539,16 +8810,16 @@
     </row>
     <row r="373" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D373" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I373" s="5" t="s">
         <v>127</v>
@@ -8559,16 +8830,16 @@
     </row>
     <row r="374" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D374" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J374" s="5" t="s">
         <v>127</v>
@@ -8579,30 +8850,30 @@
     </row>
     <row r="375" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D375" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E375" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F375" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F375" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="G375" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="376" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D376" s="3" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E376" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F376" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F376" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="H376" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="377" spans="4:12" x14ac:dyDescent="0.25">
@@ -8618,16 +8889,16 @@
     </row>
     <row r="378" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D378" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H378" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J378" s="5" t="s">
         <v>127</v>
@@ -8638,19 +8909,19 @@
     </row>
     <row r="379" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D379" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H379" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K379" s="3" t="s">
         <v>132</v>
@@ -8658,16 +8929,16 @@
     </row>
     <row r="380" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D380" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F380" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J380" s="5" t="s">
         <v>127</v>
@@ -8678,16 +8949,16 @@
     </row>
     <row r="381" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D381" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F381" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G381" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H381" s="5" t="s">
         <v>127</v>
@@ -8699,19 +8970,19 @@
     </row>
     <row r="382" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D382" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G382" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I382" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K382" s="3" t="s">
         <v>132</v>
@@ -8719,16 +8990,16 @@
     </row>
     <row r="383" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D383" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G383" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I383" s="5" t="s">
         <v>127</v>
@@ -8739,44 +9010,44 @@
     </row>
     <row r="384" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D384" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E384" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F384" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F384" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="K384" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="385" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D385" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E385" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F385" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F385" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="J385" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="386" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D386" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E386" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F386" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F386" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="K386" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="387" spans="4:12" x14ac:dyDescent="0.25">
@@ -8792,44 +9063,44 @@
     </row>
     <row r="388" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D388" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E388" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F388" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F388" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="K388" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="389" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D389" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E389" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F389" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F389" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="G389" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="390" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D390" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E390" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F390" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F390" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="K390" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="391" spans="4:12" x14ac:dyDescent="0.25">
@@ -8845,39 +9116,39 @@
     </row>
     <row r="392" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D392" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G392" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I392" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K392" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="393" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D393" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H393" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I393" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K393" s="3" t="s">
         <v>132</v>
@@ -8885,19 +9156,19 @@
     </row>
     <row r="394" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D394" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F394" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G394" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J394" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K394" s="3" t="s">
         <v>133</v>
@@ -8905,16 +9176,16 @@
     </row>
     <row r="395" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D395" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J395" s="5" t="s">
         <v>127</v>
@@ -8925,16 +9196,16 @@
     </row>
     <row r="396" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D396" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F396" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I396" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J396" s="5" t="s">
         <v>127</v>
@@ -8945,33 +9216,33 @@
     </row>
     <row r="397" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D397" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E397" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F397" s="3" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I397" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J397" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="398" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D398" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E398" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F398" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F398" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="G398" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="399" spans="4:12" x14ac:dyDescent="0.25">
@@ -8987,33 +9258,33 @@
     </row>
     <row r="400" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D400" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H400" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I400" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="401" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D401" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I401" s="5" t="s">
         <v>127</v>
@@ -9024,19 +9295,19 @@
     </row>
     <row r="402" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D402" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I402" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J402" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K402" s="3" t="s">
         <v>132</v>
@@ -9044,19 +9315,19 @@
     </row>
     <row r="403" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D403" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H403" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I403" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K403" s="3" t="s">
         <v>132</v>
@@ -9064,36 +9335,36 @@
     </row>
     <row r="404" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D404" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F404" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G404" s="5" t="s">
         <v>127</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K404" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="405" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D405" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F405" s="3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="I405" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J405" s="5" t="s">
         <v>127</v>
@@ -9104,16 +9375,16 @@
     </row>
     <row r="406" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D406" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E406" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F406" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F406" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="H406" s="3" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -9126,1151 +9397,1705 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L31"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="F7" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E8" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="G21" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="H25" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="I29" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="21" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I33" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="J33" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J34" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="K34" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="M35" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="L7" s="14" t="s">
+    </row>
+    <row r="36" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="B39" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="F40" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A41" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G41" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="B42" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="K42" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="L42" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="I43" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="M43" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="L8" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H9" s="11" t="s">
+    </row>
+    <row r="44" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="21" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="K45" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>173</v>
+      <c r="L45" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="M45" s="19" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G31" xr:uid="{6C4F1E19-DEEF-4B11-B550-F7600B59834D}"/>
-  <sortState ref="A1:C65">
-    <sortCondition ref="B1:B65"/>
+  <autoFilter ref="H1:H45" xr:uid="{1B90ED5D-D9D3-4E25-85CB-70104FF6BEC3}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="战争之王"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A1:D75">
+    <sortCondition ref="C1:C75"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10280,10 +11105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -10291,138 +11116,132 @@
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="2" width="20.88671875" customWidth="1"/>
     <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E1"/>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
       <c r="E2"/>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="15"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3">
+        <v>365</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="E3"/>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4"/>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E4">
+        <v>385</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="B5" t="s">
         <v>60</v>
       </c>
       <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>395</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="E5"/>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" t="s">
+      <c r="E6">
+        <v>385</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6"/>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" t="s">
-        <v>69</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7"/>
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>365</v>
+      </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
@@ -10431,45 +11250,49 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>390</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
         <v>75</v>
       </c>
-      <c r="E8"/>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9"/>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="E9">
+        <v>375</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -10477,67 +11300,75 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10">
+        <v>365</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E10"/>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="6" t="s">
+      <c r="E11">
+        <v>370</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="6">
+        <v>365</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E12"/>
-      <c r="G12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E13"/>
+      <c r="E13">
+        <v>365</v>
+      </c>
       <c r="G13" s="5" t="s">
         <v>127</v>
       </c>
@@ -10546,27 +11377,57 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14">
+        <v>365</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E14"/>
-      <c r="G14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>127</v>
-      </c>
+      <c r="E15">
+        <v>395</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24"/>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D24" xr:uid="{816EB891-0524-41CF-850F-6FFD4F8A65F7}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:A14"/>
+    <mergeCell ref="A2:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\插件\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0943CFC-DE14-41D9-B62F-B67A959107E8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8AA258-8332-4ACC-962A-4279ADC79225}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普通" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">普通!$D$1:$K$406</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">其他!$D$1:$D$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">战士!$H$1:$H$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">战士!$F$1:$H$45</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2791" uniqueCount="375">
   <si>
     <t>副本名称</t>
   </si>
@@ -530,9 +530,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>海怪壳护肩</t>
-  </si>
-  <si>
     <t>缜密计谋</t>
   </si>
   <si>
@@ -565,9 +562,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>克拉西斯封印者肩铠</t>
-  </si>
-  <si>
     <t>呼啸狂沙</t>
   </si>
   <si>
@@ -596,9 +590,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>灼天者肩铠</t>
-  </si>
-  <si>
     <t>不稳定的催化剂</t>
   </si>
   <si>
@@ -626,9 +617,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>锐角恐惧肩铠</t>
-  </si>
-  <si>
     <t>毁灭箭</t>
   </si>
   <si>
@@ -652,9 +640,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>钳嘴肩铠</t>
-  </si>
-  <si>
     <t>汇帆</t>
   </si>
   <si>
@@ -724,16 +709,10 @@
     <t>欺凌弱小</t>
   </si>
   <si>
-    <t>抵制冲击</t>
-  </si>
-  <si>
     <t>艾泽里特血脉</t>
   </si>
   <si>
     <t>胸甲</t>
-  </si>
-  <si>
-    <t>鱼叉手的板甲护胸</t>
   </si>
   <si>
     <t>影中暗刃</t>
@@ -746,9 +725,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>动脉防护胸甲</t>
-  </si>
-  <si>
     <t>血祭之力</t>
   </si>
   <si>
@@ -764,9 +740,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>沙漠卫士胸甲</t>
-  </si>
-  <si>
     <t>雷霆冲击</t>
   </si>
   <si>
@@ -777,16 +750,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>艾什凡卫士胸铠</t>
-  </si>
-  <si>
     <t>抵御冲击</t>
   </si>
   <si>
     <t>临危不惧</t>
-  </si>
-  <si>
-    <t>世仇胸甲</t>
   </si>
   <si>
     <t>枯败灌注</t>
@@ -800,9 +767,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>深渊住民护胸</t>
-  </si>
-  <si>
     <t>深渊秘密</t>
   </si>
   <si>
@@ -825,25 +789,10 @@
     <t>头部</t>
   </si>
   <si>
-    <t>腐烂之路重盔</t>
-  </si>
-  <si>
     <t>污秽传输</t>
   </si>
   <si>
-    <t>狱长的暴乱头盔</t>
-  </si>
-  <si>
     <t>无情报复</t>
-  </si>
-  <si>
-    <t>斗海者巨盔</t>
-  </si>
-  <si>
-    <t>迅猛龙之王头盔</t>
-  </si>
-  <si>
-    <t>深渊怨毐头盔</t>
   </si>
   <si>
     <t>海潮涌动</t>
@@ -855,9 +804,6 @@
   <si>
     <t>阿塔达萨</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>织魂头盔</t>
   </si>
   <si>
     <t>元素回旋</t>
@@ -1226,18 +1172,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿拉希boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雄狮之吼肩甲</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>冰雹构造体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冰雕肩甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1246,19 +1184,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拆解者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维克提斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剧毒诱变护胸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复生者祖尔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1270,10 +1196,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>基阿拉克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>碎雷胸甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1299,22 +1221,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>戈霍恩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>移动迷网头盔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纯净圣母</t>
-  </si>
-  <si>
     <t>石化冥界面具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提赞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1336,6 +1247,149 @@
   </si>
   <si>
     <t>一统肩甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海怪壳护肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克拉西斯封印者肩铠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞塔里斯神庙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼天者肩铠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴富矿区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐角恐惧肩铠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维克雷斯庄园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钳嘴肩铠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸王之眠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥迪尔(拆解者)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥迪尔(复生者祖尔)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥迪尔(维克提斯)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥迪尔(戈霍恩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥迪尔(纯净圣母)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS(末日之嚎)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS(冰雹构造体)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS(基阿拉克)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS(提赞)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼叉手的板甲护胸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动脉防护胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地渊孢林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠卫士胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾什凡卫士的胸铠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托尔达戈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世仇胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维克雷斯庄园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深渊住民护胸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暴神殿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐烂之路重盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狱长的暴乱头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗海者巨盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅猛龙之王头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深渊怨毒头盔</t>
+  </si>
+  <si>
+    <t>织魂头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿塔达萨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1454,12 +1508,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1480,6 +1528,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1788,8 +1842,8 @@
   <dimension ref="D1:L406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F413" sqref="F413"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2508,8 +2562,8 @@
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>45</v>
+      <c r="D38" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
@@ -2615,7 +2669,7 @@
         <v>21</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -3174,8 +3228,8 @@
       </c>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>54</v>
+      <c r="D73" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="E73" t="s">
         <v>21</v>
@@ -3514,7 +3568,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>12</v>
@@ -3861,8 +3915,8 @@
       </c>
     </row>
     <row r="109" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D109" t="s">
-        <v>58</v>
+      <c r="D109" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E109" t="s">
         <v>31</v>
@@ -4429,7 +4483,7 @@
         <v>40</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>12</v>
@@ -4953,7 +5007,7 @@
         <v>31</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="H166" s="5" t="s">
         <v>12</v>
@@ -5145,8 +5199,8 @@
       </c>
     </row>
     <row r="177" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D177" t="s">
-        <v>66</v>
+      <c r="D177" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="E177" t="s">
         <v>10</v>
@@ -5323,7 +5377,7 @@
         <v>21</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>12</v>
@@ -5957,7 +6011,7 @@
         <v>31</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="H221" t="s">
         <v>12</v>
@@ -6093,7 +6147,7 @@
         <v>10</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="G229" s="5" t="s">
         <v>12</v>
@@ -6677,7 +6731,7 @@
         <v>10</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="G260" t="s">
         <v>12</v>
@@ -6697,7 +6751,7 @@
         <v>10</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="G261" s="5" t="s">
         <v>12</v>
@@ -6797,7 +6851,7 @@
         <v>21</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="G266" t="s">
         <v>12</v>
@@ -7198,7 +7252,7 @@
         <v>123</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="I287" s="3" t="s">
         <v>127</v>
@@ -7406,7 +7460,7 @@
         <v>124</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="G298" s="3" t="s">
         <v>127</v>
@@ -7439,7 +7493,7 @@
       </c>
     </row>
     <row r="300" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D300" t="s">
+      <c r="D300" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E300" s="3" t="s">
@@ -7563,7 +7617,7 @@
         <v>91</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="H306" s="3" t="s">
         <v>127</v>
@@ -7888,7 +7942,7 @@
         <v>126</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="I323" s="5" t="s">
         <v>127</v>
@@ -8153,7 +8207,7 @@
         <v>92</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="I337" s="5" t="s">
         <v>127</v>
@@ -8211,7 +8265,7 @@
         <v>121</v>
       </c>
       <c r="K340" s="7" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="341" spans="4:12" x14ac:dyDescent="0.25">
@@ -8383,10 +8437,10 @@
     </row>
     <row r="350" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D350" s="3" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F350" t="s">
         <v>14</v>
@@ -8395,7 +8449,7 @@
         <v>127</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K350" s="3" t="s">
         <v>132</v>
@@ -8403,19 +8457,19 @@
     </row>
     <row r="351" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D351" s="3" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="G351" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I351" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K351" s="3" t="s">
         <v>133</v>
@@ -8423,16 +8477,16 @@
     </row>
     <row r="352" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D352" s="3" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="J352" s="5" t="s">
         <v>127</v>
@@ -8443,19 +8497,19 @@
     </row>
     <row r="353" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D353" s="3" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="H353" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J353" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K353" s="3" t="s">
         <v>130</v>
@@ -8463,19 +8517,19 @@
     </row>
     <row r="354" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D354" s="3" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="I354" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K354" s="3" t="s">
         <v>130</v>
@@ -8483,19 +8537,19 @@
     </row>
     <row r="355" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D355" s="3" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="G355" s="5" t="s">
         <v>127</v>
       </c>
       <c r="H355" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K355" s="3" t="s">
         <v>132</v>
@@ -8503,16 +8557,16 @@
     </row>
     <row r="356" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D356" s="3" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="G356" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="J356" s="5" t="s">
         <v>127</v>
@@ -8523,13 +8577,13 @@
     </row>
     <row r="357" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D357" s="3" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="K357" s="3" t="s">
         <v>130</v>
@@ -8537,13 +8591,13 @@
     </row>
     <row r="358" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D358" s="3" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="K358" s="3" t="s">
         <v>128</v>
@@ -8562,33 +8616,33 @@
     </row>
     <row r="360" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D360" s="3" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="G360" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J360" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="361" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D361" s="3" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="I361" s="5" t="s">
         <v>127</v>
@@ -8599,19 +8653,19 @@
     </row>
     <row r="362" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D362" s="3" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="G362" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I362" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K362" s="3" t="s">
         <v>132</v>
@@ -8619,16 +8673,16 @@
     </row>
     <row r="363" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D363" s="3" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="I363" s="5" t="s">
         <v>127</v>
@@ -8639,16 +8693,16 @@
     </row>
     <row r="364" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D364" s="3" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="J364" s="5" t="s">
         <v>127</v>
@@ -8659,19 +8713,19 @@
     </row>
     <row r="365" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D365" s="3" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="I365" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K365" s="3" t="s">
         <v>132</v>
@@ -8679,19 +8733,19 @@
     </row>
     <row r="366" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D366" s="3" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="I366" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K366" s="3" t="s">
         <v>133</v>
@@ -8710,16 +8764,16 @@
     </row>
     <row r="368" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D368" s="3" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="J368" s="5" t="s">
         <v>127</v>
@@ -8730,16 +8784,16 @@
     </row>
     <row r="369" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D369" s="3" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E369" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F369" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F369" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="H369" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="I369" s="5" t="s">
         <v>127</v>
@@ -8750,19 +8804,19 @@
     </row>
     <row r="370" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D370" s="3" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="H370" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I370" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K370" s="3" t="s">
         <v>132</v>
@@ -8770,19 +8824,19 @@
     </row>
     <row r="371" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D371" s="3" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="G371" s="5" t="s">
         <v>127</v>
       </c>
       <c r="H371" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K371" s="3" t="s">
         <v>133</v>
@@ -8790,19 +8844,19 @@
     </row>
     <row r="372" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D372" s="3" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="G372" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J372" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K372" s="3" t="s">
         <v>130</v>
@@ -8810,16 +8864,16 @@
     </row>
     <row r="373" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D373" s="3" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="I373" s="5" t="s">
         <v>127</v>
@@ -8830,16 +8884,16 @@
     </row>
     <row r="374" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D374" s="3" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="J374" s="5" t="s">
         <v>127</v>
@@ -8850,30 +8904,30 @@
     </row>
     <row r="375" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D375" s="3" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F375" s="3" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="376" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D376" s="3" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="H376" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="377" spans="4:12" x14ac:dyDescent="0.25">
@@ -8889,16 +8943,16 @@
     </row>
     <row r="378" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D378" s="3" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="H378" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="J378" s="5" t="s">
         <v>127</v>
@@ -8909,19 +8963,19 @@
     </row>
     <row r="379" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D379" s="3" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="H379" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K379" s="3" t="s">
         <v>132</v>
@@ -8929,16 +8983,16 @@
     </row>
     <row r="380" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D380" s="3" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F380" s="3" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="J380" s="5" t="s">
         <v>127</v>
@@ -8949,16 +9003,16 @@
     </row>
     <row r="381" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D381" s="3" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F381" s="3" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="G381" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="H381" s="5" t="s">
         <v>127</v>
@@ -8970,19 +9024,19 @@
     </row>
     <row r="382" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D382" s="3" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="G382" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I382" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K382" s="3" t="s">
         <v>132</v>
@@ -8990,16 +9044,16 @@
     </row>
     <row r="383" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D383" s="3" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="G383" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="I383" s="5" t="s">
         <v>127</v>
@@ -9010,44 +9064,44 @@
     </row>
     <row r="384" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D384" s="3" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F384" s="3" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="K384" s="3" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="385" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D385" s="3" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F385" s="3" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="J385" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="386" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D386" s="3" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="K386" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="387" spans="4:12" x14ac:dyDescent="0.25">
@@ -9063,44 +9117,44 @@
     </row>
     <row r="388" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D388" s="3" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="K388" s="3" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="389" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D389" s="3" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F389" s="3" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G389" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="390" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D390" s="3" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F390" s="3" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="K390" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="391" spans="4:12" x14ac:dyDescent="0.25">
@@ -9116,39 +9170,39 @@
     </row>
     <row r="392" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D392" s="3" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G392" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I392" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K392" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="393" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D393" s="3" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="H393" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I393" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K393" s="3" t="s">
         <v>132</v>
@@ -9156,19 +9210,19 @@
     </row>
     <row r="394" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D394" s="3" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="E394" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F394" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F394" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="G394" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J394" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K394" s="3" t="s">
         <v>133</v>
@@ -9176,16 +9230,16 @@
     </row>
     <row r="395" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D395" s="3" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="J395" s="5" t="s">
         <v>127</v>
@@ -9196,16 +9250,16 @@
     </row>
     <row r="396" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D396" s="3" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F396" s="3" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="I396" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="J396" s="5" t="s">
         <v>127</v>
@@ -9216,33 +9270,33 @@
     </row>
     <row r="397" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D397" s="3" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="E397" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F397" s="3" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="I397" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J397" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="398" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D398" s="3" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F398" s="3" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="399" spans="4:12" x14ac:dyDescent="0.25">
@@ -9258,33 +9312,33 @@
     </row>
     <row r="400" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D400" s="3" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H400" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I400" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="401" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D401" s="3" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="I401" s="5" t="s">
         <v>127</v>
@@ -9295,19 +9349,19 @@
     </row>
     <row r="402" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D402" s="3" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="I402" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J402" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K402" s="3" t="s">
         <v>132</v>
@@ -9315,19 +9369,19 @@
     </row>
     <row r="403" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D403" s="3" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="H403" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I403" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K403" s="3" t="s">
         <v>132</v>
@@ -9335,36 +9389,36 @@
     </row>
     <row r="404" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D404" s="3" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F404" s="3" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="G404" s="5" t="s">
         <v>127</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="K404" s="3" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="405" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D405" s="3" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F405" s="3" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="I405" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="J405" s="5" t="s">
         <v>127</v>
@@ -9375,16 +9429,16 @@
     </row>
     <row r="406" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D406" s="3" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="E406" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="F406" s="3" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -9397,11 +9451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9425,7 +9478,7 @@
       <c r="C1" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>137</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -9450,524 +9503,536 @@
       </c>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="C2" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="F2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="E3" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="J2" s="10" t="s">
+      <c r="H3" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="L4" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="M5" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="E6" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="K7" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E8" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="B9" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E9" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="G10" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>207</v>
-      </c>
       <c r="L10" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>310</v>
-      </c>
       <c r="M11" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="D12" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="D13" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G13" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="I14" s="18" t="s">
+      <c r="F14" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="16"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="9"/>
@@ -9978,11 +10043,11 @@
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="16"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="9"/>
@@ -9993,565 +10058,577 @@
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="C17" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>208</v>
+        <v>358</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10" t="s">
+      <c r="B20" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="H20" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="J20" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="M22" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F23" s="11" t="s">
+      <c r="B25" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="I23" s="11" t="s">
+      <c r="K25" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="M25" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+    </row>
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+      <c r="B26" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>211</v>
-      </c>
       <c r="M26" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="10" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>208</v>
+        <v>327</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="H27" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="L27" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="I27" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>312</v>
-      </c>
       <c r="M27" s="11" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="10" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>208</v>
+        <v>328</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I28" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="L28" s="9" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L30" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="21" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="J30" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="L30" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M30" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="16"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
       <c r="G31" s="9"/>
@@ -10562,11 +10639,11 @@
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="16"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
       <c r="G32" s="9"/>
@@ -10577,523 +10654,529 @@
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="J33" s="10" t="s">
+      <c r="B34" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="K33" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M33" s="10" t="s">
+      <c r="E34" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34" s="10" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="L34" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M35" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
+      <c r="I38" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K39" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H37" s="11" t="s">
+      <c r="L39" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="M39" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="I37" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="M37" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>236</v>
+        <v>332</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>224</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="J40" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="M40" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>236</v>
+        <v>333</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>224</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="B42" s="10" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>236</v>
+        <v>334</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>224</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="M42" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="B43" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="K43" s="10" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="L43" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="B44" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="L44" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L43" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="M43" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>325</v>
-      </c>
       <c r="M44" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="21" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="H45" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="I45" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="J45" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="L45" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="M45" s="19" t="s">
-        <v>329</v>
+      <c r="F45" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1:H45" xr:uid="{1B90ED5D-D9D3-4E25-85CB-70104FF6BEC3}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="战争之王"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="F1:H45" xr:uid="{660AD398-8099-4924-9946-8C5A29D5251B}"/>
   <sortState ref="A1:D75">
     <sortCondition ref="C1:C75"/>
   </sortState>
@@ -11107,8 +11190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11124,11 +11207,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
+      <c r="A2" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -11145,7 +11228,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="22"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -11156,7 +11239,7 @@
         <v>84</v>
       </c>
       <c r="E3">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>12</v>
@@ -11166,7 +11249,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="22"/>
       <c r="B4" t="s">
         <v>58</v>
       </c>
@@ -11187,9 +11270,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" t="s">
-        <v>60</v>
+      <c r="A5" s="22"/>
+      <c r="B5" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -11208,7 +11291,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="22"/>
       <c r="B6" t="s">
         <v>60</v>
       </c>
@@ -11229,9 +11312,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" t="s">
-        <v>63</v>
+      <c r="A7" s="22"/>
+      <c r="B7" s="3" t="s">
+        <v>347</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -11250,9 +11333,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" t="s">
-        <v>69</v>
+      <c r="A8" s="22"/>
+      <c r="B8" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -11271,9 +11354,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" t="s">
-        <v>71</v>
+      <c r="A9" s="22"/>
+      <c r="B9" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -11292,7 +11375,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="22"/>
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -11303,7 +11386,7 @@
         <v>84</v>
       </c>
       <c r="E10">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -11313,7 +11396,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="22"/>
       <c r="B11" t="s">
         <v>73</v>
       </c>
@@ -11334,7 +11417,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>87</v>
       </c>
@@ -11356,18 +11439,18 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="3" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E13">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>127</v>
@@ -11377,15 +11460,15 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="3" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="E14">
         <v>365</v>
@@ -11398,12 +11481,12 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="3" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>116</v>

--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\插件\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8AA258-8332-4ACC-962A-4279ADC79225}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96B899D-E9BE-4CCC-A578-0A0C58BC8589}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普通" sheetId="1" r:id="rId1"/>
     <sheet name="战士" sheetId="3" r:id="rId2"/>
-    <sheet name="其他" sheetId="2" r:id="rId3"/>
+    <sheet name="死亡骑士" sheetId="4" r:id="rId3"/>
+    <sheet name="其他" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">普通!$D$1:$K$406</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">其他!$D$1:$D$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">其他!$D$2:$D$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">死亡骑士!$F$1:$H$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">战士!$F$1:$H$45</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2791" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="402">
   <si>
     <t>副本名称</t>
   </si>
@@ -1392,12 +1394,102 @@
     <t>阿塔达萨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>黑暗堕落者之拥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜血</t>
+  </si>
+  <si>
+    <t>冰霜</t>
+  </si>
+  <si>
+    <t>邪恶</t>
+  </si>
+  <si>
+    <t>深可见骨</t>
+  </si>
+  <si>
+    <t>永恒符文武器</t>
+  </si>
+  <si>
+    <t>血之精髓</t>
+  </si>
+  <si>
+    <t>天灾领主之剌</t>
+  </si>
+  <si>
+    <t>诅咒之骨</t>
+  </si>
+  <si>
+    <t>黑暗堕落者之拥</t>
+  </si>
+  <si>
+    <t>寒冰暴雨</t>
+  </si>
+  <si>
+    <t>凛风怒号</t>
+  </si>
+  <si>
+    <t>潜藏冰冷</t>
+  </si>
+  <si>
+    <t>冰冷蔓延</t>
+  </si>
+  <si>
+    <t>冰霜堡垒</t>
+  </si>
+  <si>
+    <t>杀戮之冰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>脓疮厄运</t>
+  </si>
+  <si>
+    <t>苦痛衰败</t>
+  </si>
+  <si>
+    <t>溃疡伤口</t>
+  </si>
+  <si>
+    <t>溃烂之力</t>
+  </si>
+  <si>
+    <t>脓疮厄运</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后的惊喜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶臭排放</t>
+  </si>
+  <si>
+    <t>世界BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜血
+（全能、急速）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1431,6 +1523,27 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1467,7 +1580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1534,6 +1647,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1839,11 +1976,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="D1:L406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D177" sqref="D177"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1885,7 +2023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -1905,7 +2043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -1925,7 +2063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>9</v>
       </c>
@@ -1945,7 +2083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -1965,7 +2103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -1996,7 +2134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -2010,7 +2148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>9</v>
       </c>
@@ -2030,7 +2168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>9</v>
       </c>
@@ -2050,7 +2188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>9</v>
       </c>
@@ -2070,7 +2208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -2090,7 +2228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>9</v>
       </c>
@@ -2110,7 +2248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>9</v>
       </c>
@@ -2130,7 +2268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>9</v>
       </c>
@@ -2150,7 +2288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>9</v>
       </c>
@@ -2170,7 +2308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>9</v>
       </c>
@@ -2190,7 +2328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>9</v>
       </c>
@@ -2210,7 +2348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>9</v>
       </c>
@@ -2230,7 +2368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>9</v>
       </c>
@@ -2247,7 +2385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -2267,7 +2405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>9</v>
       </c>
@@ -2307,7 +2445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>9</v>
       </c>
@@ -2341,7 +2479,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>9</v>
       </c>
@@ -2361,7 +2499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>9</v>
       </c>
@@ -2396,7 +2534,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>9</v>
       </c>
@@ -2410,7 +2548,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2421,7 +2559,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>45</v>
       </c>
@@ -2441,7 +2579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>45</v>
       </c>
@@ -2461,7 +2599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>45</v>
       </c>
@@ -2481,7 +2619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>45</v>
       </c>
@@ -2501,7 +2639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>45</v>
       </c>
@@ -2521,7 +2659,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>45</v>
       </c>
@@ -2541,7 +2679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>45</v>
       </c>
@@ -2561,7 +2699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
         <v>341</v>
       </c>
@@ -2581,7 +2719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>45</v>
       </c>
@@ -2601,7 +2739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>45</v>
       </c>
@@ -2621,7 +2759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>45</v>
       </c>
@@ -2641,7 +2779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>45</v>
       </c>
@@ -2661,7 +2799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>45</v>
       </c>
@@ -2681,7 +2819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>45</v>
       </c>
@@ -2701,7 +2839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>45</v>
       </c>
@@ -2721,7 +2859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>45</v>
       </c>
@@ -2741,7 +2879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>45</v>
       </c>
@@ -2775,7 +2913,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>45</v>
       </c>
@@ -2789,7 +2927,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>45</v>
       </c>
@@ -2809,7 +2947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>45</v>
       </c>
@@ -2829,7 +2967,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>45</v>
       </c>
@@ -2849,7 +2987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>45</v>
       </c>
@@ -2869,7 +3007,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>45</v>
       </c>
@@ -2903,7 +3041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>45</v>
       </c>
@@ -2923,7 +3061,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>45</v>
       </c>
@@ -2957,7 +3095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2968,7 +3106,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>54</v>
       </c>
@@ -2988,7 +3126,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D61" s="6" t="s">
         <v>54</v>
       </c>
@@ -3010,7 +3148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>54</v>
       </c>
@@ -3030,7 +3168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>54</v>
       </c>
@@ -3050,7 +3188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>54</v>
       </c>
@@ -3070,7 +3208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>54</v>
       </c>
@@ -3090,7 +3228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>54</v>
       </c>
@@ -3110,7 +3248,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>54</v>
       </c>
@@ -3130,7 +3268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>54</v>
       </c>
@@ -3150,7 +3288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>54</v>
       </c>
@@ -3167,7 +3305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>54</v>
       </c>
@@ -3187,7 +3325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>54</v>
       </c>
@@ -3207,7 +3345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>54</v>
       </c>
@@ -3241,7 +3379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>54</v>
       </c>
@@ -3261,7 +3399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>54</v>
       </c>
@@ -3281,7 +3419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>54</v>
       </c>
@@ -3301,7 +3439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>54</v>
       </c>
@@ -3321,7 +3459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>54</v>
       </c>
@@ -3341,7 +3479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>54</v>
       </c>
@@ -3361,7 +3499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>54</v>
       </c>
@@ -3381,7 +3519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>54</v>
       </c>
@@ -3415,7 +3553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>54</v>
       </c>
@@ -3435,7 +3573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>54</v>
       </c>
@@ -3455,7 +3593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>54</v>
       </c>
@@ -3489,7 +3627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -3500,7 +3638,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>58</v>
       </c>
@@ -3520,7 +3658,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>58</v>
       </c>
@@ -3540,7 +3678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>58</v>
       </c>
@@ -3560,7 +3698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>58</v>
       </c>
@@ -3580,7 +3718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>58</v>
       </c>
@@ -3600,7 +3738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>58</v>
       </c>
@@ -3620,7 +3758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>58</v>
       </c>
@@ -3640,7 +3778,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>58</v>
       </c>
@@ -3660,7 +3798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>58</v>
       </c>
@@ -3680,7 +3818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>58</v>
       </c>
@@ -3700,7 +3838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>58</v>
       </c>
@@ -3720,7 +3858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>58</v>
       </c>
@@ -3740,7 +3878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>58</v>
       </c>
@@ -3760,7 +3898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>58</v>
       </c>
@@ -3780,7 +3918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>58</v>
       </c>
@@ -3817,7 +3955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>58</v>
       </c>
@@ -3837,7 +3975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>58</v>
       </c>
@@ -3854,7 +3992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>58</v>
       </c>
@@ -3874,7 +4012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>58</v>
       </c>
@@ -3894,7 +4032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>58</v>
       </c>
@@ -3914,7 +4052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D109" s="3" t="s">
         <v>343</v>
       </c>
@@ -3934,7 +4072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>58</v>
       </c>
@@ -3954,7 +4092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
         <v>58</v>
       </c>
@@ -3988,7 +4126,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
         <v>58</v>
       </c>
@@ -4002,7 +4140,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -4013,7 +4151,7 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
         <v>60</v>
       </c>
@@ -4033,7 +4171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
         <v>60</v>
       </c>
@@ -4053,7 +4191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
         <v>60</v>
       </c>
@@ -4073,7 +4211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
         <v>60</v>
       </c>
@@ -4093,7 +4231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
         <v>60</v>
       </c>
@@ -4113,7 +4251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
         <v>60</v>
       </c>
@@ -4133,7 +4271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
         <v>60</v>
       </c>
@@ -4153,7 +4291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
         <v>60</v>
       </c>
@@ -4173,7 +4311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
         <v>60</v>
       </c>
@@ -4193,7 +4331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
         <v>60</v>
       </c>
@@ -4213,7 +4351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
         <v>60</v>
       </c>
@@ -4233,7 +4371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
         <v>60</v>
       </c>
@@ -4253,7 +4391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
         <v>60</v>
       </c>
@@ -4273,7 +4411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
         <v>60</v>
       </c>
@@ -4293,7 +4431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
         <v>60</v>
       </c>
@@ -4330,7 +4468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
         <v>60</v>
       </c>
@@ -4344,7 +4482,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>60</v>
       </c>
@@ -4361,7 +4499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>60</v>
       </c>
@@ -4381,7 +4519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
         <v>60</v>
       </c>
@@ -4401,7 +4539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
         <v>60</v>
       </c>
@@ -4421,7 +4559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
         <v>60</v>
       </c>
@@ -4455,7 +4593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
         <v>60</v>
       </c>
@@ -4475,7 +4613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
         <v>60</v>
       </c>
@@ -4495,7 +4633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
         <v>60</v>
       </c>
@@ -4515,7 +4653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
         <v>60</v>
       </c>
@@ -4535,7 +4673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
         <v>60</v>
       </c>
@@ -4555,7 +4693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
         <v>60</v>
       </c>
@@ -4589,7 +4727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
         <v>60</v>
       </c>
@@ -4609,7 +4747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -4620,7 +4758,7 @@
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
     </row>
-    <row r="147" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D147" s="6" t="s">
         <v>63</v>
       </c>
@@ -4642,7 +4780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
         <v>63</v>
       </c>
@@ -4659,7 +4797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
         <v>63</v>
       </c>
@@ -4679,7 +4817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
         <v>63</v>
       </c>
@@ -4699,7 +4837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
         <v>63</v>
       </c>
@@ -4719,7 +4857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
         <v>63</v>
       </c>
@@ -4739,7 +4877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
         <v>63</v>
       </c>
@@ -4759,7 +4897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
         <v>63</v>
       </c>
@@ -4779,7 +4917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
         <v>63</v>
       </c>
@@ -4799,7 +4937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
         <v>63</v>
       </c>
@@ -4819,7 +4957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
         <v>63</v>
       </c>
@@ -4839,7 +4977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
         <v>63</v>
       </c>
@@ -4859,7 +4997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
         <v>63</v>
       </c>
@@ -4879,7 +5017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
         <v>63</v>
       </c>
@@ -4899,7 +5037,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
         <v>63</v>
       </c>
@@ -4919,7 +5057,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
         <v>63</v>
       </c>
@@ -4939,7 +5077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
         <v>63</v>
       </c>
@@ -4959,7 +5097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
         <v>63</v>
       </c>
@@ -4979,7 +5117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
         <v>63</v>
       </c>
@@ -4999,7 +5137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
         <v>63</v>
       </c>
@@ -5019,7 +5157,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
         <v>63</v>
       </c>
@@ -5039,7 +5177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
         <v>63</v>
       </c>
@@ -5059,7 +5197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
         <v>63</v>
       </c>
@@ -5079,7 +5217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
         <v>63</v>
       </c>
@@ -5113,7 +5251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
         <v>63</v>
       </c>
@@ -5127,7 +5265,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="173" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -5138,7 +5276,7 @@
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
     </row>
-    <row r="174" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
         <v>66</v>
       </c>
@@ -5158,7 +5296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D175" t="s">
         <v>66</v>
       </c>
@@ -5178,7 +5316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
         <v>66</v>
       </c>
@@ -5198,7 +5336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D177" s="3" t="s">
         <v>374</v>
       </c>
@@ -5218,7 +5356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
         <v>66</v>
       </c>
@@ -5238,7 +5376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
         <v>66</v>
       </c>
@@ -5258,7 +5396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D180" t="s">
         <v>66</v>
       </c>
@@ -5292,7 +5430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
         <v>66</v>
       </c>
@@ -5312,7 +5450,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D183" t="s">
         <v>66</v>
       </c>
@@ -5329,7 +5467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D184" t="s">
         <v>66</v>
       </c>
@@ -5349,7 +5487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D185" t="s">
         <v>66</v>
       </c>
@@ -5369,7 +5507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D186" t="s">
         <v>66</v>
       </c>
@@ -5389,7 +5527,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="187" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D187" t="s">
         <v>66</v>
       </c>
@@ -5423,7 +5561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D189" t="s">
         <v>66</v>
       </c>
@@ -5443,7 +5581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
         <v>66</v>
       </c>
@@ -5463,7 +5601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D191" t="s">
         <v>66</v>
       </c>
@@ -5483,7 +5621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
         <v>66</v>
       </c>
@@ -5503,7 +5641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D193" t="s">
         <v>66</v>
       </c>
@@ -5523,7 +5661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
         <v>66</v>
       </c>
@@ -5543,7 +5681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D195" t="s">
         <v>66</v>
       </c>
@@ -5577,7 +5715,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="197" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D197" t="s">
         <v>66</v>
       </c>
@@ -5588,7 +5726,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="198" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
         <v>66</v>
       </c>
@@ -5608,7 +5746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
         <v>66</v>
       </c>
@@ -5628,7 +5766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D200" t="s">
         <v>66</v>
       </c>
@@ -5662,7 +5800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -5673,7 +5811,7 @@
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
     </row>
-    <row r="203" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
         <v>69</v>
       </c>
@@ -5693,7 +5831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D204" t="s">
         <v>69</v>
       </c>
@@ -5713,7 +5851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
         <v>69</v>
       </c>
@@ -5733,7 +5871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
         <v>69</v>
       </c>
@@ -5753,7 +5891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
         <v>69</v>
       </c>
@@ -5787,7 +5925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="209" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D209" t="s">
         <v>69</v>
       </c>
@@ -5801,7 +5939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D210" t="s">
         <v>69</v>
       </c>
@@ -5821,7 +5959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D211" t="s">
         <v>69</v>
       </c>
@@ -5841,7 +5979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D212" t="s">
         <v>69</v>
       </c>
@@ -5861,7 +5999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D213" t="s">
         <v>69</v>
       </c>
@@ -5881,7 +6019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
         <v>69</v>
       </c>
@@ -5915,7 +6053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
         <v>69</v>
       </c>
@@ -5926,7 +6064,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="217" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
         <v>69</v>
       </c>
@@ -5946,7 +6084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D218" t="s">
         <v>69</v>
       </c>
@@ -5963,7 +6101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D219" t="s">
         <v>69</v>
       </c>
@@ -5983,7 +6121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D220" t="s">
         <v>69</v>
       </c>
@@ -6003,7 +6141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
         <v>69</v>
       </c>
@@ -6023,7 +6161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D222" t="s">
         <v>69</v>
       </c>
@@ -6043,7 +6181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D223" t="s">
         <v>69</v>
       </c>
@@ -6054,7 +6192,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="224" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D224" t="s">
         <v>69</v>
       </c>
@@ -6074,7 +6212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D225" t="s">
         <v>69</v>
       </c>
@@ -6108,7 +6246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
@@ -6119,7 +6257,7 @@
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
     </row>
-    <row r="228" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D228" t="s">
         <v>71</v>
       </c>
@@ -6139,7 +6277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D229" t="s">
         <v>71</v>
       </c>
@@ -6159,7 +6297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
         <v>71</v>
       </c>
@@ -6179,7 +6317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D231" t="s">
         <v>71</v>
       </c>
@@ -6199,7 +6337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D232" t="s">
         <v>71</v>
       </c>
@@ -6219,7 +6357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D233" t="s">
         <v>71</v>
       </c>
@@ -6239,7 +6377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
         <v>71</v>
       </c>
@@ -6273,7 +6411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D236" t="s">
         <v>71</v>
       </c>
@@ -6293,7 +6431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D237" t="s">
         <v>71</v>
       </c>
@@ -6313,7 +6451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
         <v>71</v>
       </c>
@@ -6333,7 +6471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D239" t="s">
         <v>71</v>
       </c>
@@ -6353,7 +6491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
         <v>71</v>
       </c>
@@ -6373,7 +6511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
         <v>71</v>
       </c>
@@ -6407,7 +6545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
         <v>71</v>
       </c>
@@ -6427,7 +6565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
         <v>71</v>
       </c>
@@ -6447,7 +6585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
         <v>71</v>
       </c>
@@ -6467,7 +6605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D246" t="s">
         <v>71</v>
       </c>
@@ -6484,7 +6622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
         <v>71</v>
       </c>
@@ -6504,7 +6642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D248" t="s">
         <v>71</v>
       </c>
@@ -6524,7 +6662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
         <v>71</v>
       </c>
@@ -6544,7 +6682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
         <v>71</v>
       </c>
@@ -6564,7 +6702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
         <v>71</v>
       </c>
@@ -6578,7 +6716,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="252" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
         <v>71</v>
       </c>
@@ -6598,7 +6736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
         <v>71</v>
       </c>
@@ -6618,7 +6756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
         <v>71</v>
       </c>
@@ -6632,7 +6770,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="255" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
@@ -6643,7 +6781,7 @@
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
     </row>
-    <row r="256" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
         <v>73</v>
       </c>
@@ -6663,7 +6801,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="257" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
         <v>73</v>
       </c>
@@ -6683,7 +6821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
         <v>73</v>
       </c>
@@ -6703,7 +6841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
         <v>73</v>
       </c>
@@ -6723,7 +6861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
         <v>73</v>
       </c>
@@ -6743,7 +6881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
         <v>73</v>
       </c>
@@ -6763,7 +6901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
         <v>73</v>
       </c>
@@ -6783,7 +6921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
         <v>73</v>
       </c>
@@ -6803,7 +6941,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
         <v>73</v>
       </c>
@@ -6823,7 +6961,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="265" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
         <v>73</v>
       </c>
@@ -6843,7 +6981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D266" t="s">
         <v>73</v>
       </c>
@@ -6863,7 +7001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
         <v>73</v>
       </c>
@@ -6883,7 +7021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D268" t="s">
         <v>73</v>
       </c>
@@ -6903,7 +7041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
         <v>73</v>
       </c>
@@ -6923,7 +7061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D270" t="s">
         <v>73</v>
       </c>
@@ -6943,7 +7081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
         <v>73</v>
       </c>
@@ -6963,7 +7101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D272" t="s">
         <v>73</v>
       </c>
@@ -6997,7 +7135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
         <v>73</v>
       </c>
@@ -7017,7 +7155,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
         <v>73</v>
       </c>
@@ -7037,7 +7175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D276" t="s">
         <v>73</v>
       </c>
@@ -7057,7 +7195,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D277" t="s">
         <v>73</v>
       </c>
@@ -7077,7 +7215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
         <v>73</v>
       </c>
@@ -7111,7 +7249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D280" s="6" t="s">
         <v>73</v>
       </c>
@@ -7133,7 +7271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
         <v>73</v>
       </c>
@@ -7153,7 +7291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
@@ -7164,7 +7302,7 @@
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
     </row>
-    <row r="283" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
         <v>87</v>
       </c>
@@ -7184,7 +7322,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="284" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
         <v>87</v>
       </c>
@@ -7204,7 +7342,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="285" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
         <v>87</v>
       </c>
@@ -7224,7 +7362,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="286" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
         <v>87</v>
       </c>
@@ -7244,7 +7382,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="287" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
         <v>87</v>
       </c>
@@ -7264,7 +7402,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="288" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
         <v>87</v>
       </c>
@@ -7284,7 +7422,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="289" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
         <v>87</v>
       </c>
@@ -7304,7 +7442,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="290" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D290" t="s">
         <v>87</v>
       </c>
@@ -7324,7 +7462,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="291" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D291" t="s">
         <v>87</v>
       </c>
@@ -7372,7 +7510,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="294" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D294" t="s">
         <v>87</v>
       </c>
@@ -7392,7 +7530,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="295" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D295" t="s">
         <v>87</v>
       </c>
@@ -7412,7 +7550,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="296" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D296" t="s">
         <v>87</v>
       </c>
@@ -7432,7 +7570,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="297" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D297" t="s">
         <v>87</v>
       </c>
@@ -7452,7 +7590,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="298" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D298" t="s">
         <v>87</v>
       </c>
@@ -7472,7 +7610,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="299" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
         <v>87</v>
       </c>
@@ -7492,7 +7630,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="300" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D300" s="3" t="s">
         <v>87</v>
       </c>
@@ -7512,7 +7650,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="301" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D301" t="s">
         <v>87</v>
       </c>
@@ -7532,7 +7670,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="302" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="D302" s="6" t="s">
         <v>87</v>
       </c>
@@ -7552,7 +7690,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="303" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D303" t="s">
         <v>87</v>
       </c>
@@ -7572,7 +7710,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="304" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D304" t="s">
         <v>87</v>
       </c>
@@ -7592,7 +7730,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="305" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D305" t="s">
         <v>87</v>
       </c>
@@ -7609,7 +7747,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="306" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D306" t="s">
         <v>87</v>
       </c>
@@ -7629,7 +7767,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="307" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D307" t="s">
         <v>87</v>
       </c>
@@ -7663,7 +7801,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="309" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D309" t="s">
         <v>87</v>
       </c>
@@ -7683,7 +7821,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="310" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D310" t="s">
         <v>87</v>
       </c>
@@ -7703,7 +7841,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="311" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D311" t="s">
         <v>87</v>
       </c>
@@ -7723,7 +7861,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="312" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D312" t="s">
         <v>87</v>
       </c>
@@ -7743,7 +7881,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="313" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
         <v>87</v>
       </c>
@@ -7763,7 +7901,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="314" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D314" t="s">
         <v>87</v>
       </c>
@@ -7783,7 +7921,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="315" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D315" t="s">
         <v>87</v>
       </c>
@@ -7803,7 +7941,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="316" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D316" t="s">
         <v>87</v>
       </c>
@@ -7823,7 +7961,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="317" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D317" t="s">
         <v>87</v>
       </c>
@@ -7857,7 +7995,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="319" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D319" t="s">
         <v>87</v>
       </c>
@@ -7877,7 +8015,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="320" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D320" t="s">
         <v>87</v>
       </c>
@@ -7897,7 +8035,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="321" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D321" t="s">
         <v>87</v>
       </c>
@@ -7914,7 +8052,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="322" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D322" t="s">
         <v>87</v>
       </c>
@@ -7934,7 +8072,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="323" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
         <v>87</v>
       </c>
@@ -7954,7 +8092,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="324" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D324" t="s">
         <v>87</v>
       </c>
@@ -7974,7 +8112,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="325" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D325" t="s">
         <v>87</v>
       </c>
@@ -8022,7 +8160,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="328" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D328" t="s">
         <v>87</v>
       </c>
@@ -8042,7 +8180,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="329" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D329" t="s">
         <v>87</v>
       </c>
@@ -8062,7 +8200,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="330" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D330" t="s">
         <v>87</v>
       </c>
@@ -8079,7 +8217,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="331" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D331" t="s">
         <v>87</v>
       </c>
@@ -8099,7 +8237,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="332" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D332" t="s">
         <v>87</v>
       </c>
@@ -8119,7 +8257,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="333" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="D333" s="6" t="s">
         <v>87</v>
       </c>
@@ -8139,7 +8277,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="334" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D334" t="s">
         <v>87</v>
       </c>
@@ -8159,7 +8297,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="335" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D335" t="s">
         <v>87</v>
       </c>
@@ -8179,7 +8317,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="336" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D336" t="s">
         <v>87</v>
       </c>
@@ -8199,7 +8337,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="337" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D337" t="s">
         <v>87</v>
       </c>
@@ -8219,7 +8357,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="338" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D338" t="s">
         <v>87</v>
       </c>
@@ -8268,7 +8406,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="341" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D341" t="s">
         <v>87</v>
       </c>
@@ -8288,7 +8426,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="342" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
         <v>87</v>
       </c>
@@ -8309,7 +8447,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="343" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
         <v>87</v>
       </c>
@@ -8329,7 +8467,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="344" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D344" t="s">
         <v>87</v>
       </c>
@@ -8349,7 +8487,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="345" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D345" t="s">
         <v>87</v>
       </c>
@@ -8369,7 +8507,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="346" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D346" t="s">
         <v>87</v>
       </c>
@@ -8389,7 +8527,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="347" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
         <v>87</v>
       </c>
@@ -8424,7 +8562,7 @@
       </c>
       <c r="K348" s="3"/>
     </row>
-    <row r="349" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
@@ -8435,7 +8573,7 @@
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
     </row>
-    <row r="350" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D350" s="3" t="s">
         <v>231</v>
       </c>
@@ -8455,7 +8593,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="351" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D351" s="3" t="s">
         <v>231</v>
       </c>
@@ -8475,7 +8613,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="352" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D352" s="3" t="s">
         <v>231</v>
       </c>
@@ -8495,7 +8633,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="353" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D353" s="3" t="s">
         <v>231</v>
       </c>
@@ -8515,7 +8653,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="354" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D354" s="3" t="s">
         <v>231</v>
       </c>
@@ -8535,7 +8673,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="355" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D355" s="3" t="s">
         <v>231</v>
       </c>
@@ -8555,7 +8693,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="356" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D356" s="3" t="s">
         <v>231</v>
       </c>
@@ -8603,7 +8741,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="359" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
@@ -8614,7 +8752,7 @@
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
     </row>
-    <row r="360" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D360" s="3" t="s">
         <v>241</v>
       </c>
@@ -8631,7 +8769,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="361" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D361" s="3" t="s">
         <v>241</v>
       </c>
@@ -8651,7 +8789,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="362" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D362" s="3" t="s">
         <v>241</v>
       </c>
@@ -8671,7 +8809,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="363" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D363" s="3" t="s">
         <v>241</v>
       </c>
@@ -8691,7 +8829,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="364" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D364" s="3" t="s">
         <v>241</v>
       </c>
@@ -8711,7 +8849,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="365" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D365" s="3" t="s">
         <v>241</v>
       </c>
@@ -8731,7 +8869,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="366" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D366" s="3" t="s">
         <v>241</v>
       </c>
@@ -8751,7 +8889,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="367" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
@@ -8762,7 +8900,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D368" s="3" t="s">
         <v>248</v>
       </c>
@@ -8782,7 +8920,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="369" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D369" s="3" t="s">
         <v>248</v>
       </c>
@@ -8802,7 +8940,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="370" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D370" s="3" t="s">
         <v>248</v>
       </c>
@@ -8822,7 +8960,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="371" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D371" s="3" t="s">
         <v>248</v>
       </c>
@@ -8842,7 +8980,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="372" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D372" s="3" t="s">
         <v>248</v>
       </c>
@@ -8862,7 +9000,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="373" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D373" s="3" t="s">
         <v>248</v>
       </c>
@@ -8882,7 +9020,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="374" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D374" s="3" t="s">
         <v>248</v>
       </c>
@@ -8930,7 +9068,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="377" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
@@ -8941,7 +9079,7 @@
       <c r="K377" s="1"/>
       <c r="L377" s="1"/>
     </row>
-    <row r="378" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D378" s="3" t="s">
         <v>253</v>
       </c>
@@ -8961,7 +9099,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="379" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D379" s="3" t="s">
         <v>253</v>
       </c>
@@ -8981,7 +9119,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="380" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D380" s="3" t="s">
         <v>253</v>
       </c>
@@ -9001,7 +9139,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="381" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D381" s="3" t="s">
         <v>253</v>
       </c>
@@ -9022,7 +9160,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="382" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D382" s="3" t="s">
         <v>253</v>
       </c>
@@ -9042,7 +9180,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="383" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D383" s="3" t="s">
         <v>253</v>
       </c>
@@ -9104,7 +9242,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="387" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
@@ -9157,7 +9295,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="391" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
@@ -9168,7 +9306,7 @@
       <c r="K391" s="1"/>
       <c r="L391" s="1"/>
     </row>
-    <row r="392" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D392" s="3" t="s">
         <v>259</v>
       </c>
@@ -9188,7 +9326,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="393" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D393" s="3" t="s">
         <v>259</v>
       </c>
@@ -9208,7 +9346,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="394" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D394" s="3" t="s">
         <v>259</v>
       </c>
@@ -9228,7 +9366,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="395" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D395" s="3" t="s">
         <v>259</v>
       </c>
@@ -9248,7 +9386,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="396" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D396" s="3" t="s">
         <v>259</v>
       </c>
@@ -9268,7 +9406,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="397" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D397" s="3" t="s">
         <v>259</v>
       </c>
@@ -9299,7 +9437,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="399" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
@@ -9310,7 +9448,7 @@
       <c r="K399" s="1"/>
       <c r="L399" s="1"/>
     </row>
-    <row r="400" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D400" s="3" t="s">
         <v>266</v>
       </c>
@@ -9327,7 +9465,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="401" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D401" s="3" t="s">
         <v>266</v>
       </c>
@@ -9347,7 +9485,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="402" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D402" s="3" t="s">
         <v>266</v>
       </c>
@@ -9367,7 +9505,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="403" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D403" s="3" t="s">
         <v>266</v>
       </c>
@@ -9387,7 +9525,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="404" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D404" s="3" t="s">
         <v>266</v>
       </c>
@@ -9407,7 +9545,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="405" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D405" s="3" t="s">
         <v>266</v>
       </c>
@@ -9442,7 +9580,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:K406" xr:uid="{7A5730F3-7899-4745-98E4-834ACA06CF2B}"/>
+  <autoFilter ref="D1:K406" xr:uid="{7A5730F3-7899-4745-98E4-834ACA06CF2B}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="饰品"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9453,14 +9597,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -9873,8 +10016,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="10" t="s">
         <v>274</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -9912,8 +10054,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="10" t="s">
         <v>280</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -9951,8 +10092,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="10" t="s">
         <v>285</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -9990,8 +10130,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="16" t="s">
         <v>287</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -10469,8 +10608,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="10" t="s">
         <v>274</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -10508,8 +10646,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="10" t="s">
         <v>280</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -10547,8 +10684,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="10" t="s">
         <v>285</v>
       </c>
       <c r="C29" s="10" t="s">
@@ -10586,8 +10722,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="16" t="s">
         <v>287</v>
       </c>
       <c r="C30" s="18" t="s">
@@ -11024,7 +11159,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="10" t="s">
         <v>274</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -11062,7 +11197,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="B43" s="10" t="s">
+      <c r="A43" s="10" t="s">
         <v>280</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -11100,7 +11235,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.35">
-      <c r="B44" s="10" t="s">
+      <c r="A44" s="10" t="s">
         <v>285</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -11138,7 +11273,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="16" t="s">
+      <c r="A45" s="16" t="s">
         <v>287</v>
       </c>
       <c r="C45" s="18" t="s">
@@ -11187,11 +11322,1729 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17F2841-4AFB-440A-B84B-DFD86E969816}">
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A41" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="F1:H45" xr:uid="{0E88C6C0-CF2D-4D40-9BDF-CE368EA819EB}"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11206,7 +13059,7 @@
     <col min="9" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>272</v>
       </c>
@@ -11220,14 +13073,14 @@
         <v>17</v>
       </c>
       <c r="E2"/>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" t="s">
         <v>58</v>
@@ -11241,14 +13094,14 @@
       <c r="E3">
         <v>375</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" t="s">
         <v>58</v>
@@ -11262,14 +13115,14 @@
       <c r="E4">
         <v>385</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="3" t="s">
         <v>345</v>
@@ -11283,14 +13136,14 @@
       <c r="E5">
         <v>395</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" t="s">
         <v>60</v>
@@ -11304,14 +13157,14 @@
       <c r="E6">
         <v>385</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="3" t="s">
         <v>347</v>
@@ -11323,16 +13176,16 @@
         <v>19</v>
       </c>
       <c r="E7">
-        <v>365</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>367</v>
@@ -11346,14 +13199,14 @@
       <c r="E8">
         <v>390</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="3" t="s">
         <v>348</v>
@@ -11367,14 +13220,14 @@
       <c r="E9">
         <v>375</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" t="s">
         <v>73</v>
@@ -11388,14 +13241,14 @@
       <c r="E10">
         <v>375</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" t="s">
         <v>73</v>
@@ -11409,14 +13262,14 @@
       <c r="E11">
         <v>370</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>87</v>
@@ -11430,15 +13283,14 @@
       <c r="E12" s="6">
         <v>365</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="3" t="s">
         <v>241</v>
@@ -11452,14 +13304,14 @@
       <c r="E13">
         <v>375</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="3" t="s">
         <v>259</v>
@@ -11473,14 +13325,14 @@
       <c r="E14">
         <v>365</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="3" t="s">
         <v>266</v>
@@ -11494,23 +13346,366 @@
       <c r="E15">
         <v>395</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E24"/>
+      <c r="F15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D24" xr:uid="{816EB891-0524-41CF-850F-6FFD4F8A65F7}"/>
-  <mergeCells count="1">
+  <autoFilter ref="D2:D37" xr:uid="{4BC56152-2C0A-4032-8DD1-07D0C46F8D6A}"/>
+  <mergeCells count="2">
     <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A20:A37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\插件\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96B899D-E9BE-4CCC-A578-0A0C58BC8589}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05D57A3-1E3C-4AA7-BD6E-EFF4B190769A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普通" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="399">
   <si>
     <t>副本名称</t>
   </si>
@@ -542,9 +542,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>刽子手的精准</t>
-  </si>
-  <si>
     <t>晶化甲壳</t>
   </si>
   <si>
@@ -595,9 +592,6 @@
     <t>不稳定的催化剂</t>
   </si>
   <si>
-    <t>血腥疯狂</t>
-  </si>
-  <si>
     <t>抵御冲击</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -673,10 +667,6 @@
     <t>碾压打击</t>
   </si>
   <si>
-    <t>坚不可破</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>战争之王</t>
   </si>
   <si>
@@ -706,9 +696,6 @@
   <si>
     <t>世界BOSS</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>欺凌弱小</t>
   </si>
   <si>
     <t>艾泽里特血脉</t>
@@ -1026,9 +1013,6 @@
     <t>怒气冲天</t>
   </si>
   <si>
-    <t>坚不可破</t>
-  </si>
-  <si>
     <t>血祭之力/海潮涌动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1395,10 +1379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黑暗堕落者之拥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>鲜血</t>
   </si>
   <si>
@@ -1423,9 +1403,6 @@
     <t>诅咒之骨</t>
   </si>
   <si>
-    <t>黑暗堕落者之拥</t>
-  </si>
-  <si>
     <t>寒冰暴雨</t>
   </si>
   <si>
@@ -1433,9 +1410,6 @@
   </si>
   <si>
     <t>潜藏冰冷</t>
-  </si>
-  <si>
-    <t>冰冷蔓延</t>
   </si>
   <si>
     <t>冰霜堡垒</t>
@@ -1445,9 +1419,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>脓疮厄运</t>
-  </si>
-  <si>
     <t>苦痛衰败</t>
   </si>
   <si>
@@ -1455,19 +1426,12 @@
   </si>
   <si>
     <t>溃烂之力</t>
-  </si>
-  <si>
-    <t>脓疮厄运</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>最后的惊喜</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>恶臭排放</t>
-  </si>
-  <si>
     <t>世界BOSS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1483,6 +1447,31 @@
   <si>
     <t>饰品</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>染血符文剑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>亡者魔导师</t>
+  </si>
+  <si>
+    <t>冰霜XX龙之怒</t>
+  </si>
+  <si>
+    <t>冥狱锁链</t>
+  </si>
+  <si>
+    <t>寒光热血</t>
+  </si>
+  <si>
+    <t>趁热打铁</t>
+  </si>
+  <si>
+    <t>千钧堡垒</t>
+  </si>
+  <si>
+    <t>不羁疯狂</t>
   </si>
 </sst>
 </file>
@@ -1642,15 +1631,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1671,6 +1651,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2701,7 +2690,7 @@
     </row>
     <row r="38" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
@@ -2807,7 +2796,7 @@
         <v>21</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -3367,7 +3356,7 @@
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D73" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E73" t="s">
         <v>21</v>
@@ -3706,7 +3695,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>12</v>
@@ -4054,7 +4043,7 @@
     </row>
     <row r="109" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D109" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E109" t="s">
         <v>31</v>
@@ -4621,7 +4610,7 @@
         <v>40</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>12</v>
@@ -5145,7 +5134,7 @@
         <v>31</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H166" s="5" t="s">
         <v>12</v>
@@ -5338,7 +5327,7 @@
     </row>
     <row r="177" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D177" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E177" t="s">
         <v>10</v>
@@ -5515,7 +5504,7 @@
         <v>21</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>12</v>
@@ -6149,7 +6138,7 @@
         <v>31</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H221" t="s">
         <v>12</v>
@@ -6285,7 +6274,7 @@
         <v>10</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G229" s="5" t="s">
         <v>12</v>
@@ -6869,7 +6858,7 @@
         <v>10</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G260" t="s">
         <v>12</v>
@@ -6889,7 +6878,7 @@
         <v>10</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G261" s="5" t="s">
         <v>12</v>
@@ -6989,7 +6978,7 @@
         <v>21</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G266" t="s">
         <v>12</v>
@@ -7390,7 +7379,7 @@
         <v>123</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I287" s="3" t="s">
         <v>127</v>
@@ -7598,7 +7587,7 @@
         <v>124</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G298" s="3" t="s">
         <v>127</v>
@@ -7755,7 +7744,7 @@
         <v>91</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H306" s="3" t="s">
         <v>127</v>
@@ -8080,7 +8069,7 @@
         <v>126</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I323" s="5" t="s">
         <v>127</v>
@@ -8345,7 +8334,7 @@
         <v>92</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I337" s="5" t="s">
         <v>127</v>
@@ -8403,7 +8392,7 @@
         <v>121</v>
       </c>
       <c r="K340" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="341" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
@@ -8575,10 +8564,10 @@
     </row>
     <row r="350" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D350" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F350" t="s">
         <v>14</v>
@@ -8587,7 +8576,7 @@
         <v>127</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K350" s="3" t="s">
         <v>132</v>
@@ -8595,19 +8584,19 @@
     </row>
     <row r="351" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D351" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G351" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I351" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K351" s="3" t="s">
         <v>133</v>
@@ -8615,16 +8604,16 @@
     </row>
     <row r="352" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D352" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F352" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E352" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F352" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="G352" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J352" s="5" t="s">
         <v>127</v>
@@ -8635,19 +8624,19 @@
     </row>
     <row r="353" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D353" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E353" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F353" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F353" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="H353" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J353" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K353" s="3" t="s">
         <v>130</v>
@@ -8655,19 +8644,19 @@
     </row>
     <row r="354" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D354" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I354" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J354" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K354" s="3" t="s">
         <v>130</v>
@@ -8675,19 +8664,19 @@
     </row>
     <row r="355" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D355" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G355" s="5" t="s">
         <v>127</v>
       </c>
       <c r="H355" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K355" s="3" t="s">
         <v>132</v>
@@ -8695,16 +8684,16 @@
     </row>
     <row r="356" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D356" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G356" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J356" s="5" t="s">
         <v>127</v>
@@ -8715,13 +8704,13 @@
     </row>
     <row r="357" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D357" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K357" s="3" t="s">
         <v>130</v>
@@ -8729,13 +8718,13 @@
     </row>
     <row r="358" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D358" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K358" s="3" t="s">
         <v>128</v>
@@ -8754,33 +8743,33 @@
     </row>
     <row r="360" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D360" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G360" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J360" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="361" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D361" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I361" s="5" t="s">
         <v>127</v>
@@ -8791,19 +8780,19 @@
     </row>
     <row r="362" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D362" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G362" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I362" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K362" s="3" t="s">
         <v>132</v>
@@ -8811,16 +8800,16 @@
     </row>
     <row r="363" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D363" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F363" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E363" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F363" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="H363" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I363" s="5" t="s">
         <v>127</v>
@@ -8831,16 +8820,16 @@
     </row>
     <row r="364" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D364" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J364" s="5" t="s">
         <v>127</v>
@@ -8851,19 +8840,19 @@
     </row>
     <row r="365" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D365" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I365" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K365" s="3" t="s">
         <v>132</v>
@@ -8871,19 +8860,19 @@
     </row>
     <row r="366" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D366" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I366" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K366" s="3" t="s">
         <v>133</v>
@@ -8902,16 +8891,16 @@
     </row>
     <row r="368" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D368" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I368" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J368" s="5" t="s">
         <v>127</v>
@@ -8922,16 +8911,16 @@
     </row>
     <row r="369" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D369" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H369" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I369" s="5" t="s">
         <v>127</v>
@@ -8942,19 +8931,19 @@
     </row>
     <row r="370" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D370" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H370" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I370" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K370" s="3" t="s">
         <v>132</v>
@@ -8962,19 +8951,19 @@
     </row>
     <row r="371" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D371" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G371" s="5" t="s">
         <v>127</v>
       </c>
       <c r="H371" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K371" s="3" t="s">
         <v>133</v>
@@ -8982,19 +8971,19 @@
     </row>
     <row r="372" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D372" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G372" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J372" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K372" s="3" t="s">
         <v>130</v>
@@ -9002,16 +8991,16 @@
     </row>
     <row r="373" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D373" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I373" s="5" t="s">
         <v>127</v>
@@ -9022,16 +9011,16 @@
     </row>
     <row r="374" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D374" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F374" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E374" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F374" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="H374" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J374" s="5" t="s">
         <v>127</v>
@@ -9042,30 +9031,30 @@
     </row>
     <row r="375" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D375" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F375" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="376" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D376" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H376" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="377" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
@@ -9081,16 +9070,16 @@
     </row>
     <row r="378" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D378" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H378" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J378" s="5" t="s">
         <v>127</v>
@@ -9101,19 +9090,19 @@
     </row>
     <row r="379" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D379" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H379" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K379" s="3" t="s">
         <v>132</v>
@@ -9121,16 +9110,16 @@
     </row>
     <row r="380" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D380" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F380" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J380" s="5" t="s">
         <v>127</v>
@@ -9141,16 +9130,16 @@
     </row>
     <row r="381" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D381" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F381" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G381" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H381" s="5" t="s">
         <v>127</v>
@@ -9162,19 +9151,19 @@
     </row>
     <row r="382" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D382" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G382" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I382" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K382" s="3" t="s">
         <v>132</v>
@@ -9182,16 +9171,16 @@
     </row>
     <row r="383" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D383" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G383" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I383" s="5" t="s">
         <v>127</v>
@@ -9202,44 +9191,44 @@
     </row>
     <row r="384" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D384" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F384" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K384" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="385" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D385" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F385" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J385" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="386" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D386" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F386" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K386" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="E386" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F386" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="K386" s="3" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="387" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
@@ -9255,44 +9244,44 @@
     </row>
     <row r="388" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D388" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K388" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="389" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D389" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F389" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G389" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="390" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D390" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F390" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K390" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="391" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
@@ -9308,39 +9297,39 @@
     </row>
     <row r="392" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D392" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G392" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I392" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K392" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="393" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D393" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H393" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I393" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K393" s="3" t="s">
         <v>132</v>
@@ -9348,19 +9337,19 @@
     </row>
     <row r="394" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D394" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F394" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G394" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J394" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K394" s="3" t="s">
         <v>133</v>
@@ -9368,16 +9357,16 @@
     </row>
     <row r="395" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D395" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E395" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J395" s="5" t="s">
         <v>127</v>
@@ -9388,16 +9377,16 @@
     </row>
     <row r="396" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D396" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F396" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I396" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J396" s="5" t="s">
         <v>127</v>
@@ -9408,33 +9397,33 @@
     </row>
     <row r="397" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D397" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E397" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F397" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I397" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J397" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="398" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D398" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E398" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F398" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="399" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
@@ -9450,33 +9439,33 @@
     </row>
     <row r="400" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D400" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H400" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I400" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="401" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D401" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F401" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G401" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I401" s="5" t="s">
         <v>127</v>
@@ -9487,19 +9476,19 @@
     </row>
     <row r="402" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D402" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E402" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I402" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J402" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K402" s="3" t="s">
         <v>132</v>
@@ -9507,19 +9496,19 @@
     </row>
     <row r="403" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D403" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H403" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I403" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K403" s="3" t="s">
         <v>132</v>
@@ -9527,36 +9516,36 @@
     </row>
     <row r="404" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D404" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E404" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F404" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F404" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="G404" s="5" t="s">
         <v>127</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K404" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="405" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D405" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F405" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I405" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J405" s="5" t="s">
         <v>127</v>
@@ -9567,16 +9556,16 @@
     </row>
     <row r="406" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D406" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E406" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F406" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -9595,10 +9584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -9654,7 +9643,7 @@
         <v>73</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>144</v>
@@ -9669,502 +9658,502 @@
         <v>148</v>
       </c>
       <c r="H2" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>157</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>148</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="I4" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="J4" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="I5" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="K5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="I6" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="K6" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>186</v>
-      </c>
       <c r="M6" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="I7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="K7" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>198</v>
-      </c>
       <c r="L8" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>148</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>149</v>
+        <v>396</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>200</v>
+        <v>398</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I10" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>166</v>
+        <v>395</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>149</v>
+        <v>396</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>144</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G14" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="K14" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>211</v>
-      </c>
       <c r="L14" s="16" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.35">
@@ -10205,133 +10194,133 @@
         <v>73</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>204</v>
-      </c>
       <c r="M17" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D18" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>206</v>
-      </c>
       <c r="F18" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G19" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>146</v>
@@ -10340,423 +10329,423 @@
         <v>147</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>174</v>
-      </c>
       <c r="H21" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>166</v>
+        <v>395</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>149</v>
+        <v>396</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>166</v>
+        <v>395</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>190</v>
+        <v>397</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>147</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>278</v>
-      </c>
       <c r="K27" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>283</v>
+        <v>397</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>151</v>
-      </c>
       <c r="L28" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>200</v>
+        <v>398</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="M30" s="17" t="s">
         <v>287</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="L30" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.35">
@@ -10791,524 +10780,527 @@
     </row>
     <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F33" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M33" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F34" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="I34" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>192</v>
-      </c>
       <c r="J34" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>166</v>
+        <v>395</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>148</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>147</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J36" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="K36" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="K36" s="10" t="s">
-        <v>201</v>
-      </c>
       <c r="L36" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D37" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E37" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>228</v>
-      </c>
       <c r="H37" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>66</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>200</v>
+        <v>398</v>
       </c>
       <c r="G38" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="J38" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="K38" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="I38" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>185</v>
-      </c>
       <c r="L38" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D39" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>228</v>
-      </c>
       <c r="H39" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I39" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="I39" s="11" t="s">
-        <v>177</v>
-      </c>
       <c r="J39" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>147</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G41" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I41" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>211</v>
-      </c>
       <c r="J41" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F42" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="M42" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F43" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>168</v>
-      </c>
       <c r="I43" s="11" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>147</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>283</v>
+        <v>397</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M45" s="17" t="s">
-        <v>311</v>
-      </c>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="E51" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="F1:H45" xr:uid="{660AD398-8099-4924-9946-8C5A29D5251B}"/>
@@ -11323,10 +11315,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17F2841-4AFB-440A-B84B-DFD86E969816}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11337,7 +11329,7 @@
     <col min="4" max="4" width="9" style="6"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13.109375" bestFit="1" customWidth="1"/>
@@ -11358,13 +11350,13 @@
         <v>138</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>142</v>
@@ -11384,7 +11376,7 @@
         <v>73</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>144</v>
@@ -11393,508 +11385,508 @@
         <v>146</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M3" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>375</v>
+        <v>164</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>391</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I4" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="I5" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M5" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="M5" s="10" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F6" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>390</v>
-      </c>
       <c r="H6" s="13" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="I6" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>186</v>
-      </c>
       <c r="M6" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>198</v>
-      </c>
       <c r="L8" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F9" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>386</v>
-      </c>
       <c r="H9" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>384</v>
+        <v>265</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>391</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I10" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G12" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>396</v>
-      </c>
       <c r="I12" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>144</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.35">
@@ -11935,558 +11927,558 @@
         <v>73</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F17" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>389</v>
-      </c>
       <c r="H17" s="10" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J17" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>160</v>
-      </c>
       <c r="L17" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D18" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>206</v>
-      </c>
       <c r="F18" s="10" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>384</v>
+      <c r="F20" s="9" t="s">
+        <v>391</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>278</v>
-      </c>
       <c r="K27" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="I28" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>151</v>
-      </c>
       <c r="L28" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F29" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>392</v>
-      </c>
       <c r="I29" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="M30" s="17" t="s">
         <v>287</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="L30" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.35">
@@ -12521,515 +12513,533 @@
     </row>
     <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J36" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="K36" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="K36" s="10" t="s">
-        <v>201</v>
-      </c>
       <c r="L36" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>384</v>
+        <v>223</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>391</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>66</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>394</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>384</v>
+        <v>284</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>391</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G44" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="H44" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="H44" s="10" t="s">
-        <v>394</v>
-      </c>
       <c r="I44" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M45" s="17" t="s">
-        <v>311</v>
-      </c>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="5:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="5:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="E51" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="F1:H45" xr:uid="{0E88C6C0-CF2D-4D40-9BDF-CE368EA819EB}"/>
@@ -13043,8 +13053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:G22"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -13060,11 +13070,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>272</v>
+      <c r="A2" s="28" t="s">
+        <v>268</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -13076,12 +13086,12 @@
       <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="29"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -13094,7 +13104,7 @@
       <c r="E3">
         <v>375</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -13102,7 +13112,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="29"/>
       <c r="B4" t="s">
         <v>58</v>
       </c>
@@ -13118,14 +13128,14 @@
       <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="3" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -13136,7 +13146,7 @@
       <c r="E5">
         <v>395</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -13144,7 +13154,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="29"/>
       <c r="B6" t="s">
         <v>60</v>
       </c>
@@ -13157,7 +13167,7 @@
       <c r="E6">
         <v>385</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -13165,9 +13175,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -13181,14 +13191,14 @@
       <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -13202,14 +13212,14 @@
       <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -13220,7 +13230,7 @@
       <c r="E9">
         <v>375</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -13228,7 +13238,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="29"/>
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -13244,12 +13254,12 @@
       <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="29"/>
       <c r="B11" t="s">
         <v>73</v>
       </c>
@@ -13262,7 +13272,7 @@
       <c r="E11">
         <v>370</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -13270,7 +13280,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="6" t="s">
         <v>87</v>
       </c>
@@ -13283,7 +13293,7 @@
       <c r="E12" s="6">
         <v>365</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="22" t="s">
         <v>127</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -13291,12 +13301,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>76</v>
@@ -13304,7 +13314,7 @@
       <c r="E13">
         <v>375</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="22" t="s">
         <v>127</v>
       </c>
       <c r="G13" s="7" t="s">
@@ -13312,20 +13322,20 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E14">
         <v>365</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="22" t="s">
         <v>127</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -13333,12 +13343,12 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>116</v>
@@ -13349,7 +13359,7 @@
       <c r="F15" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="22" t="s">
         <v>127</v>
       </c>
     </row>
@@ -13370,39 +13380,39 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="23" t="s">
         <v>84</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25" t="s">
+      <c r="E21" s="22"/>
+      <c r="F21" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -13410,31 +13420,31 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -13442,18 +13452,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25" t="s">
+      <c r="E24" s="22"/>
+      <c r="F24" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -13461,37 +13471,37 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="23" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25" t="s">
+      <c r="D26" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -13499,37 +13509,37 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="26" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="23" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24" t="s">
+      <c r="E28" s="21"/>
+      <c r="F28" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -13537,31 +13547,31 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="26" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25" t="s">
+      <c r="E30" s="22"/>
+      <c r="F30" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -13569,26 +13579,26 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="26" t="s">
+      <c r="A31" s="30"/>
+      <c r="B31" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>250</v>
+      <c r="D31" s="23" t="s">
+        <v>246</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="6" t="s">
         <v>69</v>
       </c>
@@ -13598,35 +13608,35 @@
       <c r="D32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="25" t="s">
-        <v>400</v>
+      <c r="E32" s="25"/>
+      <c r="F32" s="22" t="s">
+        <v>389</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="26" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="23" t="s">
         <v>19</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="5" t="s">
         <v>71</v>
       </c>
@@ -13636,46 +13646,46 @@
       <c r="D34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="29"/>
+      <c r="E34" s="26"/>
       <c r="F34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="21" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="27" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="24" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="27" t="s">
+      <c r="A36" s="30"/>
+      <c r="B36" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25" t="s">
+      <c r="E36" s="22"/>
+      <c r="F36" s="22" t="s">
         <v>127</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -13683,21 +13693,21 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="D37" s="26" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="D37" s="23" t="s">
         <v>75</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" s="24" t="s">
+      <c r="F37" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="21" t="s">
         <v>127</v>
       </c>
     </row>

--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\插件\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05D57A3-1E3C-4AA7-BD6E-EFF4B190769A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42F0C11-56F8-4B15-B5E8-D29C1AE792C0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普通" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="427">
   <si>
     <t>副本名称</t>
   </si>
@@ -986,9 +986,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赞达拉帝国/灰烬骑士团</t>
-  </si>
-  <si>
     <t>压倒能量</t>
   </si>
   <si>
@@ -1004,63 +1001,28 @@
     <t>吸血鬼之速</t>
   </si>
   <si>
-    <t>塔兰吉远征队/风暴之末</t>
-  </si>
-  <si>
     <t>不稳定的烈焰</t>
   </si>
   <si>
     <t>怒气冲天</t>
   </si>
   <si>
-    <t>血祭之力/海潮涌动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沃顿奈/普罗德摩尔海军部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>力量的考验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>荣耀战团/第七军团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>污秽传输/海潮涌动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血祭之力/深渊秘密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>聚焦风暴</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激励兽群/枯败灌注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>回声防护</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>雷霆冲击/汇帆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>自力更生</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>战斗荣耀/解放者之力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>鲁莽劈砍</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1073,18 +1035,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>激励兽群/毁灭剑</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼啸狂沙/影中暗刃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战场集火/战场精准</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>怒气冲天</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1093,26 +1043,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>莱赞之怒/枯败灌注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>万人敌</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>呼啸狂沙/缜密诡计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>吸血鬼之速</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>反击之怒/最终赠礼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>碾压打击</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1141,23 +1079,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>莱赞剑卫肩铠/苍茫护肩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨质神像护肩/浅滩碎浪护肩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙丘爬行者肩甲/港务长护肩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣耀战团百夫长的板甲护肩/
-第七军团士兵板甲护肩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>雄狮之吼肩甲</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1186,23 +1107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>莱赞剑卫胸甲/苍茫护胸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨质神像胸甲/浅滩碎浪胸甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙丘爬行者胸甲/港务长胸铠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣耀战团百夫长的板甲护胸/
-第七军团士兵胸甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>亵渎实验室之盔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1212,23 +1116,6 @@
   </si>
   <si>
     <t>石化冥界面具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莱赞剑卫巨盔/苍茫巨盔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨质神像护面/浅滩碎浪头盔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙丘爬行者护面/港务长面甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荣耀战团百夫长的重盔/
-第七军团士兵护头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1472,6 +1359,230 @@
   </si>
   <si>
     <t>不羁疯狂</t>
+  </si>
+  <si>
+    <t>世界BOSS(雄狮之吼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐惧之盾尖刺护肩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>团结之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争机器熔铸铁板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>集体意志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰烬骑士团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暴之末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普罗德摩尔海军部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七军团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍茫护肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅滩碎浪护肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港务长护肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七军团士兵板甲护肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枯败灌注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>海潮涌动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇帆</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>解放者之力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍茫护胸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅滩碎浪胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港务长胸铠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七军团士兵胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁灭剑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>影中暗刃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场精准</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍茫巨盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅滩碎浪头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港务长面甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七军团士兵护头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深渊秘密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缜密诡计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终赠礼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赞达拉帝国</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔兰吉远征队</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沃顿奈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀战团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱赞剑卫肩铠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨质神像护肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙丘爬行者肩甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀战团百夫长的板甲护肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励兽群</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>血祭之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆冲击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗荣耀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱赞剑卫胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨质神像胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙丘爬行者胸甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀战团百夫长的板甲护胸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污秽传输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼啸狂沙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场集火</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱赞剑卫巨盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨质神像护面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙丘爬行者护面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀战团百夫长的重盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱赞之怒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击之怒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1569,7 +1680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1660,6 +1771,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2690,7 +2804,7 @@
     </row>
     <row r="38" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
@@ -3356,7 +3470,7 @@
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D73" s="3" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="E73" t="s">
         <v>21</v>
@@ -4043,7 +4157,7 @@
     </row>
     <row r="109" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D109" s="3" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="E109" t="s">
         <v>31</v>
@@ -5327,7 +5441,7 @@
     </row>
     <row r="177" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D177" s="3" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="E177" t="s">
         <v>10</v>
@@ -9586,16 +9700,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
@@ -9643,7 +9758,7 @@
         <v>73</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>144</v>
@@ -9658,7 +9773,7 @@
         <v>148</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>149</v>
@@ -9684,7 +9799,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>144</v>
@@ -9725,7 +9840,7 @@
         <v>58</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>144</v>
@@ -9734,7 +9849,7 @@
         <v>164</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>165</v>
@@ -9766,7 +9881,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>144</v>
@@ -9807,7 +9922,7 @@
         <v>63</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>144</v>
@@ -9845,10 +9960,10 @@
         <v>185</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>144</v>
@@ -9860,7 +9975,7 @@
         <v>187</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>188</v>
@@ -9886,10 +10001,10 @@
         <v>191</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>144</v>
@@ -9927,10 +10042,10 @@
         <v>196</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>144</v>
@@ -9945,7 +10060,7 @@
         <v>148</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>150</v>
@@ -9968,10 +10083,10 @@
         <v>196</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>144</v>
@@ -9980,7 +10095,7 @@
         <v>265</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>209</v>
@@ -10006,25 +10121,25 @@
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>270</v>
+        <v>376</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>286</v>
+        <v>384</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>158</v>
@@ -10033,10 +10148,10 @@
         <v>150</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>152</v>
@@ -10044,16 +10159,16 @@
     </row>
     <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>276</v>
+        <v>377</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>279</v>
+        <v>385</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>156</v>
@@ -10071,7 +10186,7 @@
         <v>174</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>162</v>
@@ -10082,25 +10197,25 @@
     </row>
     <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>288</v>
+        <v>386</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>175</v>
@@ -10112,27 +10227,27 @@
         <v>159</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>314</v>
+        <v>379</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>383</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>144</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>290</v>
+        <v>387</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>203</v>
@@ -10144,16 +10259,16 @@
         <v>197</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>207</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.35">
@@ -10194,7 +10309,7 @@
         <v>73</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>198</v>
@@ -10203,7 +10318,7 @@
         <v>199</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>165</v>
@@ -10235,7 +10350,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>198</v>
@@ -10276,7 +10391,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>198</v>
@@ -10288,7 +10403,7 @@
         <v>156</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>181</v>
@@ -10314,10 +10429,10 @@
         <v>208</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>198</v>
@@ -10355,10 +10470,10 @@
         <v>170</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>198</v>
@@ -10399,7 +10514,7 @@
         <v>69</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>198</v>
@@ -10408,13 +10523,13 @@
         <v>214</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>180</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>189</v>
@@ -10437,10 +10552,10 @@
         <v>191</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>198</v>
@@ -10478,10 +10593,10 @@
         <v>191</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>198</v>
@@ -10519,10 +10634,10 @@
         <v>196</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>198</v>
@@ -10531,10 +10646,10 @@
         <v>264</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>173</v>
@@ -10560,10 +10675,10 @@
         <v>196</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>198</v>
@@ -10598,60 +10713,60 @@
     </row>
     <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>270</v>
+        <v>376</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>198</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>294</v>
+        <v>392</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>187</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>210</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K27" s="11" t="s">
         <v>159</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>276</v>
+        <v>377</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>198</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>283</v>
+        <v>385</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>173</v>
@@ -10674,19 +10789,19 @@
     </row>
     <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>324</v>
+        <v>390</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>198</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>295</v>
+        <v>393</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>209</v>
@@ -10698,39 +10813,39 @@
         <v>158</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M29" s="11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>282</v>
+        <v>379</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>198</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>296</v>
+        <v>394</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>193</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="I30" s="16" t="s">
         <v>149</v>
@@ -10742,10 +10857,10 @@
         <v>159</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.35">
@@ -10786,7 +10901,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>220</v>
@@ -10795,7 +10910,7 @@
         <v>221</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>193</v>
@@ -10824,10 +10939,10 @@
         <v>208</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>220</v>
@@ -10842,7 +10957,7 @@
         <v>222</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>189</v>
@@ -10868,7 +10983,7 @@
         <v>63</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>220</v>
@@ -10877,7 +10992,7 @@
         <v>199</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>148</v>
@@ -10909,7 +11024,7 @@
         <v>71</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>220</v>
@@ -10950,7 +11065,7 @@
         <v>69</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>220</v>
@@ -10991,7 +11106,7 @@
         <v>66</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>220</v>
@@ -11000,7 +11115,7 @@
         <v>186</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>203</v>
@@ -11029,10 +11144,10 @@
         <v>191</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>220</v>
@@ -11041,7 +11156,7 @@
         <v>216</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>224</v>
@@ -11070,10 +11185,10 @@
         <v>191</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>220</v>
@@ -11088,7 +11203,7 @@
         <v>165</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>226</v>
@@ -11111,10 +11226,10 @@
         <v>196</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>220</v>
@@ -11149,25 +11264,25 @@
     </row>
     <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>270</v>
+        <v>376</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>220</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>299</v>
+        <v>384</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>180</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>175</v>
@@ -11179,7 +11294,7 @@
         <v>195</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="M42" s="11" t="s">
         <v>200</v>
@@ -11187,19 +11302,19 @@
     </row>
     <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>276</v>
+        <v>377</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>220</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>284</v>
+        <v>399</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>209</v>
@@ -11208,10 +11323,10 @@
         <v>166</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="K43" s="10" t="s">
         <v>207</v>
@@ -11225,22 +11340,22 @@
     </row>
     <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>280</v>
+        <v>378</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>220</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>147</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>157</v>
@@ -11249,54 +11364,54 @@
         <v>167</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K44" s="11" t="s">
         <v>174</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="M44" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>282</v>
+        <v>379</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>220</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>303</v>
+        <v>401</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="G45" s="17" t="s">
         <v>172</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I45" s="16" t="s">
         <v>175</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K45" s="17" t="s">
         <v>150</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="M45" s="17" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="5:5" ht="15" x14ac:dyDescent="0.25">
@@ -11317,18 +11432,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17F2841-4AFB-440A-B84B-DFD86E969816}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
@@ -11350,13 +11464,13 @@
         <v>138</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>142</v>
@@ -11376,7 +11490,7 @@
         <v>73</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>144</v>
@@ -11385,13 +11499,13 @@
         <v>146</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>149</v>
@@ -11417,7 +11531,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>144</v>
@@ -11426,13 +11540,13 @@
         <v>155</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>158</v>
@@ -11458,7 +11572,7 @@
         <v>58</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>144</v>
@@ -11467,13 +11581,13 @@
         <v>164</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>167</v>
@@ -11499,7 +11613,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>144</v>
@@ -11508,13 +11622,13 @@
         <v>171</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>174</v>
@@ -11540,7 +11654,7 @@
         <v>63</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>144</v>
@@ -11549,13 +11663,13 @@
         <v>178</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>182</v>
@@ -11578,10 +11692,10 @@
         <v>185</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>144</v>
@@ -11590,13 +11704,13 @@
         <v>186</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>167</v>
@@ -11619,10 +11733,10 @@
         <v>191</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>144</v>
@@ -11631,13 +11745,13 @@
         <v>192</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>194</v>
@@ -11660,10 +11774,10 @@
         <v>196</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>144</v>
@@ -11672,13 +11786,13 @@
         <v>171</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>150</v>
@@ -11701,25 +11815,25 @@
         <v>196</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>265</v>
+        <v>373</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>174</v>
@@ -11739,25 +11853,25 @@
     </row>
     <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>270</v>
+        <v>402</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>311</v>
+        <v>406</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>286</v>
+        <v>410</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>158</v>
@@ -11766,10 +11880,10 @@
         <v>150</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>152</v>
@@ -11777,25 +11891,25 @@
     </row>
     <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>276</v>
+        <v>403</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>312</v>
+        <v>407</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>279</v>
+        <v>411</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>197</v>
@@ -11804,7 +11918,7 @@
         <v>174</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>162</v>
@@ -11815,25 +11929,25 @@
     </row>
     <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>288</v>
+        <v>412</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>175</v>
@@ -11845,48 +11959,48 @@
         <v>159</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
-        <v>282</v>
+        <v>405</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>314</v>
+        <v>409</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>144</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>290</v>
+        <v>413</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>197</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>207</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.35">
@@ -11927,7 +12041,7 @@
         <v>73</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>198</v>
@@ -11936,13 +12050,13 @@
         <v>199</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>174</v>
@@ -11968,7 +12082,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>198</v>
@@ -11977,13 +12091,13 @@
         <v>202</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>189</v>
@@ -12009,7 +12123,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>198</v>
@@ -12018,13 +12132,13 @@
         <v>206</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>207</v>
@@ -12047,10 +12161,10 @@
         <v>208</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>198</v>
@@ -12059,13 +12173,13 @@
         <v>146</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>210</v>
@@ -12088,10 +12202,10 @@
         <v>170</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>198</v>
@@ -12100,13 +12214,13 @@
         <v>211</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="I21" s="11" t="s">
         <v>150</v>
@@ -12132,7 +12246,7 @@
         <v>69</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>198</v>
@@ -12141,13 +12255,13 @@
         <v>214</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>189</v>
@@ -12170,10 +12284,10 @@
         <v>191</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>198</v>
@@ -12182,13 +12296,13 @@
         <v>192</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>159</v>
@@ -12211,10 +12325,10 @@
         <v>191</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>198</v>
@@ -12223,13 +12337,13 @@
         <v>216</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>167</v>
@@ -12252,25 +12366,25 @@
         <v>196</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>198</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>264</v>
+        <v>375</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>207</v>
@@ -12293,10 +12407,10 @@
         <v>196</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>198</v>
@@ -12305,13 +12419,13 @@
         <v>218</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>194</v>
@@ -12331,63 +12445,63 @@
     </row>
     <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>270</v>
+        <v>402</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>322</v>
+        <v>414</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>198</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>294</v>
+        <v>410</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>210</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K27" s="11" t="s">
         <v>159</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>276</v>
+        <v>403</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>323</v>
+        <v>415</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>198</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>283</v>
+        <v>418</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>149</v>
@@ -12407,63 +12521,63 @@
     </row>
     <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>324</v>
+        <v>416</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>198</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>158</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M29" s="11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>282</v>
+        <v>405</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>325</v>
+        <v>417</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>198</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>296</v>
+        <v>420</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="I30" s="16" t="s">
         <v>149</v>
@@ -12475,10 +12589,10 @@
         <v>159</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.35">
@@ -12519,7 +12633,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>220</v>
@@ -12528,13 +12642,13 @@
         <v>221</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="I33" s="11" t="s">
         <v>189</v>
@@ -12557,10 +12671,10 @@
         <v>208</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>220</v>
@@ -12569,13 +12683,13 @@
         <v>178</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>189</v>
@@ -12601,7 +12715,7 @@
         <v>63</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>220</v>
@@ -12610,13 +12724,13 @@
         <v>199</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>392</v>
+        <v>364</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>175</v>
@@ -12642,7 +12756,7 @@
         <v>71</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>220</v>
@@ -12651,13 +12765,13 @@
         <v>218</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>150</v>
@@ -12683,7 +12797,7 @@
         <v>69</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>220</v>
@@ -12692,13 +12806,13 @@
         <v>223</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>175</v>
@@ -12724,7 +12838,7 @@
         <v>66</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>220</v>
@@ -12733,13 +12847,13 @@
         <v>186</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>194</v>
@@ -12762,10 +12876,10 @@
         <v>191</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>220</v>
@@ -12774,13 +12888,13 @@
         <v>216</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="I39" s="11" t="s">
         <v>175</v>
@@ -12803,10 +12917,10 @@
         <v>191</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>220</v>
@@ -12815,13 +12929,13 @@
         <v>192</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>226</v>
@@ -12844,10 +12958,10 @@
         <v>196</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>220</v>
@@ -12856,13 +12970,13 @@
         <v>221</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="I41" s="11" t="s">
         <v>207</v>
@@ -12882,25 +12996,25 @@
     </row>
     <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>270</v>
+        <v>402</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>329</v>
+        <v>421</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>220</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>299</v>
+        <v>425</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>175</v>
@@ -12912,7 +13026,7 @@
         <v>195</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="M42" s="11" t="s">
         <v>200</v>
@@ -12920,31 +13034,31 @@
     </row>
     <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>276</v>
+        <v>403</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>220</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>284</v>
+        <v>411</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="K43" s="10" t="s">
         <v>207</v>
@@ -12958,78 +13072,78 @@
     </row>
     <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>280</v>
+        <v>404</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>220</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>301</v>
+        <v>419</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>167</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K44" s="11" t="s">
         <v>174</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="M44" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>282</v>
+        <v>405</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>332</v>
+        <v>424</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>220</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>303</v>
+        <v>426</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>384</v>
+        <v>356</v>
       </c>
       <c r="I45" s="16" t="s">
         <v>175</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K45" s="17" t="s">
         <v>150</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="M45" s="17" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="5:5" ht="15" x14ac:dyDescent="0.35">
@@ -13074,7 +13188,7 @@
         <v>268</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -13135,7 +13249,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
       <c r="B5" s="3" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -13177,7 +13291,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
       <c r="B7" s="3" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -13198,7 +13312,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
       <c r="B8" s="3" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -13219,7 +13333,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="3" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -13381,7 +13495,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>9</v>
@@ -13422,11 +13536,11 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="27" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -13553,7 +13667,7 @@
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -13610,7 +13724,7 @@
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="22" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>12</v>
@@ -13698,7 +13812,7 @@
         <v>249</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>75</v>

--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\插件\配置\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\WOW\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB34D68-244E-42CD-82D7-287B0349817A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED29EEEB-5757-4460-BA50-3D1AE18782F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普通" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">普通!$D$1:$K$492</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">其他!$D$2:$D$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">其他!$D$2:$D$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">死亡骑士!$F$1:$H$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">战士!$E$2:$N$55</definedName>
   </definedNames>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4287" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4274" uniqueCount="510">
   <si>
     <t>副本名称</t>
   </si>
@@ -2014,7 +2014,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2099,6 +2099,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2552,17 +2558,17 @@
       <selection pane="bottomLeft" activeCell="D414" activeCellId="1" sqref="D389:G389 D414:G414"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -2591,7 +2597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -2611,7 +2617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -2631,7 +2637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
         <v>9</v>
       </c>
@@ -2651,7 +2657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -2671,7 +2677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -2688,7 +2694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>9</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -2716,7 +2722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>9</v>
       </c>
@@ -2736,7 +2742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>9</v>
       </c>
@@ -2756,7 +2762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
         <v>9</v>
       </c>
@@ -2776,7 +2782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -2796,7 +2802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>9</v>
       </c>
@@ -2816,7 +2822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
         <v>9</v>
       </c>
@@ -2836,7 +2842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
         <v>9</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
         <v>9</v>
       </c>
@@ -2876,7 +2882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
         <v>9</v>
       </c>
@@ -2896,7 +2902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
         <v>9</v>
       </c>
@@ -2916,7 +2922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
         <v>9</v>
       </c>
@@ -2936,7 +2942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
         <v>9</v>
       </c>
@@ -2953,7 +2959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
         <v>9</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
         <v>9</v>
       </c>
@@ -3013,7 +3019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>9</v>
       </c>
@@ -3033,7 +3039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
         <v>9</v>
       </c>
@@ -3047,7 +3053,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
         <v>9</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
         <v>9</v>
       </c>
@@ -3087,7 +3093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
         <v>9</v>
       </c>
@@ -3102,7 +3108,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
         <v>9</v>
       </c>
@@ -3116,7 +3122,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -3127,7 +3133,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
         <v>45</v>
       </c>
@@ -3147,7 +3153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D32" t="s">
         <v>45</v>
       </c>
@@ -3167,7 +3173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D33" t="s">
         <v>45</v>
       </c>
@@ -3187,7 +3193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
         <v>45</v>
       </c>
@@ -3207,7 +3213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D35" t="s">
         <v>45</v>
       </c>
@@ -3227,7 +3233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
         <v>45</v>
       </c>
@@ -3247,7 +3253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D37" t="s">
         <v>45</v>
       </c>
@@ -3267,7 +3273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D38" s="3" t="s">
         <v>302</v>
       </c>
@@ -3287,7 +3293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
         <v>45</v>
       </c>
@@ -3307,7 +3313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
         <v>45</v>
       </c>
@@ -3327,7 +3333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D41" t="s">
         <v>45</v>
       </c>
@@ -3347,7 +3353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D42" t="s">
         <v>45</v>
       </c>
@@ -3367,7 +3373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D43" t="s">
         <v>45</v>
       </c>
@@ -3387,7 +3393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D44" t="s">
         <v>45</v>
       </c>
@@ -3407,7 +3413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D45" t="s">
         <v>45</v>
       </c>
@@ -3427,7 +3433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D46" t="s">
         <v>45</v>
       </c>
@@ -3447,7 +3453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D47" t="s">
         <v>45</v>
       </c>
@@ -3467,7 +3473,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D48" t="s">
         <v>45</v>
       </c>
@@ -3481,7 +3487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D49" t="s">
         <v>45</v>
       </c>
@@ -3495,7 +3501,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D50" t="s">
         <v>45</v>
       </c>
@@ -3515,7 +3521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D51" t="s">
         <v>45</v>
       </c>
@@ -3535,7 +3541,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D52" t="s">
         <v>45</v>
       </c>
@@ -3555,7 +3561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D53" t="s">
         <v>45</v>
       </c>
@@ -3575,7 +3581,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D54" t="s">
         <v>45</v>
       </c>
@@ -3595,7 +3601,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D55" t="s">
         <v>45</v>
       </c>
@@ -3609,7 +3615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D56" t="s">
         <v>45</v>
       </c>
@@ -3629,7 +3635,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D57" t="s">
         <v>45</v>
       </c>
@@ -3649,7 +3655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D58" t="s">
         <v>45</v>
       </c>
@@ -3663,7 +3669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3674,7 +3680,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D60" t="s">
         <v>54</v>
       </c>
@@ -3694,7 +3700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D61" s="6" t="s">
         <v>54</v>
       </c>
@@ -3716,7 +3722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D62" t="s">
         <v>54</v>
       </c>
@@ -3736,7 +3742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D63" t="s">
         <v>54</v>
       </c>
@@ -3756,7 +3762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D64" t="s">
         <v>54</v>
       </c>
@@ -3776,7 +3782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D65" t="s">
         <v>54</v>
       </c>
@@ -3796,7 +3802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D66" t="s">
         <v>54</v>
       </c>
@@ -3816,7 +3822,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D67" t="s">
         <v>54</v>
       </c>
@@ -3836,7 +3842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D68" t="s">
         <v>54</v>
       </c>
@@ -3856,7 +3862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D69" t="s">
         <v>54</v>
       </c>
@@ -3873,7 +3879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D70" t="s">
         <v>54</v>
       </c>
@@ -3893,7 +3899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D71" t="s">
         <v>54</v>
       </c>
@@ -3913,7 +3919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D72" t="s">
         <v>54</v>
       </c>
@@ -3933,7 +3939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D73" s="3" t="s">
         <v>324</v>
       </c>
@@ -3947,7 +3953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D74" t="s">
         <v>54</v>
       </c>
@@ -3967,7 +3973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D75" t="s">
         <v>54</v>
       </c>
@@ -3987,7 +3993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D76" t="s">
         <v>54</v>
       </c>
@@ -4007,7 +4013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D77" t="s">
         <v>54</v>
       </c>
@@ -4027,7 +4033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D78" t="s">
         <v>54</v>
       </c>
@@ -4047,7 +4053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D79" t="s">
         <v>54</v>
       </c>
@@ -4067,7 +4073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D80" t="s">
         <v>54</v>
       </c>
@@ -4087,7 +4093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D81" t="s">
         <v>54</v>
       </c>
@@ -4107,7 +4113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D82" t="s">
         <v>54</v>
       </c>
@@ -4121,7 +4127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D83" t="s">
         <v>54</v>
       </c>
@@ -4141,7 +4147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D84" t="s">
         <v>54</v>
       </c>
@@ -4161,7 +4167,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D85" t="s">
         <v>54</v>
       </c>
@@ -4181,7 +4187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D86" t="s">
         <v>54</v>
       </c>
@@ -4195,7 +4201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -4206,7 +4212,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D88" t="s">
         <v>58</v>
       </c>
@@ -4226,7 +4232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D89" t="s">
         <v>58</v>
       </c>
@@ -4246,7 +4252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D90" t="s">
         <v>58</v>
       </c>
@@ -4266,7 +4272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D91" t="s">
         <v>58</v>
       </c>
@@ -4286,7 +4292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D92" t="s">
         <v>58</v>
       </c>
@@ -4306,7 +4312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D93" t="s">
         <v>58</v>
       </c>
@@ -4326,7 +4332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D94" t="s">
         <v>58</v>
       </c>
@@ -4346,7 +4352,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D95" t="s">
         <v>58</v>
       </c>
@@ -4366,7 +4372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D96" t="s">
         <v>58</v>
       </c>
@@ -4386,7 +4392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D97" t="s">
         <v>58</v>
       </c>
@@ -4406,7 +4412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D98" t="s">
         <v>58</v>
       </c>
@@ -4426,7 +4432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D99" t="s">
         <v>58</v>
       </c>
@@ -4446,7 +4452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D100" t="s">
         <v>58</v>
       </c>
@@ -4466,7 +4472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D101" t="s">
         <v>58</v>
       </c>
@@ -4486,7 +4492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D102" t="s">
         <v>58</v>
       </c>
@@ -4506,7 +4512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D103" t="s">
         <v>58</v>
       </c>
@@ -4523,7 +4529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D104" t="s">
         <v>58</v>
       </c>
@@ -4543,7 +4549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D105" t="s">
         <v>58</v>
       </c>
@@ -4560,7 +4566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D106" t="s">
         <v>58</v>
       </c>
@@ -4580,7 +4586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D107" t="s">
         <v>58</v>
       </c>
@@ -4600,7 +4606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D108" t="s">
         <v>58</v>
       </c>
@@ -4620,7 +4626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D109" s="3" t="s">
         <v>304</v>
       </c>
@@ -4640,7 +4646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D110" t="s">
         <v>58</v>
       </c>
@@ -4660,7 +4666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D111" t="s">
         <v>58</v>
       </c>
@@ -4680,7 +4686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D112" t="s">
         <v>58</v>
       </c>
@@ -4694,7 +4700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D113" t="s">
         <v>58</v>
       </c>
@@ -4708,7 +4714,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -4719,7 +4725,7 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D115" t="s">
         <v>60</v>
       </c>
@@ -4739,7 +4745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D116" t="s">
         <v>60</v>
       </c>
@@ -4759,7 +4765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D117" t="s">
         <v>60</v>
       </c>
@@ -4779,7 +4785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D118" t="s">
         <v>60</v>
       </c>
@@ -4799,7 +4805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D119" t="s">
         <v>60</v>
       </c>
@@ -4819,7 +4825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D120" t="s">
         <v>60</v>
       </c>
@@ -4839,7 +4845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D121" t="s">
         <v>60</v>
       </c>
@@ -4859,7 +4865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D122" t="s">
         <v>60</v>
       </c>
@@ -4879,7 +4885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D123" t="s">
         <v>60</v>
       </c>
@@ -4899,7 +4905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D124" t="s">
         <v>60</v>
       </c>
@@ -4919,7 +4925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D125" t="s">
         <v>60</v>
       </c>
@@ -4939,7 +4945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D126" t="s">
         <v>60</v>
       </c>
@@ -4959,7 +4965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D127" t="s">
         <v>60</v>
       </c>
@@ -4979,7 +4985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D128" t="s">
         <v>60</v>
       </c>
@@ -4999,7 +5005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D129" t="s">
         <v>60</v>
       </c>
@@ -5019,7 +5025,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D130" t="s">
         <v>60</v>
       </c>
@@ -5036,7 +5042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D131" t="s">
         <v>60</v>
       </c>
@@ -5050,7 +5056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D132" t="s">
         <v>60</v>
       </c>
@@ -5067,7 +5073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D133" t="s">
         <v>60</v>
       </c>
@@ -5087,7 +5093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D134" t="s">
         <v>60</v>
       </c>
@@ -5107,7 +5113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D135" t="s">
         <v>60</v>
       </c>
@@ -5127,7 +5133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D136" t="s">
         <v>60</v>
       </c>
@@ -5147,7 +5153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D137" t="s">
         <v>60</v>
       </c>
@@ -5161,7 +5167,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D138" t="s">
         <v>60</v>
       </c>
@@ -5181,7 +5187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D139" t="s">
         <v>60</v>
       </c>
@@ -5201,7 +5207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D140" t="s">
         <v>60</v>
       </c>
@@ -5221,7 +5227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D141" t="s">
         <v>60</v>
       </c>
@@ -5241,7 +5247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D142" t="s">
         <v>60</v>
       </c>
@@ -5261,7 +5267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D143" t="s">
         <v>60</v>
       </c>
@@ -5281,7 +5287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D144" t="s">
         <v>60</v>
       </c>
@@ -5295,7 +5301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D145" t="s">
         <v>60</v>
       </c>
@@ -5315,7 +5321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -5326,7 +5332,7 @@
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
     </row>
-    <row r="147" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D147" s="6" t="s">
         <v>63</v>
       </c>
@@ -5348,7 +5354,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D148" t="s">
         <v>63</v>
       </c>
@@ -5365,7 +5371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D149" t="s">
         <v>63</v>
       </c>
@@ -5385,7 +5391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D150" t="s">
         <v>63</v>
       </c>
@@ -5405,7 +5411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D151" t="s">
         <v>63</v>
       </c>
@@ -5425,7 +5431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D152" t="s">
         <v>63</v>
       </c>
@@ -5445,7 +5451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D153" t="s">
         <v>63</v>
       </c>
@@ -5465,7 +5471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D154" t="s">
         <v>63</v>
       </c>
@@ -5485,7 +5491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D155" t="s">
         <v>63</v>
       </c>
@@ -5505,7 +5511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D156" t="s">
         <v>63</v>
       </c>
@@ -5525,7 +5531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D157" t="s">
         <v>63</v>
       </c>
@@ -5545,7 +5551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D158" t="s">
         <v>63</v>
       </c>
@@ -5565,7 +5571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D159" t="s">
         <v>63</v>
       </c>
@@ -5585,7 +5591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D160" t="s">
         <v>63</v>
       </c>
@@ -5605,7 +5611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D161" t="s">
         <v>63</v>
       </c>
@@ -5625,7 +5631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D162" t="s">
         <v>63</v>
       </c>
@@ -5645,7 +5651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D163" t="s">
         <v>63</v>
       </c>
@@ -5665,7 +5671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D164" t="s">
         <v>63</v>
       </c>
@@ -5685,7 +5691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D165" t="s">
         <v>63</v>
       </c>
@@ -5705,7 +5711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D166" t="s">
         <v>63</v>
       </c>
@@ -5725,7 +5731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D167" t="s">
         <v>63</v>
       </c>
@@ -5745,7 +5751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D168" t="s">
         <v>63</v>
       </c>
@@ -5765,7 +5771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D169" t="s">
         <v>63</v>
       </c>
@@ -5785,7 +5791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D170" t="s">
         <v>63</v>
       </c>
@@ -5805,7 +5811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D171" t="s">
         <v>63</v>
       </c>
@@ -5819,7 +5825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D172" t="s">
         <v>63</v>
       </c>
@@ -5833,7 +5839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -5844,7 +5850,7 @@
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
     </row>
-    <row r="174" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D174" t="s">
         <v>65</v>
       </c>
@@ -5864,7 +5870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D175" t="s">
         <v>65</v>
       </c>
@@ -5884,7 +5890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D176" t="s">
         <v>65</v>
       </c>
@@ -5904,7 +5910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D177" s="3" t="s">
         <v>335</v>
       </c>
@@ -5924,7 +5930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D178" t="s">
         <v>65</v>
       </c>
@@ -5944,7 +5950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D179" t="s">
         <v>65</v>
       </c>
@@ -5964,7 +5970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D180" t="s">
         <v>65</v>
       </c>
@@ -5984,7 +5990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D181" t="s">
         <v>65</v>
       </c>
@@ -5998,7 +6004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D182" t="s">
         <v>65</v>
       </c>
@@ -6018,7 +6024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D183" t="s">
         <v>65</v>
       </c>
@@ -6035,7 +6041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D184" t="s">
         <v>65</v>
       </c>
@@ -6055,7 +6061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D185" t="s">
         <v>65</v>
       </c>
@@ -6075,7 +6081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D186" t="s">
         <v>65</v>
       </c>
@@ -6095,7 +6101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="187" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D187" t="s">
         <v>65</v>
       </c>
@@ -6115,7 +6121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D188" t="s">
         <v>65</v>
       </c>
@@ -6129,7 +6135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D189" t="s">
         <v>65</v>
       </c>
@@ -6149,7 +6155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D190" t="s">
         <v>65</v>
       </c>
@@ -6169,7 +6175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D191" t="s">
         <v>65</v>
       </c>
@@ -6189,7 +6195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D192" t="s">
         <v>65</v>
       </c>
@@ -6209,7 +6215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D193" t="s">
         <v>65</v>
       </c>
@@ -6229,7 +6235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D194" t="s">
         <v>65</v>
       </c>
@@ -6249,7 +6255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D195" t="s">
         <v>65</v>
       </c>
@@ -6269,7 +6275,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="196" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D196" t="s">
         <v>65</v>
       </c>
@@ -6283,7 +6289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="197" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D197" t="s">
         <v>65</v>
       </c>
@@ -6294,7 +6300,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="198" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D198" t="s">
         <v>65</v>
       </c>
@@ -6314,7 +6320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D199" t="s">
         <v>65</v>
       </c>
@@ -6334,7 +6340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D200" t="s">
         <v>65</v>
       </c>
@@ -6354,7 +6360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D201" t="s">
         <v>65</v>
       </c>
@@ -6368,7 +6374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -6379,7 +6385,7 @@
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
     </row>
-    <row r="203" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D203" t="s">
         <v>68</v>
       </c>
@@ -6399,7 +6405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D204" t="s">
         <v>68</v>
       </c>
@@ -6419,7 +6425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D205" t="s">
         <v>68</v>
       </c>
@@ -6439,7 +6445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D206" t="s">
         <v>68</v>
       </c>
@@ -6459,7 +6465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D207" t="s">
         <v>68</v>
       </c>
@@ -6479,7 +6485,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="208" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D208" t="s">
         <v>68</v>
       </c>
@@ -6493,7 +6499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="209" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D209" t="s">
         <v>68</v>
       </c>
@@ -6507,7 +6513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D210" t="s">
         <v>68</v>
       </c>
@@ -6527,7 +6533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D211" t="s">
         <v>68</v>
       </c>
@@ -6547,7 +6553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D212" t="s">
         <v>68</v>
       </c>
@@ -6567,7 +6573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D213" t="s">
         <v>68</v>
       </c>
@@ -6587,7 +6593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D214" t="s">
         <v>68</v>
       </c>
@@ -6607,7 +6613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D215" t="s">
         <v>68</v>
       </c>
@@ -6621,7 +6627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D216" t="s">
         <v>68</v>
       </c>
@@ -6632,7 +6638,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="217" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D217" t="s">
         <v>68</v>
       </c>
@@ -6652,7 +6658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D218" t="s">
         <v>68</v>
       </c>
@@ -6669,7 +6675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D219" t="s">
         <v>68</v>
       </c>
@@ -6689,7 +6695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D220" t="s">
         <v>68</v>
       </c>
@@ -6709,7 +6715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D221" t="s">
         <v>68</v>
       </c>
@@ -6729,7 +6735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D222" t="s">
         <v>68</v>
       </c>
@@ -6749,7 +6755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D223" t="s">
         <v>68</v>
       </c>
@@ -6760,7 +6766,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="224" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D224" t="s">
         <v>68</v>
       </c>
@@ -6780,7 +6786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D225" t="s">
         <v>68</v>
       </c>
@@ -6800,7 +6806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D226" t="s">
         <v>68</v>
       </c>
@@ -6814,7 +6820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
@@ -6825,7 +6831,7 @@
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
     </row>
-    <row r="228" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D228" t="s">
         <v>70</v>
       </c>
@@ -6845,7 +6851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D229" t="s">
         <v>70</v>
       </c>
@@ -6865,7 +6871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D230" t="s">
         <v>70</v>
       </c>
@@ -6885,7 +6891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D231" t="s">
         <v>70</v>
       </c>
@@ -6905,7 +6911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D232" t="s">
         <v>70</v>
       </c>
@@ -6925,7 +6931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D233" t="s">
         <v>70</v>
       </c>
@@ -6945,7 +6951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D234" t="s">
         <v>70</v>
       </c>
@@ -6965,7 +6971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D235" t="s">
         <v>70</v>
       </c>
@@ -6979,7 +6985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D236" t="s">
         <v>70</v>
       </c>
@@ -6999,7 +7005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D237" t="s">
         <v>70</v>
       </c>
@@ -7019,7 +7025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D238" t="s">
         <v>70</v>
       </c>
@@ -7039,7 +7045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D239" t="s">
         <v>70</v>
       </c>
@@ -7059,7 +7065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D240" t="s">
         <v>70</v>
       </c>
@@ -7079,7 +7085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D241" t="s">
         <v>70</v>
       </c>
@@ -7099,7 +7105,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="242" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D242" t="s">
         <v>70</v>
       </c>
@@ -7113,7 +7119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D243" t="s">
         <v>70</v>
       </c>
@@ -7133,7 +7139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D244" t="s">
         <v>70</v>
       </c>
@@ -7153,7 +7159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D245" t="s">
         <v>70</v>
       </c>
@@ -7173,7 +7179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D246" t="s">
         <v>70</v>
       </c>
@@ -7190,7 +7196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D247" t="s">
         <v>70</v>
       </c>
@@ -7210,7 +7216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D248" t="s">
         <v>70</v>
       </c>
@@ -7230,7 +7236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D249" t="s">
         <v>70</v>
       </c>
@@ -7250,7 +7256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D250" t="s">
         <v>70</v>
       </c>
@@ -7270,7 +7276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D251" t="s">
         <v>70</v>
       </c>
@@ -7284,7 +7290,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="252" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D252" t="s">
         <v>70</v>
       </c>
@@ -7304,7 +7310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D253" t="s">
         <v>70</v>
       </c>
@@ -7324,7 +7330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D254" t="s">
         <v>70</v>
       </c>
@@ -7338,7 +7344,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="255" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
@@ -7349,7 +7355,7 @@
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
     </row>
-    <row r="256" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D256" t="s">
         <v>72</v>
       </c>
@@ -7369,7 +7375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="257" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D257" t="s">
         <v>72</v>
       </c>
@@ -7389,7 +7395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D258" t="s">
         <v>72</v>
       </c>
@@ -7409,7 +7415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D259" t="s">
         <v>72</v>
       </c>
@@ -7429,7 +7435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D260" t="s">
         <v>72</v>
       </c>
@@ -7449,7 +7455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D261" t="s">
         <v>72</v>
       </c>
@@ -7469,7 +7475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D262" t="s">
         <v>72</v>
       </c>
@@ -7489,7 +7495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D263" t="s">
         <v>72</v>
       </c>
@@ -7509,7 +7515,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D264" t="s">
         <v>72</v>
       </c>
@@ -7529,7 +7535,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="265" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D265" t="s">
         <v>72</v>
       </c>
@@ -7549,7 +7555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D266" t="s">
         <v>72</v>
       </c>
@@ -7569,7 +7575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D267" t="s">
         <v>72</v>
       </c>
@@ -7589,7 +7595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D268" t="s">
         <v>72</v>
       </c>
@@ -7609,7 +7615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D269" t="s">
         <v>72</v>
       </c>
@@ -7629,7 +7635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D270" t="s">
         <v>72</v>
       </c>
@@ -7649,7 +7655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D271" t="s">
         <v>72</v>
       </c>
@@ -7669,7 +7675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D272" t="s">
         <v>72</v>
       </c>
@@ -7689,7 +7695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D273" t="s">
         <v>72</v>
       </c>
@@ -7703,7 +7709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D274" t="s">
         <v>72</v>
       </c>
@@ -7723,7 +7729,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D275" t="s">
         <v>72</v>
       </c>
@@ -7743,7 +7749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D276" t="s">
         <v>72</v>
       </c>
@@ -7763,7 +7769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D277" t="s">
         <v>72</v>
       </c>
@@ -7783,7 +7789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D278" t="s">
         <v>72</v>
       </c>
@@ -7803,7 +7809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="279" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D279" t="s">
         <v>72</v>
       </c>
@@ -7817,7 +7823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D280" s="6" t="s">
         <v>72</v>
       </c>
@@ -7839,7 +7845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D281" t="s">
         <v>72</v>
       </c>
@@ -7859,7 +7865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
@@ -7870,7 +7876,7 @@
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
     </row>
-    <row r="283" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D283" t="s">
         <v>86</v>
       </c>
@@ -7890,7 +7896,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="284" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D284" t="s">
         <v>86</v>
       </c>
@@ -7910,7 +7916,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="285" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D285" t="s">
         <v>86</v>
       </c>
@@ -7930,7 +7936,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="286" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D286" t="s">
         <v>86</v>
       </c>
@@ -7950,7 +7956,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="287" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D287" t="s">
         <v>86</v>
       </c>
@@ -7970,7 +7976,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="288" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D288" t="s">
         <v>86</v>
       </c>
@@ -7990,7 +7996,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="289" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D289" t="s">
         <v>86</v>
       </c>
@@ -8010,7 +8016,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="290" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D290" t="s">
         <v>86</v>
       </c>
@@ -8030,7 +8036,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="291" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D291" t="s">
         <v>86</v>
       </c>
@@ -8050,7 +8056,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="292" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D292" t="s">
         <v>86</v>
       </c>
@@ -8064,7 +8070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="D293" s="6" t="s">
         <v>86</v>
       </c>
@@ -8078,7 +8084,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="294" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D294" t="s">
         <v>86</v>
       </c>
@@ -8098,7 +8104,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="295" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D295" t="s">
         <v>86</v>
       </c>
@@ -8118,7 +8124,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="296" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D296" t="s">
         <v>86</v>
       </c>
@@ -8138,7 +8144,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="297" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D297" t="s">
         <v>86</v>
       </c>
@@ -8158,7 +8164,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="298" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D298" t="s">
         <v>86</v>
       </c>
@@ -8178,7 +8184,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="299" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D299" t="s">
         <v>86</v>
       </c>
@@ -8198,7 +8204,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="300" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D300" s="3" t="s">
         <v>86</v>
       </c>
@@ -8218,7 +8224,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="301" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D301" t="s">
         <v>86</v>
       </c>
@@ -8238,7 +8244,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="302" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="D302" s="6" t="s">
         <v>86</v>
       </c>
@@ -8258,7 +8264,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="303" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D303" t="s">
         <v>86</v>
       </c>
@@ -8278,7 +8284,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="304" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D304" t="s">
         <v>86</v>
       </c>
@@ -8298,7 +8304,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="305" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D305" t="s">
         <v>86</v>
       </c>
@@ -8315,7 +8321,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="306" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D306" t="s">
         <v>86</v>
       </c>
@@ -8335,7 +8341,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="307" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D307" t="s">
         <v>86</v>
       </c>
@@ -8355,7 +8361,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="308" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="D308" s="6" t="s">
         <v>86</v>
       </c>
@@ -8369,7 +8375,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="309" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D309" t="s">
         <v>86</v>
       </c>
@@ -8389,7 +8395,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="310" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D310" t="s">
         <v>86</v>
       </c>
@@ -8409,7 +8415,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="311" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D311" t="s">
         <v>86</v>
       </c>
@@ -8429,7 +8435,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="312" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D312" t="s">
         <v>86</v>
       </c>
@@ -8449,7 +8455,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="313" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D313" t="s">
         <v>86</v>
       </c>
@@ -8469,7 +8475,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="314" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D314" t="s">
         <v>86</v>
       </c>
@@ -8489,7 +8495,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="315" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D315" t="s">
         <v>86</v>
       </c>
@@ -8509,7 +8515,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="316" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D316" t="s">
         <v>86</v>
       </c>
@@ -8529,7 +8535,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="317" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D317" t="s">
         <v>86</v>
       </c>
@@ -8549,7 +8555,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="318" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="D318" s="6" t="s">
         <v>86</v>
       </c>
@@ -8563,7 +8569,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="319" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D319" t="s">
         <v>86</v>
       </c>
@@ -8583,7 +8589,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="320" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D320" t="s">
         <v>86</v>
       </c>
@@ -8603,7 +8609,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="321" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D321" t="s">
         <v>86</v>
       </c>
@@ -8620,7 +8626,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="322" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D322" t="s">
         <v>86</v>
       </c>
@@ -8640,7 +8646,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="323" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D323" t="s">
         <v>86</v>
       </c>
@@ -8660,7 +8666,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="324" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D324" t="s">
         <v>86</v>
       </c>
@@ -8680,7 +8686,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="325" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D325" t="s">
         <v>86</v>
       </c>
@@ -8700,7 +8706,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="326" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D326" t="s">
         <v>86</v>
       </c>
@@ -8714,7 +8720,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="327" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="D327" s="6" t="s">
         <v>86</v>
       </c>
@@ -8728,7 +8734,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="328" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D328" t="s">
         <v>86</v>
       </c>
@@ -8748,7 +8754,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="329" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D329" t="s">
         <v>86</v>
       </c>
@@ -8768,7 +8774,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="330" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D330" t="s">
         <v>86</v>
       </c>
@@ -8785,7 +8791,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="331" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D331" t="s">
         <v>86</v>
       </c>
@@ -8805,7 +8811,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="332" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D332" t="s">
         <v>86</v>
       </c>
@@ -8825,7 +8831,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="333" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="D333" s="6" t="s">
         <v>86</v>
       </c>
@@ -8845,7 +8851,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="334" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D334" t="s">
         <v>86</v>
       </c>
@@ -8865,7 +8871,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="335" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D335" t="s">
         <v>86</v>
       </c>
@@ -8885,7 +8891,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="336" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D336" t="s">
         <v>86</v>
       </c>
@@ -8905,7 +8911,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="337" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D337" t="s">
         <v>86</v>
       </c>
@@ -8925,7 +8931,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="338" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D338" t="s">
         <v>86</v>
       </c>
@@ -8945,7 +8951,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="339" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D339" t="s">
         <v>86</v>
       </c>
@@ -8960,7 +8966,7 @@
       </c>
       <c r="K339" s="3"/>
     </row>
-    <row r="340" spans="4:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="D340" s="6" t="s">
         <v>86</v>
       </c>
@@ -8974,7 +8980,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="341" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D341" t="s">
         <v>86</v>
       </c>
@@ -8994,7 +9000,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="342" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D342" t="s">
         <v>86</v>
       </c>
@@ -9015,7 +9021,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="343" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D343" t="s">
         <v>86</v>
       </c>
@@ -9035,7 +9041,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="344" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D344" t="s">
         <v>86</v>
       </c>
@@ -9055,7 +9061,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="345" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D345" t="s">
         <v>86</v>
       </c>
@@ -9075,7 +9081,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="346" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D346" t="s">
         <v>86</v>
       </c>
@@ -9095,7 +9101,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="347" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D347" t="s">
         <v>86</v>
       </c>
@@ -9115,7 +9121,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="348" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D348" t="s">
         <v>86</v>
       </c>
@@ -9130,7 +9136,7 @@
       </c>
       <c r="K348" s="3"/>
     </row>
-    <row r="349" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
@@ -9141,7 +9147,7 @@
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
     </row>
-    <row r="350" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D350" s="3" t="s">
         <v>222</v>
       </c>
@@ -9161,7 +9167,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="351" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D351" s="3" t="s">
         <v>222</v>
       </c>
@@ -9181,7 +9187,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="352" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D352" s="3" t="s">
         <v>222</v>
       </c>
@@ -9201,7 +9207,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="353" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D353" s="3" t="s">
         <v>222</v>
       </c>
@@ -9221,7 +9227,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="354" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D354" s="3" t="s">
         <v>222</v>
       </c>
@@ -9241,7 +9247,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="355" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D355" s="3" t="s">
         <v>222</v>
       </c>
@@ -9261,7 +9267,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="356" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D356" s="3" t="s">
         <v>222</v>
       </c>
@@ -9281,7 +9287,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="357" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D357" s="3" t="s">
         <v>222</v>
       </c>
@@ -9295,7 +9301,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="358" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D358" s="3" t="s">
         <v>222</v>
       </c>
@@ -9309,7 +9315,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="359" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
@@ -9320,7 +9326,7 @@
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
     </row>
-    <row r="360" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D360" s="3" t="s">
         <v>232</v>
       </c>
@@ -9337,7 +9343,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="361" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D361" s="3" t="s">
         <v>232</v>
       </c>
@@ -9357,7 +9363,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="362" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D362" s="3" t="s">
         <v>232</v>
       </c>
@@ -9377,7 +9383,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="363" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D363" s="3" t="s">
         <v>232</v>
       </c>
@@ -9397,7 +9403,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="364" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D364" s="3" t="s">
         <v>232</v>
       </c>
@@ -9417,7 +9423,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="365" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D365" s="3" t="s">
         <v>232</v>
       </c>
@@ -9437,7 +9443,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="366" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D366" s="3" t="s">
         <v>232</v>
       </c>
@@ -9457,7 +9463,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="367" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
@@ -9468,7 +9474,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D368" s="3" t="s">
         <v>239</v>
       </c>
@@ -9488,7 +9494,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="369" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D369" s="3" t="s">
         <v>239</v>
       </c>
@@ -9508,7 +9514,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="370" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D370" s="3" t="s">
         <v>239</v>
       </c>
@@ -9528,7 +9534,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="371" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D371" s="3" t="s">
         <v>239</v>
       </c>
@@ -9548,7 +9554,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="372" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D372" s="3" t="s">
         <v>239</v>
       </c>
@@ -9568,7 +9574,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="373" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D373" s="3" t="s">
         <v>239</v>
       </c>
@@ -9588,7 +9594,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="374" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D374" s="3" t="s">
         <v>239</v>
       </c>
@@ -9608,7 +9614,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="375" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D375" s="3" t="s">
         <v>239</v>
       </c>
@@ -9622,7 +9628,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="376" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D376" s="3" t="s">
         <v>239</v>
       </c>
@@ -9636,7 +9642,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="377" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
@@ -9647,7 +9653,7 @@
       <c r="K377" s="1"/>
       <c r="L377" s="1"/>
     </row>
-    <row r="378" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D378" s="3" t="s">
         <v>244</v>
       </c>
@@ -9667,7 +9673,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="379" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D379" s="3" t="s">
         <v>244</v>
       </c>
@@ -9687,7 +9693,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="380" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D380" s="3" t="s">
         <v>244</v>
       </c>
@@ -9707,7 +9713,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="381" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D381" s="3" t="s">
         <v>244</v>
       </c>
@@ -9728,7 +9734,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="382" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D382" s="3" t="s">
         <v>244</v>
       </c>
@@ -9748,7 +9754,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="383" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D383" s="3" t="s">
         <v>244</v>
       </c>
@@ -9768,7 +9774,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="384" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D384" s="3" t="s">
         <v>244</v>
       </c>
@@ -9782,7 +9788,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="385" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D385" s="3" t="s">
         <v>244</v>
       </c>
@@ -9796,7 +9802,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="386" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D386" s="3" t="s">
         <v>244</v>
       </c>
@@ -9810,7 +9816,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="387" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
@@ -9821,7 +9827,7 @@
       <c r="K387" s="1"/>
       <c r="L387" s="1"/>
     </row>
-    <row r="388" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D388" s="3" t="s">
         <v>422</v>
       </c>
@@ -9835,7 +9841,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="389" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D389" s="3" t="s">
         <v>422</v>
       </c>
@@ -9849,7 +9855,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="390" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D390" s="3" t="s">
         <v>422</v>
       </c>
@@ -9863,7 +9869,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="391" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
@@ -9874,7 +9880,7 @@
       <c r="K391" s="1"/>
       <c r="L391" s="1"/>
     </row>
-    <row r="392" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D392" s="3" t="s">
         <v>249</v>
       </c>
@@ -9894,7 +9900,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="393" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D393" s="3" t="s">
         <v>249</v>
       </c>
@@ -9914,7 +9920,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="394" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D394" s="3" t="s">
         <v>249</v>
       </c>
@@ -9934,7 +9940,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="395" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D395" s="3" t="s">
         <v>249</v>
       </c>
@@ -9954,7 +9960,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="396" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D396" s="3" t="s">
         <v>249</v>
       </c>
@@ -9974,7 +9980,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="397" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D397" s="3" t="s">
         <v>249</v>
       </c>
@@ -9991,7 +9997,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="398" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D398" s="3" t="s">
         <v>249</v>
       </c>
@@ -10005,7 +10011,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="399" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
@@ -10016,7 +10022,7 @@
       <c r="K399" s="1"/>
       <c r="L399" s="1"/>
     </row>
-    <row r="400" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D400" s="3" t="s">
         <v>256</v>
       </c>
@@ -10033,7 +10039,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="401" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D401" s="3" t="s">
         <v>256</v>
       </c>
@@ -10053,7 +10059,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="402" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D402" s="3" t="s">
         <v>256</v>
       </c>
@@ -10073,7 +10079,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="403" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D403" s="3" t="s">
         <v>256</v>
       </c>
@@ -10093,7 +10099,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="404" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D404" s="3" t="s">
         <v>256</v>
       </c>
@@ -10113,7 +10119,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="405" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D405" s="3" t="s">
         <v>256</v>
       </c>
@@ -10133,7 +10139,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="406" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D406" s="3" t="s">
         <v>256</v>
       </c>
@@ -10147,7 +10153,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="407" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
@@ -10158,7 +10164,7 @@
       <c r="K407" s="1"/>
       <c r="L407" s="1"/>
     </row>
-    <row r="408" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D408" s="3" t="s">
         <v>420</v>
       </c>
@@ -10178,7 +10184,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="409" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D409" s="3" t="s">
         <v>420</v>
       </c>
@@ -10198,7 +10204,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="410" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D410" s="3" t="s">
         <v>420</v>
       </c>
@@ -10218,7 +10224,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="411" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D411" s="3" t="s">
         <v>420</v>
       </c>
@@ -10238,7 +10244,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="412" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D412" s="3" t="s">
         <v>420</v>
       </c>
@@ -10252,7 +10258,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="413" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D413" s="3" t="s">
         <v>420</v>
       </c>
@@ -10266,7 +10272,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="414" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D414" s="3" t="s">
         <v>420</v>
       </c>
@@ -10280,7 +10286,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="415" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
@@ -10291,7 +10297,7 @@
       <c r="K415" s="1"/>
       <c r="L415" s="1"/>
     </row>
-    <row r="416" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="D416" s="3" t="s">
         <v>426</v>
       </c>
@@ -10311,7 +10317,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="417" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D417" s="3" t="s">
         <v>426</v>
       </c>
@@ -10331,7 +10337,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="418" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D418" s="3" t="s">
         <v>426</v>
       </c>
@@ -10351,7 +10357,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="419" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D419" s="3" t="s">
         <v>426</v>
       </c>
@@ -10371,7 +10377,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="420" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D420" s="3" t="s">
         <v>426</v>
       </c>
@@ -10391,7 +10397,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="421" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D421" s="3" t="s">
         <v>426</v>
       </c>
@@ -10411,7 +10417,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="422" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D422" s="3" t="s">
         <v>426</v>
       </c>
@@ -10431,7 +10437,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="423" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D423" s="3" t="s">
         <v>426</v>
       </c>
@@ -10451,7 +10457,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="424" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D424" s="3" t="s">
         <v>426</v>
       </c>
@@ -10465,7 +10471,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="425" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D425" s="3" t="s">
         <v>426</v>
       </c>
@@ -10485,7 +10491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="426" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D426" s="3" t="s">
         <v>426</v>
       </c>
@@ -10505,7 +10511,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="427" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D427" s="3" t="s">
         <v>426</v>
       </c>
@@ -10525,7 +10531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="428" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D428" s="3" t="s">
         <v>426</v>
       </c>
@@ -10545,7 +10551,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="429" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D429" s="3" t="s">
         <v>426</v>
       </c>
@@ -10562,7 +10568,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="430" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D430" s="3" t="s">
         <v>426</v>
       </c>
@@ -10582,7 +10588,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="431" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D431" s="3" t="s">
         <v>426</v>
       </c>
@@ -10602,7 +10608,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="432" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D432" s="3" t="s">
         <v>426</v>
       </c>
@@ -10622,7 +10628,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="433" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D433" s="3" t="s">
         <v>426</v>
       </c>
@@ -10642,7 +10648,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="434" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D434" s="3" t="s">
         <v>426</v>
       </c>
@@ -10656,7 +10662,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="435" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D435" s="3" t="s">
         <v>426</v>
       </c>
@@ -10676,7 +10682,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="436" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D436" s="3" t="s">
         <v>426</v>
       </c>
@@ -10696,7 +10702,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="437" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D437" s="3" t="s">
         <v>426</v>
       </c>
@@ -10716,7 +10722,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="438" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D438" s="3" t="s">
         <v>426</v>
       </c>
@@ -10736,7 +10742,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="439" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D439" s="3" t="s">
         <v>426</v>
       </c>
@@ -10756,7 +10762,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="440" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D440" s="3" t="s">
         <v>426</v>
       </c>
@@ -10773,7 +10779,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="441" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D441" s="3" t="s">
         <v>426</v>
       </c>
@@ -10787,7 +10793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D442" s="3" t="s">
         <v>426</v>
       </c>
@@ -10807,7 +10813,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="443" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D443" s="3" t="s">
         <v>426</v>
       </c>
@@ -10827,7 +10833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="444" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D444" s="3" t="s">
         <v>426</v>
       </c>
@@ -10847,7 +10853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="445" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D445" s="3" t="s">
         <v>426</v>
       </c>
@@ -10867,7 +10873,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="446" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D446" s="3" t="s">
         <v>426</v>
       </c>
@@ -10887,7 +10893,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="447" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D447" s="3" t="s">
         <v>426</v>
       </c>
@@ -10907,7 +10913,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="448" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D448" s="3" t="s">
         <v>426</v>
       </c>
@@ -10927,7 +10933,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="449" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D449" s="3" t="s">
         <v>426</v>
       </c>
@@ -10947,7 +10953,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="450" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D450" s="3" t="s">
         <v>426</v>
       </c>
@@ -10961,7 +10967,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="451" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D451" s="3" t="s">
         <v>426</v>
       </c>
@@ -10975,7 +10981,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="452" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D452" s="3" t="s">
         <v>426</v>
       </c>
@@ -10995,7 +11001,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="453" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D453" s="3" t="s">
         <v>426</v>
       </c>
@@ -11015,7 +11021,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="454" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D454" s="3" t="s">
         <v>426</v>
       </c>
@@ -11035,7 +11041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D455" s="3" t="s">
         <v>426</v>
       </c>
@@ -11052,7 +11058,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="456" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D456" s="3" t="s">
         <v>426</v>
       </c>
@@ -11072,7 +11078,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="457" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D457" s="3" t="s">
         <v>426</v>
       </c>
@@ -11092,7 +11098,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="458" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D458" s="3" t="s">
         <v>426</v>
       </c>
@@ -11106,7 +11112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="459" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D459" s="3" t="s">
         <v>426</v>
       </c>
@@ -11120,7 +11126,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="460" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D460" s="3" t="s">
         <v>426</v>
       </c>
@@ -11140,7 +11146,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="461" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D461" s="3" t="s">
         <v>426</v>
       </c>
@@ -11160,7 +11166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="462" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D462" s="3" t="s">
         <v>426</v>
       </c>
@@ -11180,7 +11186,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="463" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D463" s="3" t="s">
         <v>426</v>
       </c>
@@ -11200,7 +11206,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="464" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D464" s="3" t="s">
         <v>426</v>
       </c>
@@ -11217,7 +11223,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="465" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D465" s="3" t="s">
         <v>426</v>
       </c>
@@ -11231,7 +11237,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="466" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D466" s="3" t="s">
         <v>426</v>
       </c>
@@ -11245,7 +11251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D467" s="3" t="s">
         <v>426</v>
       </c>
@@ -11256,7 +11262,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="468" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D468" s="3" t="s">
         <v>426</v>
       </c>
@@ -11276,7 +11282,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="469" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D469" s="3" t="s">
         <v>426</v>
       </c>
@@ -11290,7 +11296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="470" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D470" s="3" t="s">
         <v>426</v>
       </c>
@@ -11307,7 +11313,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="471" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D471" s="3" t="s">
         <v>426</v>
       </c>
@@ -11327,7 +11333,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="472" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D472" s="3" t="s">
         <v>426</v>
       </c>
@@ -11347,7 +11353,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="473" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D473" s="3" t="s">
         <v>426</v>
       </c>
@@ -11361,7 +11367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D474" s="3" t="s">
         <v>426</v>
       </c>
@@ -11375,7 +11381,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="475" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D475" s="3" t="s">
         <v>426</v>
       </c>
@@ -11395,7 +11401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D476" s="3" t="s">
         <v>426</v>
       </c>
@@ -11415,7 +11421,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="477" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D477" s="3" t="s">
         <v>426</v>
       </c>
@@ -11435,7 +11441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D478" s="3" t="s">
         <v>426</v>
       </c>
@@ -11455,7 +11461,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="479" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D479" s="3" t="s">
         <v>426</v>
       </c>
@@ -11475,7 +11481,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="480" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D480" s="3" t="s">
         <v>426</v>
       </c>
@@ -11495,7 +11501,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="481" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D481" s="3" t="s">
         <v>426</v>
       </c>
@@ -11515,7 +11521,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="482" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D482" s="3" t="s">
         <v>426</v>
       </c>
@@ -11535,7 +11541,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="483" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D483" s="3" t="s">
         <v>426</v>
       </c>
@@ -11555,7 +11561,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="484" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D484" s="3" t="s">
         <v>426</v>
       </c>
@@ -11566,7 +11572,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="485" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D485" s="3" t="s">
         <v>426</v>
       </c>
@@ -11586,7 +11592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="486" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D486" s="3" t="s">
         <v>426</v>
       </c>
@@ -11606,7 +11612,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="487" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D487" s="3" t="s">
         <v>426</v>
       </c>
@@ -11626,7 +11632,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="488" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D488" s="3" t="s">
         <v>426</v>
       </c>
@@ -11646,7 +11652,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="489" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D489" s="3" t="s">
         <v>426</v>
       </c>
@@ -11666,7 +11672,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="490" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D490" s="3" t="s">
         <v>426</v>
       </c>
@@ -11683,7 +11689,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="491" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D491" s="3" t="s">
         <v>426</v>
       </c>
@@ -11697,7 +11703,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="492" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="D492" s="3" t="s">
         <v>426</v>
       </c>
@@ -11745,22 +11751,22 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="6" width="11.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="6"/>
-    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E1" s="10" t="s">
         <v>475</v>
       </c>
@@ -11788,7 +11794,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>134</v>
       </c>
@@ -11821,7 +11827,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>141</v>
       </c>
@@ -11880,7 +11886,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
@@ -11939,7 +11945,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>159</v>
       </c>
@@ -11998,7 +12004,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>166</v>
       </c>
@@ -12057,7 +12063,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>173</v>
       </c>
@@ -12116,7 +12122,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>180</v>
       </c>
@@ -12175,7 +12181,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>186</v>
       </c>
@@ -12216,7 +12222,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>485</v>
       </c>
@@ -12275,7 +12281,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>485</v>
       </c>
@@ -12334,7 +12340,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>485</v>
       </c>
@@ -12393,7 +12399,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>191</v>
       </c>
@@ -12440,7 +12446,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>191</v>
       </c>
@@ -12487,7 +12493,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>369</v>
       </c>
@@ -12543,7 +12549,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>370</v>
       </c>
@@ -12599,7 +12605,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>371</v>
       </c>
@@ -12655,7 +12661,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>372</v>
       </c>
@@ -12711,7 +12717,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -12732,7 +12738,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -12753,7 +12759,7 @@
       <c r="R20" s="9"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>141</v>
       </c>
@@ -12812,7 +12818,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>196</v>
       </c>
@@ -12871,7 +12877,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>150</v>
       </c>
@@ -12930,7 +12936,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>203</v>
       </c>
@@ -12989,7 +12995,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>166</v>
       </c>
@@ -13048,7 +13054,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>208</v>
       </c>
@@ -13107,7 +13113,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>186</v>
       </c>
@@ -13154,7 +13160,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>186</v>
       </c>
@@ -13201,7 +13207,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>485</v>
       </c>
@@ -13260,7 +13266,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>485</v>
       </c>
@@ -13319,7 +13325,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>485</v>
       </c>
@@ -13378,7 +13384,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>191</v>
       </c>
@@ -13425,7 +13431,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>191</v>
       </c>
@@ -13472,7 +13478,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>369</v>
       </c>
@@ -13528,7 +13534,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>370</v>
       </c>
@@ -13584,7 +13590,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>371</v>
       </c>
@@ -13640,7 +13646,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
         <v>372</v>
       </c>
@@ -13696,7 +13702,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
@@ -13717,7 +13723,7 @@
       <c r="R38" s="9"/>
       <c r="S38" s="10"/>
     </row>
-    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
@@ -13738,7 +13744,7 @@
       <c r="R39" s="9"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>196</v>
       </c>
@@ -13797,7 +13803,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>203</v>
       </c>
@@ -13856,7 +13862,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>173</v>
       </c>
@@ -13915,7 +13921,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>180</v>
       </c>
@@ -13974,7 +13980,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>208</v>
       </c>
@@ -14033,7 +14039,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>220</v>
       </c>
@@ -14092,7 +14098,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>186</v>
       </c>
@@ -14139,7 +14145,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>186</v>
       </c>
@@ -14186,7 +14192,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>485</v>
       </c>
@@ -14245,7 +14251,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>485</v>
       </c>
@@ -14304,7 +14310,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>485</v>
       </c>
@@ -14363,7 +14369,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>191</v>
       </c>
@@ -14410,7 +14416,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>369</v>
       </c>
@@ -14466,7 +14472,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>370</v>
       </c>
@@ -14522,7 +14528,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>371</v>
       </c>
@@ -14578,7 +14584,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
         <v>372</v>
       </c>
@@ -14634,7 +14640,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="K61" s="9"/>
     </row>
   </sheetData>
@@ -14695,20 +14701,20 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>134</v>
       </c>
@@ -14741,7 +14747,7 @@
       </c>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>141</v>
       </c>
@@ -14782,7 +14788,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>150</v>
       </c>
@@ -14823,7 +14829,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>159</v>
       </c>
@@ -14864,7 +14870,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>166</v>
       </c>
@@ -14905,7 +14911,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>173</v>
       </c>
@@ -14946,7 +14952,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>180</v>
       </c>
@@ -14987,7 +14993,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>186</v>
       </c>
@@ -15028,7 +15034,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>191</v>
       </c>
@@ -15069,7 +15075,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>191</v>
       </c>
@@ -15110,7 +15116,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>395</v>
       </c>
@@ -15148,7 +15154,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>396</v>
       </c>
@@ -15186,7 +15192,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>397</v>
       </c>
@@ -15224,7 +15230,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>398</v>
       </c>
@@ -15262,7 +15268,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -15277,7 +15283,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -15292,7 +15298,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>141</v>
       </c>
@@ -15333,7 +15339,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>196</v>
       </c>
@@ -15374,7 +15380,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>150</v>
       </c>
@@ -15415,7 +15421,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>203</v>
       </c>
@@ -15456,7 +15462,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>166</v>
       </c>
@@ -15497,7 +15503,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>208</v>
       </c>
@@ -15538,7 +15544,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>186</v>
       </c>
@@ -15579,7 +15585,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>186</v>
       </c>
@@ -15620,7 +15626,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>191</v>
       </c>
@@ -15661,7 +15667,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>191</v>
       </c>
@@ -15702,7 +15708,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>395</v>
       </c>
@@ -15740,7 +15746,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>396</v>
       </c>
@@ -15778,7 +15784,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>397</v>
       </c>
@@ -15816,7 +15822,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>398</v>
       </c>
@@ -15854,7 +15860,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
@@ -15869,7 +15875,7 @@
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
@@ -15884,7 +15890,7 @@
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>196</v>
       </c>
@@ -15925,7 +15931,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>203</v>
       </c>
@@ -15966,7 +15972,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>173</v>
       </c>
@@ -16007,7 +16013,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>180</v>
       </c>
@@ -16048,7 +16054,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>208</v>
       </c>
@@ -16089,7 +16095,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>220</v>
       </c>
@@ -16130,7 +16136,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>186</v>
       </c>
@@ -16171,7 +16177,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>186</v>
       </c>
@@ -16212,7 +16218,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>191</v>
       </c>
@@ -16253,7 +16259,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>395</v>
       </c>
@@ -16291,7 +16297,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>396</v>
       </c>
@@ -16329,7 +16335,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>397</v>
       </c>
@@ -16367,7 +16373,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
         <v>398</v>
       </c>
@@ -16405,13 +16411,13 @@
         <v>284</v>
       </c>
     </row>
-    <row r="49" spans="5:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="5:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="5:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E51" s="10"/>
     </row>
   </sheetData>
@@ -16424,27 +16430,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="M1" s="3" t="s">
         <v>508</v>
       </c>
@@ -16452,8 +16458,8 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>262</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -16472,24 +16478,26 @@
       <c r="G2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
+      <c r="M2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="32"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -16508,24 +16516,26 @@
       <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="M3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="M3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="32"/>
       <c r="B4" t="s">
         <v>58</v>
       </c>
@@ -16560,8 +16570,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="32"/>
       <c r="B5" s="3" t="s">
         <v>306</v>
       </c>
@@ -16596,8 +16606,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="32"/>
       <c r="B6" t="s">
         <v>60</v>
       </c>
@@ -16632,8 +16642,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="32"/>
       <c r="B7" s="3" t="s">
         <v>308</v>
       </c>
@@ -16668,8 +16678,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="32"/>
       <c r="B8" s="3" t="s">
         <v>328</v>
       </c>
@@ -16688,24 +16698,10 @@
       <c r="G8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="32"/>
       <c r="B9" s="3" t="s">
         <v>309</v>
       </c>
@@ -16724,24 +16720,26 @@
       <c r="G9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="M9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="32"/>
       <c r="B10" t="s">
         <v>72</v>
       </c>
@@ -16776,8 +16774,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="32"/>
       <c r="B11" t="s">
         <v>72</v>
       </c>
@@ -16812,8 +16810,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="32"/>
       <c r="B12" s="6" t="s">
         <v>86</v>
       </c>
@@ -16848,8 +16846,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="32"/>
       <c r="B13" s="3" t="s">
         <v>232</v>
       </c>
@@ -16884,8 +16882,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="32"/>
       <c r="B14" s="3" t="s">
         <v>249</v>
       </c>
@@ -16904,24 +16902,26 @@
       <c r="G14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="29" t="s">
         <v>453</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="M14" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="32"/>
       <c r="B15" s="3" t="s">
         <v>256</v>
       </c>
@@ -16940,122 +16940,90 @@
       <c r="G15" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M15" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="J16" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="J17" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B22" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C22" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D22" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="24" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="33"/>
+      <c r="B23" s="24" t="s">
         <v>45</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="22" t="s">
@@ -17065,54 +17033,48 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="24" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="33"/>
+      <c r="B24" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="33"/>
+      <c r="B25" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="33"/>
+      <c r="B26" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D26" s="24" t="s">
         <v>19</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>241</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22" t="s">
@@ -17122,16 +17084,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="33"/>
       <c r="B27" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
@@ -17141,105 +17103,105 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="23" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="33"/>
+      <c r="B28" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="D28" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="33"/>
       <c r="B29" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="23" t="s">
+        <v>10</v>
+      </c>
       <c r="D29" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="33"/>
+      <c r="B30" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="33"/>
+      <c r="B31" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="24" t="s">
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="33"/>
+      <c r="B32" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C32" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D32" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="23" t="s">
+      <c r="E32" s="22"/>
+      <c r="F32" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="33"/>
+      <c r="B33" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C33" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D33" s="23" t="s">
         <v>241</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>19</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
@@ -17249,87 +17211,125 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="5" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="33"/>
+      <c r="B34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="33"/>
+      <c r="B35" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C35" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="33"/>
+      <c r="B36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="24" t="s">
+      <c r="E36" s="26"/>
+      <c r="F36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="33"/>
+      <c r="B37" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C37" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D37" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="24" t="s">
+      <c r="E37" s="6"/>
+      <c r="F37" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="33"/>
+      <c r="B38" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C38" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D38" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="23" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="33"/>
+      <c r="B39" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C39" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D39" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" s="21" t="s">
+      <c r="E39" s="5"/>
+      <c r="F39" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="21" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D2:D37" xr:uid="{4BC56152-2C0A-4032-8DD1-07D0C46F8D6A}"/>
+  <autoFilter ref="D2:D39" xr:uid="{4BC56152-2C0A-4032-8DD1-07D0C46F8D6A}"/>
   <mergeCells count="2">
     <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A20:A37"/>
+    <mergeCell ref="A22:A39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\WOW\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED29EEEB-5757-4460-BA50-3D1AE18782F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C332BC-FAD5-4F21-874A-880D11C8C6C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普通" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4274" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4284" uniqueCount="510">
   <si>
     <t>副本名称</t>
   </si>
@@ -2555,20 +2555,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D414" activeCellId="1" sqref="D389:G389 D414:G414"/>
+      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>9</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>9</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>9</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>9</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>9</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>9</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>9</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>9</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>9</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>9</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>9</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>9</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>9</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>9</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>9</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>9</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>9</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>9</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>9</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>9</v>
       </c>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>9</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -3133,7 +3133,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>45</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>45</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>45</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>45</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>45</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>45</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>45</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
         <v>302</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>45</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>45</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>45</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>45</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>45</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>45</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>45</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>45</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>45</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>45</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>45</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>45</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>45</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>45</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>45</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>45</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>45</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>45</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>45</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>45</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3680,7 +3680,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>54</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D61" s="6" t="s">
         <v>54</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>54</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>54</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>54</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>54</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>54</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>54</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>54</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>54</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>54</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>54</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>54</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D73" s="3" t="s">
         <v>324</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>54</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>54</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>54</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>54</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>54</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>54</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>54</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>54</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>54</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>54</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>54</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>54</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>54</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -4212,7 +4212,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>58</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>58</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>58</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>58</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>58</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>58</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>58</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>58</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>58</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>58</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>58</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>58</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>58</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>58</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>58</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>58</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>58</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>58</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>58</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>58</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>58</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D109" s="3" t="s">
         <v>304</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>58</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
         <v>58</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>58</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
         <v>58</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -4725,7 +4725,7 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
         <v>60</v>
       </c>
@@ -4745,7 +4745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
         <v>60</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
         <v>60</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
         <v>60</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
         <v>60</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
         <v>60</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
         <v>60</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
         <v>60</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
         <v>60</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
         <v>60</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
         <v>60</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
         <v>60</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
         <v>60</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
         <v>60</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
         <v>60</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
         <v>60</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
         <v>60</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>60</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>60</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
         <v>60</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
         <v>60</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
         <v>60</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
         <v>60</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
         <v>60</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
         <v>60</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
         <v>60</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
         <v>60</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
         <v>60</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
         <v>60</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
         <v>60</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
         <v>60</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -5332,7 +5332,7 @@
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
     </row>
-    <row r="147" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D147" s="6" t="s">
         <v>63</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
         <v>63</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
         <v>63</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
         <v>63</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
         <v>63</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
         <v>63</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
         <v>63</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
         <v>63</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
         <v>63</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
         <v>63</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
         <v>63</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
         <v>63</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
         <v>63</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
         <v>63</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
         <v>63</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
         <v>63</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
         <v>63</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
         <v>63</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
         <v>63</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
         <v>63</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
         <v>63</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
         <v>63</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
         <v>63</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
         <v>63</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
         <v>63</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
         <v>63</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -5850,7 +5850,7 @@
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
     </row>
-    <row r="174" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
         <v>65</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D175" t="s">
         <v>65</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
         <v>65</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D177" s="3" t="s">
         <v>335</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
         <v>65</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
         <v>65</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D180" t="s">
         <v>65</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D181" t="s">
         <v>65</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
         <v>65</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D183" t="s">
         <v>65</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D184" t="s">
         <v>65</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D185" t="s">
         <v>65</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D186" t="s">
         <v>65</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="187" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D187" t="s">
         <v>65</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D188" t="s">
         <v>65</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D189" t="s">
         <v>65</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
         <v>65</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D191" t="s">
         <v>65</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
         <v>65</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D193" t="s">
         <v>65</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
         <v>65</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D195" t="s">
         <v>65</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="196" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D196" t="s">
         <v>65</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="197" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D197" t="s">
         <v>65</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="198" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
         <v>65</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
         <v>65</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D200" t="s">
         <v>65</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D201" t="s">
         <v>65</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -6385,7 +6385,7 @@
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
     </row>
-    <row r="203" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
         <v>68</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D204" t="s">
         <v>68</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
         <v>68</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
         <v>68</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
         <v>68</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="208" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
         <v>68</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="209" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D209" t="s">
         <v>68</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D210" t="s">
         <v>68</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D211" t="s">
         <v>68</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D212" t="s">
         <v>68</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D213" t="s">
         <v>68</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
         <v>68</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D215" t="s">
         <v>68</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
         <v>68</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="217" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
         <v>68</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D218" t="s">
         <v>68</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D219" t="s">
         <v>68</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D220" t="s">
         <v>68</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
         <v>68</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D222" t="s">
         <v>68</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D223" t="s">
         <v>68</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="224" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D224" t="s">
         <v>68</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D225" t="s">
         <v>68</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D226" t="s">
         <v>68</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
@@ -6831,7 +6831,7 @@
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
     </row>
-    <row r="228" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D228" t="s">
         <v>70</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D229" t="s">
         <v>70</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
         <v>70</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D231" t="s">
         <v>70</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D232" t="s">
         <v>70</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D233" t="s">
         <v>70</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
         <v>70</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D235" t="s">
         <v>70</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D236" t="s">
         <v>70</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D237" t="s">
         <v>70</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
         <v>70</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D239" t="s">
         <v>70</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
         <v>70</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
         <v>70</v>
       </c>
@@ -7105,7 +7105,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="242" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
         <v>70</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
         <v>70</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
         <v>70</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
         <v>70</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D246" t="s">
         <v>70</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
         <v>70</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D248" t="s">
         <v>70</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
         <v>70</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
         <v>70</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
         <v>70</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="252" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
         <v>70</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
         <v>70</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
         <v>70</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="255" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
@@ -7355,7 +7355,7 @@
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
     </row>
-    <row r="256" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
         <v>72</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="257" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
         <v>72</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
         <v>72</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
         <v>72</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
         <v>72</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
         <v>72</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
         <v>72</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
         <v>72</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
         <v>72</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="265" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
         <v>72</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D266" t="s">
         <v>72</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
         <v>72</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D268" t="s">
         <v>72</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
         <v>72</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D270" t="s">
         <v>72</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
         <v>72</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D272" t="s">
         <v>72</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
         <v>72</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
         <v>72</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
         <v>72</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D276" t="s">
         <v>72</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D277" t="s">
         <v>72</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
         <v>72</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="279" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
         <v>72</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D280" s="6" t="s">
         <v>72</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
         <v>72</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
@@ -7876,7 +7876,7 @@
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
     </row>
-    <row r="283" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
         <v>86</v>
       </c>
@@ -7896,7 +7896,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="284" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
         <v>86</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="285" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
         <v>86</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="286" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
         <v>86</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="287" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
         <v>86</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="288" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
         <v>86</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="289" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
         <v>86</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="290" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D290" t="s">
         <v>86</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="291" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D291" t="s">
         <v>86</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="292" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D292" t="s">
         <v>86</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="D293" s="6" t="s">
         <v>86</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="294" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D294" t="s">
         <v>86</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="295" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D295" t="s">
         <v>86</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="296" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D296" t="s">
         <v>86</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="297" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D297" t="s">
         <v>86</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="298" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D298" t="s">
         <v>86</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="299" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
         <v>86</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="300" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D300" s="3" t="s">
         <v>86</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="301" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D301" t="s">
         <v>86</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="302" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="D302" s="6" t="s">
         <v>86</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="303" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D303" t="s">
         <v>86</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="304" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D304" t="s">
         <v>86</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="305" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D305" t="s">
         <v>86</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="306" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D306" t="s">
         <v>86</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="307" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D307" t="s">
         <v>86</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="308" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="D308" s="6" t="s">
         <v>86</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="309" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D309" t="s">
         <v>86</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="310" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D310" t="s">
         <v>86</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="311" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D311" t="s">
         <v>86</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="312" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D312" t="s">
         <v>86</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="313" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
         <v>86</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="314" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D314" t="s">
         <v>86</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="315" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D315" t="s">
         <v>86</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="316" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D316" t="s">
         <v>86</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="317" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D317" t="s">
         <v>86</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="318" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="D318" s="6" t="s">
         <v>86</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="319" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D319" t="s">
         <v>86</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="320" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D320" t="s">
         <v>86</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="321" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D321" t="s">
         <v>86</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="322" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D322" t="s">
         <v>86</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="323" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
         <v>86</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="324" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D324" t="s">
         <v>86</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="325" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D325" t="s">
         <v>86</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="326" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D326" t="s">
         <v>86</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="327" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="D327" s="6" t="s">
         <v>86</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="328" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D328" t="s">
         <v>86</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="329" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D329" t="s">
         <v>86</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="330" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D330" t="s">
         <v>86</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="331" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D331" t="s">
         <v>86</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="332" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D332" t="s">
         <v>86</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="333" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="D333" s="6" t="s">
         <v>86</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="334" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D334" t="s">
         <v>86</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="335" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D335" t="s">
         <v>86</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="336" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D336" t="s">
         <v>86</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="337" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D337" t="s">
         <v>86</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="338" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D338" t="s">
         <v>86</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="339" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D339" t="s">
         <v>86</v>
       </c>
@@ -8966,7 +8966,7 @@
       </c>
       <c r="K339" s="3"/>
     </row>
-    <row r="340" spans="4:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="4:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="D340" s="6" t="s">
         <v>86</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="341" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D341" t="s">
         <v>86</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="342" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
         <v>86</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="343" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
         <v>86</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="344" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D344" t="s">
         <v>86</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="345" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D345" t="s">
         <v>86</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="346" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D346" t="s">
         <v>86</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="347" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
         <v>86</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="348" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D348" t="s">
         <v>86</v>
       </c>
@@ -9136,7 +9136,7 @@
       </c>
       <c r="K348" s="3"/>
     </row>
-    <row r="349" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
@@ -9147,7 +9147,7 @@
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
     </row>
-    <row r="350" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D350" s="3" t="s">
         <v>222</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="351" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D351" s="3" t="s">
         <v>222</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="352" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D352" s="3" t="s">
         <v>222</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="353" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D353" s="3" t="s">
         <v>222</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="354" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D354" s="3" t="s">
         <v>222</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="355" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D355" s="3" t="s">
         <v>222</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="356" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D356" s="3" t="s">
         <v>222</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="357" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D357" s="3" t="s">
         <v>222</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="358" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D358" s="3" t="s">
         <v>222</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="359" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
@@ -9326,7 +9326,7 @@
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
     </row>
-    <row r="360" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D360" s="3" t="s">
         <v>232</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="361" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D361" s="3" t="s">
         <v>232</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="362" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D362" s="3" t="s">
         <v>232</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="363" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D363" s="3" t="s">
         <v>232</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="364" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D364" s="3" t="s">
         <v>232</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="365" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D365" s="3" t="s">
         <v>232</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="366" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D366" s="3" t="s">
         <v>232</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="367" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
@@ -9474,7 +9474,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D368" s="3" t="s">
         <v>239</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="369" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D369" s="3" t="s">
         <v>239</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="370" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D370" s="3" t="s">
         <v>239</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="371" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D371" s="3" t="s">
         <v>239</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="372" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D372" s="3" t="s">
         <v>239</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="373" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D373" s="3" t="s">
         <v>239</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="374" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D374" s="3" t="s">
         <v>239</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="375" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="375" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D375" s="3" t="s">
         <v>239</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="376" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D376" s="3" t="s">
         <v>239</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="377" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
@@ -9653,7 +9653,7 @@
       <c r="K377" s="1"/>
       <c r="L377" s="1"/>
     </row>
-    <row r="378" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D378" s="3" t="s">
         <v>244</v>
       </c>
@@ -9673,7 +9673,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="379" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D379" s="3" t="s">
         <v>244</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="380" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D380" s="3" t="s">
         <v>244</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="381" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D381" s="3" t="s">
         <v>244</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="382" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D382" s="3" t="s">
         <v>244</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="383" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D383" s="3" t="s">
         <v>244</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="384" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D384" s="3" t="s">
         <v>244</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="385" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D385" s="3" t="s">
         <v>244</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="386" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D386" s="3" t="s">
         <v>244</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="387" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
@@ -9827,7 +9827,7 @@
       <c r="K387" s="1"/>
       <c r="L387" s="1"/>
     </row>
-    <row r="388" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D388" s="3" t="s">
         <v>422</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="389" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="389" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D389" s="3" t="s">
         <v>422</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="390" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D390" s="3" t="s">
         <v>422</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="391" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
@@ -9880,7 +9880,7 @@
       <c r="K391" s="1"/>
       <c r="L391" s="1"/>
     </row>
-    <row r="392" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D392" s="3" t="s">
         <v>249</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="393" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D393" s="3" t="s">
         <v>249</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="394" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D394" s="3" t="s">
         <v>249</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="395" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D395" s="3" t="s">
         <v>249</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="396" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D396" s="3" t="s">
         <v>249</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="397" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D397" s="3" t="s">
         <v>249</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="398" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="398" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D398" s="3" t="s">
         <v>249</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="399" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
@@ -10022,7 +10022,7 @@
       <c r="K399" s="1"/>
       <c r="L399" s="1"/>
     </row>
-    <row r="400" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D400" s="3" t="s">
         <v>256</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="401" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D401" s="3" t="s">
         <v>256</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="402" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D402" s="3" t="s">
         <v>256</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="403" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D403" s="3" t="s">
         <v>256</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="404" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D404" s="3" t="s">
         <v>256</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="405" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D405" s="3" t="s">
         <v>256</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="406" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D406" s="3" t="s">
         <v>256</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="407" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
@@ -10164,7 +10164,7 @@
       <c r="K407" s="1"/>
       <c r="L407" s="1"/>
     </row>
-    <row r="408" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D408" s="3" t="s">
         <v>420</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="409" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D409" s="3" t="s">
         <v>420</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="410" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D410" s="3" t="s">
         <v>420</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="411" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D411" s="3" t="s">
         <v>420</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="412" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D412" s="3" t="s">
         <v>420</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="413" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D413" s="3" t="s">
         <v>420</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="414" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="414" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D414" s="3" t="s">
         <v>420</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="415" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
@@ -10297,7 +10297,7 @@
       <c r="K415" s="1"/>
       <c r="L415" s="1"/>
     </row>
-    <row r="416" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="4:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="D416" s="3" t="s">
         <v>426</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="417" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D417" s="3" t="s">
         <v>426</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="418" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D418" s="3" t="s">
         <v>426</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="419" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D419" s="3" t="s">
         <v>426</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="420" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D420" s="3" t="s">
         <v>426</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="421" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D421" s="3" t="s">
         <v>426</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="422" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D422" s="3" t="s">
         <v>426</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="423" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D423" s="3" t="s">
         <v>426</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="424" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D424" s="3" t="s">
         <v>426</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="425" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D425" s="3" t="s">
         <v>426</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="426" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D426" s="3" t="s">
         <v>426</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="427" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D427" s="3" t="s">
         <v>426</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="428" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D428" s="3" t="s">
         <v>426</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="429" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D429" s="3" t="s">
         <v>426</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="430" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D430" s="3" t="s">
         <v>426</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="431" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D431" s="3" t="s">
         <v>426</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="432" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D432" s="3" t="s">
         <v>426</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="433" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D433" s="3" t="s">
         <v>426</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="434" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D434" s="3" t="s">
         <v>426</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="435" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D435" s="3" t="s">
         <v>426</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="436" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D436" s="3" t="s">
         <v>426</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="437" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D437" s="3" t="s">
         <v>426</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="438" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D438" s="3" t="s">
         <v>426</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="439" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D439" s="3" t="s">
         <v>426</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="440" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D440" s="3" t="s">
         <v>426</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="441" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D441" s="3" t="s">
         <v>426</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D442" s="3" t="s">
         <v>426</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="443" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D443" s="3" t="s">
         <v>426</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="444" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D444" s="3" t="s">
         <v>426</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="445" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D445" s="3" t="s">
         <v>426</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="446" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D446" s="3" t="s">
         <v>426</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="447" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D447" s="3" t="s">
         <v>426</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="448" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D448" s="3" t="s">
         <v>426</v>
       </c>
@@ -10933,7 +10933,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="449" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D449" s="3" t="s">
         <v>426</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="450" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D450" s="3" t="s">
         <v>426</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="451" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D451" s="3" t="s">
         <v>426</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="452" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D452" s="3" t="s">
         <v>426</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="453" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D453" s="3" t="s">
         <v>426</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="454" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D454" s="3" t="s">
         <v>426</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D455" s="3" t="s">
         <v>426</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="456" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D456" s="3" t="s">
         <v>426</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="457" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D457" s="3" t="s">
         <v>426</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="458" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D458" s="3" t="s">
         <v>426</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="459" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D459" s="3" t="s">
         <v>426</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="460" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D460" s="3" t="s">
         <v>426</v>
       </c>
@@ -11146,7 +11146,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="461" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D461" s="3" t="s">
         <v>426</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="462" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D462" s="3" t="s">
         <v>426</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="463" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D463" s="3" t="s">
         <v>426</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="464" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D464" s="3" t="s">
         <v>426</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="465" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D465" s="3" t="s">
         <v>426</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="466" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D466" s="3" t="s">
         <v>426</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D467" s="3" t="s">
         <v>426</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="468" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D468" s="3" t="s">
         <v>426</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="469" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D469" s="3" t="s">
         <v>426</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="470" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D470" s="3" t="s">
         <v>426</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="471" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D471" s="3" t="s">
         <v>426</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="472" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D472" s="3" t="s">
         <v>426</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="473" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D473" s="3" t="s">
         <v>426</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D474" s="3" t="s">
         <v>426</v>
       </c>
@@ -11381,7 +11381,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="475" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D475" s="3" t="s">
         <v>426</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D476" s="3" t="s">
         <v>426</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="477" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D477" s="3" t="s">
         <v>426</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D478" s="3" t="s">
         <v>426</v>
       </c>
@@ -11461,7 +11461,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="479" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D479" s="3" t="s">
         <v>426</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="480" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D480" s="3" t="s">
         <v>426</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="481" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D481" s="3" t="s">
         <v>426</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="482" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D482" s="3" t="s">
         <v>426</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="483" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D483" s="3" t="s">
         <v>426</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="484" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D484" s="3" t="s">
         <v>426</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="485" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D485" s="3" t="s">
         <v>426</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="486" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D486" s="3" t="s">
         <v>426</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="487" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D487" s="3" t="s">
         <v>426</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="488" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D488" s="3" t="s">
         <v>426</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="489" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D489" s="3" t="s">
         <v>426</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="490" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D490" s="3" t="s">
         <v>426</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="491" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D491" s="3" t="s">
         <v>426</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="492" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="4:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="D492" s="3" t="s">
         <v>426</v>
       </c>
@@ -11721,7 +11721,7 @@
   <autoFilter ref="D1:K492" xr:uid="{B34408CA-1274-461D-B00A-45908AC537E2}">
     <filterColumn colId="2">
       <filters>
-        <filter val="饰品"/>
+        <filter val="板甲脚"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
@@ -11729,12 +11729,10 @@
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="7">
-      <filters blank="1">
-        <filter val="力量"/>
-        <filter val="力量/敏捷"/>
-        <filter val="敏捷/力量"/>
-      </filters>
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11751,22 +11749,22 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="6" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="6"/>
-    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="E1" s="10" t="s">
         <v>475</v>
       </c>
@@ -11794,7 +11792,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>134</v>
       </c>
@@ -11827,7 +11825,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>141</v>
       </c>
@@ -11886,7 +11884,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
@@ -11945,7 +11943,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>159</v>
       </c>
@@ -12004,7 +12002,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>166</v>
       </c>
@@ -12063,7 +12061,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>173</v>
       </c>
@@ -12122,7 +12120,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>180</v>
       </c>
@@ -12181,7 +12179,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>186</v>
       </c>
@@ -12222,7 +12220,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>485</v>
       </c>
@@ -12281,7 +12279,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>485</v>
       </c>
@@ -12340,7 +12338,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>485</v>
       </c>
@@ -12399,7 +12397,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>191</v>
       </c>
@@ -12446,7 +12444,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>191</v>
       </c>
@@ -12493,7 +12491,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>369</v>
       </c>
@@ -12549,7 +12547,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>370</v>
       </c>
@@ -12605,7 +12603,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>371</v>
       </c>
@@ -12661,7 +12659,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>372</v>
       </c>
@@ -12717,7 +12715,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -12738,7 +12736,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -12759,7 +12757,7 @@
       <c r="R20" s="9"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>141</v>
       </c>
@@ -12818,7 +12816,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>196</v>
       </c>
@@ -12877,7 +12875,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>150</v>
       </c>
@@ -12936,7 +12934,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>203</v>
       </c>
@@ -12995,7 +12993,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>166</v>
       </c>
@@ -13054,7 +13052,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>208</v>
       </c>
@@ -13113,7 +13111,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>186</v>
       </c>
@@ -13160,7 +13158,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>186</v>
       </c>
@@ -13207,7 +13205,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>485</v>
       </c>
@@ -13266,7 +13264,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>485</v>
       </c>
@@ -13325,7 +13323,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>485</v>
       </c>
@@ -13384,7 +13382,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>191</v>
       </c>
@@ -13431,7 +13429,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>191</v>
       </c>
@@ -13478,7 +13476,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>369</v>
       </c>
@@ -13534,7 +13532,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>370</v>
       </c>
@@ -13590,7 +13588,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>371</v>
       </c>
@@ -13646,7 +13644,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>372</v>
       </c>
@@ -13702,7 +13700,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
@@ -13723,7 +13721,7 @@
       <c r="R38" s="9"/>
       <c r="S38" s="10"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
@@ -13744,7 +13742,7 @@
       <c r="R39" s="9"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>196</v>
       </c>
@@ -13803,7 +13801,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>203</v>
       </c>
@@ -13862,7 +13860,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>173</v>
       </c>
@@ -13921,7 +13919,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>180</v>
       </c>
@@ -13980,7 +13978,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>208</v>
       </c>
@@ -14039,7 +14037,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>220</v>
       </c>
@@ -14098,7 +14096,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>186</v>
       </c>
@@ -14145,7 +14143,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>186</v>
       </c>
@@ -14192,7 +14190,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>485</v>
       </c>
@@ -14251,7 +14249,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>485</v>
       </c>
@@ -14310,7 +14308,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>485</v>
       </c>
@@ -14369,7 +14367,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>191</v>
       </c>
@@ -14416,7 +14414,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>369</v>
       </c>
@@ -14472,7 +14470,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>370</v>
       </c>
@@ -14528,7 +14526,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>371</v>
       </c>
@@ -14584,7 +14582,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>372</v>
       </c>
@@ -14640,7 +14638,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="K61" s="9"/>
     </row>
   </sheetData>
@@ -14701,20 +14699,20 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>134</v>
       </c>
@@ -14747,7 +14745,7 @@
       </c>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>141</v>
       </c>
@@ -14788,7 +14786,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>150</v>
       </c>
@@ -14829,7 +14827,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>159</v>
       </c>
@@ -14870,7 +14868,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>166</v>
       </c>
@@ -14911,7 +14909,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>173</v>
       </c>
@@ -14952,7 +14950,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>180</v>
       </c>
@@ -14993,7 +14991,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>186</v>
       </c>
@@ -15034,7 +15032,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>191</v>
       </c>
@@ -15075,7 +15073,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>191</v>
       </c>
@@ -15116,7 +15114,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>395</v>
       </c>
@@ -15154,7 +15152,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>396</v>
       </c>
@@ -15192,7 +15190,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>397</v>
       </c>
@@ -15230,7 +15228,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>398</v>
       </c>
@@ -15268,7 +15266,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -15283,7 +15281,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -15298,7 +15296,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>141</v>
       </c>
@@ -15339,7 +15337,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>196</v>
       </c>
@@ -15380,7 +15378,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>150</v>
       </c>
@@ -15421,7 +15419,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>203</v>
       </c>
@@ -15462,7 +15460,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>166</v>
       </c>
@@ -15503,7 +15501,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>208</v>
       </c>
@@ -15544,7 +15542,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>186</v>
       </c>
@@ -15585,7 +15583,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>186</v>
       </c>
@@ -15626,7 +15624,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>191</v>
       </c>
@@ -15667,7 +15665,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>191</v>
       </c>
@@ -15708,7 +15706,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>395</v>
       </c>
@@ -15746,7 +15744,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>396</v>
       </c>
@@ -15784,7 +15782,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>397</v>
       </c>
@@ -15822,7 +15820,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>398</v>
       </c>
@@ -15860,7 +15858,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
@@ -15875,7 +15873,7 @@
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
@@ -15890,7 +15888,7 @@
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>196</v>
       </c>
@@ -15931,7 +15929,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>203</v>
       </c>
@@ -15972,7 +15970,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>173</v>
       </c>
@@ -16013,7 +16011,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>180</v>
       </c>
@@ -16054,7 +16052,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>208</v>
       </c>
@@ -16095,7 +16093,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>220</v>
       </c>
@@ -16136,7 +16134,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>186</v>
       </c>
@@ -16177,7 +16175,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>186</v>
       </c>
@@ -16218,7 +16216,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>191</v>
       </c>
@@ -16259,7 +16257,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>395</v>
       </c>
@@ -16297,7 +16295,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>396</v>
       </c>
@@ -16335,7 +16333,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>397</v>
       </c>
@@ -16373,7 +16371,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>398</v>
       </c>
@@ -16411,13 +16409,13 @@
         <v>284</v>
       </c>
     </row>
-    <row r="49" spans="5:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:5" ht="15" x14ac:dyDescent="0.35">
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="5:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:5" ht="15" x14ac:dyDescent="0.35">
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="5:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:5" ht="15" x14ac:dyDescent="0.35">
       <c r="E51" s="10"/>
     </row>
   </sheetData>
@@ -16430,27 +16428,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J13" sqref="J13:P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M1" s="3" t="s">
         <v>508</v>
       </c>
@@ -16458,7 +16456,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>262</v>
       </c>
@@ -16496,7 +16494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
       <c r="B3" t="s">
         <v>58</v>
@@ -16534,7 +16532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" t="s">
         <v>58</v>
@@ -16570,7 +16568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="3" t="s">
         <v>306</v>
@@ -16606,7 +16604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" t="s">
         <v>60</v>
@@ -16642,7 +16640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="3" t="s">
         <v>308</v>
@@ -16678,7 +16676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="3" t="s">
         <v>328</v>
@@ -16700,7 +16698,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="3" t="s">
         <v>309</v>
@@ -16738,7 +16736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" t="s">
         <v>72</v>
@@ -16774,7 +16772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" t="s">
         <v>72</v>
@@ -16810,7 +16808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="6" t="s">
         <v>86</v>
@@ -16846,7 +16844,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="3" t="s">
         <v>232</v>
@@ -16882,7 +16880,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="3" t="s">
         <v>249</v>
@@ -16920,7 +16918,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="3" t="s">
         <v>256</v>
@@ -16940,20 +16938,20 @@
       <c r="G15" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="29" t="s">
+      <c r="L15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="M15" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="J16" s="3"/>
@@ -16961,23 +16959,46 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="J18" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="J19" s="3"/>
@@ -16985,15 +17006,15 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>354</v>
       </c>
@@ -17014,7 +17035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="33"/>
       <c r="B23" s="24" t="s">
         <v>45</v>
@@ -17033,7 +17054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
       <c r="B24" s="27" t="s">
         <v>324</v>
@@ -17046,7 +17067,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="24" t="s">
         <v>60</v>
@@ -17065,7 +17086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
       <c r="B26" s="24" t="s">
         <v>60</v>
@@ -17084,7 +17105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
       <c r="B27" s="23" t="s">
         <v>63</v>
@@ -17103,7 +17124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="33"/>
       <c r="B28" s="24" t="s">
         <v>63</v>
@@ -17122,7 +17143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="33"/>
       <c r="B29" s="23" t="s">
         <v>65</v>
@@ -17141,7 +17162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="33"/>
       <c r="B30" s="23" t="s">
         <v>65</v>
@@ -17160,7 +17181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
       <c r="B31" s="23" t="s">
         <v>65</v>
@@ -17173,7 +17194,7 @@
       <c r="F31" s="21"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="B32" s="24" t="s">
         <v>68</v>
@@ -17192,7 +17213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="33"/>
       <c r="B33" s="23" t="s">
         <v>68</v>
@@ -17211,7 +17232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="33"/>
       <c r="B34" s="6" t="s">
         <v>68</v>
@@ -17230,7 +17251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="33"/>
       <c r="B35" s="23" t="s">
         <v>70</v>
@@ -17249,7 +17270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="33"/>
       <c r="B36" s="5" t="s">
         <v>70</v>
@@ -17268,7 +17289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="33"/>
       <c r="B37" s="24" t="s">
         <v>86</v>
@@ -17287,7 +17308,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="33"/>
       <c r="B38" s="24" t="s">
         <v>86</v>
@@ -17306,7 +17327,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="33"/>
       <c r="B39" s="23" t="s">
         <v>244</v>

--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\WOW\配置\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\插件\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED29EEEB-5757-4460-BA50-3D1AE18782F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6641C39-3951-46CB-9C71-B80A4DF24093}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普通" sheetId="1" r:id="rId1"/>
@@ -2550,25 +2550,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="D1:L492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D414" activeCellId="1" sqref="D389:G389 D414:G414"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -2597,7 +2596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -2637,7 +2636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>9</v>
       </c>
@@ -2657,7 +2656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -2677,7 +2676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -2694,7 +2693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>9</v>
       </c>
@@ -2708,7 +2707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -2722,7 +2721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>9</v>
       </c>
@@ -2742,7 +2741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>9</v>
       </c>
@@ -2762,7 +2761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>9</v>
       </c>
@@ -2782,7 +2781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -2802,7 +2801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>9</v>
       </c>
@@ -2822,7 +2821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>9</v>
       </c>
@@ -2842,7 +2841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>9</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>9</v>
       </c>
@@ -2882,7 +2881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>9</v>
       </c>
@@ -2902,7 +2901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>9</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>9</v>
       </c>
@@ -2942,7 +2941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>9</v>
       </c>
@@ -2959,7 +2958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>9</v>
       </c>
@@ -2999,7 +2998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>9</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>9</v>
       </c>
@@ -3039,7 +3038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>9</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>9</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>9</v>
       </c>
@@ -3093,7 +3092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>9</v>
       </c>
@@ -3108,7 +3107,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>9</v>
       </c>
@@ -3122,7 +3121,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -3133,7 +3132,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>45</v>
       </c>
@@ -3153,7 +3152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>45</v>
       </c>
@@ -3173,7 +3172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>45</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>45</v>
       </c>
@@ -3213,7 +3212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>45</v>
       </c>
@@ -3233,7 +3232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>45</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>45</v>
       </c>
@@ -3273,7 +3272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
         <v>302</v>
       </c>
@@ -3293,7 +3292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>45</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>45</v>
       </c>
@@ -3333,7 +3332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>45</v>
       </c>
@@ -3353,7 +3352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>45</v>
       </c>
@@ -3373,7 +3372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>45</v>
       </c>
@@ -3393,7 +3392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>45</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>45</v>
       </c>
@@ -3433,7 +3432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>45</v>
       </c>
@@ -3453,7 +3452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>45</v>
       </c>
@@ -3473,7 +3472,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>45</v>
       </c>
@@ -3487,7 +3486,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>45</v>
       </c>
@@ -3501,7 +3500,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>45</v>
       </c>
@@ -3521,7 +3520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>45</v>
       </c>
@@ -3541,7 +3540,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>45</v>
       </c>
@@ -3561,7 +3560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>45</v>
       </c>
@@ -3581,7 +3580,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>45</v>
       </c>
@@ -3601,7 +3600,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>45</v>
       </c>
@@ -3615,7 +3614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>45</v>
       </c>
@@ -3635,7 +3634,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>45</v>
       </c>
@@ -3655,7 +3654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>45</v>
       </c>
@@ -3669,7 +3668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3680,7 +3679,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>54</v>
       </c>
@@ -3700,7 +3699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D61" s="6" t="s">
         <v>54</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>54</v>
       </c>
@@ -3742,7 +3741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>54</v>
       </c>
@@ -3762,7 +3761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>54</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>54</v>
       </c>
@@ -3802,7 +3801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>54</v>
       </c>
@@ -3822,7 +3821,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>54</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>54</v>
       </c>
@@ -3862,7 +3861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>54</v>
       </c>
@@ -3879,7 +3878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>54</v>
       </c>
@@ -3899,7 +3898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>54</v>
       </c>
@@ -3919,7 +3918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>54</v>
       </c>
@@ -3939,7 +3938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D73" s="3" t="s">
         <v>324</v>
       </c>
@@ -3953,7 +3952,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>54</v>
       </c>
@@ -3973,7 +3972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>54</v>
       </c>
@@ -3993,7 +3992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>54</v>
       </c>
@@ -4013,7 +4012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>54</v>
       </c>
@@ -4033,7 +4032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>54</v>
       </c>
@@ -4053,7 +4052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>54</v>
       </c>
@@ -4073,7 +4072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>54</v>
       </c>
@@ -4093,7 +4092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>54</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>54</v>
       </c>
@@ -4127,7 +4126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>54</v>
       </c>
@@ -4147,7 +4146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>54</v>
       </c>
@@ -4167,7 +4166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>54</v>
       </c>
@@ -4187,7 +4186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>54</v>
       </c>
@@ -4201,7 +4200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -4212,7 +4211,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>58</v>
       </c>
@@ -4232,7 +4231,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>58</v>
       </c>
@@ -4252,7 +4251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>58</v>
       </c>
@@ -4272,7 +4271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>58</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>58</v>
       </c>
@@ -4312,7 +4311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>58</v>
       </c>
@@ -4332,7 +4331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>58</v>
       </c>
@@ -4352,7 +4351,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>58</v>
       </c>
@@ -4372,7 +4371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>58</v>
       </c>
@@ -4392,7 +4391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>58</v>
       </c>
@@ -4412,7 +4411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>58</v>
       </c>
@@ -4432,7 +4431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>58</v>
       </c>
@@ -4452,7 +4451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>58</v>
       </c>
@@ -4472,7 +4471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>58</v>
       </c>
@@ -4492,7 +4491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>58</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>58</v>
       </c>
@@ -4529,7 +4528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>58</v>
       </c>
@@ -4549,7 +4548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>58</v>
       </c>
@@ -4566,7 +4565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>58</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>58</v>
       </c>
@@ -4606,7 +4605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>58</v>
       </c>
@@ -4626,7 +4625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D109" s="3" t="s">
         <v>304</v>
       </c>
@@ -4646,7 +4645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>58</v>
       </c>
@@ -4666,7 +4665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
         <v>58</v>
       </c>
@@ -4686,7 +4685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>58</v>
       </c>
@@ -4700,7 +4699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
         <v>58</v>
       </c>
@@ -4714,7 +4713,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -4725,7 +4724,7 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
         <v>60</v>
       </c>
@@ -4745,7 +4744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
         <v>60</v>
       </c>
@@ -4765,7 +4764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
         <v>60</v>
       </c>
@@ -4785,7 +4784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
         <v>60</v>
       </c>
@@ -4805,7 +4804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
         <v>60</v>
       </c>
@@ -4825,7 +4824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
         <v>60</v>
       </c>
@@ -4845,7 +4844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
         <v>60</v>
       </c>
@@ -4865,7 +4864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
         <v>60</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
         <v>60</v>
       </c>
@@ -4905,7 +4904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
         <v>60</v>
       </c>
@@ -4925,7 +4924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
         <v>60</v>
       </c>
@@ -4945,7 +4944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
         <v>60</v>
       </c>
@@ -4965,7 +4964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
         <v>60</v>
       </c>
@@ -4985,7 +4984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
         <v>60</v>
       </c>
@@ -5005,7 +5004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
         <v>60</v>
       </c>
@@ -5025,7 +5024,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
         <v>60</v>
       </c>
@@ -5042,7 +5041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
         <v>60</v>
       </c>
@@ -5056,7 +5055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>60</v>
       </c>
@@ -5073,7 +5072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>60</v>
       </c>
@@ -5093,7 +5092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
         <v>60</v>
       </c>
@@ -5113,7 +5112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
         <v>60</v>
       </c>
@@ -5133,7 +5132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
         <v>60</v>
       </c>
@@ -5153,7 +5152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
         <v>60</v>
       </c>
@@ -5167,7 +5166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
         <v>60</v>
       </c>
@@ -5187,7 +5186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
         <v>60</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
         <v>60</v>
       </c>
@@ -5227,7 +5226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
         <v>60</v>
       </c>
@@ -5247,7 +5246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
         <v>60</v>
       </c>
@@ -5267,7 +5266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
         <v>60</v>
       </c>
@@ -5287,7 +5286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
         <v>60</v>
       </c>
@@ -5301,7 +5300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
         <v>60</v>
       </c>
@@ -5321,7 +5320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -5332,7 +5331,7 @@
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
     </row>
-    <row r="147" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D147" s="6" t="s">
         <v>63</v>
       </c>
@@ -5354,7 +5353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
         <v>63</v>
       </c>
@@ -5371,7 +5370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
         <v>63</v>
       </c>
@@ -5391,7 +5390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
         <v>63</v>
       </c>
@@ -5411,7 +5410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
         <v>63</v>
       </c>
@@ -5431,7 +5430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
         <v>63</v>
       </c>
@@ -5451,7 +5450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
         <v>63</v>
       </c>
@@ -5471,7 +5470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
         <v>63</v>
       </c>
@@ -5491,7 +5490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
         <v>63</v>
       </c>
@@ -5511,7 +5510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
         <v>63</v>
       </c>
@@ -5531,7 +5530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
         <v>63</v>
       </c>
@@ -5551,7 +5550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
         <v>63</v>
       </c>
@@ -5571,7 +5570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
         <v>63</v>
       </c>
@@ -5591,7 +5590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
         <v>63</v>
       </c>
@@ -5611,7 +5610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
         <v>63</v>
       </c>
@@ -5631,7 +5630,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
         <v>63</v>
       </c>
@@ -5651,7 +5650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
         <v>63</v>
       </c>
@@ -5671,7 +5670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
         <v>63</v>
       </c>
@@ -5691,7 +5690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
         <v>63</v>
       </c>
@@ -5711,7 +5710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
         <v>63</v>
       </c>
@@ -5731,7 +5730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
         <v>63</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
         <v>63</v>
       </c>
@@ -5771,7 +5770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
         <v>63</v>
       </c>
@@ -5791,7 +5790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
         <v>63</v>
       </c>
@@ -5811,7 +5810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
         <v>63</v>
       </c>
@@ -5825,7 +5824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
         <v>63</v>
       </c>
@@ -5839,7 +5838,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -5850,7 +5849,7 @@
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
     </row>
-    <row r="174" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
         <v>65</v>
       </c>
@@ -5870,7 +5869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D175" t="s">
         <v>65</v>
       </c>
@@ -5890,7 +5889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
         <v>65</v>
       </c>
@@ -5910,7 +5909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D177" s="3" t="s">
         <v>335</v>
       </c>
@@ -5930,7 +5929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
         <v>65</v>
       </c>
@@ -5950,7 +5949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
         <v>65</v>
       </c>
@@ -5970,7 +5969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D180" t="s">
         <v>65</v>
       </c>
@@ -5990,7 +5989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D181" t="s">
         <v>65</v>
       </c>
@@ -6004,7 +6003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
         <v>65</v>
       </c>
@@ -6024,7 +6023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D183" t="s">
         <v>65</v>
       </c>
@@ -6041,7 +6040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D184" t="s">
         <v>65</v>
       </c>
@@ -6061,7 +6060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D185" t="s">
         <v>65</v>
       </c>
@@ -6081,7 +6080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D186" t="s">
         <v>65</v>
       </c>
@@ -6101,7 +6100,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="187" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D187" t="s">
         <v>65</v>
       </c>
@@ -6121,7 +6120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D188" t="s">
         <v>65</v>
       </c>
@@ -6135,7 +6134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D189" t="s">
         <v>65</v>
       </c>
@@ -6155,7 +6154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
         <v>65</v>
       </c>
@@ -6175,7 +6174,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D191" t="s">
         <v>65</v>
       </c>
@@ -6195,7 +6194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
         <v>65</v>
       </c>
@@ -6215,7 +6214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D193" t="s">
         <v>65</v>
       </c>
@@ -6235,7 +6234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
         <v>65</v>
       </c>
@@ -6255,7 +6254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D195" t="s">
         <v>65</v>
       </c>
@@ -6275,7 +6274,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="196" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D196" t="s">
         <v>65</v>
       </c>
@@ -6289,7 +6288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="197" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D197" t="s">
         <v>65</v>
       </c>
@@ -6300,7 +6299,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="198" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
         <v>65</v>
       </c>
@@ -6320,7 +6319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
         <v>65</v>
       </c>
@@ -6340,7 +6339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D200" t="s">
         <v>65</v>
       </c>
@@ -6360,7 +6359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D201" t="s">
         <v>65</v>
       </c>
@@ -6374,7 +6373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -6385,7 +6384,7 @@
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
     </row>
-    <row r="203" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
         <v>68</v>
       </c>
@@ -6405,7 +6404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D204" t="s">
         <v>68</v>
       </c>
@@ -6425,7 +6424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
         <v>68</v>
       </c>
@@ -6445,7 +6444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
         <v>68</v>
       </c>
@@ -6465,7 +6464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
         <v>68</v>
       </c>
@@ -6485,7 +6484,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="208" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
         <v>68</v>
       </c>
@@ -6499,7 +6498,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="209" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D209" t="s">
         <v>68</v>
       </c>
@@ -6513,7 +6512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D210" t="s">
         <v>68</v>
       </c>
@@ -6533,7 +6532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D211" t="s">
         <v>68</v>
       </c>
@@ -6553,7 +6552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D212" t="s">
         <v>68</v>
       </c>
@@ -6573,7 +6572,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D213" t="s">
         <v>68</v>
       </c>
@@ -6593,7 +6592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
         <v>68</v>
       </c>
@@ -6613,7 +6612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D215" t="s">
         <v>68</v>
       </c>
@@ -6627,7 +6626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
         <v>68</v>
       </c>
@@ -6638,7 +6637,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="217" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
         <v>68</v>
       </c>
@@ -6658,7 +6657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D218" t="s">
         <v>68</v>
       </c>
@@ -6675,7 +6674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D219" t="s">
         <v>68</v>
       </c>
@@ -6695,7 +6694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D220" t="s">
         <v>68</v>
       </c>
@@ -6715,7 +6714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
         <v>68</v>
       </c>
@@ -6735,7 +6734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D222" t="s">
         <v>68</v>
       </c>
@@ -6755,7 +6754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D223" t="s">
         <v>68</v>
       </c>
@@ -6766,7 +6765,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="224" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D224" t="s">
         <v>68</v>
       </c>
@@ -6786,7 +6785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D225" t="s">
         <v>68</v>
       </c>
@@ -6806,7 +6805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D226" t="s">
         <v>68</v>
       </c>
@@ -6820,7 +6819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
@@ -6831,7 +6830,7 @@
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
     </row>
-    <row r="228" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D228" t="s">
         <v>70</v>
       </c>
@@ -6851,7 +6850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D229" t="s">
         <v>70</v>
       </c>
@@ -6871,7 +6870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
         <v>70</v>
       </c>
@@ -6891,7 +6890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D231" t="s">
         <v>70</v>
       </c>
@@ -6911,7 +6910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D232" t="s">
         <v>70</v>
       </c>
@@ -6931,7 +6930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D233" t="s">
         <v>70</v>
       </c>
@@ -6951,7 +6950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
         <v>70</v>
       </c>
@@ -6971,7 +6970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D235" t="s">
         <v>70</v>
       </c>
@@ -6985,7 +6984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D236" t="s">
         <v>70</v>
       </c>
@@ -7005,7 +7004,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D237" t="s">
         <v>70</v>
       </c>
@@ -7025,7 +7024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
         <v>70</v>
       </c>
@@ -7045,7 +7044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D239" t="s">
         <v>70</v>
       </c>
@@ -7065,7 +7064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
         <v>70</v>
       </c>
@@ -7085,7 +7084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
         <v>70</v>
       </c>
@@ -7105,7 +7104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="242" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
         <v>70</v>
       </c>
@@ -7119,7 +7118,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
         <v>70</v>
       </c>
@@ -7139,7 +7138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
         <v>70</v>
       </c>
@@ -7159,7 +7158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
         <v>70</v>
       </c>
@@ -7179,7 +7178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D246" t="s">
         <v>70</v>
       </c>
@@ -7196,7 +7195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
         <v>70</v>
       </c>
@@ -7216,7 +7215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D248" t="s">
         <v>70</v>
       </c>
@@ -7236,7 +7235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
         <v>70</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
         <v>70</v>
       </c>
@@ -7276,7 +7275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
         <v>70</v>
       </c>
@@ -7290,7 +7289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="252" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
         <v>70</v>
       </c>
@@ -7310,7 +7309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
         <v>70</v>
       </c>
@@ -7330,7 +7329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
         <v>70</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="255" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
@@ -7355,7 +7354,7 @@
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
     </row>
-    <row r="256" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
         <v>72</v>
       </c>
@@ -7375,7 +7374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="257" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
         <v>72</v>
       </c>
@@ -7395,7 +7394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
         <v>72</v>
       </c>
@@ -7415,7 +7414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
         <v>72</v>
       </c>
@@ -7435,7 +7434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
         <v>72</v>
       </c>
@@ -7455,7 +7454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
         <v>72</v>
       </c>
@@ -7475,7 +7474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
         <v>72</v>
       </c>
@@ -7495,7 +7494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
         <v>72</v>
       </c>
@@ -7515,7 +7514,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
         <v>72</v>
       </c>
@@ -7535,7 +7534,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="265" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
         <v>72</v>
       </c>
@@ -7555,7 +7554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D266" t="s">
         <v>72</v>
       </c>
@@ -7575,7 +7574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
         <v>72</v>
       </c>
@@ -7595,7 +7594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D268" t="s">
         <v>72</v>
       </c>
@@ -7615,7 +7614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
         <v>72</v>
       </c>
@@ -7635,7 +7634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D270" t="s">
         <v>72</v>
       </c>
@@ -7655,7 +7654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
         <v>72</v>
       </c>
@@ -7675,7 +7674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D272" t="s">
         <v>72</v>
       </c>
@@ -7695,7 +7694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
         <v>72</v>
       </c>
@@ -7709,7 +7708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
         <v>72</v>
       </c>
@@ -7729,7 +7728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
         <v>72</v>
       </c>
@@ -7749,7 +7748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D276" t="s">
         <v>72</v>
       </c>
@@ -7769,7 +7768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D277" t="s">
         <v>72</v>
       </c>
@@ -7789,7 +7788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
         <v>72</v>
       </c>
@@ -7809,7 +7808,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="279" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
         <v>72</v>
       </c>
@@ -7823,7 +7822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D280" s="6" t="s">
         <v>72</v>
       </c>
@@ -7845,7 +7844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
         <v>72</v>
       </c>
@@ -7865,7 +7864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
@@ -7876,7 +7875,7 @@
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
     </row>
-    <row r="283" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
         <v>86</v>
       </c>
@@ -7896,7 +7895,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="284" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
         <v>86</v>
       </c>
@@ -7916,7 +7915,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="285" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
         <v>86</v>
       </c>
@@ -7936,7 +7935,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="286" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
         <v>86</v>
       </c>
@@ -7956,7 +7955,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="287" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
         <v>86</v>
       </c>
@@ -7976,7 +7975,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="288" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
         <v>86</v>
       </c>
@@ -7996,7 +7995,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="289" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
         <v>86</v>
       </c>
@@ -8016,7 +8015,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="290" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D290" t="s">
         <v>86</v>
       </c>
@@ -8036,7 +8035,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="291" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D291" t="s">
         <v>86</v>
       </c>
@@ -8056,7 +8055,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="292" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D292" t="s">
         <v>86</v>
       </c>
@@ -8070,7 +8069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D293" s="6" t="s">
         <v>86</v>
       </c>
@@ -8084,7 +8083,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="294" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D294" t="s">
         <v>86</v>
       </c>
@@ -8104,7 +8103,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="295" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D295" t="s">
         <v>86</v>
       </c>
@@ -8124,7 +8123,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="296" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D296" t="s">
         <v>86</v>
       </c>
@@ -8144,7 +8143,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="297" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D297" t="s">
         <v>86</v>
       </c>
@@ -8164,7 +8163,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="298" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D298" t="s">
         <v>86</v>
       </c>
@@ -8184,7 +8183,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="299" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
         <v>86</v>
       </c>
@@ -8204,7 +8203,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="300" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D300" s="3" t="s">
         <v>86</v>
       </c>
@@ -8224,7 +8223,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="301" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D301" t="s">
         <v>86</v>
       </c>
@@ -8244,7 +8243,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="302" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D302" s="6" t="s">
         <v>86</v>
       </c>
@@ -8264,7 +8263,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="303" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D303" t="s">
         <v>86</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="304" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D304" t="s">
         <v>86</v>
       </c>
@@ -8304,7 +8303,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="305" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D305" t="s">
         <v>86</v>
       </c>
@@ -8321,7 +8320,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="306" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D306" t="s">
         <v>86</v>
       </c>
@@ -8341,7 +8340,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="307" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D307" t="s">
         <v>86</v>
       </c>
@@ -8361,7 +8360,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="308" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D308" s="6" t="s">
         <v>86</v>
       </c>
@@ -8375,7 +8374,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="309" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D309" t="s">
         <v>86</v>
       </c>
@@ -8395,7 +8394,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="310" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D310" t="s">
         <v>86</v>
       </c>
@@ -8415,7 +8414,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="311" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D311" t="s">
         <v>86</v>
       </c>
@@ -8435,7 +8434,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="312" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D312" t="s">
         <v>86</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="313" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
         <v>86</v>
       </c>
@@ -8475,7 +8474,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="314" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D314" t="s">
         <v>86</v>
       </c>
@@ -8495,7 +8494,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="315" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D315" t="s">
         <v>86</v>
       </c>
@@ -8515,7 +8514,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="316" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D316" t="s">
         <v>86</v>
       </c>
@@ -8535,7 +8534,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="317" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D317" t="s">
         <v>86</v>
       </c>
@@ -8555,7 +8554,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="318" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D318" s="6" t="s">
         <v>86</v>
       </c>
@@ -8569,7 +8568,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="319" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D319" t="s">
         <v>86</v>
       </c>
@@ -8589,7 +8588,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="320" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D320" t="s">
         <v>86</v>
       </c>
@@ -8609,7 +8608,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="321" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D321" t="s">
         <v>86</v>
       </c>
@@ -8626,7 +8625,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="322" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D322" t="s">
         <v>86</v>
       </c>
@@ -8646,7 +8645,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="323" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
         <v>86</v>
       </c>
@@ -8666,7 +8665,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="324" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D324" t="s">
         <v>86</v>
       </c>
@@ -8686,7 +8685,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="325" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D325" t="s">
         <v>86</v>
       </c>
@@ -8706,7 +8705,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="326" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D326" t="s">
         <v>86</v>
       </c>
@@ -8720,7 +8719,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="327" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D327" s="6" t="s">
         <v>86</v>
       </c>
@@ -8734,7 +8733,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="328" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D328" t="s">
         <v>86</v>
       </c>
@@ -8754,7 +8753,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="329" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D329" t="s">
         <v>86</v>
       </c>
@@ -8774,7 +8773,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="330" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D330" t="s">
         <v>86</v>
       </c>
@@ -8791,7 +8790,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="331" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D331" t="s">
         <v>86</v>
       </c>
@@ -8811,7 +8810,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="332" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D332" t="s">
         <v>86</v>
       </c>
@@ -8831,7 +8830,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="333" spans="4:11" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D333" s="6" t="s">
         <v>86</v>
       </c>
@@ -8851,7 +8850,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="334" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D334" t="s">
         <v>86</v>
       </c>
@@ -8871,7 +8870,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="335" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D335" t="s">
         <v>86</v>
       </c>
@@ -8891,7 +8890,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="336" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D336" t="s">
         <v>86</v>
       </c>
@@ -8911,7 +8910,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="337" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D337" t="s">
         <v>86</v>
       </c>
@@ -8931,7 +8930,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="338" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D338" t="s">
         <v>86</v>
       </c>
@@ -8951,7 +8950,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="339" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D339" t="s">
         <v>86</v>
       </c>
@@ -8966,7 +8965,7 @@
       </c>
       <c r="K339" s="3"/>
     </row>
-    <row r="340" spans="4:12" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="4:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D340" s="6" t="s">
         <v>86</v>
       </c>
@@ -8980,7 +8979,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="341" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D341" t="s">
         <v>86</v>
       </c>
@@ -9000,7 +8999,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="342" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
         <v>86</v>
       </c>
@@ -9021,7 +9020,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="343" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
         <v>86</v>
       </c>
@@ -9041,7 +9040,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="344" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D344" t="s">
         <v>86</v>
       </c>
@@ -9061,7 +9060,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="345" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D345" t="s">
         <v>86</v>
       </c>
@@ -9081,7 +9080,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="346" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D346" t="s">
         <v>86</v>
       </c>
@@ -9101,7 +9100,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="347" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
         <v>86</v>
       </c>
@@ -9121,7 +9120,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="348" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D348" t="s">
         <v>86</v>
       </c>
@@ -9136,7 +9135,7 @@
       </c>
       <c r="K348" s="3"/>
     </row>
-    <row r="349" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
@@ -9147,7 +9146,7 @@
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
     </row>
-    <row r="350" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D350" s="3" t="s">
         <v>222</v>
       </c>
@@ -9167,7 +9166,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="351" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D351" s="3" t="s">
         <v>222</v>
       </c>
@@ -9187,7 +9186,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="352" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D352" s="3" t="s">
         <v>222</v>
       </c>
@@ -9207,7 +9206,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="353" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D353" s="3" t="s">
         <v>222</v>
       </c>
@@ -9227,7 +9226,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="354" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D354" s="3" t="s">
         <v>222</v>
       </c>
@@ -9247,7 +9246,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="355" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D355" s="3" t="s">
         <v>222</v>
       </c>
@@ -9267,7 +9266,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="356" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D356" s="3" t="s">
         <v>222</v>
       </c>
@@ -9287,7 +9286,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="357" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D357" s="3" t="s">
         <v>222</v>
       </c>
@@ -9301,7 +9300,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="358" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D358" s="3" t="s">
         <v>222</v>
       </c>
@@ -9315,7 +9314,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="359" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
@@ -9326,7 +9325,7 @@
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
     </row>
-    <row r="360" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D360" s="3" t="s">
         <v>232</v>
       </c>
@@ -9343,7 +9342,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="361" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D361" s="3" t="s">
         <v>232</v>
       </c>
@@ -9363,7 +9362,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="362" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D362" s="3" t="s">
         <v>232</v>
       </c>
@@ -9383,7 +9382,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="363" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D363" s="3" t="s">
         <v>232</v>
       </c>
@@ -9403,7 +9402,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="364" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D364" s="3" t="s">
         <v>232</v>
       </c>
@@ -9423,7 +9422,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="365" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D365" s="3" t="s">
         <v>232</v>
       </c>
@@ -9443,7 +9442,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="366" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D366" s="3" t="s">
         <v>232</v>
       </c>
@@ -9463,7 +9462,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="367" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
@@ -9474,7 +9473,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D368" s="3" t="s">
         <v>239</v>
       </c>
@@ -9494,7 +9493,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="369" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D369" s="3" t="s">
         <v>239</v>
       </c>
@@ -9514,7 +9513,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="370" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D370" s="3" t="s">
         <v>239</v>
       </c>
@@ -9534,7 +9533,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="371" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D371" s="3" t="s">
         <v>239</v>
       </c>
@@ -9554,7 +9553,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="372" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D372" s="3" t="s">
         <v>239</v>
       </c>
@@ -9574,7 +9573,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="373" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D373" s="3" t="s">
         <v>239</v>
       </c>
@@ -9594,7 +9593,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="374" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D374" s="3" t="s">
         <v>239</v>
       </c>
@@ -9614,7 +9613,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="375" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="375" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D375" s="3" t="s">
         <v>239</v>
       </c>
@@ -9628,7 +9627,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="376" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D376" s="3" t="s">
         <v>239</v>
       </c>
@@ -9642,7 +9641,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="377" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
@@ -9653,7 +9652,7 @@
       <c r="K377" s="1"/>
       <c r="L377" s="1"/>
     </row>
-    <row r="378" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D378" s="3" t="s">
         <v>244</v>
       </c>
@@ -9673,7 +9672,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="379" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D379" s="3" t="s">
         <v>244</v>
       </c>
@@ -9693,7 +9692,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="380" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D380" s="3" t="s">
         <v>244</v>
       </c>
@@ -9713,7 +9712,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="381" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D381" s="3" t="s">
         <v>244</v>
       </c>
@@ -9734,7 +9733,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="382" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D382" s="3" t="s">
         <v>244</v>
       </c>
@@ -9754,7 +9753,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="383" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D383" s="3" t="s">
         <v>244</v>
       </c>
@@ -9774,7 +9773,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="384" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D384" s="3" t="s">
         <v>244</v>
       </c>
@@ -9788,7 +9787,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="385" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D385" s="3" t="s">
         <v>244</v>
       </c>
@@ -9802,7 +9801,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="386" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D386" s="3" t="s">
         <v>244</v>
       </c>
@@ -9816,7 +9815,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="387" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
@@ -9827,7 +9826,7 @@
       <c r="K387" s="1"/>
       <c r="L387" s="1"/>
     </row>
-    <row r="388" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D388" s="3" t="s">
         <v>422</v>
       </c>
@@ -9841,7 +9840,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="389" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="389" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D389" s="3" t="s">
         <v>422</v>
       </c>
@@ -9855,7 +9854,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="390" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D390" s="3" t="s">
         <v>422</v>
       </c>
@@ -9869,7 +9868,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="391" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
@@ -9880,7 +9879,7 @@
       <c r="K391" s="1"/>
       <c r="L391" s="1"/>
     </row>
-    <row r="392" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D392" s="3" t="s">
         <v>249</v>
       </c>
@@ -9900,7 +9899,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="393" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D393" s="3" t="s">
         <v>249</v>
       </c>
@@ -9920,7 +9919,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="394" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D394" s="3" t="s">
         <v>249</v>
       </c>
@@ -9940,7 +9939,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="395" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D395" s="3" t="s">
         <v>249</v>
       </c>
@@ -9960,7 +9959,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="396" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D396" s="3" t="s">
         <v>249</v>
       </c>
@@ -9980,7 +9979,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="397" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D397" s="3" t="s">
         <v>249</v>
       </c>
@@ -9997,7 +9996,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="398" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="398" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D398" s="3" t="s">
         <v>249</v>
       </c>
@@ -10011,7 +10010,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="399" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
@@ -10022,7 +10021,7 @@
       <c r="K399" s="1"/>
       <c r="L399" s="1"/>
     </row>
-    <row r="400" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D400" s="3" t="s">
         <v>256</v>
       </c>
@@ -10039,7 +10038,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="401" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D401" s="3" t="s">
         <v>256</v>
       </c>
@@ -10059,7 +10058,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="402" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D402" s="3" t="s">
         <v>256</v>
       </c>
@@ -10079,7 +10078,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="403" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D403" s="3" t="s">
         <v>256</v>
       </c>
@@ -10099,7 +10098,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="404" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D404" s="3" t="s">
         <v>256</v>
       </c>
@@ -10119,7 +10118,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="405" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D405" s="3" t="s">
         <v>256</v>
       </c>
@@ -10139,7 +10138,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="406" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D406" s="3" t="s">
         <v>256</v>
       </c>
@@ -10153,7 +10152,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="407" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
@@ -10164,7 +10163,7 @@
       <c r="K407" s="1"/>
       <c r="L407" s="1"/>
     </row>
-    <row r="408" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D408" s="3" t="s">
         <v>420</v>
       </c>
@@ -10184,7 +10183,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="409" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D409" s="3" t="s">
         <v>420</v>
       </c>
@@ -10204,7 +10203,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="410" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D410" s="3" t="s">
         <v>420</v>
       </c>
@@ -10224,7 +10223,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="411" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D411" s="3" t="s">
         <v>420</v>
       </c>
@@ -10244,7 +10243,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="412" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D412" s="3" t="s">
         <v>420</v>
       </c>
@@ -10258,7 +10257,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="413" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D413" s="3" t="s">
         <v>420</v>
       </c>
@@ -10272,7 +10271,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="414" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="414" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D414" s="3" t="s">
         <v>420</v>
       </c>
@@ -10286,7 +10285,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="415" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
@@ -10297,7 +10296,7 @@
       <c r="K415" s="1"/>
       <c r="L415" s="1"/>
     </row>
-    <row r="416" spans="4:12" hidden="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D416" s="3" t="s">
         <v>426</v>
       </c>
@@ -10317,7 +10316,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="417" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D417" s="3" t="s">
         <v>426</v>
       </c>
@@ -10337,7 +10336,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="418" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D418" s="3" t="s">
         <v>426</v>
       </c>
@@ -10357,7 +10356,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="419" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D419" s="3" t="s">
         <v>426</v>
       </c>
@@ -10377,7 +10376,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="420" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D420" s="3" t="s">
         <v>426</v>
       </c>
@@ -10397,7 +10396,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="421" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D421" s="3" t="s">
         <v>426</v>
       </c>
@@ -10417,7 +10416,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="422" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D422" s="3" t="s">
         <v>426</v>
       </c>
@@ -10437,7 +10436,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="423" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D423" s="3" t="s">
         <v>426</v>
       </c>
@@ -10457,7 +10456,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="424" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D424" s="3" t="s">
         <v>426</v>
       </c>
@@ -10471,7 +10470,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="425" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D425" s="3" t="s">
         <v>426</v>
       </c>
@@ -10491,7 +10490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="426" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D426" s="3" t="s">
         <v>426</v>
       </c>
@@ -10511,7 +10510,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="427" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D427" s="3" t="s">
         <v>426</v>
       </c>
@@ -10531,7 +10530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="428" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D428" s="3" t="s">
         <v>426</v>
       </c>
@@ -10551,7 +10550,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="429" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D429" s="3" t="s">
         <v>426</v>
       </c>
@@ -10568,7 +10567,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="430" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D430" s="3" t="s">
         <v>426</v>
       </c>
@@ -10588,7 +10587,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="431" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D431" s="3" t="s">
         <v>426</v>
       </c>
@@ -10608,7 +10607,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="432" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D432" s="3" t="s">
         <v>426</v>
       </c>
@@ -10628,7 +10627,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="433" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D433" s="3" t="s">
         <v>426</v>
       </c>
@@ -10648,7 +10647,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="434" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D434" s="3" t="s">
         <v>426</v>
       </c>
@@ -10662,7 +10661,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="435" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D435" s="3" t="s">
         <v>426</v>
       </c>
@@ -10682,7 +10681,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="436" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D436" s="3" t="s">
         <v>426</v>
       </c>
@@ -10702,7 +10701,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="437" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D437" s="3" t="s">
         <v>426</v>
       </c>
@@ -10722,7 +10721,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="438" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D438" s="3" t="s">
         <v>426</v>
       </c>
@@ -10742,7 +10741,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="439" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D439" s="3" t="s">
         <v>426</v>
       </c>
@@ -10762,7 +10761,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="440" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D440" s="3" t="s">
         <v>426</v>
       </c>
@@ -10779,7 +10778,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="441" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D441" s="3" t="s">
         <v>426</v>
       </c>
@@ -10793,7 +10792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D442" s="3" t="s">
         <v>426</v>
       </c>
@@ -10813,7 +10812,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="443" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D443" s="3" t="s">
         <v>426</v>
       </c>
@@ -10833,7 +10832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="444" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D444" s="3" t="s">
         <v>426</v>
       </c>
@@ -10853,7 +10852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="445" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D445" s="3" t="s">
         <v>426</v>
       </c>
@@ -10873,7 +10872,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="446" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D446" s="3" t="s">
         <v>426</v>
       </c>
@@ -10893,7 +10892,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="447" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D447" s="3" t="s">
         <v>426</v>
       </c>
@@ -10913,7 +10912,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="448" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D448" s="3" t="s">
         <v>426</v>
       </c>
@@ -10933,7 +10932,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="449" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D449" s="3" t="s">
         <v>426</v>
       </c>
@@ -10953,7 +10952,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="450" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D450" s="3" t="s">
         <v>426</v>
       </c>
@@ -10967,7 +10966,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="451" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D451" s="3" t="s">
         <v>426</v>
       </c>
@@ -10981,7 +10980,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="452" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D452" s="3" t="s">
         <v>426</v>
       </c>
@@ -11001,7 +11000,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="453" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D453" s="3" t="s">
         <v>426</v>
       </c>
@@ -11021,7 +11020,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="454" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D454" s="3" t="s">
         <v>426</v>
       </c>
@@ -11041,7 +11040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D455" s="3" t="s">
         <v>426</v>
       </c>
@@ -11058,7 +11057,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="456" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D456" s="3" t="s">
         <v>426</v>
       </c>
@@ -11078,7 +11077,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="457" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D457" s="3" t="s">
         <v>426</v>
       </c>
@@ -11098,7 +11097,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="458" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D458" s="3" t="s">
         <v>426</v>
       </c>
@@ -11112,7 +11111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="459" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D459" s="3" t="s">
         <v>426</v>
       </c>
@@ -11126,7 +11125,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="460" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D460" s="3" t="s">
         <v>426</v>
       </c>
@@ -11146,7 +11145,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="461" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D461" s="3" t="s">
         <v>426</v>
       </c>
@@ -11166,7 +11165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="462" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D462" s="3" t="s">
         <v>426</v>
       </c>
@@ -11186,7 +11185,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="463" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D463" s="3" t="s">
         <v>426</v>
       </c>
@@ -11206,7 +11205,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="464" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D464" s="3" t="s">
         <v>426</v>
       </c>
@@ -11223,7 +11222,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="465" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D465" s="3" t="s">
         <v>426</v>
       </c>
@@ -11237,7 +11236,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="466" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D466" s="3" t="s">
         <v>426</v>
       </c>
@@ -11251,7 +11250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D467" s="3" t="s">
         <v>426</v>
       </c>
@@ -11262,7 +11261,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="468" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D468" s="3" t="s">
         <v>426</v>
       </c>
@@ -11282,7 +11281,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="469" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D469" s="3" t="s">
         <v>426</v>
       </c>
@@ -11296,7 +11295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="470" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D470" s="3" t="s">
         <v>426</v>
       </c>
@@ -11313,7 +11312,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="471" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D471" s="3" t="s">
         <v>426</v>
       </c>
@@ -11333,7 +11332,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="472" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D472" s="3" t="s">
         <v>426</v>
       </c>
@@ -11353,7 +11352,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="473" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D473" s="3" t="s">
         <v>426</v>
       </c>
@@ -11367,7 +11366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D474" s="3" t="s">
         <v>426</v>
       </c>
@@ -11381,7 +11380,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="475" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D475" s="3" t="s">
         <v>426</v>
       </c>
@@ -11401,7 +11400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D476" s="3" t="s">
         <v>426</v>
       </c>
@@ -11421,7 +11420,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="477" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D477" s="3" t="s">
         <v>426</v>
       </c>
@@ -11441,7 +11440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D478" s="3" t="s">
         <v>426</v>
       </c>
@@ -11461,7 +11460,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="479" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D479" s="3" t="s">
         <v>426</v>
       </c>
@@ -11481,7 +11480,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="480" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D480" s="3" t="s">
         <v>426</v>
       </c>
@@ -11501,7 +11500,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="481" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D481" s="3" t="s">
         <v>426</v>
       </c>
@@ -11521,7 +11520,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="482" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D482" s="3" t="s">
         <v>426</v>
       </c>
@@ -11541,7 +11540,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="483" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D483" s="3" t="s">
         <v>426</v>
       </c>
@@ -11561,7 +11560,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="484" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D484" s="3" t="s">
         <v>426</v>
       </c>
@@ -11572,7 +11571,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="485" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D485" s="3" t="s">
         <v>426</v>
       </c>
@@ -11592,7 +11591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="486" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D486" s="3" t="s">
         <v>426</v>
       </c>
@@ -11612,7 +11611,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="487" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D487" s="3" t="s">
         <v>426</v>
       </c>
@@ -11632,7 +11631,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="488" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D488" s="3" t="s">
         <v>426</v>
       </c>
@@ -11652,7 +11651,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="489" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D489" s="3" t="s">
         <v>426</v>
       </c>
@@ -11672,7 +11671,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="490" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="490" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D490" s="3" t="s">
         <v>426</v>
       </c>
@@ -11689,7 +11688,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="491" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="491" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D491" s="3" t="s">
         <v>426</v>
       </c>
@@ -11703,7 +11702,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="492" spans="4:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="492" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D492" s="3" t="s">
         <v>426</v>
       </c>
@@ -11718,25 +11717,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:K492" xr:uid="{B34408CA-1274-461D-B00A-45908AC537E2}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="饰品"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters blank="1">
-        <filter val="力量"/>
-        <filter val="力量/敏捷"/>
-        <filter val="敏捷/力量"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:K492" xr:uid="{B34408CA-1274-461D-B00A-45908AC537E2}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -11751,22 +11732,22 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="6" width="11.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="6"/>
-    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="E1" s="10" t="s">
         <v>475</v>
       </c>
@@ -11794,7 +11775,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>134</v>
       </c>
@@ -11827,7 +11808,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>141</v>
       </c>
@@ -11886,7 +11867,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
@@ -11945,7 +11926,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>159</v>
       </c>
@@ -12004,7 +11985,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>166</v>
       </c>
@@ -12063,7 +12044,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>173</v>
       </c>
@@ -12122,7 +12103,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>180</v>
       </c>
@@ -12181,7 +12162,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>186</v>
       </c>
@@ -12222,7 +12203,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>485</v>
       </c>
@@ -12281,7 +12262,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>485</v>
       </c>
@@ -12340,7 +12321,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>485</v>
       </c>
@@ -12399,7 +12380,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>191</v>
       </c>
@@ -12446,7 +12427,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>191</v>
       </c>
@@ -12493,7 +12474,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>369</v>
       </c>
@@ -12549,7 +12530,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>370</v>
       </c>
@@ -12605,7 +12586,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>371</v>
       </c>
@@ -12661,7 +12642,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>372</v>
       </c>
@@ -12717,7 +12698,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -12738,7 +12719,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -12759,7 +12740,7 @@
       <c r="R20" s="9"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>141</v>
       </c>
@@ -12818,7 +12799,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>196</v>
       </c>
@@ -12877,7 +12858,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>150</v>
       </c>
@@ -12936,7 +12917,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>203</v>
       </c>
@@ -12995,7 +12976,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>166</v>
       </c>
@@ -13054,7 +13035,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>208</v>
       </c>
@@ -13113,7 +13094,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>186</v>
       </c>
@@ -13160,7 +13141,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>186</v>
       </c>
@@ -13207,7 +13188,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>485</v>
       </c>
@@ -13266,7 +13247,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>485</v>
       </c>
@@ -13325,7 +13306,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>485</v>
       </c>
@@ -13384,7 +13365,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>191</v>
       </c>
@@ -13431,7 +13412,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>191</v>
       </c>
@@ -13478,7 +13459,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>369</v>
       </c>
@@ -13534,7 +13515,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>370</v>
       </c>
@@ -13590,7 +13571,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>371</v>
       </c>
@@ -13646,7 +13627,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>372</v>
       </c>
@@ -13702,7 +13683,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
@@ -13723,7 +13704,7 @@
       <c r="R38" s="9"/>
       <c r="S38" s="10"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
@@ -13744,7 +13725,7 @@
       <c r="R39" s="9"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>196</v>
       </c>
@@ -13803,7 +13784,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>203</v>
       </c>
@@ -13862,7 +13843,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>173</v>
       </c>
@@ -13921,7 +13902,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>180</v>
       </c>
@@ -13980,7 +13961,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>208</v>
       </c>
@@ -14039,7 +14020,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>220</v>
       </c>
@@ -14098,7 +14079,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>186</v>
       </c>
@@ -14145,7 +14126,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>186</v>
       </c>
@@ -14192,7 +14173,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>485</v>
       </c>
@@ -14251,7 +14232,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>485</v>
       </c>
@@ -14310,7 +14291,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>485</v>
       </c>
@@ -14369,7 +14350,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>191</v>
       </c>
@@ -14416,7 +14397,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>369</v>
       </c>
@@ -14472,7 +14453,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>370</v>
       </c>
@@ -14528,7 +14509,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>371</v>
       </c>
@@ -14584,7 +14565,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>372</v>
       </c>
@@ -14640,7 +14621,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="K61" s="9"/>
     </row>
   </sheetData>
@@ -14701,20 +14682,20 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="6" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>134</v>
       </c>
@@ -14747,7 +14728,7 @@
       </c>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>141</v>
       </c>
@@ -14788,7 +14769,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>150</v>
       </c>
@@ -14829,7 +14810,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>159</v>
       </c>
@@ -14870,7 +14851,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>166</v>
       </c>
@@ -14911,7 +14892,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>173</v>
       </c>
@@ -14952,7 +14933,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>180</v>
       </c>
@@ -14993,7 +14974,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>186</v>
       </c>
@@ -15034,7 +15015,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>191</v>
       </c>
@@ -15075,7 +15056,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>191</v>
       </c>
@@ -15116,7 +15097,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>395</v>
       </c>
@@ -15154,7 +15135,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>396</v>
       </c>
@@ -15192,7 +15173,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>397</v>
       </c>
@@ -15230,7 +15211,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>398</v>
       </c>
@@ -15268,7 +15249,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -15283,7 +15264,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -15298,7 +15279,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>141</v>
       </c>
@@ -15339,7 +15320,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>196</v>
       </c>
@@ -15380,7 +15361,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>150</v>
       </c>
@@ -15421,7 +15402,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>203</v>
       </c>
@@ -15462,7 +15443,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>166</v>
       </c>
@@ -15503,7 +15484,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>208</v>
       </c>
@@ -15544,7 +15525,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>186</v>
       </c>
@@ -15585,7 +15566,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>186</v>
       </c>
@@ -15626,7 +15607,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>191</v>
       </c>
@@ -15667,7 +15648,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>191</v>
       </c>
@@ -15708,7 +15689,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>395</v>
       </c>
@@ -15746,7 +15727,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>396</v>
       </c>
@@ -15784,7 +15765,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>397</v>
       </c>
@@ -15822,7 +15803,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>398</v>
       </c>
@@ -15860,7 +15841,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
@@ -15875,7 +15856,7 @@
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
@@ -15890,7 +15871,7 @@
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>196</v>
       </c>
@@ -15931,7 +15912,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>203</v>
       </c>
@@ -15972,7 +15953,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>173</v>
       </c>
@@ -16013,7 +15994,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>180</v>
       </c>
@@ -16054,7 +16035,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>208</v>
       </c>
@@ -16095,7 +16076,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>220</v>
       </c>
@@ -16136,7 +16117,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>186</v>
       </c>
@@ -16177,7 +16158,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>186</v>
       </c>
@@ -16218,7 +16199,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>191</v>
       </c>
@@ -16259,7 +16240,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>395</v>
       </c>
@@ -16297,7 +16278,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>396</v>
       </c>
@@ -16335,7 +16316,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>397</v>
       </c>
@@ -16373,7 +16354,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>398</v>
       </c>
@@ -16411,13 +16392,13 @@
         <v>284</v>
       </c>
     </row>
-    <row r="49" spans="5:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:5" ht="15" x14ac:dyDescent="0.35">
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="5:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:5" ht="15" x14ac:dyDescent="0.35">
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="5:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:5" ht="15" x14ac:dyDescent="0.35">
       <c r="E51" s="10"/>
     </row>
   </sheetData>
@@ -16433,24 +16414,24 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M1" s="3" t="s">
         <v>508</v>
       </c>
@@ -16458,7 +16439,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>262</v>
       </c>
@@ -16496,7 +16477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
       <c r="B3" t="s">
         <v>58</v>
@@ -16534,7 +16515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" t="s">
         <v>58</v>
@@ -16570,7 +16551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="3" t="s">
         <v>306</v>
@@ -16606,7 +16587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" t="s">
         <v>60</v>
@@ -16642,7 +16623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="3" t="s">
         <v>308</v>
@@ -16678,7 +16659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="3" t="s">
         <v>328</v>
@@ -16700,7 +16681,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="3" t="s">
         <v>309</v>
@@ -16738,7 +16719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" t="s">
         <v>72</v>
@@ -16774,7 +16755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" t="s">
         <v>72</v>
@@ -16810,7 +16791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="6" t="s">
         <v>86</v>
@@ -16846,7 +16827,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="3" t="s">
         <v>232</v>
@@ -16882,7 +16863,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="3" t="s">
         <v>249</v>
@@ -16920,7 +16901,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="3" t="s">
         <v>256</v>
@@ -16953,7 +16934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="J16" s="3"/>
@@ -16961,7 +16942,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="J17" s="3"/>
@@ -16969,7 +16950,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="J18" s="3"/>
@@ -16977,7 +16958,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="J19" s="3"/>
@@ -16985,15 +16966,15 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>354</v>
       </c>
@@ -17014,7 +16995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="33"/>
       <c r="B23" s="24" t="s">
         <v>45</v>
@@ -17033,7 +17014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
       <c r="B24" s="27" t="s">
         <v>324</v>
@@ -17046,7 +17027,7 @@
       <c r="F24" s="21"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="24" t="s">
         <v>60</v>
@@ -17065,7 +17046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
       <c r="B26" s="24" t="s">
         <v>60</v>
@@ -17084,7 +17065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
       <c r="B27" s="23" t="s">
         <v>63</v>
@@ -17103,7 +17084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="33"/>
       <c r="B28" s="24" t="s">
         <v>63</v>
@@ -17122,7 +17103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="33"/>
       <c r="B29" s="23" t="s">
         <v>65</v>
@@ -17141,7 +17122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="33"/>
       <c r="B30" s="23" t="s">
         <v>65</v>
@@ -17160,7 +17141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
       <c r="B31" s="23" t="s">
         <v>65</v>
@@ -17173,7 +17154,7 @@
       <c r="F31" s="21"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="B32" s="24" t="s">
         <v>68</v>
@@ -17192,7 +17173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="33"/>
       <c r="B33" s="23" t="s">
         <v>68</v>
@@ -17211,7 +17192,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="33"/>
       <c r="B34" s="6" t="s">
         <v>68</v>
@@ -17230,7 +17211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="33"/>
       <c r="B35" s="23" t="s">
         <v>70</v>
@@ -17249,7 +17230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="33"/>
       <c r="B36" s="5" t="s">
         <v>70</v>
@@ -17268,7 +17249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="33"/>
       <c r="B37" s="24" t="s">
         <v>86</v>
@@ -17287,7 +17268,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="33"/>
       <c r="B38" s="24" t="s">
         <v>86</v>
@@ -17306,7 +17287,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="33"/>
       <c r="B39" s="23" t="s">
         <v>244</v>

--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\WOW\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C332BC-FAD5-4F21-874A-880D11C8C6C5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911FECC8-CDFC-4493-9421-E99D7A978995}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普通" sheetId="1" r:id="rId1"/>
@@ -11745,8 +11745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -11934,7 +11934,7 @@
         <v>155</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>156</v>
+        <v>264</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>157</v>
@@ -12205,7 +12205,7 @@
         <v>188</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="P9" s="10" t="s">
         <v>178</v>
@@ -12981,7 +12981,7 @@
         <v>205</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="Q24" s="10" t="s">
         <v>147</v>
@@ -13252,7 +13252,7 @@
         <v>145</v>
       </c>
       <c r="P29" s="11" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="Q29" s="10" t="s">
         <v>146</v>
@@ -13461,7 +13461,7 @@
         <v>161</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="P33" s="10" t="s">
         <v>155</v>
@@ -13966,7 +13966,7 @@
         <v>146</v>
       </c>
       <c r="P43" s="11" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="Q43" s="10" t="s">
         <v>192</v>
@@ -14025,7 +14025,7 @@
         <v>171</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>190</v>
@@ -14081,7 +14081,7 @@
         <v>198</v>
       </c>
       <c r="O45" s="11" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="P45" s="10" t="s">
         <v>202</v>
@@ -16430,7 +16430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J13" sqref="J13:P13"/>
     </sheetView>
   </sheetViews>

--- a/配置/装备列表.xlsx
+++ b/配置/装备列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\插件\配置\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World of Warcraft\wow\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6641C39-3951-46CB-9C71-B80A4DF24093}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA07671F-6FF5-4396-A211-A3BBDD3BB643}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普通" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">普通!$D$1:$K$492</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">其他!$D$2:$D$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">其他!$D$2:$D$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">死亡骑士!$F$1:$H$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">战士!$E$2:$N$55</definedName>
   </definedNames>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4274" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="506">
   <si>
     <t>副本名称</t>
   </si>
@@ -1295,23 +1295,6 @@
   <si>
     <t>最后的惊喜</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲜血
-（全能、急速）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饰品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>染血符文剑</t>
@@ -2014,7 +1997,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2085,18 +2068,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2111,9 +2082,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2557,17 +2525,17 @@
       <selection pane="bottomLeft" activeCell="D414" activeCellId="1" sqref="D389:G389 D414:G414"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -2596,7 +2564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -2616,7 +2584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
         <v>9</v>
       </c>
@@ -2636,7 +2604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
         <v>9</v>
       </c>
@@ -2656,7 +2624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -2676,7 +2644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -2693,7 +2661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
         <v>9</v>
       </c>
@@ -2707,7 +2675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -2721,7 +2689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D9" t="s">
         <v>9</v>
       </c>
@@ -2741,7 +2709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D10" t="s">
         <v>9</v>
       </c>
@@ -2761,7 +2729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
         <v>9</v>
       </c>
@@ -2781,7 +2749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -2801,7 +2769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
         <v>9</v>
       </c>
@@ -2821,7 +2789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D14" t="s">
         <v>9</v>
       </c>
@@ -2841,7 +2809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D15" t="s">
         <v>9</v>
       </c>
@@ -2861,7 +2829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D16" t="s">
         <v>9</v>
       </c>
@@ -2881,7 +2849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D17" t="s">
         <v>9</v>
       </c>
@@ -2901,7 +2869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D18" t="s">
         <v>9</v>
       </c>
@@ -2921,7 +2889,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
         <v>9</v>
       </c>
@@ -2941,7 +2909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D20" t="s">
         <v>9</v>
       </c>
@@ -2958,7 +2926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -2978,7 +2946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
         <v>9</v>
       </c>
@@ -2998,7 +2966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
         <v>9</v>
       </c>
@@ -3018,7 +2986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
         <v>9</v>
       </c>
@@ -3038,7 +3006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
         <v>9</v>
       </c>
@@ -3052,7 +3020,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
         <v>9</v>
       </c>
@@ -3072,7 +3040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D27" t="s">
         <v>9</v>
       </c>
@@ -3092,7 +3060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D28" t="s">
         <v>9</v>
       </c>
@@ -3107,7 +3075,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D29" t="s">
         <v>9</v>
       </c>
@@ -3121,7 +3089,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -3132,7 +3100,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
         <v>45</v>
       </c>
@@ -3152,7 +3120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D32" t="s">
         <v>45</v>
       </c>
@@ -3172,7 +3140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D33" t="s">
         <v>45</v>
       </c>
@@ -3192,7 +3160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D34" t="s">
         <v>45</v>
       </c>
@@ -3212,7 +3180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D35" t="s">
         <v>45</v>
       </c>
@@ -3232,7 +3200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
         <v>45</v>
       </c>
@@ -3252,7 +3220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D37" t="s">
         <v>45</v>
       </c>
@@ -3272,7 +3240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D38" s="3" t="s">
         <v>302</v>
       </c>
@@ -3292,7 +3260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
         <v>45</v>
       </c>
@@ -3312,7 +3280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
         <v>45</v>
       </c>
@@ -3332,7 +3300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D41" t="s">
         <v>45</v>
       </c>
@@ -3352,7 +3320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D42" t="s">
         <v>45</v>
       </c>
@@ -3372,7 +3340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D43" t="s">
         <v>45</v>
       </c>
@@ -3392,7 +3360,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D44" t="s">
         <v>45</v>
       </c>
@@ -3412,7 +3380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D45" t="s">
         <v>45</v>
       </c>
@@ -3432,7 +3400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D46" t="s">
         <v>45</v>
       </c>
@@ -3452,7 +3420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D47" t="s">
         <v>45</v>
       </c>
@@ -3472,7 +3440,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D48" t="s">
         <v>45</v>
       </c>
@@ -3486,7 +3454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D49" t="s">
         <v>45</v>
       </c>
@@ -3500,7 +3468,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D50" t="s">
         <v>45</v>
       </c>
@@ -3520,7 +3488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D51" t="s">
         <v>45</v>
       </c>
@@ -3540,7 +3508,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D52" t="s">
         <v>45</v>
       </c>
@@ -3560,7 +3528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D53" t="s">
         <v>45</v>
       </c>
@@ -3580,7 +3548,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D54" t="s">
         <v>45</v>
       </c>
@@ -3600,7 +3568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D55" t="s">
         <v>45</v>
       </c>
@@ -3614,7 +3582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D56" t="s">
         <v>45</v>
       </c>
@@ -3634,7 +3602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D57" t="s">
         <v>45</v>
       </c>
@@ -3654,7 +3622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D58" t="s">
         <v>45</v>
       </c>
@@ -3668,7 +3636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -3679,7 +3647,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D60" t="s">
         <v>54</v>
       </c>
@@ -3699,7 +3667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D61" s="6" t="s">
         <v>54</v>
       </c>
@@ -3721,7 +3689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D62" t="s">
         <v>54</v>
       </c>
@@ -3741,7 +3709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D63" t="s">
         <v>54</v>
       </c>
@@ -3761,7 +3729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D64" t="s">
         <v>54</v>
       </c>
@@ -3781,7 +3749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D65" t="s">
         <v>54</v>
       </c>
@@ -3801,7 +3769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D66" t="s">
         <v>54</v>
       </c>
@@ -3821,7 +3789,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D67" t="s">
         <v>54</v>
       </c>
@@ -3841,7 +3809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D68" t="s">
         <v>54</v>
       </c>
@@ -3861,7 +3829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D69" t="s">
         <v>54</v>
       </c>
@@ -3878,7 +3846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D70" t="s">
         <v>54</v>
       </c>
@@ -3898,7 +3866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D71" t="s">
         <v>54</v>
       </c>
@@ -3918,7 +3886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D72" t="s">
         <v>54</v>
       </c>
@@ -3938,7 +3906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D73" s="3" t="s">
         <v>324</v>
       </c>
@@ -3952,7 +3920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D74" t="s">
         <v>54</v>
       </c>
@@ -3972,7 +3940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D75" t="s">
         <v>54</v>
       </c>
@@ -3992,7 +3960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D76" t="s">
         <v>54</v>
       </c>
@@ -4012,7 +3980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D77" t="s">
         <v>54</v>
       </c>
@@ -4032,7 +4000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D78" t="s">
         <v>54</v>
       </c>
@@ -4052,7 +4020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D79" t="s">
         <v>54</v>
       </c>
@@ -4072,7 +4040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D80" t="s">
         <v>54</v>
       </c>
@@ -4092,7 +4060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D81" t="s">
         <v>54</v>
       </c>
@@ -4112,7 +4080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D82" t="s">
         <v>54</v>
       </c>
@@ -4126,7 +4094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D83" t="s">
         <v>54</v>
       </c>
@@ -4146,7 +4114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D84" t="s">
         <v>54</v>
       </c>
@@ -4166,7 +4134,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D85" t="s">
         <v>54</v>
       </c>
@@ -4186,7 +4154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D86" t="s">
         <v>54</v>
       </c>
@@ -4200,7 +4168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -4211,7 +4179,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D88" t="s">
         <v>58</v>
       </c>
@@ -4231,7 +4199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D89" t="s">
         <v>58</v>
       </c>
@@ -4251,7 +4219,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D90" t="s">
         <v>58</v>
       </c>
@@ -4271,7 +4239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D91" t="s">
         <v>58</v>
       </c>
@@ -4291,7 +4259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D92" t="s">
         <v>58</v>
       </c>
@@ -4311,7 +4279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D93" t="s">
         <v>58</v>
       </c>
@@ -4331,7 +4299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D94" t="s">
         <v>58</v>
       </c>
@@ -4351,7 +4319,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D95" t="s">
         <v>58</v>
       </c>
@@ -4371,7 +4339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D96" t="s">
         <v>58</v>
       </c>
@@ -4391,7 +4359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D97" t="s">
         <v>58</v>
       </c>
@@ -4411,7 +4379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D98" t="s">
         <v>58</v>
       </c>
@@ -4431,7 +4399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D99" t="s">
         <v>58</v>
       </c>
@@ -4451,7 +4419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D100" t="s">
         <v>58</v>
       </c>
@@ -4471,7 +4439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D101" t="s">
         <v>58</v>
       </c>
@@ -4491,7 +4459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D102" t="s">
         <v>58</v>
       </c>
@@ -4511,7 +4479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D103" t="s">
         <v>58</v>
       </c>
@@ -4528,7 +4496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D104" t="s">
         <v>58</v>
       </c>
@@ -4548,7 +4516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D105" t="s">
         <v>58</v>
       </c>
@@ -4565,7 +4533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D106" t="s">
         <v>58</v>
       </c>
@@ -4585,7 +4553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D107" t="s">
         <v>58</v>
       </c>
@@ -4605,7 +4573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D108" t="s">
         <v>58</v>
       </c>
@@ -4625,7 +4593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D109" s="3" t="s">
         <v>304</v>
       </c>
@@ -4645,7 +4613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D110" t="s">
         <v>58</v>
       </c>
@@ -4665,7 +4633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D111" t="s">
         <v>58</v>
       </c>
@@ -4685,7 +4653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D112" t="s">
         <v>58</v>
       </c>
@@ -4699,7 +4667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D113" t="s">
         <v>58</v>
       </c>
@@ -4713,7 +4681,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="114" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -4724,7 +4692,7 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D115" t="s">
         <v>60</v>
       </c>
@@ -4744,7 +4712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D116" t="s">
         <v>60</v>
       </c>
@@ -4764,7 +4732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D117" t="s">
         <v>60</v>
       </c>
@@ -4784,7 +4752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D118" t="s">
         <v>60</v>
       </c>
@@ -4804,7 +4772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D119" t="s">
         <v>60</v>
       </c>
@@ -4824,7 +4792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D120" t="s">
         <v>60</v>
       </c>
@@ -4844,7 +4812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D121" t="s">
         <v>60</v>
       </c>
@@ -4864,7 +4832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D122" t="s">
         <v>60</v>
       </c>
@@ -4884,7 +4852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D123" t="s">
         <v>60</v>
       </c>
@@ -4904,7 +4872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D124" t="s">
         <v>60</v>
       </c>
@@ -4924,7 +4892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D125" t="s">
         <v>60</v>
       </c>
@@ -4944,7 +4912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D126" t="s">
         <v>60</v>
       </c>
@@ -4964,7 +4932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D127" t="s">
         <v>60</v>
       </c>
@@ -4984,7 +4952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D128" t="s">
         <v>60</v>
       </c>
@@ -5004,7 +4972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D129" t="s">
         <v>60</v>
       </c>
@@ -5024,7 +4992,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D130" t="s">
         <v>60</v>
       </c>
@@ -5041,7 +5009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D131" t="s">
         <v>60</v>
       </c>
@@ -5055,7 +5023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D132" t="s">
         <v>60</v>
       </c>
@@ -5072,7 +5040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D133" t="s">
         <v>60</v>
       </c>
@@ -5092,7 +5060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D134" t="s">
         <v>60</v>
       </c>
@@ -5112,7 +5080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D135" t="s">
         <v>60</v>
       </c>
@@ -5132,7 +5100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D136" t="s">
         <v>60</v>
       </c>
@@ -5152,7 +5120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D137" t="s">
         <v>60</v>
       </c>
@@ -5166,7 +5134,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D138" t="s">
         <v>60</v>
       </c>
@@ -5186,7 +5154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D139" t="s">
         <v>60</v>
       </c>
@@ -5206,7 +5174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D140" t="s">
         <v>60</v>
       </c>
@@ -5226,7 +5194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D141" t="s">
         <v>60</v>
       </c>
@@ -5246,7 +5214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D142" t="s">
         <v>60</v>
       </c>
@@ -5266,7 +5234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D143" t="s">
         <v>60</v>
       </c>
@@ -5286,7 +5254,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="144" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D144" t="s">
         <v>60</v>
       </c>
@@ -5300,7 +5268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D145" t="s">
         <v>60</v>
       </c>
@@ -5320,7 +5288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -5331,7 +5299,7 @@
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
     </row>
-    <row r="147" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D147" s="6" t="s">
         <v>63</v>
       </c>
@@ -5339,7 +5307,7 @@
         <v>10</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G147" s="6"/>
       <c r="H147" s="5" t="s">
@@ -5353,7 +5321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D148" t="s">
         <v>63</v>
       </c>
@@ -5370,7 +5338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D149" t="s">
         <v>63</v>
       </c>
@@ -5390,7 +5358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D150" t="s">
         <v>63</v>
       </c>
@@ -5410,7 +5378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D151" t="s">
         <v>63</v>
       </c>
@@ -5430,7 +5398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D152" t="s">
         <v>63</v>
       </c>
@@ -5450,7 +5418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D153" t="s">
         <v>63</v>
       </c>
@@ -5470,7 +5438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D154" t="s">
         <v>63</v>
       </c>
@@ -5490,7 +5458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D155" t="s">
         <v>63</v>
       </c>
@@ -5510,7 +5478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D156" t="s">
         <v>63</v>
       </c>
@@ -5530,7 +5498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D157" t="s">
         <v>63</v>
       </c>
@@ -5550,7 +5518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D158" t="s">
         <v>63</v>
       </c>
@@ -5570,7 +5538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D159" t="s">
         <v>63</v>
       </c>
@@ -5590,7 +5558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D160" t="s">
         <v>63</v>
       </c>
@@ -5610,7 +5578,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D161" t="s">
         <v>63</v>
       </c>
@@ -5630,7 +5598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D162" t="s">
         <v>63</v>
       </c>
@@ -5650,7 +5618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D163" t="s">
         <v>63</v>
       </c>
@@ -5670,7 +5638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D164" t="s">
         <v>63</v>
       </c>
@@ -5690,7 +5658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D165" t="s">
         <v>63</v>
       </c>
@@ -5710,7 +5678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D166" t="s">
         <v>63</v>
       </c>
@@ -5730,7 +5698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D167" t="s">
         <v>63</v>
       </c>
@@ -5750,7 +5718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D168" t="s">
         <v>63</v>
       </c>
@@ -5770,7 +5738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="169" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D169" t="s">
         <v>63</v>
       </c>
@@ -5790,7 +5758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D170" t="s">
         <v>63</v>
       </c>
@@ -5810,7 +5778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D171" t="s">
         <v>63</v>
       </c>
@@ -5824,7 +5792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D172" t="s">
         <v>63</v>
       </c>
@@ -5838,7 +5806,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -5849,7 +5817,7 @@
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
     </row>
-    <row r="174" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D174" t="s">
         <v>65</v>
       </c>
@@ -5869,7 +5837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D175" t="s">
         <v>65</v>
       </c>
@@ -5889,7 +5857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D176" t="s">
         <v>65</v>
       </c>
@@ -5909,7 +5877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D177" s="3" t="s">
         <v>335</v>
       </c>
@@ -5929,7 +5897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D178" t="s">
         <v>65</v>
       </c>
@@ -5949,7 +5917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D179" t="s">
         <v>65</v>
       </c>
@@ -5969,7 +5937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D180" t="s">
         <v>65</v>
       </c>
@@ -5989,7 +5957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D181" t="s">
         <v>65</v>
       </c>
@@ -6003,7 +5971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D182" t="s">
         <v>65</v>
       </c>
@@ -6023,7 +5991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D183" t="s">
         <v>65</v>
       </c>
@@ -6040,7 +6008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D184" t="s">
         <v>65</v>
       </c>
@@ -6060,7 +6028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D185" t="s">
         <v>65</v>
       </c>
@@ -6080,7 +6048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D186" t="s">
         <v>65</v>
       </c>
@@ -6100,7 +6068,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="187" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D187" t="s">
         <v>65</v>
       </c>
@@ -6120,7 +6088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D188" t="s">
         <v>65</v>
       </c>
@@ -6134,7 +6102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D189" t="s">
         <v>65</v>
       </c>
@@ -6154,7 +6122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D190" t="s">
         <v>65</v>
       </c>
@@ -6174,7 +6142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D191" t="s">
         <v>65</v>
       </c>
@@ -6194,7 +6162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D192" t="s">
         <v>65</v>
       </c>
@@ -6214,7 +6182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D193" t="s">
         <v>65</v>
       </c>
@@ -6234,7 +6202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D194" t="s">
         <v>65</v>
       </c>
@@ -6254,7 +6222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D195" t="s">
         <v>65</v>
       </c>
@@ -6274,7 +6242,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="196" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D196" t="s">
         <v>65</v>
       </c>
@@ -6288,7 +6256,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="197" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D197" t="s">
         <v>65</v>
       </c>
@@ -6299,7 +6267,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="198" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D198" t="s">
         <v>65</v>
       </c>
@@ -6319,7 +6287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D199" t="s">
         <v>65</v>
       </c>
@@ -6339,7 +6307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D200" t="s">
         <v>65</v>
       </c>
@@ -6359,7 +6327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D201" t="s">
         <v>65</v>
       </c>
@@ -6373,7 +6341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -6384,7 +6352,7 @@
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
     </row>
-    <row r="203" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D203" t="s">
         <v>68</v>
       </c>
@@ -6404,7 +6372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D204" t="s">
         <v>68</v>
       </c>
@@ -6424,7 +6392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D205" t="s">
         <v>68</v>
       </c>
@@ -6444,7 +6412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D206" t="s">
         <v>68</v>
       </c>
@@ -6464,7 +6432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D207" t="s">
         <v>68</v>
       </c>
@@ -6484,7 +6452,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="208" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D208" t="s">
         <v>68</v>
       </c>
@@ -6498,7 +6466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="209" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D209" t="s">
         <v>68</v>
       </c>
@@ -6512,7 +6480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D210" t="s">
         <v>68</v>
       </c>
@@ -6532,7 +6500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D211" t="s">
         <v>68</v>
       </c>
@@ -6552,7 +6520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D212" t="s">
         <v>68</v>
       </c>
@@ -6572,7 +6540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D213" t="s">
         <v>68</v>
       </c>
@@ -6592,7 +6560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D214" t="s">
         <v>68</v>
       </c>
@@ -6612,7 +6580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="215" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D215" t="s">
         <v>68</v>
       </c>
@@ -6626,7 +6594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D216" t="s">
         <v>68</v>
       </c>
@@ -6637,7 +6605,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="217" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D217" t="s">
         <v>68</v>
       </c>
@@ -6657,7 +6625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D218" t="s">
         <v>68</v>
       </c>
@@ -6674,7 +6642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D219" t="s">
         <v>68</v>
       </c>
@@ -6694,7 +6662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D220" t="s">
         <v>68</v>
       </c>
@@ -6714,7 +6682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D221" t="s">
         <v>68</v>
       </c>
@@ -6734,7 +6702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D222" t="s">
         <v>68</v>
       </c>
@@ -6754,7 +6722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D223" t="s">
         <v>68</v>
       </c>
@@ -6765,7 +6733,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="224" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D224" t="s">
         <v>68</v>
       </c>
@@ -6785,7 +6753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D225" t="s">
         <v>68</v>
       </c>
@@ -6805,7 +6773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D226" t="s">
         <v>68</v>
       </c>
@@ -6819,7 +6787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
@@ -6830,7 +6798,7 @@
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
     </row>
-    <row r="228" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D228" t="s">
         <v>70</v>
       </c>
@@ -6850,7 +6818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D229" t="s">
         <v>70</v>
       </c>
@@ -6870,7 +6838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D230" t="s">
         <v>70</v>
       </c>
@@ -6890,7 +6858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D231" t="s">
         <v>70</v>
       </c>
@@ -6910,7 +6878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D232" t="s">
         <v>70</v>
       </c>
@@ -6930,7 +6898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D233" t="s">
         <v>70</v>
       </c>
@@ -6950,7 +6918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D234" t="s">
         <v>70</v>
       </c>
@@ -6970,7 +6938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D235" t="s">
         <v>70</v>
       </c>
@@ -6984,7 +6952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="236" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D236" t="s">
         <v>70</v>
       </c>
@@ -7004,7 +6972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D237" t="s">
         <v>70</v>
       </c>
@@ -7024,7 +6992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D238" t="s">
         <v>70</v>
       </c>
@@ -7044,7 +7012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D239" t="s">
         <v>70</v>
       </c>
@@ -7064,7 +7032,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D240" t="s">
         <v>70</v>
       </c>
@@ -7084,7 +7052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D241" t="s">
         <v>70</v>
       </c>
@@ -7104,7 +7072,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="242" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D242" t="s">
         <v>70</v>
       </c>
@@ -7118,7 +7086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D243" t="s">
         <v>70</v>
       </c>
@@ -7138,7 +7106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D244" t="s">
         <v>70</v>
       </c>
@@ -7158,7 +7126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D245" t="s">
         <v>70</v>
       </c>
@@ -7178,7 +7146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D246" t="s">
         <v>70</v>
       </c>
@@ -7195,7 +7163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D247" t="s">
         <v>70</v>
       </c>
@@ -7215,7 +7183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D248" t="s">
         <v>70</v>
       </c>
@@ -7235,7 +7203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D249" t="s">
         <v>70</v>
       </c>
@@ -7255,7 +7223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D250" t="s">
         <v>70</v>
       </c>
@@ -7275,7 +7243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D251" t="s">
         <v>70</v>
       </c>
@@ -7289,7 +7257,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="252" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D252" t="s">
         <v>70</v>
       </c>
@@ -7309,7 +7277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D253" t="s">
         <v>70</v>
       </c>
@@ -7329,7 +7297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D254" t="s">
         <v>70</v>
       </c>
@@ -7343,7 +7311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="255" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
@@ -7354,7 +7322,7 @@
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
     </row>
-    <row r="256" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D256" t="s">
         <v>72</v>
       </c>
@@ -7374,7 +7342,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="257" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D257" t="s">
         <v>72</v>
       </c>
@@ -7394,7 +7362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D258" t="s">
         <v>72</v>
       </c>
@@ -7414,7 +7382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="259" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D259" t="s">
         <v>72</v>
       </c>
@@ -7434,7 +7402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D260" t="s">
         <v>72</v>
       </c>
@@ -7454,7 +7422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="261" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D261" t="s">
         <v>72</v>
       </c>
@@ -7474,7 +7442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D262" t="s">
         <v>72</v>
       </c>
@@ -7494,7 +7462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D263" t="s">
         <v>72</v>
       </c>
@@ -7514,7 +7482,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D264" t="s">
         <v>72</v>
       </c>
@@ -7534,7 +7502,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="265" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D265" t="s">
         <v>72</v>
       </c>
@@ -7554,7 +7522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="266" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D266" t="s">
         <v>72</v>
       </c>
@@ -7574,7 +7542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D267" t="s">
         <v>72</v>
       </c>
@@ -7594,7 +7562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D268" t="s">
         <v>72</v>
       </c>
@@ -7614,7 +7582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="269" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D269" t="s">
         <v>72</v>
       </c>
@@ -7634,7 +7602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D270" t="s">
         <v>72</v>
       </c>
@@ -7654,7 +7622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D271" t="s">
         <v>72</v>
       </c>
@@ -7674,7 +7642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D272" t="s">
         <v>72</v>
       </c>
@@ -7694,7 +7662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D273" t="s">
         <v>72</v>
       </c>
@@ -7708,7 +7676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D274" t="s">
         <v>72</v>
       </c>
@@ -7728,7 +7696,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D275" t="s">
         <v>72</v>
       </c>
@@ -7748,7 +7716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D276" t="s">
         <v>72</v>
       </c>
@@ -7768,7 +7736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D277" t="s">
         <v>72</v>
       </c>
@@ -7788,7 +7756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D278" t="s">
         <v>72</v>
       </c>
@@ -7808,7 +7776,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="279" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D279" t="s">
         <v>72</v>
       </c>
@@ -7822,7 +7790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D280" s="6" t="s">
         <v>72</v>
       </c>
@@ -7844,7 +7812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D281" t="s">
         <v>72</v>
       </c>
@@ -7864,7 +7832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
@@ -7875,7 +7843,7 @@
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
     </row>
-    <row r="283" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D283" t="s">
         <v>86</v>
       </c>
@@ -7895,7 +7863,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="284" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D284" t="s">
         <v>86</v>
       </c>
@@ -7915,7 +7883,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="285" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D285" t="s">
         <v>86</v>
       </c>
@@ -7935,7 +7903,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="286" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D286" t="s">
         <v>86</v>
       </c>
@@ -7955,7 +7923,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="287" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D287" t="s">
         <v>86</v>
       </c>
@@ -7975,7 +7943,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="288" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D288" t="s">
         <v>86</v>
       </c>
@@ -7995,7 +7963,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="289" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D289" t="s">
         <v>86</v>
       </c>
@@ -8015,7 +7983,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="290" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D290" t="s">
         <v>86</v>
       </c>
@@ -8035,7 +8003,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="291" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D291" t="s">
         <v>86</v>
       </c>
@@ -8055,7 +8023,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="292" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D292" t="s">
         <v>86</v>
       </c>
@@ -8069,7 +8037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D293" s="6" t="s">
         <v>86</v>
       </c>
@@ -8083,7 +8051,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="294" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D294" t="s">
         <v>86</v>
       </c>
@@ -8103,7 +8071,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="295" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D295" t="s">
         <v>86</v>
       </c>
@@ -8123,7 +8091,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="296" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D296" t="s">
         <v>86</v>
       </c>
@@ -8143,7 +8111,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="297" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D297" t="s">
         <v>86</v>
       </c>
@@ -8163,7 +8131,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="298" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D298" t="s">
         <v>86</v>
       </c>
@@ -8183,7 +8151,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="299" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D299" t="s">
         <v>86</v>
       </c>
@@ -8203,7 +8171,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="300" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D300" s="3" t="s">
         <v>86</v>
       </c>
@@ -8223,7 +8191,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="301" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D301" t="s">
         <v>86</v>
       </c>
@@ -8243,7 +8211,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="302" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D302" s="6" t="s">
         <v>86</v>
       </c>
@@ -8263,7 +8231,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="303" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D303" t="s">
         <v>86</v>
       </c>
@@ -8283,7 +8251,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="304" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D304" t="s">
         <v>86</v>
       </c>
@@ -8303,7 +8271,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="305" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D305" t="s">
         <v>86</v>
       </c>
@@ -8320,7 +8288,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="306" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D306" t="s">
         <v>86</v>
       </c>
@@ -8340,7 +8308,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="307" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D307" t="s">
         <v>86</v>
       </c>
@@ -8360,7 +8328,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="308" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D308" s="6" t="s">
         <v>86</v>
       </c>
@@ -8374,7 +8342,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="309" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D309" t="s">
         <v>86</v>
       </c>
@@ -8394,7 +8362,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="310" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D310" t="s">
         <v>86</v>
       </c>
@@ -8414,7 +8382,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="311" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D311" t="s">
         <v>86</v>
       </c>
@@ -8434,7 +8402,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="312" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D312" t="s">
         <v>86</v>
       </c>
@@ -8454,7 +8422,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="313" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D313" t="s">
         <v>86</v>
       </c>
@@ -8474,7 +8442,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="314" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D314" t="s">
         <v>86</v>
       </c>
@@ -8494,7 +8462,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="315" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D315" t="s">
         <v>86</v>
       </c>
@@ -8514,7 +8482,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="316" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D316" t="s">
         <v>86</v>
       </c>
@@ -8534,7 +8502,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="317" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D317" t="s">
         <v>86</v>
       </c>
@@ -8554,7 +8522,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="318" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D318" s="6" t="s">
         <v>86</v>
       </c>
@@ -8568,7 +8536,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="319" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D319" t="s">
         <v>86</v>
       </c>
@@ -8588,7 +8556,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="320" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D320" t="s">
         <v>86</v>
       </c>
@@ -8608,7 +8576,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="321" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D321" t="s">
         <v>86</v>
       </c>
@@ -8625,7 +8593,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="322" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D322" t="s">
         <v>86</v>
       </c>
@@ -8645,7 +8613,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="323" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D323" t="s">
         <v>86</v>
       </c>
@@ -8665,7 +8633,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="324" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D324" t="s">
         <v>86</v>
       </c>
@@ -8685,7 +8653,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="325" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D325" t="s">
         <v>86</v>
       </c>
@@ -8705,7 +8673,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="326" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D326" t="s">
         <v>86</v>
       </c>
@@ -8719,7 +8687,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="327" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D327" s="6" t="s">
         <v>86</v>
       </c>
@@ -8733,7 +8701,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="328" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D328" t="s">
         <v>86</v>
       </c>
@@ -8753,7 +8721,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="329" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D329" t="s">
         <v>86</v>
       </c>
@@ -8773,7 +8741,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="330" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D330" t="s">
         <v>86</v>
       </c>
@@ -8790,7 +8758,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="331" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D331" t="s">
         <v>86</v>
       </c>
@@ -8810,7 +8778,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="332" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D332" t="s">
         <v>86</v>
       </c>
@@ -8830,7 +8798,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="333" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D333" s="6" t="s">
         <v>86</v>
       </c>
@@ -8850,7 +8818,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="334" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D334" t="s">
         <v>86</v>
       </c>
@@ -8870,7 +8838,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="335" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D335" t="s">
         <v>86</v>
       </c>
@@ -8890,7 +8858,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="336" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D336" t="s">
         <v>86</v>
       </c>
@@ -8910,7 +8878,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="337" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D337" t="s">
         <v>86</v>
       </c>
@@ -8930,7 +8898,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="338" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D338" t="s">
         <v>86</v>
       </c>
@@ -8950,7 +8918,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="339" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D339" t="s">
         <v>86</v>
       </c>
@@ -8965,7 +8933,7 @@
       </c>
       <c r="K339" s="3"/>
     </row>
-    <row r="340" spans="4:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D340" s="6" t="s">
         <v>86</v>
       </c>
@@ -8979,7 +8947,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="341" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D341" t="s">
         <v>86</v>
       </c>
@@ -8999,7 +8967,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="342" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D342" t="s">
         <v>86</v>
       </c>
@@ -9020,7 +8988,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="343" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D343" t="s">
         <v>86</v>
       </c>
@@ -9040,7 +9008,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="344" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D344" t="s">
         <v>86</v>
       </c>
@@ -9060,7 +9028,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="345" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D345" t="s">
         <v>86</v>
       </c>
@@ -9080,7 +9048,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="346" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D346" t="s">
         <v>86</v>
       </c>
@@ -9100,7 +9068,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="347" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D347" t="s">
         <v>86</v>
       </c>
@@ -9120,7 +9088,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="348" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D348" t="s">
         <v>86</v>
       </c>
@@ -9135,7 +9103,7 @@
       </c>
       <c r="K348" s="3"/>
     </row>
-    <row r="349" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
@@ -9146,7 +9114,7 @@
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
     </row>
-    <row r="350" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D350" s="3" t="s">
         <v>222</v>
       </c>
@@ -9166,7 +9134,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="351" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D351" s="3" t="s">
         <v>222</v>
       </c>
@@ -9186,7 +9154,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="352" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D352" s="3" t="s">
         <v>222</v>
       </c>
@@ -9206,7 +9174,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="353" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D353" s="3" t="s">
         <v>222</v>
       </c>
@@ -9226,7 +9194,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="354" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D354" s="3" t="s">
         <v>222</v>
       </c>
@@ -9246,7 +9214,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="355" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D355" s="3" t="s">
         <v>222</v>
       </c>
@@ -9266,7 +9234,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="356" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D356" s="3" t="s">
         <v>222</v>
       </c>
@@ -9286,7 +9254,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="357" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D357" s="3" t="s">
         <v>222</v>
       </c>
@@ -9300,7 +9268,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="358" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D358" s="3" t="s">
         <v>222</v>
       </c>
@@ -9314,7 +9282,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="359" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
@@ -9325,7 +9293,7 @@
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
     </row>
-    <row r="360" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D360" s="3" t="s">
         <v>232</v>
       </c>
@@ -9342,7 +9310,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="361" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D361" s="3" t="s">
         <v>232</v>
       </c>
@@ -9362,7 +9330,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="362" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D362" s="3" t="s">
         <v>232</v>
       </c>
@@ -9382,7 +9350,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="363" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D363" s="3" t="s">
         <v>232</v>
       </c>
@@ -9402,7 +9370,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="364" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D364" s="3" t="s">
         <v>232</v>
       </c>
@@ -9422,7 +9390,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="365" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D365" s="3" t="s">
         <v>232</v>
       </c>
@@ -9442,7 +9410,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="366" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D366" s="3" t="s">
         <v>232</v>
       </c>
@@ -9462,7 +9430,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="367" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
@@ -9473,7 +9441,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D368" s="3" t="s">
         <v>239</v>
       </c>
@@ -9493,7 +9461,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="369" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D369" s="3" t="s">
         <v>239</v>
       </c>
@@ -9513,7 +9481,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="370" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D370" s="3" t="s">
         <v>239</v>
       </c>
@@ -9533,7 +9501,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="371" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D371" s="3" t="s">
         <v>239</v>
       </c>
@@ -9553,7 +9521,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="372" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D372" s="3" t="s">
         <v>239</v>
       </c>
@@ -9573,7 +9541,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="373" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D373" s="3" t="s">
         <v>239</v>
       </c>
@@ -9593,7 +9561,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="374" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D374" s="3" t="s">
         <v>239</v>
       </c>
@@ -9613,7 +9581,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="375" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D375" s="3" t="s">
         <v>239</v>
       </c>
@@ -9627,7 +9595,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="376" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D376" s="3" t="s">
         <v>239</v>
       </c>
@@ -9641,7 +9609,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="377" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
@@ -9652,7 +9620,7 @@
       <c r="K377" s="1"/>
       <c r="L377" s="1"/>
     </row>
-    <row r="378" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D378" s="3" t="s">
         <v>244</v>
       </c>
@@ -9672,7 +9640,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="379" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D379" s="3" t="s">
         <v>244</v>
       </c>
@@ -9692,7 +9660,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="380" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D380" s="3" t="s">
         <v>244</v>
       </c>
@@ -9712,7 +9680,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="381" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D381" s="3" t="s">
         <v>244</v>
       </c>
@@ -9733,7 +9701,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="382" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D382" s="3" t="s">
         <v>244</v>
       </c>
@@ -9753,7 +9721,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="383" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D383" s="3" t="s">
         <v>244</v>
       </c>
@@ -9773,7 +9741,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="384" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D384" s="3" t="s">
         <v>244</v>
       </c>
@@ -9787,7 +9755,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="385" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D385" s="3" t="s">
         <v>244</v>
       </c>
@@ -9801,7 +9769,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="386" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D386" s="3" t="s">
         <v>244</v>
       </c>
@@ -9815,7 +9783,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="387" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
@@ -9826,12 +9794,12 @@
       <c r="K387" s="1"/>
       <c r="L387" s="1"/>
     </row>
-    <row r="388" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D388" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F388" s="3" t="s">
         <v>231</v>
@@ -9840,12 +9808,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="389" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D389" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F389" s="3" t="s">
         <v>231</v>
@@ -9854,12 +9822,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="390" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D390" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F390" s="3" t="s">
         <v>231</v>
@@ -9868,7 +9836,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="391" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
@@ -9879,7 +9847,7 @@
       <c r="K391" s="1"/>
       <c r="L391" s="1"/>
     </row>
-    <row r="392" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D392" s="3" t="s">
         <v>249</v>
       </c>
@@ -9899,7 +9867,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="393" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D393" s="3" t="s">
         <v>249</v>
       </c>
@@ -9919,7 +9887,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="394" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D394" s="3" t="s">
         <v>249</v>
       </c>
@@ -9939,7 +9907,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="395" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D395" s="3" t="s">
         <v>249</v>
       </c>
@@ -9959,7 +9927,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="396" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D396" s="3" t="s">
         <v>249</v>
       </c>
@@ -9979,7 +9947,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="397" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D397" s="3" t="s">
         <v>249</v>
       </c>
@@ -9996,7 +9964,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="398" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D398" s="3" t="s">
         <v>249</v>
       </c>
@@ -10010,7 +9978,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="399" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
@@ -10021,7 +9989,7 @@
       <c r="K399" s="1"/>
       <c r="L399" s="1"/>
     </row>
-    <row r="400" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D400" s="3" t="s">
         <v>256</v>
       </c>
@@ -10038,7 +10006,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="401" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D401" s="3" t="s">
         <v>256</v>
       </c>
@@ -10058,7 +10026,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="402" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D402" s="3" t="s">
         <v>256</v>
       </c>
@@ -10078,7 +10046,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="403" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D403" s="3" t="s">
         <v>256</v>
       </c>
@@ -10098,7 +10066,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="404" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D404" s="3" t="s">
         <v>256</v>
       </c>
@@ -10118,7 +10086,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="405" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D405" s="3" t="s">
         <v>256</v>
       </c>
@@ -10138,7 +10106,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="406" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D406" s="3" t="s">
         <v>256</v>
       </c>
@@ -10152,7 +10120,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="407" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
@@ -10163,12 +10131,12 @@
       <c r="K407" s="1"/>
       <c r="L407" s="1"/>
     </row>
-    <row r="408" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D408" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F408" s="3" t="s">
         <v>253</v>
@@ -10183,12 +10151,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="409" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D409" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E409" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F409" s="3" t="s">
         <v>227</v>
@@ -10203,12 +10171,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="410" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D410" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F410" s="3" t="s">
         <v>109</v>
@@ -10223,15 +10191,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="411" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D411" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F411" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="E411" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="F411" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="H411" s="3" t="s">
         <v>126</v>
@@ -10243,26 +10211,26 @@
         <v>132</v>
       </c>
     </row>
-    <row r="412" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D412" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E412" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F412" s="3" t="s">
         <v>120</v>
       </c>
       <c r="K412" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="413" spans="4:12" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="413" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D413" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E413" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F413" s="3" t="s">
         <v>120</v>
@@ -10271,12 +10239,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="414" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D414" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F414" s="3" t="s">
         <v>120</v>
@@ -10285,7 +10253,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="415" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
@@ -10296,15 +10264,15 @@
       <c r="K415" s="1"/>
       <c r="L415" s="1"/>
     </row>
-    <row r="416" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D416" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E416" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F416" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G416" s="3" t="s">
         <v>126</v>
@@ -10316,15 +10284,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="417" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D417" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F417" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H417" s="5" t="s">
         <v>126</v>
@@ -10336,15 +10304,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="418" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D418" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F418" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="E418" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="F418" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="I418" s="5" t="s">
         <v>126</v>
@@ -10356,15 +10324,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="419" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D419" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E419" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F419" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="F419" s="3" t="s">
-        <v>431</v>
       </c>
       <c r="H419" s="3" t="s">
         <v>126</v>
@@ -10376,15 +10344,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="420" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D420" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F420" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H420" s="5" t="s">
         <v>126</v>
@@ -10396,15 +10364,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="421" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D421" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F421" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I421" s="3" t="s">
         <v>126</v>
@@ -10416,15 +10384,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="422" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D422" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F422" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I422" s="5" t="s">
         <v>126</v>
@@ -10436,15 +10404,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="423" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D423" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E423" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F423" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G423" s="3" t="s">
         <v>126</v>
@@ -10456,29 +10424,29 @@
         <v>131</v>
       </c>
     </row>
-    <row r="424" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D424" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F424" s="3" t="s">
         <v>120</v>
       </c>
       <c r="K424" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="425" spans="4:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="425" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D425" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F425" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I425" s="5" t="s">
         <v>126</v>
@@ -10490,15 +10458,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="426" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D426" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F426" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G426" s="3" t="s">
         <v>126</v>
@@ -10510,15 +10478,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="427" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D427" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E427" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F427" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G427" s="5" t="s">
         <v>126</v>
@@ -10530,16 +10498,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="428" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D428" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E428" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F428" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F428" s="3" t="s">
-        <v>441</v>
-      </c>
       <c r="H428" s="5" t="s">
         <v>126</v>
       </c>
@@ -10547,18 +10515,18 @@
         <v>126</v>
       </c>
       <c r="K428" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="429" spans="4:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="429" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D429" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F429" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G429" s="5" t="s">
         <v>126</v>
@@ -10567,15 +10535,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="430" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D430" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F430" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G430" s="3" t="s">
         <v>126</v>
@@ -10587,15 +10555,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="431" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D431" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F431" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="I431" s="5" t="s">
         <v>126</v>
@@ -10607,15 +10575,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="432" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D432" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E432" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F432" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G432" s="5" t="s">
         <v>126</v>
@@ -10627,15 +10595,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="433" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D433" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E433" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F433" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H433" s="5" t="s">
         <v>126</v>
@@ -10644,15 +10612,15 @@
         <v>126</v>
       </c>
       <c r="K433" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="434" spans="4:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D434" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E434" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F434" s="3" t="s">
         <v>120</v>
@@ -10661,15 +10629,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="435" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D435" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E435" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F435" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G435" s="3" t="s">
         <v>126</v>
@@ -10678,18 +10646,18 @@
         <v>126</v>
       </c>
       <c r="K435" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="436" spans="4:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="436" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D436" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F436" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I436" s="5" t="s">
         <v>126</v>
@@ -10698,18 +10666,18 @@
         <v>126</v>
       </c>
       <c r="K436" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="437" spans="4:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="437" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D437" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E437" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F437" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G437" s="3" t="s">
         <v>126</v>
@@ -10721,15 +10689,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="438" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D438" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E438" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F438" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H438" s="5" t="s">
         <v>126</v>
@@ -10741,15 +10709,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="439" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D439" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E439" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F439" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="F439" s="3" t="s">
-        <v>452</v>
       </c>
       <c r="H439" s="5" t="s">
         <v>126</v>
@@ -10761,15 +10729,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="440" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D440" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E440" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F440" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H440" s="5" t="s">
         <v>126</v>
@@ -10778,12 +10746,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="441" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D441" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F441" s="3" t="s">
         <v>120</v>
@@ -10792,15 +10760,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="442" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D442" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F442" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G442" s="3" t="s">
         <v>126</v>
@@ -10809,18 +10777,18 @@
         <v>126</v>
       </c>
       <c r="K442" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="443" spans="4:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="443" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D443" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E443" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F443" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H443" s="3" t="s">
         <v>126</v>
@@ -10832,15 +10800,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="444" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D444" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E444" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F444" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G444" s="5" t="s">
         <v>126</v>
@@ -10852,15 +10820,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="445" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D445" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E445" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F445" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G445" s="5" t="s">
         <v>126</v>
@@ -10872,15 +10840,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="446" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D446" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E446" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F446" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G446" s="5" t="s">
         <v>126</v>
@@ -10889,18 +10857,18 @@
         <v>126</v>
       </c>
       <c r="K446" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="447" spans="4:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="447" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D447" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E447" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F447" s="3" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H447" s="3" t="s">
         <v>126</v>
@@ -10912,15 +10880,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="448" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D448" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E448" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F448" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G448" s="3" t="s">
         <v>126</v>
@@ -10932,15 +10900,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="449" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D449" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E449" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F449" s="3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I449" s="3" t="s">
         <v>126</v>
@@ -10952,43 +10920,43 @@
         <v>131</v>
       </c>
     </row>
-    <row r="450" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D450" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E450" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F450" s="3" t="s">
         <v>120</v>
       </c>
       <c r="K450" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="451" spans="4:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="451" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D451" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E451" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F451" s="3" t="s">
         <v>120</v>
       </c>
       <c r="K451" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="452" spans="4:11" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="452" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D452" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E452" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F452" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H452" s="5" t="s">
         <v>126</v>
@@ -11000,15 +10968,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="453" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D453" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E453" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F453" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H453" s="3" t="s">
         <v>126</v>
@@ -11017,18 +10985,18 @@
         <v>126</v>
       </c>
       <c r="K453" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="454" spans="4:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="454" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D454" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E454" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F454" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G454" s="5" t="s">
         <v>126</v>
@@ -11040,32 +11008,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="455" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D455" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E455" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F455" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="I455" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J455" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="456" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D456" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F456" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="F455" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="I455" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J455" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="456" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D456" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="E456" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="F456" s="3" t="s">
-        <v>463</v>
       </c>
       <c r="G456" s="5" t="s">
         <v>126</v>
@@ -11077,15 +11045,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="457" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D457" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E457" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F457" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I457" s="3" t="s">
         <v>126</v>
@@ -11094,15 +11062,15 @@
         <v>126</v>
       </c>
       <c r="K457" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="458" spans="4:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="458" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D458" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E458" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F458" s="3" t="s">
         <v>120</v>
@@ -11111,29 +11079,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="459" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D459" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E459" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F459" s="3" t="s">
         <v>120</v>
       </c>
       <c r="K459" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="460" spans="4:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="460" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D460" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E460" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F460" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H460" s="5" t="s">
         <v>126</v>
@@ -11142,18 +11110,18 @@
         <v>126</v>
       </c>
       <c r="K460" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="461" spans="4:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="461" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D461" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E461" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F461" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H461" s="5" t="s">
         <v>126</v>
@@ -11165,15 +11133,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="462" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D462" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E462" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F462" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H462" s="3" t="s">
         <v>126</v>
@@ -11185,15 +11153,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="463" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D463" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E463" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F463" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G463" s="5" t="s">
         <v>126</v>
@@ -11205,15 +11173,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="464" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D464" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E464" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F464" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H464" s="3" t="s">
         <v>126</v>
@@ -11222,26 +11190,26 @@
         <v>126</v>
       </c>
     </row>
-    <row r="465" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D465" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E465" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F465" s="3" t="s">
         <v>120</v>
       </c>
       <c r="K465" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="466" spans="4:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="466" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D466" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F466" s="3" t="s">
         <v>120</v>
@@ -11250,26 +11218,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D467" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F467" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="468" spans="4:11" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="468" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D468" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F468" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I468" s="3" t="s">
         <v>126</v>
@@ -11281,29 +11249,29 @@
         <v>128</v>
       </c>
     </row>
-    <row r="469" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D469" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F469" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K469" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="470" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D470" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E470" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F470" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G470" s="3" t="s">
         <v>126</v>
@@ -11312,15 +11280,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="471" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D471" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E471" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F471" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G471" s="5" t="s">
         <v>126</v>
@@ -11329,18 +11297,18 @@
         <v>126</v>
       </c>
       <c r="K471" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="472" spans="4:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="472" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D472" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E472" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F472" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G472" s="3" t="s">
         <v>126</v>
@@ -11352,12 +11320,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="473" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D473" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E473" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F473" s="3" t="s">
         <v>120</v>
@@ -11366,12 +11334,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D474" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E474" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F474" s="3" t="s">
         <v>120</v>
@@ -11380,15 +11348,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="475" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D475" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E475" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F475" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G475" s="5" t="s">
         <v>126</v>
@@ -11400,15 +11368,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D476" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E476" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F476" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H476" s="3" t="s">
         <v>126</v>
@@ -11420,15 +11388,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="477" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D477" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E477" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F477" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H477" s="5" t="s">
         <v>126</v>
@@ -11440,15 +11408,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="478" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D478" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E478" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F478" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G478" s="5" t="s">
         <v>126</v>
@@ -11457,18 +11425,18 @@
         <v>126</v>
       </c>
       <c r="K478" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="479" spans="4:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="479" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D479" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E479" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F479" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G479" s="3" t="s">
         <v>126</v>
@@ -11480,15 +11448,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="480" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D480" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E480" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F480" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G480" s="5" t="s">
         <v>126</v>
@@ -11500,15 +11468,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="481" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D481" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E481" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F481" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G481" s="3" t="s">
         <v>126</v>
@@ -11520,15 +11488,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="482" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D482" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E482" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F482" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G482" s="5" t="s">
         <v>126</v>
@@ -11537,18 +11505,18 @@
         <v>126</v>
       </c>
       <c r="K482" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="483" spans="4:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="483" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D483" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E483" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F483" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I483" s="3" t="s">
         <v>126</v>
@@ -11560,26 +11528,26 @@
         <v>131</v>
       </c>
     </row>
-    <row r="484" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D484" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F484" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="485" spans="4:11" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="485" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D485" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E485" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F485" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G485" s="3" t="s">
         <v>126</v>
@@ -11591,15 +11559,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="486" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D486" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E486" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F486" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G486" s="5" t="s">
         <v>126</v>
@@ -11608,18 +11576,18 @@
         <v>126</v>
       </c>
       <c r="K486" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="487" spans="4:11" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="487" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D487" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E487" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F487" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H487" s="5" t="s">
         <v>126</v>
@@ -11631,15 +11599,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="488" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D488" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E488" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F488" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G488" s="3" t="s">
         <v>126</v>
@@ -11651,15 +11619,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="489" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D489" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E489" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F489" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G489" s="3" t="s">
         <v>126</v>
@@ -11671,15 +11639,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="490" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D490" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E490" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F490" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G490" s="5" t="s">
         <v>126</v>
@@ -11688,12 +11656,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="491" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D491" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E491" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F491" s="3" t="s">
         <v>120</v>
@@ -11702,18 +11670,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="492" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D492" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E492" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F492" s="3" t="s">
         <v>120</v>
       </c>
       <c r="K492" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -11728,28 +11696,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="6" width="11.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="9" style="6"/>
-    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E1" s="10" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -11757,25 +11725,25 @@
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
       <c r="K1" s="11" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="11" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="S1" s="9"/>
       <c r="T1" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>134</v>
       </c>
@@ -11787,28 +11755,28 @@
         <v>136</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>141</v>
       </c>
@@ -11834,7 +11802,7 @@
         <v>152</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>204</v>
@@ -11843,7 +11811,7 @@
         <v>142</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>143</v>
@@ -11867,7 +11835,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>150</v>
       </c>
@@ -11887,7 +11855,7 @@
         <v>183</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>143</v>
@@ -11926,7 +11894,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>159</v>
       </c>
@@ -11952,7 +11920,7 @@
         <v>143</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>175</v>
@@ -11964,7 +11932,7 @@
         <v>162</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>161</v>
@@ -11985,7 +11953,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>166</v>
       </c>
@@ -11999,13 +11967,13 @@
         <v>140</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>183</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>143</v>
@@ -12044,7 +12012,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>173</v>
       </c>
@@ -12058,13 +12026,13 @@
         <v>140</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>182</v>
@@ -12073,7 +12041,7 @@
         <v>144</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>174</v>
@@ -12103,7 +12071,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>180</v>
       </c>
@@ -12123,7 +12091,7 @@
         <v>153</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>270</v>
@@ -12144,7 +12112,7 @@
         <v>182</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O8" s="11" t="s">
         <v>163</v>
@@ -12162,7 +12130,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>186</v>
       </c>
@@ -12203,15 +12171,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>140</v>
@@ -12232,16 +12200,16 @@
         <v>204</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>144</v>
@@ -12256,33 +12224,33 @@
         <v>147</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="S10" s="10" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>485</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>489</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>140</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>183</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>143</v>
@@ -12294,7 +12262,7 @@
         <v>175</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>162</v>
@@ -12318,18 +12286,18 @@
         <v>149</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>140</v>
@@ -12341,7 +12309,7 @@
         <v>153</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>270</v>
@@ -12353,7 +12321,7 @@
         <v>168</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>183</v>
@@ -12380,7 +12348,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>191</v>
       </c>
@@ -12403,7 +12371,7 @@
         <v>167</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M13" s="11" t="s">
         <v>152</v>
@@ -12427,7 +12395,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>191</v>
       </c>
@@ -12453,7 +12421,7 @@
         <v>162</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>204</v>
@@ -12474,12 +12442,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>369</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>373</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>140</v>
@@ -12500,16 +12468,16 @@
         <v>204</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>217</v>
@@ -12530,12 +12498,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>370</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>374</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>140</v>
@@ -12544,13 +12512,13 @@
         <v>153</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>270</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>168</v>
@@ -12559,7 +12527,7 @@
         <v>144</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>176</v>
@@ -12586,12 +12554,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>371</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>375</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>140</v>
@@ -12606,7 +12574,7 @@
         <v>143</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>175</v>
@@ -12615,7 +12583,7 @@
         <v>198</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>271</v>
@@ -12642,12 +12610,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>372</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>376</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>140</v>
@@ -12656,22 +12624,22 @@
         <v>169</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>182</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>144</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L18" s="16" t="s">
         <v>153</v>
@@ -12698,7 +12666,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -12719,7 +12687,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -12740,7 +12708,7 @@
       <c r="R20" s="9"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>141</v>
       </c>
@@ -12778,7 +12746,7 @@
         <v>169</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="N21" s="9" t="s">
         <v>161</v>
@@ -12799,7 +12767,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>196</v>
       </c>
@@ -12813,13 +12781,13 @@
         <v>193</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>162</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>152</v>
@@ -12858,7 +12826,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>150</v>
       </c>
@@ -12872,13 +12840,13 @@
         <v>193</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>153</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>270</v>
@@ -12899,7 +12867,7 @@
         <v>152</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>202</v>
@@ -12917,7 +12885,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>203</v>
       </c>
@@ -12943,7 +12911,7 @@
         <v>270</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>168</v>
@@ -12976,7 +12944,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>166</v>
       </c>
@@ -12996,7 +12964,7 @@
         <v>162</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>152</v>
@@ -13035,7 +13003,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>208</v>
       </c>
@@ -13070,10 +13038,10 @@
         <v>209</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N26" s="9" t="s">
         <v>175</v>
@@ -13094,7 +13062,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>186</v>
       </c>
@@ -13141,7 +13109,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>186</v>
       </c>
@@ -13188,15 +13156,15 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>193</v>
@@ -13211,22 +13179,22 @@
         <v>182</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J29" s="16" t="s">
         <v>198</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L29" s="16" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="N29" s="11" t="s">
         <v>266</v>
@@ -13247,15 +13215,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>193</v>
@@ -13264,13 +13232,13 @@
         <v>183</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>143</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>175</v>
@@ -13279,7 +13247,7 @@
         <v>144</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>169</v>
@@ -13288,7 +13256,7 @@
         <v>182</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O30" s="10" t="s">
         <v>205</v>
@@ -13306,15 +13274,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>193</v>
@@ -13338,13 +13306,13 @@
         <v>168</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L31" s="11" t="s">
         <v>176</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N31" s="9" t="s">
         <v>198</v>
@@ -13365,7 +13333,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>191</v>
       </c>
@@ -13391,10 +13359,10 @@
         <v>169</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O32" s="11" t="s">
         <v>202</v>
@@ -13412,7 +13380,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>191</v>
       </c>
@@ -13459,12 +13427,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>193</v>
@@ -13479,7 +13447,7 @@
         <v>270</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>168</v>
@@ -13488,7 +13456,7 @@
         <v>198</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>265</v>
@@ -13515,12 +13483,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>193</v>
@@ -13529,13 +13497,13 @@
         <v>162</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>152</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>204</v>
@@ -13544,7 +13512,7 @@
         <v>144</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>169</v>
@@ -13553,7 +13521,7 @@
         <v>270</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O35" s="10" t="s">
         <v>145</v>
@@ -13571,12 +13539,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>193</v>
@@ -13597,16 +13565,16 @@
         <v>168</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>183</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="N36" s="11" t="s">
         <v>204</v>
@@ -13627,12 +13595,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>193</v>
@@ -13644,7 +13612,7 @@
         <v>162</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>152</v>
@@ -13656,10 +13624,10 @@
         <v>204</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L37" s="16" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M37" s="17" t="s">
         <v>278</v>
@@ -13683,7 +13651,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
@@ -13704,7 +13672,7 @@
       <c r="R38" s="9"/>
       <c r="S38" s="10"/>
     </row>
-    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
@@ -13725,7 +13693,7 @@
       <c r="R39" s="9"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>196</v>
       </c>
@@ -13745,7 +13713,7 @@
         <v>169</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>182</v>
@@ -13754,7 +13722,7 @@
         <v>198</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>216</v>
@@ -13763,7 +13731,7 @@
         <v>153</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="N40" s="9" t="s">
         <v>188</v>
@@ -13784,7 +13752,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>203</v>
       </c>
@@ -13804,7 +13772,7 @@
         <v>183</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>143</v>
@@ -13819,7 +13787,7 @@
         <v>174</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M41" s="11" t="s">
         <v>182</v>
@@ -13843,7 +13811,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>173</v>
       </c>
@@ -13869,7 +13837,7 @@
         <v>270</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>168</v>
@@ -13881,7 +13849,7 @@
         <v>183</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N42" s="9" t="s">
         <v>144</v>
@@ -13902,7 +13870,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>180</v>
       </c>
@@ -13916,13 +13884,13 @@
         <v>215</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>162</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>152</v>
@@ -13961,7 +13929,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>208</v>
       </c>
@@ -13975,16 +13943,16 @@
         <v>215</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>176</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>144</v>
@@ -14020,7 +13988,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>220</v>
       </c>
@@ -14058,7 +14026,7 @@
         <v>176</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="N45" s="9" t="s">
         <v>198</v>
@@ -14079,7 +14047,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>186</v>
       </c>
@@ -14105,7 +14073,7 @@
         <v>169</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N46" s="9" t="s">
         <v>219</v>
@@ -14126,7 +14094,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>186</v>
       </c>
@@ -14173,15 +14141,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>215</v>
@@ -14205,7 +14173,7 @@
         <v>175</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L48" s="11" t="s">
         <v>162</v>
@@ -14232,15 +14200,15 @@
         <v>284</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>215</v>
@@ -14252,7 +14220,7 @@
         <v>162</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>152</v>
@@ -14264,7 +14232,7 @@
         <v>204</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L49" s="9" t="s">
         <v>286</v>
@@ -14285,33 +14253,33 @@
         <v>221</v>
       </c>
       <c r="R49" s="9" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="S49" s="10" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>215</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>182</v>
@@ -14320,10 +14288,10 @@
         <v>144</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L50" s="9" t="s">
         <v>285</v>
@@ -14350,7 +14318,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>191</v>
       </c>
@@ -14397,12 +14365,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>215</v>
@@ -14417,22 +14385,22 @@
         <v>182</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J52" s="16" t="s">
         <v>198</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L52" s="9" t="s">
         <v>286</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="N52" s="11" t="s">
         <v>175</v>
@@ -14453,12 +14421,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>215</v>
@@ -14482,13 +14450,13 @@
         <v>168</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L53" s="9" t="s">
         <v>162</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="N53" s="11" t="s">
         <v>204</v>
@@ -14509,12 +14477,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>215</v>
@@ -14523,13 +14491,13 @@
         <v>162</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>152</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>204</v>
@@ -14538,7 +14506,7 @@
         <v>144</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>153</v>
@@ -14547,7 +14515,7 @@
         <v>143</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O54" s="10" t="s">
         <v>163</v>
@@ -14565,12 +14533,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>215</v>
@@ -14579,13 +14547,13 @@
         <v>183</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>143</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>175</v>
@@ -14594,7 +14562,7 @@
         <v>144</v>
       </c>
       <c r="K55" s="17" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L55" s="16" t="s">
         <v>272</v>
@@ -14621,7 +14589,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="K61" s="9"/>
     </row>
   </sheetData>
@@ -14670,7 +14638,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14682,20 +14650,20 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="6" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>134</v>
       </c>
@@ -14728,7 +14696,7 @@
       </c>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>141</v>
       </c>
@@ -14751,7 +14719,7 @@
         <v>344</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>145</v>
@@ -14769,7 +14737,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>150</v>
       </c>
@@ -14792,7 +14760,7 @@
         <v>345</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>154</v>
@@ -14810,7 +14778,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>159</v>
       </c>
@@ -14827,7 +14795,7 @@
         <v>160</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>346</v>
@@ -14851,7 +14819,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>166</v>
       </c>
@@ -14892,7 +14860,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>173</v>
       </c>
@@ -14933,7 +14901,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>180</v>
       </c>
@@ -14953,7 +14921,7 @@
         <v>343</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>351</v>
@@ -14974,7 +14942,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>186</v>
       </c>
@@ -14991,7 +14959,7 @@
         <v>187</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>348</v>
@@ -15015,7 +14983,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>191</v>
       </c>
@@ -15038,7 +15006,7 @@
         <v>345</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>146</v>
@@ -15056,24 +15024,24 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>191</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>140</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>347</v>
@@ -15097,18 +15065,18 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>395</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>399</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>140</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>339</v>
@@ -15135,18 +15103,18 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>396</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>400</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>140</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>342</v>
@@ -15173,18 +15141,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>397</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>401</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>140</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>341</v>
@@ -15193,7 +15161,7 @@
         <v>348</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>171</v>
@@ -15211,18 +15179,18 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>398</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>402</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>140</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>340</v>
@@ -15231,7 +15199,7 @@
         <v>344</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>192</v>
@@ -15249,7 +15217,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -15264,7 +15232,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -15279,7 +15247,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>141</v>
       </c>
@@ -15320,7 +15288,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>196</v>
       </c>
@@ -15343,7 +15311,7 @@
         <v>348</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>184</v>
@@ -15361,7 +15329,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>150</v>
       </c>
@@ -15402,7 +15370,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>203</v>
       </c>
@@ -15419,7 +15387,7 @@
         <v>142</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>344</v>
@@ -15443,7 +15411,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>166</v>
       </c>
@@ -15463,7 +15431,7 @@
         <v>340</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>350</v>
@@ -15484,7 +15452,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>208</v>
       </c>
@@ -15525,7 +15493,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>186</v>
       </c>
@@ -15566,7 +15534,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>186</v>
       </c>
@@ -15586,10 +15554,10 @@
         <v>342</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>163</v>
@@ -15607,21 +15575,21 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>191</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>193</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>341</v>
@@ -15648,7 +15616,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>191</v>
       </c>
@@ -15689,27 +15657,27 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>193</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>205</v>
@@ -15727,18 +15695,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>193</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>341</v>
@@ -15765,18 +15733,18 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>193</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>343</v>
@@ -15803,18 +15771,18 @@
         <v>172</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>193</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>339</v>
@@ -15841,7 +15809,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
@@ -15856,7 +15824,7 @@
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
@@ -15871,7 +15839,7 @@
       <c r="L32" s="9"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>196</v>
       </c>
@@ -15912,7 +15880,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>203</v>
       </c>
@@ -15932,7 +15900,7 @@
         <v>339</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>350</v>
@@ -15953,7 +15921,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>173</v>
       </c>
@@ -15976,7 +15944,7 @@
         <v>346</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I35" s="11" t="s">
         <v>171</v>
@@ -15994,7 +15962,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>180</v>
       </c>
@@ -16017,7 +15985,7 @@
         <v>344</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>146</v>
@@ -16035,7 +16003,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>208</v>
       </c>
@@ -16052,7 +16020,7 @@
         <v>218</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>348</v>
@@ -16076,7 +16044,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>220</v>
       </c>
@@ -16099,7 +16067,7 @@
         <v>347</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>189</v>
@@ -16117,7 +16085,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>186</v>
       </c>
@@ -16158,7 +16126,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>186</v>
       </c>
@@ -16199,7 +16167,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>191</v>
       </c>
@@ -16222,7 +16190,7 @@
         <v>348</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="I41" s="11" t="s">
         <v>202</v>
@@ -16240,18 +16208,18 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>215</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>343</v>
@@ -16278,21 +16246,21 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>215</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>346</v>
@@ -16316,18 +16284,18 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>215</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>340</v>
@@ -16354,24 +16322,24 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>215</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F45" s="16" t="s">
         <v>342</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H45" s="16" t="s">
         <v>350</v>
@@ -16392,13 +16360,13 @@
         <v>284</v>
       </c>
     </row>
-    <row r="49" spans="5:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="5:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="5:5" ht="15" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E51" s="10"/>
     </row>
   </sheetData>
@@ -16411,36 +16379,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="M1" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
         <v>262</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -16459,26 +16427,26 @@
       <c r="G2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="M2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="28"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -16497,26 +16465,26 @@
       <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="M3" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
+      <c r="M3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
       <c r="P3" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
       <c r="B4" t="s">
         <v>58</v>
       </c>
@@ -16551,8 +16519,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="28"/>
       <c r="B5" s="3" t="s">
         <v>306</v>
       </c>
@@ -16587,8 +16555,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="28"/>
       <c r="B6" t="s">
         <v>60</v>
       </c>
@@ -16623,8 +16591,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="28"/>
       <c r="B7" s="3" t="s">
         <v>308</v>
       </c>
@@ -16659,8 +16627,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="28"/>
       <c r="B8" s="3" t="s">
         <v>328</v>
       </c>
@@ -16681,8 +16649,8 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="28"/>
       <c r="B9" s="3" t="s">
         <v>309</v>
       </c>
@@ -16701,26 +16669,26 @@
       <c r="G9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="25" t="s">
         <v>241</v>
       </c>
       <c r="M9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="28"/>
       <c r="B10" t="s">
         <v>72</v>
       </c>
@@ -16755,8 +16723,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="28"/>
       <c r="B11" t="s">
         <v>72</v>
       </c>
@@ -16791,8 +16759,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>86</v>
       </c>
@@ -16812,13 +16780,13 @@
         <v>126</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>126</v>
@@ -16827,8 +16795,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="28"/>
       <c r="B13" s="3" t="s">
         <v>232</v>
       </c>
@@ -16848,13 +16816,13 @@
         <v>126</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>126</v>
@@ -16863,8 +16831,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="28"/>
       <c r="B14" s="3" t="s">
         <v>249</v>
       </c>
@@ -16883,26 +16851,26 @@
       <c r="G14" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="J14" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>473</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>453</v>
+      <c r="J14" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>449</v>
       </c>
       <c r="M14" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="28"/>
       <c r="B15" s="3" t="s">
         <v>256</v>
       </c>
@@ -16921,20 +16889,20 @@
       <c r="G15" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="29" t="s">
+      <c r="L15" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M15" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="J16" s="3"/>
@@ -16942,7 +16910,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:13" x14ac:dyDescent="0.15">
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="J17" s="3"/>
@@ -16950,7 +16918,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.15">
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="J18" s="3"/>
@@ -16958,7 +16926,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.15">
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="J19" s="3"/>
@@ -16966,351 +16934,18 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.15">
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:13" x14ac:dyDescent="0.15">
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>354</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>3